--- a/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
+++ b/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A23078-489C-46EE-AD3A-2F7E0A037386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187EFEF6-C642-40F4-A792-B8A8A0FB4D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="30" windowWidth="38620" windowHeight="21220" xr2:uid="{9C64985F-4ADF-44CE-9572-0998CB538CFF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9C64985F-4ADF-44CE-9572-0998CB538CFF}"/>
   </bookViews>
   <sheets>
     <sheet name="루시 카드" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="404">
   <si>
     <t>건물</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -693,18 +693,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>체력 2, 공격력 1의 촌충 소환, 기생충은 턴 종료 시 -1의 체력 저하</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력 6, 공격력 3의 고래회충 소환, 기생충은 턴 종료 시 -1의 체력 저하</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">체력 8, 공격력 1의 아메바성 뇌염 소환, </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>만복도 -20, 구토 스킬 사용
 * 구토 스킬 사용 시, 만복도에 따라 카드 한장을 랜덤하게 뱉어냄. 만복도가 높을 수록 등급이 높은 카드가 나올 확률이 증가함</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1735,6 +1723,23 @@
   </si>
   <si>
     <t>Summon_DrawDeck_Select 타입 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 5, 공격력 1의 촌충 소환, 기생충은 턴 종료 시 -1의 체력 저하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 8, 공격력 3의 고래회충 소환, 기생충은 턴 종료 시 -1의 체력 저하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마나 3
+현재 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 6, 공격력 1의 아메바성 뇌염 소환, 기생충은 턴 종료 시 -1의 체력 저하</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1786,7 +1791,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1807,7 +1812,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2360,7 +2371,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2433,145 +2444,157 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2910,26 +2933,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E337946-5511-4AD1-8A21-3FB7BE6153D1}">
   <dimension ref="B1:K88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.5" style="14" customWidth="1"/>
-    <col min="2" max="2" width="5.08203125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="14.08203125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="5.125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="16" customWidth="1"/>
     <col min="4" max="4" width="11.75" style="16" customWidth="1"/>
     <col min="5" max="5" width="17.25" style="16" customWidth="1"/>
     <col min="6" max="7" width="11.75" style="16" customWidth="1"/>
     <col min="8" max="8" width="65.5" style="15" customWidth="1"/>
     <col min="9" max="9" width="33" style="14" customWidth="1"/>
     <col min="10" max="10" width="58.75" style="14" customWidth="1"/>
-    <col min="11" max="11" width="26.6640625" style="14" customWidth="1"/>
+    <col min="11" max="11" width="26.625" style="14" customWidth="1"/>
     <col min="12" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C1" s="16" t="s">
         <v>142</v>
       </c>
@@ -2947,33 +2970,33 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="131.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="30" t="s">
+    <row r="2" spans="2:10" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-    </row>
-    <row r="3" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="4" spans="2:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="27" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+    </row>
+    <row r="3" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="29"/>
-    </row>
-    <row r="5" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="26"/>
+    </row>
+    <row r="5" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="17" t="s">
         <v>113</v>
       </c>
@@ -2987,7 +3010,7 @@
         <v>141</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>119</v>
@@ -3002,7 +3025,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="2:10" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="21">
         <v>1</v>
       </c>
@@ -3029,7 +3052,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="2:10" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="21">
         <v>2</v>
       </c>
@@ -3056,7 +3079,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="2:10" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="21">
         <v>3</v>
       </c>
@@ -3077,13 +3100,13 @@
         <v>148</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J8" s="23" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="2:10" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="21">
         <v>4</v>
       </c>
@@ -3110,7 +3133,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="2:10" s="23" customFormat="1" ht="34" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="B10" s="21">
         <v>5</v>
       </c>
@@ -3131,13 +3154,13 @@
         <v>131</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="J10" s="23" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="2:10" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="21">
         <v>6</v>
       </c>
@@ -3151,7 +3174,7 @@
         <v>133</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G11" s="21" t="s">
         <v>124</v>
@@ -3166,7 +3189,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="2:10" s="23" customFormat="1" ht="34" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="B12" s="21">
         <v>7</v>
       </c>
@@ -3180,19 +3203,19 @@
         <v>120</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G12" s="21" t="s">
         <v>124</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" s="23" customFormat="1" ht="34" x14ac:dyDescent="0.45">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="B13" s="21">
         <v>8</v>
       </c>
@@ -3206,729 +3229,729 @@
         <v>120</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G13" s="21" t="s">
         <v>124</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J13" s="23" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" s="68" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="69">
+        <v>9</v>
+      </c>
+      <c r="C14" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="H14" s="70" t="s">
+        <v>160</v>
+      </c>
+      <c r="J14" s="68" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" s="68" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="69">
+        <v>10</v>
+      </c>
+      <c r="C15" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="H15" s="70" t="s">
+        <v>400</v>
+      </c>
+      <c r="J15" s="68" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" s="68" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="69">
+        <v>11</v>
+      </c>
+      <c r="C16" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16" s="70" t="s">
+        <v>401</v>
+      </c>
+      <c r="J16" s="68" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="2:10" s="23" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="21">
-        <v>9</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="D14" s="21" t="s">
+    <row r="17" spans="2:11" s="68" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B17" s="69">
+        <v>12</v>
+      </c>
+      <c r="C17" s="69" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" s="69"/>
+      <c r="G17" s="74" t="s">
+        <v>402</v>
+      </c>
+      <c r="H17" s="70" t="s">
+        <v>403</v>
+      </c>
+      <c r="J17" s="68" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" s="71" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B18" s="72">
+        <v>13</v>
+      </c>
+      <c r="C18" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="72" t="s">
+        <v>273</v>
+      </c>
+      <c r="G18" s="72" t="s">
+        <v>144</v>
+      </c>
+      <c r="H18" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="J18" s="71" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" s="71" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B19" s="72">
+        <v>14</v>
+      </c>
+      <c r="C19" s="72" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="72" t="s">
+        <v>273</v>
+      </c>
+      <c r="G19" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19" s="73" t="s">
+        <v>159</v>
+      </c>
+      <c r="J19" s="71" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" s="71" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B20" s="72">
+        <v>15</v>
+      </c>
+      <c r="C20" s="72" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E20" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="72" t="s">
+        <v>273</v>
+      </c>
+      <c r="G20" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="H20" s="73" t="s">
+        <v>162</v>
+      </c>
+      <c r="J20" s="71" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B21" s="72">
+        <v>16</v>
+      </c>
+      <c r="C21" s="72" t="s">
+        <v>163</v>
+      </c>
+      <c r="D21" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="72" t="s">
+        <v>274</v>
+      </c>
+      <c r="G21" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="H21" s="73" t="s">
+        <v>390</v>
+      </c>
+      <c r="J21" s="71" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B22" s="72">
+        <v>17</v>
+      </c>
+      <c r="C22" s="72" t="s">
+        <v>164</v>
+      </c>
+      <c r="D22" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="72" t="s">
+        <v>274</v>
+      </c>
+      <c r="G22" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="H22" s="73" t="s">
+        <v>165</v>
+      </c>
+      <c r="J22" s="71" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B23" s="72">
+        <v>18</v>
+      </c>
+      <c r="C23" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="72" t="s">
+        <v>274</v>
+      </c>
+      <c r="G23" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="H23" s="73" t="s">
+        <v>167</v>
+      </c>
+      <c r="J23" s="71" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" s="71" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B24" s="72">
+        <v>19</v>
+      </c>
+      <c r="C24" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" s="72" t="s">
+        <v>274</v>
+      </c>
+      <c r="G24" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="H24" s="73" t="s">
+        <v>275</v>
+      </c>
+      <c r="J24" s="71" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" s="71" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B25" s="72">
+        <v>20</v>
+      </c>
+      <c r="C25" s="72" t="s">
+        <v>169</v>
+      </c>
+      <c r="D25" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="H25" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="J25" s="71" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="72">
+        <v>21</v>
+      </c>
+      <c r="C26" s="72" t="s">
+        <v>179</v>
+      </c>
+      <c r="D26" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="72" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72" t="s">
+        <v>144</v>
+      </c>
+      <c r="H26" s="73" t="s">
+        <v>171</v>
+      </c>
+      <c r="J26" s="71" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="72">
+        <v>22</v>
+      </c>
+      <c r="C27" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="D27" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="72" t="s">
+        <v>178</v>
+      </c>
+      <c r="F27" s="72" t="s">
+        <v>271</v>
+      </c>
+      <c r="G27" s="72" t="s">
+        <v>144</v>
+      </c>
+      <c r="H27" s="73" t="s">
+        <v>172</v>
+      </c>
+      <c r="J27" s="71" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="72">
+        <v>23</v>
+      </c>
+      <c r="C28" s="72" t="s">
+        <v>235</v>
+      </c>
+      <c r="D28" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="H28" s="73" t="s">
+        <v>175</v>
+      </c>
+      <c r="I28" s="71" t="s">
+        <v>174</v>
+      </c>
+      <c r="J28" s="71" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" s="71" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B29" s="72">
+        <v>24</v>
+      </c>
+      <c r="C29" s="72" t="s">
+        <v>176</v>
+      </c>
+      <c r="D29" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" s="72" t="s">
+        <v>178</v>
+      </c>
+      <c r="F29" s="72" t="s">
+        <v>274</v>
+      </c>
+      <c r="G29" s="72" t="s">
+        <v>144</v>
+      </c>
+      <c r="H29" s="73" t="s">
+        <v>234</v>
+      </c>
+      <c r="J29" s="71" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" s="71" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B30" s="72">
+        <v>25</v>
+      </c>
+      <c r="C30" s="72" t="s">
+        <v>177</v>
+      </c>
+      <c r="D30" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="72" t="s">
+        <v>178</v>
+      </c>
+      <c r="F30" s="72" t="s">
+        <v>274</v>
+      </c>
+      <c r="G30" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="H30" s="73" t="s">
+        <v>233</v>
+      </c>
+      <c r="I30" s="71" t="s">
+        <v>391</v>
+      </c>
+      <c r="J30" s="71" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" s="71" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B31" s="72">
+        <v>26</v>
+      </c>
+      <c r="C31" s="72" t="s">
+        <v>181</v>
+      </c>
+      <c r="D31" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" s="72" t="s">
+        <v>178</v>
+      </c>
+      <c r="F31" s="72" t="s">
+        <v>271</v>
+      </c>
+      <c r="G31" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="H31" s="73" t="s">
+        <v>182</v>
+      </c>
+      <c r="I31" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="J31" s="71" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" s="71" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B32" s="72">
+        <v>27</v>
+      </c>
+      <c r="C32" s="72" t="s">
+        <v>184</v>
+      </c>
+      <c r="D32" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="H32" s="73" t="s">
+        <v>185</v>
+      </c>
+      <c r="J32" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="K32" s="71" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" s="71" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B33" s="72">
+        <v>28</v>
+      </c>
+      <c r="C33" s="72" t="s">
+        <v>186</v>
+      </c>
+      <c r="D33" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" s="72" t="s">
+        <v>274</v>
+      </c>
+      <c r="G33" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="H33" s="73" t="s">
+        <v>276</v>
+      </c>
+      <c r="J33" s="71" t="s">
+        <v>317</v>
+      </c>
+      <c r="K33" s="71" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="72">
+        <v>29</v>
+      </c>
+      <c r="C34" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="D34" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="F34" s="72" t="s">
+        <v>273</v>
+      </c>
+      <c r="G34" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="H34" s="73" t="s">
+        <v>188</v>
+      </c>
+      <c r="J34" s="71" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="72">
+        <v>30</v>
+      </c>
+      <c r="C35" s="72" t="s">
+        <v>392</v>
+      </c>
+      <c r="D35" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" s="72" t="s">
+        <v>178</v>
+      </c>
+      <c r="F35" s="72" t="s">
+        <v>271</v>
+      </c>
+      <c r="G35" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="H35" s="73" t="s">
+        <v>189</v>
+      </c>
+      <c r="J35" s="71" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="72">
+        <v>31</v>
+      </c>
+      <c r="C36" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="D36" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21" t="s">
+      <c r="F36" s="72"/>
+      <c r="G36" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="H36" s="73" t="s">
+        <v>393</v>
+      </c>
+      <c r="J36" s="71" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B37" s="72">
+        <v>32</v>
+      </c>
+      <c r="C37" s="72" t="s">
+        <v>191</v>
+      </c>
+      <c r="D37" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" s="72" t="s">
+        <v>270</v>
+      </c>
+      <c r="G37" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="H14" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="J14" s="23" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" s="23" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="21">
-        <v>10</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" s="21" t="s">
+      <c r="H37" s="73" t="s">
+        <v>397</v>
+      </c>
+      <c r="J37" s="71" t="s">
+        <v>321</v>
+      </c>
+      <c r="K37" s="71" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" s="71" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B38" s="72">
+        <v>33</v>
+      </c>
+      <c r="C38" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="D38" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="J15" s="23" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" s="23" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="21">
-        <v>11</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="D16" s="21" t="s">
+      <c r="F38" s="72" t="s">
+        <v>270</v>
+      </c>
+      <c r="G38" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="H38" s="73" t="s">
+        <v>230</v>
+      </c>
+      <c r="J38" s="71" t="s">
+        <v>322</v>
+      </c>
+      <c r="K38" s="71" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" s="71" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B39" s="72">
+        <v>34</v>
+      </c>
+      <c r="C39" s="72" t="s">
+        <v>193</v>
+      </c>
+      <c r="D39" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="E16" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="J16" s="23" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="21">
-        <v>12</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="J17" s="23" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" s="23" customFormat="1" ht="51" x14ac:dyDescent="0.45">
-      <c r="B18" s="21">
-        <v>13</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="E18" s="21" t="s">
+      <c r="E39" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="J18" s="23" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" s="23" customFormat="1" ht="34" x14ac:dyDescent="0.45">
-      <c r="B19" s="21">
-        <v>14</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="G19" s="21" t="s">
+      <c r="F39" s="72" t="s">
+        <v>273</v>
+      </c>
+      <c r="G39" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="H19" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="J19" s="23" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" s="23" customFormat="1" ht="34" x14ac:dyDescent="0.45">
-      <c r="B20" s="21">
-        <v>15</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="J20" s="23" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" s="23" customFormat="1" ht="68" x14ac:dyDescent="0.45">
-      <c r="B21" s="21">
-        <v>16</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>393</v>
-      </c>
-      <c r="J21" s="23" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" s="23" customFormat="1" ht="68" x14ac:dyDescent="0.45">
-      <c r="B22" s="21">
-        <v>17</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="J22" s="23" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" s="23" customFormat="1" ht="68" x14ac:dyDescent="0.45">
-      <c r="B23" s="21">
-        <v>18</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="J23" s="23" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" s="23" customFormat="1" ht="51" x14ac:dyDescent="0.45">
-      <c r="B24" s="21">
-        <v>19</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="H24" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="J24" s="23" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" s="23" customFormat="1" ht="34" x14ac:dyDescent="0.45">
-      <c r="B25" s="21">
-        <v>20</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="H25" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="J25" s="23" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="21">
-        <v>21</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="H26" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="J26" s="23" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="21">
-        <v>22</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="H27" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="J27" s="23" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="21">
-        <v>23</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="H28" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="I28" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="J28" s="23" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" s="23" customFormat="1" ht="34" x14ac:dyDescent="0.45">
-      <c r="B29" s="21">
-        <v>24</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="H29" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="J29" s="23" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" s="23" customFormat="1" ht="51" x14ac:dyDescent="0.45">
-      <c r="B30" s="21">
-        <v>25</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="H30" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="I30" s="23" t="s">
-        <v>394</v>
-      </c>
-      <c r="J30" s="23" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" s="23" customFormat="1" ht="34" x14ac:dyDescent="0.45">
-      <c r="B31" s="21">
-        <v>26</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="H31" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="I31" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="J31" s="23" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" s="26" customFormat="1" ht="34" x14ac:dyDescent="0.45">
-      <c r="B32" s="24">
-        <v>27</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="H32" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="J32" s="26" t="s">
-        <v>319</v>
-      </c>
-      <c r="K32" s="26" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" s="26" customFormat="1" ht="34" x14ac:dyDescent="0.45">
-      <c r="B33" s="24">
-        <v>28</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="F33" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="G33" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="H33" s="25" t="s">
-        <v>279</v>
-      </c>
-      <c r="J33" s="26" t="s">
-        <v>320</v>
-      </c>
-      <c r="K33" s="26" t="s">
+      <c r="H39" s="73" t="s">
+        <v>194</v>
+      </c>
+      <c r="J39" s="71" t="s">
+        <v>323</v>
+      </c>
+      <c r="K39" s="71" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="34" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="21">
-        <v>29</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="F34" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="G34" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="H34" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="J34" s="23" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="21">
-        <v>30</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="F35" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="H35" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="J35" s="23" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="21">
-        <v>31</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="H36" s="22" t="s">
-        <v>396</v>
-      </c>
-      <c r="J36" s="23" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" s="26" customFormat="1" ht="68" x14ac:dyDescent="0.45">
-      <c r="B37" s="24">
-        <v>32</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="D37" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="F37" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="G37" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="H37" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="J37" s="26" t="s">
-        <v>324</v>
-      </c>
-      <c r="K37" s="26" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" s="26" customFormat="1" ht="34" x14ac:dyDescent="0.45">
-      <c r="B38" s="24">
-        <v>33</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E38" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="F38" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="G38" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="H38" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="J38" s="26" t="s">
-        <v>325</v>
-      </c>
-      <c r="K38" s="26" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" s="26" customFormat="1" ht="34" x14ac:dyDescent="0.45">
-      <c r="B39" s="24">
-        <v>34</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="F39" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="G39" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="H39" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="J39" s="26" t="s">
-        <v>326</v>
-      </c>
-      <c r="K39" s="26" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:11" ht="33" x14ac:dyDescent="0.3">
       <c r="B40" s="16">
         <v>35</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>102</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G40" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J40" s="14" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" ht="85" x14ac:dyDescent="0.45">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B41" s="16">
         <v>36</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>103</v>
@@ -3937,47 +3960,47 @@
         <v>123</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G41" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="J41" s="14" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" ht="34" x14ac:dyDescent="0.45">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="33" x14ac:dyDescent="0.3">
       <c r="B42" s="16">
         <v>37</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>103</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G42" s="16" t="s">
         <v>144</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J42" s="14" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.45">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B43" s="16">
         <v>38</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>102</v>
@@ -3989,18 +4012,18 @@
         <v>130</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J43" s="14" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.45">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B44" s="16">
         <v>39</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D44" s="16" t="s">
         <v>102</v>
@@ -4012,18 +4035,18 @@
         <v>130</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="J44" s="14" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.45">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B45" s="16">
         <v>40</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D45" s="16" t="s">
         <v>102</v>
@@ -4032,24 +4055,24 @@
         <v>120</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G45" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.45">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B46" s="16">
         <v>41</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D46" s="16" t="s">
         <v>102</v>
@@ -4058,24 +4081,24 @@
         <v>120</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G46" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.45">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B47" s="16">
         <v>42</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D47" s="16" t="s">
         <v>102</v>
@@ -4084,24 +4107,24 @@
         <v>120</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G47" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J47" s="14" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.45">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B48" s="16">
         <v>43</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>103</v>
@@ -4110,24 +4133,24 @@
         <v>120</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G48" s="16" t="s">
         <v>156</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J48" s="14" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" ht="34" x14ac:dyDescent="0.45">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B49" s="16">
         <v>44</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D49" s="16" t="s">
         <v>102</v>
@@ -4139,122 +4162,122 @@
         <v>124</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J49" s="14" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.45">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B50" s="16">
         <v>45</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D50" s="16" t="s">
         <v>102</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G50" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J50" s="14" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.45">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B51" s="16">
         <v>46</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D51" s="16" t="s">
         <v>101</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G51" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J51" s="14" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.45">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B52" s="16">
         <v>47</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D52" s="16" t="s">
         <v>101</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G52" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="J52" s="14" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.45">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B53" s="16">
         <v>48</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D53" s="16" t="s">
         <v>102</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G53" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J53" s="14" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" ht="51" x14ac:dyDescent="0.45">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B54" s="16">
         <v>49</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D54" s="16" t="s">
         <v>103</v>
@@ -4266,18 +4289,18 @@
         <v>156</v>
       </c>
       <c r="H54" s="15" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="J54" s="14" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.45">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B55" s="16">
         <v>50</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D55" s="16" t="s">
         <v>102</v>
@@ -4289,18 +4312,18 @@
         <v>124</v>
       </c>
       <c r="H55" s="15" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" ht="34" x14ac:dyDescent="0.45">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B56" s="16">
         <v>51</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D56" s="16" t="s">
         <v>103</v>
@@ -4312,73 +4335,73 @@
         <v>156</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J56" s="14" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.45">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B57" s="16">
         <v>52</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D57" s="16" t="s">
         <v>102</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G57" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H57" s="15" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J57" s="14" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" ht="34" x14ac:dyDescent="0.45">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B58" s="16">
         <v>53</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D58" s="16" t="s">
         <v>102</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G58" s="16" t="s">
         <v>144</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="J58" s="14" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" ht="51" x14ac:dyDescent="0.45">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B59" s="16">
         <v>54</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D59" s="16" t="s">
         <v>103</v>
@@ -4390,18 +4413,18 @@
         <v>130</v>
       </c>
       <c r="H59" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="J59" s="14" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" ht="34" x14ac:dyDescent="0.45">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B60" s="16">
         <v>55</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D60" s="16" t="s">
         <v>102</v>
@@ -4413,18 +4436,18 @@
         <v>130</v>
       </c>
       <c r="H60" s="15" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="J60" s="14" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" ht="34" x14ac:dyDescent="0.45">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B61" s="16">
         <v>56</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D61" s="16" t="s">
         <v>101</v>
@@ -4436,18 +4459,18 @@
         <v>124</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J61" s="14" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.45">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B62" s="16">
         <v>57</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D62" s="16" t="s">
         <v>101</v>
@@ -4459,18 +4482,18 @@
         <v>124</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J62" s="14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.45">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B63" s="16">
         <v>58</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D63" s="16" t="s">
         <v>102</v>
@@ -4482,18 +4505,18 @@
         <v>124</v>
       </c>
       <c r="H63" s="15" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="J63" s="14" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" ht="34" x14ac:dyDescent="0.45">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B64" s="16">
         <v>59</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D64" s="16" t="s">
         <v>102</v>
@@ -4502,21 +4525,21 @@
         <v>123</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H64" s="15" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J64" s="14" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" ht="34" x14ac:dyDescent="0.45">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B65" s="16">
         <v>60</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D65" s="16" t="s">
         <v>103</v>
@@ -4528,18 +4551,18 @@
         <v>144</v>
       </c>
       <c r="H65" s="15" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="J65" s="14" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" ht="51" x14ac:dyDescent="0.45">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B66" s="16">
         <v>61</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D66" s="16" t="s">
         <v>102</v>
@@ -4551,18 +4574,18 @@
         <v>130</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="J66" s="14" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" ht="51" x14ac:dyDescent="0.45">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B67" s="16">
         <v>62</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D67" s="16" t="s">
         <v>103</v>
@@ -4574,18 +4597,18 @@
         <v>130</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J67" s="14" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10" ht="34" x14ac:dyDescent="0.45">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B68" s="16">
         <v>63</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D68" s="16" t="s">
         <v>102</v>
@@ -4597,41 +4620,41 @@
         <v>124</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J68" s="14" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10" ht="34" x14ac:dyDescent="0.45">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B69" s="16">
         <v>64</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D69" s="16" t="s">
         <v>102</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G69" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="J69" s="14" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" ht="34" x14ac:dyDescent="0.45">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B70" s="16">
         <v>65</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D70" s="16" t="s">
         <v>102</v>
@@ -4640,24 +4663,24 @@
         <v>123</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G70" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H70" s="15" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="J70" s="14" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.45">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B71" s="16">
         <v>66</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D71" s="16" t="s">
         <v>102</v>
@@ -4666,24 +4689,24 @@
         <v>123</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G71" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="J71" s="14" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.45">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B72" s="16">
         <v>67</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D72" s="16" t="s">
         <v>101</v>
@@ -4692,76 +4715,76 @@
         <v>123</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G72" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H72" s="15" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="J72" s="14" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.45">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B73" s="16">
         <v>68</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D73" s="16" t="s">
         <v>101</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G73" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H73" s="15" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J73" s="14" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.45">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B74" s="16">
         <v>69</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D74" s="16" t="s">
         <v>102</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G74" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="J74" s="14" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="75" spans="2:10" ht="51" x14ac:dyDescent="0.45">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B75" s="16">
         <v>70</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D75" s="16" t="s">
         <v>103</v>
@@ -4770,24 +4793,24 @@
         <v>123</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G75" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J75" s="14" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="76" spans="2:10" ht="68" x14ac:dyDescent="0.45">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" ht="66" x14ac:dyDescent="0.3">
       <c r="B76" s="16">
         <v>71</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D76" s="16" t="s">
         <v>103</v>
@@ -4799,18 +4822,18 @@
         <v>156</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J76" s="14" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.45">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B77" s="16">
         <v>72</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D77" s="16" t="s">
         <v>101</v>
@@ -4819,24 +4842,24 @@
         <v>123</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G77" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J77" s="14" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.45">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B78" s="16">
         <v>73</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D78" s="16" t="s">
         <v>102</v>
@@ -4845,76 +4868,76 @@
         <v>123</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G78" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J78" s="14" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.45">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B79" s="16">
         <v>74</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D79" s="16" t="s">
         <v>101</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G79" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J79" s="14" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="80" spans="2:10" ht="34" x14ac:dyDescent="0.45">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B80" s="16">
         <v>75</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D80" s="16" t="s">
         <v>102</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G80" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="J80" s="14" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="81" spans="2:10" ht="34" x14ac:dyDescent="0.45">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B81" s="16">
         <v>76</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D81" s="16" t="s">
         <v>102</v>
@@ -4923,139 +4946,139 @@
         <v>120</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G81" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="J81" s="14" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="82" spans="2:10" ht="34" x14ac:dyDescent="0.45">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B82" s="16">
         <v>77</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D82" s="16" t="s">
         <v>101</v>
       </c>
       <c r="E82" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="G82" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="H82" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="G82" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="H82" s="15" t="s">
-        <v>248</v>
-      </c>
       <c r="J82" s="14" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="83" spans="2:10" ht="34" x14ac:dyDescent="0.45">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B83" s="16">
         <v>78</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D83" s="16" t="s">
         <v>102</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F83" s="16" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G83" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="H83" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="H83" s="15" t="s">
-        <v>249</v>
-      </c>
       <c r="J83" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="84" spans="2:10" ht="34" x14ac:dyDescent="0.45">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B84" s="16">
         <v>79</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D84" s="16" t="s">
         <v>102</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H84" s="15" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="J84" s="14" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="85" spans="2:10" ht="34" x14ac:dyDescent="0.45">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B85" s="16">
         <v>80</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D85" s="16" t="s">
         <v>103</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H85" s="15" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="J85" s="14" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.45">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J87" s="14" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.45">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B88" s="16">
         <v>90</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D88" s="16" t="s">
         <v>101</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G88" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H88" s="15" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -5076,45 +5099,45 @@
       <selection activeCell="D45" sqref="D45:D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="5.08203125" customWidth="1"/>
+    <col min="2" max="2" width="5.125" customWidth="1"/>
     <col min="3" max="6" width="11.75" customWidth="1"/>
-    <col min="7" max="7" width="33.08203125" customWidth="1"/>
+    <col min="7" max="7" width="33.125" customWidth="1"/>
     <col min="9" max="9" width="39.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:9" ht="26" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="65" t="s">
+    <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="67"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B3" s="47">
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="51"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="44">
         <v>1</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="52" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -5124,13 +5147,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B4" s="48"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="45"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
       <c r="H4" s="1" t="s">
         <v>3</v>
       </c>
@@ -5138,13 +5161,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="49"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
+    <row r="5" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="46"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
       <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
@@ -5152,23 +5175,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B6" s="34">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="28">
         <v>2</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="34" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -5178,13 +5201,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B7" s="35"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="29"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="1" t="s">
         <v>3</v>
       </c>
@@ -5192,13 +5215,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="36"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
+    <row r="8" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="30"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
       <c r="H8" s="7" t="s">
         <v>4</v>
       </c>
@@ -5206,23 +5229,23 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B9" s="47">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="44">
         <v>3</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="56" t="s">
+      <c r="G9" s="52" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -5232,13 +5255,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B10" s="48"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="45"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
       <c r="H10" s="1" t="s">
         <v>3</v>
       </c>
@@ -5246,13 +5269,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="49"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
+    <row r="11" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="46"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
       <c r="H11" s="2" t="s">
         <v>4</v>
       </c>
@@ -5260,23 +5283,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B12" s="34">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="28">
         <v>4</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="43" t="s">
+      <c r="F12" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="43" t="s">
+      <c r="G12" s="34" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -5286,13 +5309,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B13" s="35"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="29"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
       <c r="H13" s="1" t="s">
         <v>3</v>
       </c>
@@ -5300,13 +5323,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="36"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
+    <row r="14" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="30"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
       <c r="H14" s="7" t="s">
         <v>4</v>
       </c>
@@ -5314,23 +5337,23 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B15" s="47">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="44">
         <v>5</v>
       </c>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="56" t="s">
+      <c r="G15" s="52" t="s">
         <v>31</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -5340,13 +5363,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B16" s="48"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="45"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
       <c r="H16" s="1" t="s">
         <v>3</v>
       </c>
@@ -5354,13 +5377,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="49"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
+    <row r="17" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="46"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
       <c r="H17" s="2" t="s">
         <v>4</v>
       </c>
@@ -5368,23 +5391,23 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B18" s="34">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="28">
         <v>6</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="43" t="s">
+      <c r="F18" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="43" t="s">
+      <c r="G18" s="34" t="s">
         <v>61</v>
       </c>
       <c r="H18" s="4" t="s">
@@ -5394,13 +5417,13 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B19" s="35"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="29"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
       <c r="H19" s="1" t="s">
         <v>3</v>
       </c>
@@ -5408,13 +5431,13 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="36"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
+    <row r="20" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="30"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
       <c r="H20" s="7" t="s">
         <v>4</v>
       </c>
@@ -5422,23 +5445,23 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B21" s="47">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="44">
         <v>7</v>
       </c>
-      <c r="C21" s="63" t="s">
+      <c r="C21" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="41" t="s">
+      <c r="E21" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="43" t="s">
+      <c r="F21" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="43" t="s">
+      <c r="G21" s="34" t="s">
         <v>66</v>
       </c>
       <c r="H21" s="4" t="s">
@@ -5448,13 +5471,13 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B22" s="48"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="45"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
       <c r="H22" s="1" t="s">
         <v>3</v>
       </c>
@@ -5462,13 +5485,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="49"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
+    <row r="23" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="46"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
       <c r="H23" s="7" t="s">
         <v>4</v>
       </c>
@@ -5476,23 +5499,23 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B24" s="34">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="28">
         <v>8</v>
       </c>
-      <c r="C24" s="61" t="s">
+      <c r="C24" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="40" t="s">
+      <c r="D24" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="41" t="s">
+      <c r="E24" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="F24" s="56" t="s">
+      <c r="F24" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="56" t="s">
+      <c r="G24" s="52" t="s">
         <v>95</v>
       </c>
       <c r="H24" s="3" t="s">
@@ -5502,13 +5525,13 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B25" s="35"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="29"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
       <c r="H25" s="1" t="s">
         <v>3</v>
       </c>
@@ -5516,13 +5539,13 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="36"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
+    <row r="26" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="30"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
       <c r="H26" s="2" t="s">
         <v>4</v>
       </c>
@@ -5530,69 +5553,69 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="47">
+    <row r="27" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="44">
         <v>9</v>
       </c>
-      <c r="C27" s="58" t="s">
+      <c r="C27" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="40" t="s">
+      <c r="D27" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="41" t="s">
+      <c r="E27" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="40" t="s">
+      <c r="F27" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="G27" s="40" t="s">
+      <c r="G27" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="40" t="s">
+      <c r="H27" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="I27" s="53" t="s">
+      <c r="I27" s="59" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="48"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="54"/>
-    </row>
-    <row r="29" spans="2:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="49"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="55"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B30" s="34">
+    <row r="28" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="45"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="60"/>
+    </row>
+    <row r="29" spans="2:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="46"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="61"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="28">
         <v>10</v>
       </c>
-      <c r="C30" s="58" t="s">
+      <c r="C30" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="40" t="s">
+      <c r="D30" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="41" t="s">
+      <c r="E30" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="F30" s="40" t="s">
+      <c r="F30" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="40" t="s">
+      <c r="G30" s="41" t="s">
         <v>46</v>
       </c>
       <c r="H30" s="4" t="s">
@@ -5602,13 +5625,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B31" s="35"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="29"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
       <c r="H31" s="1" t="s">
         <v>3</v>
       </c>
@@ -5616,13 +5639,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B32" s="36"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
+    <row r="32" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="30"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
       <c r="H32" s="7" t="s">
         <v>4</v>
       </c>
@@ -5630,23 +5653,23 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B33" s="47">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="44">
         <v>11</v>
       </c>
-      <c r="C33" s="63" t="s">
+      <c r="C33" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="40" t="s">
+      <c r="D33" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="41" t="s">
+      <c r="E33" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="F33" s="43" t="s">
+      <c r="F33" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="G33" s="31" t="s">
+      <c r="G33" s="37" t="s">
         <v>50</v>
       </c>
       <c r="H33" s="4" t="s">
@@ -5656,13 +5679,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B34" s="48"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="45"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
       <c r="H34" s="1" t="s">
         <v>3</v>
       </c>
@@ -5670,13 +5693,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B35" s="49"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
+    <row r="35" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="46"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
       <c r="H35" s="7" t="s">
         <v>4</v>
       </c>
@@ -5684,23 +5707,23 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B36" s="34">
+    <row r="36" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="28">
         <v>12</v>
       </c>
-      <c r="C36" s="50" t="s">
+      <c r="C36" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="40" t="s">
+      <c r="D36" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="E36" s="41" t="s">
+      <c r="E36" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="F36" s="43" t="s">
+      <c r="F36" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="G36" s="43" t="s">
+      <c r="G36" s="34" t="s">
         <v>84</v>
       </c>
       <c r="H36" s="4" t="s">
@@ -5710,13 +5733,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B37" s="35"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
+    <row r="37" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="29"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
       <c r="H37" s="1" t="s">
         <v>3</v>
       </c>
@@ -5724,13 +5747,13 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B38" s="36"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
+    <row r="38" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="30"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
       <c r="H38" s="7" t="s">
         <v>4</v>
       </c>
@@ -5738,23 +5761,23 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B39" s="47">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="44">
         <v>13</v>
       </c>
-      <c r="C39" s="61" t="s">
+      <c r="C39" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="40" t="s">
+      <c r="D39" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="E39" s="41" t="s">
+      <c r="E39" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="F39" s="56" t="s">
+      <c r="F39" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="G39" s="64" t="s">
+      <c r="G39" s="57" t="s">
         <v>44</v>
       </c>
       <c r="H39" s="3" t="s">
@@ -5764,13 +5787,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B40" s="48"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="45"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
       <c r="H40" s="1" t="s">
         <v>3</v>
       </c>
@@ -5778,13 +5801,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B41" s="49"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="57"/>
+    <row r="41" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="46"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
       <c r="H41" s="2" t="s">
         <v>4</v>
       </c>
@@ -5792,23 +5815,23 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B42" s="34">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="28">
         <v>14</v>
       </c>
-      <c r="C42" s="63" t="s">
+      <c r="C42" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="40" t="s">
+      <c r="D42" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="E42" s="41" t="s">
+      <c r="E42" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="F42" s="43" t="s">
+      <c r="F42" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="G42" s="31" t="s">
+      <c r="G42" s="37" t="s">
         <v>54</v>
       </c>
       <c r="H42" s="4" t="s">
@@ -5818,13 +5841,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B43" s="35"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="29"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
       <c r="H43" s="1" t="s">
         <v>3</v>
       </c>
@@ -5832,13 +5855,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B44" s="36"/>
-      <c r="C44" s="52"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
+    <row r="44" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="30"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
       <c r="H44" s="7" t="s">
         <v>4</v>
       </c>
@@ -5846,23 +5869,23 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B45" s="47">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B45" s="44">
         <v>15</v>
       </c>
-      <c r="C45" s="61" t="s">
+      <c r="C45" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="40" t="s">
+      <c r="D45" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="E45" s="41" t="s">
+      <c r="E45" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="F45" s="56" t="s">
+      <c r="F45" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="G45" s="56" t="s">
+      <c r="G45" s="52" t="s">
         <v>45</v>
       </c>
       <c r="H45" s="3" t="s">
@@ -5872,13 +5895,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B46" s="48"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="45"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
       <c r="H46" s="1" t="s">
         <v>3</v>
       </c>
@@ -5886,13 +5909,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B47" s="49"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="57"/>
+    <row r="47" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="46"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="53"/>
       <c r="H47" s="2" t="s">
         <v>4</v>
       </c>
@@ -5900,23 +5923,23 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B48" s="34">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="28">
         <v>16</v>
       </c>
-      <c r="C48" s="50" t="s">
+      <c r="C48" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="40" t="s">
+      <c r="D48" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="E48" s="41" t="s">
+      <c r="E48" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="F48" s="43" t="s">
+      <c r="F48" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="G48" s="43" t="s">
+      <c r="G48" s="34" t="s">
         <v>56</v>
       </c>
       <c r="H48" s="4" t="s">
@@ -5926,13 +5949,13 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B49" s="35"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B49" s="29"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
       <c r="H49" s="1" t="s">
         <v>3</v>
       </c>
@@ -5940,13 +5963,13 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B50" s="36"/>
-      <c r="C50" s="52"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
+    <row r="50" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="30"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
       <c r="H50" s="7" t="s">
         <v>4</v>
       </c>
@@ -5954,23 +5977,23 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B51" s="47">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B51" s="44">
         <v>17</v>
       </c>
-      <c r="C51" s="50" t="s">
+      <c r="C51" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="40" t="s">
+      <c r="D51" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="E51" s="41" t="s">
+      <c r="E51" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="F51" s="43" t="s">
+      <c r="F51" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="G51" s="43" t="s">
+      <c r="G51" s="34" t="s">
         <v>74</v>
       </c>
       <c r="H51" s="4" t="s">
@@ -5980,13 +6003,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="34" x14ac:dyDescent="0.45">
-      <c r="B52" s="48"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
+    <row r="52" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="B52" s="45"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
       <c r="H52" s="1" t="s">
         <v>3</v>
       </c>
@@ -5994,13 +6017,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="51.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B53" s="49"/>
-      <c r="C53" s="52"/>
-      <c r="D53" s="42"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
+    <row r="53" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="46"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
       <c r="H53" s="7" t="s">
         <v>4</v>
       </c>
@@ -6008,23 +6031,23 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B54" s="34">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54" s="28">
         <v>18</v>
       </c>
-      <c r="C54" s="50" t="s">
+      <c r="C54" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="40" t="s">
+      <c r="D54" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="E54" s="41" t="s">
+      <c r="E54" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="F54" s="43" t="s">
+      <c r="F54" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="G54" s="31" t="s">
+      <c r="G54" s="37" t="s">
         <v>79</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -6034,13 +6057,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="35"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
+    <row r="55" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="29"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
       </c>
@@ -6048,13 +6071,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="51.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B56" s="36"/>
-      <c r="C56" s="52"/>
-      <c r="D56" s="42"/>
-      <c r="E56" s="42"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
+    <row r="56" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="30"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
       <c r="H56" s="7" t="s">
         <v>4</v>
       </c>
@@ -6062,23 +6085,23 @@
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B57" s="47">
+    <row r="57" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="44">
         <v>19</v>
       </c>
-      <c r="C57" s="50" t="s">
+      <c r="C57" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="D57" s="40" t="s">
+      <c r="D57" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="E57" s="41" t="s">
+      <c r="E57" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="F57" s="43" t="s">
+      <c r="F57" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="G57" s="43" t="s">
+      <c r="G57" s="34" t="s">
         <v>89</v>
       </c>
       <c r="H57" s="4" t="s">
@@ -6088,13 +6111,13 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B58" s="48"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
+    <row r="58" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="45"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
       <c r="H58" s="1" t="s">
         <v>3</v>
       </c>
@@ -6102,13 +6125,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B59" s="49"/>
-      <c r="C59" s="52"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
+    <row r="59" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="46"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
       <c r="H59" s="7" t="s">
         <v>4</v>
       </c>
@@ -6116,23 +6139,23 @@
         <v>92</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B60" s="34">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B60" s="28">
         <v>20</v>
       </c>
-      <c r="C60" s="37" t="s">
+      <c r="C60" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="D60" s="40" t="s">
+      <c r="D60" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="E60" s="41" t="s">
+      <c r="E60" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="F60" s="43" t="s">
+      <c r="F60" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="G60" s="31" t="s">
+      <c r="G60" s="37" t="s">
         <v>97</v>
       </c>
       <c r="H60" s="4" t="s">
@@ -6142,13 +6165,13 @@
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B61" s="35"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="32"/>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B61" s="29"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
       <c r="H61" s="1" t="s">
         <v>3</v>
       </c>
@@ -6156,13 +6179,13 @@
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B62" s="36"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="42"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
+    <row r="62" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="30"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
       <c r="H62" s="7" t="s">
         <v>4</v>
       </c>
@@ -6170,23 +6193,23 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B63" s="34">
+    <row r="63" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="28">
         <v>21</v>
       </c>
-      <c r="C63" s="68" t="s">
+      <c r="C63" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="D63" s="40" t="s">
+      <c r="D63" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="E63" s="40" t="s">
+      <c r="E63" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="F63" s="40" t="s">
+      <c r="F63" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="G63" s="44" t="s">
+      <c r="G63" s="65" t="s">
         <v>106</v>
       </c>
       <c r="H63" s="4" t="s">
@@ -6196,13 +6219,13 @@
         <v>107</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B64" s="35"/>
-      <c r="C64" s="69"/>
-      <c r="D64" s="41"/>
-      <c r="E64" s="41"/>
-      <c r="F64" s="41"/>
-      <c r="G64" s="45"/>
+    <row r="64" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="29"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="66"/>
       <c r="H64" s="1" t="s">
         <v>3</v>
       </c>
@@ -6210,13 +6233,13 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="51.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B65" s="36"/>
-      <c r="C65" s="70"/>
-      <c r="D65" s="42"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="46"/>
+    <row r="65" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="30"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="67"/>
       <c r="H65" s="7" t="s">
         <v>4</v>
       </c>
@@ -6224,23 +6247,23 @@
         <v>109</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B66" s="34">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B66" s="28">
         <v>22</v>
       </c>
-      <c r="C66" s="37" t="s">
+      <c r="C66" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="D66" s="40" t="s">
+      <c r="D66" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="E66" s="41" t="s">
+      <c r="E66" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="F66" s="43" t="s">
+      <c r="F66" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="G66" s="31" t="s">
+      <c r="G66" s="37" t="s">
         <v>97</v>
       </c>
       <c r="H66" s="4" t="s">
@@ -6250,13 +6273,13 @@
         <v>98</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B67" s="35"/>
-      <c r="C67" s="38"/>
-      <c r="D67" s="41"/>
-      <c r="E67" s="41"/>
-      <c r="F67" s="32"/>
-      <c r="G67" s="32"/>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B67" s="29"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
       <c r="H67" s="1" t="s">
         <v>3</v>
       </c>
@@ -6264,13 +6287,13 @@
         <v>99</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B68" s="36"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="42"/>
-      <c r="E68" s="42"/>
-      <c r="F68" s="33"/>
-      <c r="G68" s="33"/>
+    <row r="68" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="30"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="43"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
       <c r="H68" s="7" t="s">
         <v>4</v>
       </c>
@@ -6280,6 +6303,117 @@
     </row>
   </sheetData>
   <mergeCells count="135">
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="F51:F53"/>
     <mergeCell ref="B54:B56"/>
     <mergeCell ref="C54:C56"/>
     <mergeCell ref="F54:F56"/>
@@ -6304,117 +6438,6 @@
     <mergeCell ref="E42:E44"/>
     <mergeCell ref="E48:E50"/>
     <mergeCell ref="E51:E53"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="G57:G59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
+++ b/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187EFEF6-C642-40F4-A792-B8A8A0FB4D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAD68A8-69C0-474D-8442-42CD22E7B3A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9C64985F-4ADF-44CE-9572-0998CB538CFF}"/>
   </bookViews>
@@ -739,13 +739,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1, 2, 3열의 적을 1의 공격력으로 크게 깨문다. 
-- 찌르기 상태의 적에게 추가 데미지 1 
-- 자르기 상태의 적에게 추가 데미지 1
-- 타겟 상대마다 만복도 + 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>빨아 먹기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -763,19 +756,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>골드 30 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>골동품</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>적에게 화염 2턴 지속</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적 전체에게 3으로 공격, 2턴간 적을 화염 상태로</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1025,10 +1010,6 @@
   <si>
     <t>만복도 + 20
 소화불량 카드 1개 획득</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불의 숨결</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1204,12 +1185,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>랜덤의 적에게 침묵 사용 
-- 마나 + 1
-- 만복도 + 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>만복도 + 50 
 다음턴 마나 회복 -1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1740,6 +1715,32 @@
   </si>
   <si>
     <t>체력 6, 공격력 1의 아메바성 뇌염 소환, 기생충은 턴 종료 시 -1의 체력 저하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 2, 3열의 적을 2의 공격력으로 크게 깨문다. 
+- 찌르기 상태의 적에게 추가 데미지 1 
+- 자르기 상태의 적에게 추가 데미지 1
+- 타겟 상대마다 만복도 + 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 2, 
+- 마나 + 1 (마나 표시에 적용 안됨)
+- 만복도 + 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드 30 증가 (골드 표시에 적용 안됨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 전체에게 3으로 공격, 2턴간 적을 중독 상태로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독의 숨결
+카드 이미지 불에서 독으로</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1791,7 +1792,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1812,12 +1813,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2371,7 +2366,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2586,16 +2581,22 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2933,15 +2934,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E337946-5511-4AD1-8A21-3FB7BE6153D1}">
   <dimension ref="B1:K88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.5" style="14" customWidth="1"/>
     <col min="2" max="2" width="5.125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="16.875" style="16" customWidth="1"/>
     <col min="4" max="4" width="11.75" style="16" customWidth="1"/>
     <col min="5" max="5" width="17.25" style="16" customWidth="1"/>
     <col min="6" max="7" width="11.75" style="16" customWidth="1"/>
@@ -3010,7 +3011,7 @@
         <v>141</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>119</v>
@@ -3100,7 +3101,7 @@
         <v>148</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J8" s="23" t="s">
         <v>146</v>
@@ -3154,7 +3155,7 @@
         <v>131</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="J10" s="23" t="s">
         <v>139</v>
@@ -3174,7 +3175,7 @@
         <v>133</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G11" s="21" t="s">
         <v>124</v>
@@ -3203,16 +3204,16 @@
         <v>120</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G12" s="21" t="s">
         <v>124</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3229,16 +3230,16 @@
         <v>120</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G13" s="21" t="s">
         <v>124</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="68" customFormat="1" x14ac:dyDescent="0.3">
@@ -3262,7 +3263,7 @@
         <v>160</v>
       </c>
       <c r="J14" s="68" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="2:10" s="68" customFormat="1" x14ac:dyDescent="0.3">
@@ -3283,10 +3284,10 @@
         <v>144</v>
       </c>
       <c r="H15" s="70" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="J15" s="68" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="2:10" s="68" customFormat="1" x14ac:dyDescent="0.3">
@@ -3307,10 +3308,10 @@
         <v>130</v>
       </c>
       <c r="H16" s="70" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="J16" s="68" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="2:11" s="68" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3327,600 +3328,600 @@
         <v>120</v>
       </c>
       <c r="F17" s="69"/>
-      <c r="G17" s="74" t="s">
+      <c r="G17" s="71" t="s">
+        <v>397</v>
+      </c>
+      <c r="H17" s="70" t="s">
+        <v>398</v>
+      </c>
+      <c r="J17" s="68" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" s="68" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B18" s="69">
+        <v>13</v>
+      </c>
+      <c r="C18" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="69" t="s">
+        <v>269</v>
+      </c>
+      <c r="G18" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="H18" s="70" t="s">
+        <v>157</v>
+      </c>
+      <c r="J18" s="68" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" s="68" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B19" s="69">
+        <v>14</v>
+      </c>
+      <c r="C19" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="69" t="s">
+        <v>269</v>
+      </c>
+      <c r="G19" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="J19" s="68" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" s="68" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B20" s="69">
+        <v>15</v>
+      </c>
+      <c r="C20" s="69" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="69" t="s">
+        <v>269</v>
+      </c>
+      <c r="G20" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="H20" s="70" t="s">
+        <v>162</v>
+      </c>
+      <c r="J20" s="68" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" s="68" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B21" s="69">
+        <v>16</v>
+      </c>
+      <c r="C21" s="69" t="s">
+        <v>163</v>
+      </c>
+      <c r="D21" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="69" t="s">
+        <v>270</v>
+      </c>
+      <c r="G21" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="H21" s="70" t="s">
+        <v>385</v>
+      </c>
+      <c r="J21" s="68" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" s="73" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B22" s="71">
+        <v>17</v>
+      </c>
+      <c r="C22" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="D22" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="71" t="s">
+        <v>270</v>
+      </c>
+      <c r="G22" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="H22" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="J22" s="73" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" s="68" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B23" s="69">
+        <v>18</v>
+      </c>
+      <c r="C23" s="69" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="69" t="s">
+        <v>270</v>
+      </c>
+      <c r="G23" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="H23" s="70" t="s">
+        <v>399</v>
+      </c>
+      <c r="J23" s="68" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" s="68" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B24" s="69">
+        <v>19</v>
+      </c>
+      <c r="C24" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" s="69" t="s">
+        <v>270</v>
+      </c>
+      <c r="G24" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="H24" s="72" t="s">
+        <v>400</v>
+      </c>
+      <c r="J24" s="68" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" s="68" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B25" s="69">
+        <v>20</v>
+      </c>
+      <c r="C25" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="H25" s="70" t="s">
+        <v>169</v>
+      </c>
+      <c r="J25" s="68" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" s="68" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="69">
+        <v>21</v>
+      </c>
+      <c r="C26" s="69" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="69" t="s">
+        <v>175</v>
+      </c>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="H26" s="70" t="s">
+        <v>170</v>
+      </c>
+      <c r="J26" s="68" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" s="68" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="69">
+        <v>22</v>
+      </c>
+      <c r="C27" s="69" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="69" t="s">
+        <v>175</v>
+      </c>
+      <c r="F27" s="69" t="s">
+        <v>267</v>
+      </c>
+      <c r="G27" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="H27" s="72" t="s">
+        <v>401</v>
+      </c>
+      <c r="J27" s="68" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" s="68" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B28" s="69">
+        <v>23</v>
+      </c>
+      <c r="C28" s="71" t="s">
+        <v>403</v>
+      </c>
+      <c r="D28" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="H28" s="70" t="s">
         <v>402</v>
       </c>
-      <c r="H17" s="70" t="s">
-        <v>403</v>
-      </c>
-      <c r="J17" s="68" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" s="71" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B18" s="72">
-        <v>13</v>
-      </c>
-      <c r="C18" s="72" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="72" t="s">
+      <c r="I28" s="68" t="s">
+        <v>172</v>
+      </c>
+      <c r="J28" s="68" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" s="68" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B29" s="69">
+        <v>24</v>
+      </c>
+      <c r="C29" s="69" t="s">
+        <v>173</v>
+      </c>
+      <c r="D29" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" s="69" t="s">
+        <v>175</v>
+      </c>
+      <c r="F29" s="69" t="s">
+        <v>270</v>
+      </c>
+      <c r="G29" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="H29" s="70" t="s">
+        <v>231</v>
+      </c>
+      <c r="J29" s="68" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" s="68" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B30" s="69">
+        <v>25</v>
+      </c>
+      <c r="C30" s="69" t="s">
+        <v>174</v>
+      </c>
+      <c r="D30" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="69" t="s">
+        <v>175</v>
+      </c>
+      <c r="F30" s="69" t="s">
+        <v>270</v>
+      </c>
+      <c r="G30" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="H30" s="70" t="s">
+        <v>230</v>
+      </c>
+      <c r="I30" s="68" t="s">
+        <v>386</v>
+      </c>
+      <c r="J30" s="68" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" s="68" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B31" s="69">
+        <v>26</v>
+      </c>
+      <c r="C31" s="69" t="s">
+        <v>178</v>
+      </c>
+      <c r="D31" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" s="69" t="s">
+        <v>175</v>
+      </c>
+      <c r="F31" s="69" t="s">
+        <v>267</v>
+      </c>
+      <c r="G31" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="H31" s="70" t="s">
+        <v>179</v>
+      </c>
+      <c r="I31" s="68" t="s">
+        <v>180</v>
+      </c>
+      <c r="J31" s="68" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" s="73" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B32" s="71">
+        <v>27</v>
+      </c>
+      <c r="C32" s="71" t="s">
+        <v>181</v>
+      </c>
+      <c r="D32" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="H32" s="72" t="s">
+        <v>182</v>
+      </c>
+      <c r="J32" s="73" t="s">
+        <v>311</v>
+      </c>
+      <c r="K32" s="73" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" s="73" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B33" s="71">
+        <v>28</v>
+      </c>
+      <c r="C33" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="D33" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" s="71" t="s">
+        <v>270</v>
+      </c>
+      <c r="G33" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="H33" s="72" t="s">
+        <v>271</v>
+      </c>
+      <c r="J33" s="73" t="s">
+        <v>312</v>
+      </c>
+      <c r="K33" s="73" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" s="68" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="69">
+        <v>29</v>
+      </c>
+      <c r="C34" s="69" t="s">
+        <v>184</v>
+      </c>
+      <c r="D34" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="F34" s="69" t="s">
+        <v>269</v>
+      </c>
+      <c r="G34" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="H34" s="70" t="s">
+        <v>185</v>
+      </c>
+      <c r="J34" s="68" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" s="68" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="69">
+        <v>30</v>
+      </c>
+      <c r="C35" s="69" t="s">
+        <v>387</v>
+      </c>
+      <c r="D35" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" s="69" t="s">
+        <v>175</v>
+      </c>
+      <c r="F35" s="69" t="s">
+        <v>267</v>
+      </c>
+      <c r="G35" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="H35" s="70" t="s">
+        <v>186</v>
+      </c>
+      <c r="J35" s="68" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" s="68" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="69">
+        <v>31</v>
+      </c>
+      <c r="C36" s="69" t="s">
+        <v>187</v>
+      </c>
+      <c r="D36" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="72" t="s">
+      <c r="E36" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="F36" s="69"/>
+      <c r="G36" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="H36" s="70" t="s">
+        <v>388</v>
+      </c>
+      <c r="J36" s="68" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" s="76" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B37" s="74">
+        <v>32</v>
+      </c>
+      <c r="C37" s="74" t="s">
+        <v>188</v>
+      </c>
+      <c r="D37" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="74" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" s="74" t="s">
+        <v>266</v>
+      </c>
+      <c r="G37" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="H37" s="75" t="s">
+        <v>392</v>
+      </c>
+      <c r="J37" s="76" t="s">
+        <v>316</v>
+      </c>
+      <c r="K37" s="76" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" s="76" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B38" s="74">
+        <v>33</v>
+      </c>
+      <c r="C38" s="74" t="s">
+        <v>189</v>
+      </c>
+      <c r="D38" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" s="74" t="s">
+        <v>120</v>
+      </c>
+      <c r="F38" s="74" t="s">
+        <v>266</v>
+      </c>
+      <c r="G38" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="H38" s="75" t="s">
+        <v>227</v>
+      </c>
+      <c r="J38" s="76" t="s">
+        <v>317</v>
+      </c>
+      <c r="K38" s="76" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" s="76" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B39" s="74">
+        <v>34</v>
+      </c>
+      <c r="C39" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="D39" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="72" t="s">
-        <v>273</v>
-      </c>
-      <c r="G18" s="72" t="s">
-        <v>144</v>
-      </c>
-      <c r="H18" s="73" t="s">
-        <v>157</v>
-      </c>
-      <c r="J18" s="71" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" s="71" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="B19" s="72">
-        <v>14</v>
-      </c>
-      <c r="C19" s="72" t="s">
-        <v>158</v>
-      </c>
-      <c r="D19" s="72" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="72" t="s">
-        <v>123</v>
-      </c>
-      <c r="F19" s="72" t="s">
-        <v>273</v>
-      </c>
-      <c r="G19" s="72" t="s">
+      <c r="F39" s="74" t="s">
+        <v>269</v>
+      </c>
+      <c r="G39" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="H19" s="73" t="s">
-        <v>159</v>
-      </c>
-      <c r="J19" s="71" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" s="71" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="B20" s="72">
-        <v>15</v>
-      </c>
-      <c r="C20" s="72" t="s">
-        <v>161</v>
-      </c>
-      <c r="D20" s="72" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" s="72" t="s">
-        <v>123</v>
-      </c>
-      <c r="F20" s="72" t="s">
-        <v>273</v>
-      </c>
-      <c r="G20" s="72" t="s">
-        <v>130</v>
-      </c>
-      <c r="H20" s="73" t="s">
-        <v>162</v>
-      </c>
-      <c r="J20" s="71" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
-      <c r="B21" s="72">
-        <v>16</v>
-      </c>
-      <c r="C21" s="72" t="s">
-        <v>163</v>
-      </c>
-      <c r="D21" s="72" t="s">
-        <v>121</v>
-      </c>
-      <c r="E21" s="72" t="s">
-        <v>123</v>
-      </c>
-      <c r="F21" s="72" t="s">
-        <v>274</v>
-      </c>
-      <c r="G21" s="72" t="s">
-        <v>124</v>
-      </c>
-      <c r="H21" s="73" t="s">
-        <v>390</v>
-      </c>
-      <c r="J21" s="71" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
-      <c r="B22" s="72">
-        <v>17</v>
-      </c>
-      <c r="C22" s="72" t="s">
-        <v>164</v>
-      </c>
-      <c r="D22" s="72" t="s">
-        <v>101</v>
-      </c>
-      <c r="E22" s="72" t="s">
-        <v>123</v>
-      </c>
-      <c r="F22" s="72" t="s">
-        <v>274</v>
-      </c>
-      <c r="G22" s="72" t="s">
-        <v>124</v>
-      </c>
-      <c r="H22" s="73" t="s">
-        <v>165</v>
-      </c>
-      <c r="J22" s="71" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
-      <c r="B23" s="72">
-        <v>18</v>
-      </c>
-      <c r="C23" s="72" t="s">
-        <v>166</v>
-      </c>
-      <c r="D23" s="72" t="s">
-        <v>102</v>
-      </c>
-      <c r="E23" s="72" t="s">
-        <v>123</v>
-      </c>
-      <c r="F23" s="72" t="s">
-        <v>274</v>
-      </c>
-      <c r="G23" s="72" t="s">
-        <v>130</v>
-      </c>
-      <c r="H23" s="73" t="s">
-        <v>167</v>
-      </c>
-      <c r="J23" s="71" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" s="71" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B24" s="72">
-        <v>19</v>
-      </c>
-      <c r="C24" s="72" t="s">
-        <v>168</v>
-      </c>
-      <c r="D24" s="72" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" s="72" t="s">
-        <v>123</v>
-      </c>
-      <c r="F24" s="72" t="s">
-        <v>274</v>
-      </c>
-      <c r="G24" s="72" t="s">
-        <v>130</v>
-      </c>
-      <c r="H24" s="73" t="s">
-        <v>275</v>
-      </c>
-      <c r="J24" s="71" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" s="71" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="B25" s="72">
-        <v>20</v>
-      </c>
-      <c r="C25" s="72" t="s">
-        <v>169</v>
-      </c>
-      <c r="D25" s="72" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" s="72" t="s">
-        <v>123</v>
-      </c>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72" t="s">
-        <v>124</v>
-      </c>
-      <c r="H25" s="73" t="s">
-        <v>170</v>
-      </c>
-      <c r="J25" s="71" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" s="71" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="72">
-        <v>21</v>
-      </c>
-      <c r="C26" s="72" t="s">
-        <v>179</v>
-      </c>
-      <c r="D26" s="72" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" s="72" t="s">
-        <v>178</v>
-      </c>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72" t="s">
-        <v>144</v>
-      </c>
-      <c r="H26" s="73" t="s">
-        <v>171</v>
-      </c>
-      <c r="J26" s="71" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" s="71" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="72">
-        <v>22</v>
-      </c>
-      <c r="C27" s="72" t="s">
-        <v>173</v>
-      </c>
-      <c r="D27" s="72" t="s">
-        <v>101</v>
-      </c>
-      <c r="E27" s="72" t="s">
-        <v>178</v>
-      </c>
-      <c r="F27" s="72" t="s">
-        <v>271</v>
-      </c>
-      <c r="G27" s="72" t="s">
-        <v>144</v>
-      </c>
-      <c r="H27" s="73" t="s">
-        <v>172</v>
-      </c>
-      <c r="J27" s="71" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" s="71" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="72">
-        <v>23</v>
-      </c>
-      <c r="C28" s="72" t="s">
-        <v>235</v>
-      </c>
-      <c r="D28" s="72" t="s">
-        <v>102</v>
-      </c>
-      <c r="E28" s="72" t="s">
-        <v>123</v>
-      </c>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72" t="s">
-        <v>130</v>
-      </c>
-      <c r="H28" s="73" t="s">
-        <v>175</v>
-      </c>
-      <c r="I28" s="71" t="s">
-        <v>174</v>
-      </c>
-      <c r="J28" s="71" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" s="71" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="B29" s="72">
-        <v>24</v>
-      </c>
-      <c r="C29" s="72" t="s">
-        <v>176</v>
-      </c>
-      <c r="D29" s="72" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" s="72" t="s">
-        <v>178</v>
-      </c>
-      <c r="F29" s="72" t="s">
-        <v>274</v>
-      </c>
-      <c r="G29" s="72" t="s">
-        <v>144</v>
-      </c>
-      <c r="H29" s="73" t="s">
-        <v>234</v>
-      </c>
-      <c r="J29" s="71" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" s="71" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B30" s="72">
-        <v>25</v>
-      </c>
-      <c r="C30" s="72" t="s">
-        <v>177</v>
-      </c>
-      <c r="D30" s="72" t="s">
-        <v>103</v>
-      </c>
-      <c r="E30" s="72" t="s">
-        <v>178</v>
-      </c>
-      <c r="F30" s="72" t="s">
-        <v>274</v>
-      </c>
-      <c r="G30" s="72" t="s">
-        <v>130</v>
-      </c>
-      <c r="H30" s="73" t="s">
-        <v>233</v>
-      </c>
-      <c r="I30" s="71" t="s">
-        <v>391</v>
-      </c>
-      <c r="J30" s="71" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" s="71" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="B31" s="72">
-        <v>26</v>
-      </c>
-      <c r="C31" s="72" t="s">
-        <v>181</v>
-      </c>
-      <c r="D31" s="72" t="s">
-        <v>103</v>
-      </c>
-      <c r="E31" s="72" t="s">
-        <v>178</v>
-      </c>
-      <c r="F31" s="72" t="s">
-        <v>271</v>
-      </c>
-      <c r="G31" s="72" t="s">
-        <v>124</v>
-      </c>
-      <c r="H31" s="73" t="s">
-        <v>182</v>
-      </c>
-      <c r="I31" s="71" t="s">
-        <v>183</v>
-      </c>
-      <c r="J31" s="71" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" s="71" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="B32" s="72">
-        <v>27</v>
-      </c>
-      <c r="C32" s="72" t="s">
-        <v>184</v>
-      </c>
-      <c r="D32" s="72" t="s">
-        <v>102</v>
-      </c>
-      <c r="E32" s="72" t="s">
-        <v>123</v>
-      </c>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72" t="s">
-        <v>130</v>
-      </c>
-      <c r="H32" s="73" t="s">
-        <v>185</v>
-      </c>
-      <c r="J32" s="71" t="s">
-        <v>316</v>
-      </c>
-      <c r="K32" s="71" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" s="71" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="B33" s="72">
-        <v>28</v>
-      </c>
-      <c r="C33" s="72" t="s">
-        <v>186</v>
-      </c>
-      <c r="D33" s="72" t="s">
-        <v>102</v>
-      </c>
-      <c r="E33" s="72" t="s">
-        <v>123</v>
-      </c>
-      <c r="F33" s="72" t="s">
-        <v>274</v>
-      </c>
-      <c r="G33" s="72" t="s">
-        <v>130</v>
-      </c>
-      <c r="H33" s="73" t="s">
-        <v>276</v>
-      </c>
-      <c r="J33" s="71" t="s">
-        <v>317</v>
-      </c>
-      <c r="K33" s="71" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" s="71" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="72">
-        <v>29</v>
-      </c>
-      <c r="C34" s="72" t="s">
-        <v>187</v>
-      </c>
-      <c r="D34" s="72" t="s">
-        <v>102</v>
-      </c>
-      <c r="E34" s="72" t="s">
-        <v>123</v>
-      </c>
-      <c r="F34" s="72" t="s">
-        <v>273</v>
-      </c>
-      <c r="G34" s="72" t="s">
-        <v>124</v>
-      </c>
-      <c r="H34" s="73" t="s">
-        <v>188</v>
-      </c>
-      <c r="J34" s="71" t="s">
+      <c r="H39" s="75" t="s">
+        <v>191</v>
+      </c>
+      <c r="J39" s="76" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" s="71" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="72">
-        <v>30</v>
-      </c>
-      <c r="C35" s="72" t="s">
-        <v>392</v>
-      </c>
-      <c r="D35" s="72" t="s">
-        <v>102</v>
-      </c>
-      <c r="E35" s="72" t="s">
-        <v>178</v>
-      </c>
-      <c r="F35" s="72" t="s">
-        <v>271</v>
-      </c>
-      <c r="G35" s="72" t="s">
-        <v>130</v>
-      </c>
-      <c r="H35" s="73" t="s">
-        <v>189</v>
-      </c>
-      <c r="J35" s="71" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" s="71" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="72">
-        <v>31</v>
-      </c>
-      <c r="C36" s="72" t="s">
-        <v>190</v>
-      </c>
-      <c r="D36" s="72" t="s">
-        <v>101</v>
-      </c>
-      <c r="E36" s="72" t="s">
-        <v>120</v>
-      </c>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72" t="s">
-        <v>124</v>
-      </c>
-      <c r="H36" s="73" t="s">
-        <v>393</v>
-      </c>
-      <c r="J36" s="71" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
-      <c r="B37" s="72">
-        <v>32</v>
-      </c>
-      <c r="C37" s="72" t="s">
-        <v>191</v>
-      </c>
-      <c r="D37" s="72" t="s">
-        <v>102</v>
-      </c>
-      <c r="E37" s="72" t="s">
-        <v>120</v>
-      </c>
-      <c r="F37" s="72" t="s">
-        <v>270</v>
-      </c>
-      <c r="G37" s="72" t="s">
-        <v>130</v>
-      </c>
-      <c r="H37" s="73" t="s">
-        <v>397</v>
-      </c>
-      <c r="J37" s="71" t="s">
-        <v>321</v>
-      </c>
-      <c r="K37" s="71" t="s">
+      <c r="K39" s="76" t="s">
         <v>394</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" s="71" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="B38" s="72">
-        <v>33</v>
-      </c>
-      <c r="C38" s="72" t="s">
-        <v>192</v>
-      </c>
-      <c r="D38" s="72" t="s">
-        <v>102</v>
-      </c>
-      <c r="E38" s="72" t="s">
-        <v>120</v>
-      </c>
-      <c r="F38" s="72" t="s">
-        <v>270</v>
-      </c>
-      <c r="G38" s="72" t="s">
-        <v>130</v>
-      </c>
-      <c r="H38" s="73" t="s">
-        <v>230</v>
-      </c>
-      <c r="J38" s="71" t="s">
-        <v>322</v>
-      </c>
-      <c r="K38" s="71" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" s="71" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="B39" s="72">
-        <v>34</v>
-      </c>
-      <c r="C39" s="72" t="s">
-        <v>193</v>
-      </c>
-      <c r="D39" s="72" t="s">
-        <v>102</v>
-      </c>
-      <c r="E39" s="72" t="s">
-        <v>123</v>
-      </c>
-      <c r="F39" s="72" t="s">
-        <v>273</v>
-      </c>
-      <c r="G39" s="72" t="s">
-        <v>124</v>
-      </c>
-      <c r="H39" s="73" t="s">
-        <v>194</v>
-      </c>
-      <c r="J39" s="71" t="s">
-        <v>323</v>
-      </c>
-      <c r="K39" s="71" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="33" x14ac:dyDescent="0.3">
@@ -3928,22 +3929,22 @@
         <v>35</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>102</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G40" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J40" s="14" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41" spans="2:11" ht="82.5" x14ac:dyDescent="0.3">
@@ -3951,7 +3952,7 @@
         <v>36</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>103</v>
@@ -3960,16 +3961,16 @@
         <v>123</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G41" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="J41" s="14" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42" spans="2:11" ht="33" x14ac:dyDescent="0.3">
@@ -3977,22 +3978,22 @@
         <v>37</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>103</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G42" s="16" t="s">
         <v>144</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J42" s="14" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
@@ -4000,7 +4001,7 @@
         <v>38</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>102</v>
@@ -4012,10 +4013,10 @@
         <v>130</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J43" s="14" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
@@ -4023,7 +4024,7 @@
         <v>39</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D44" s="16" t="s">
         <v>102</v>
@@ -4035,10 +4036,10 @@
         <v>130</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J44" s="14" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
@@ -4046,7 +4047,7 @@
         <v>40</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D45" s="16" t="s">
         <v>102</v>
@@ -4055,16 +4056,16 @@
         <v>120</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G45" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
@@ -4072,7 +4073,7 @@
         <v>41</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D46" s="16" t="s">
         <v>102</v>
@@ -4081,16 +4082,16 @@
         <v>120</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G46" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
@@ -4098,7 +4099,7 @@
         <v>42</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D47" s="16" t="s">
         <v>102</v>
@@ -4107,16 +4108,16 @@
         <v>120</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G47" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J47" s="14" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
@@ -4124,7 +4125,7 @@
         <v>43</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>103</v>
@@ -4133,16 +4134,16 @@
         <v>120</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G48" s="16" t="s">
         <v>156</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J48" s="14" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="49" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4150,7 +4151,7 @@
         <v>44</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D49" s="16" t="s">
         <v>102</v>
@@ -4162,10 +4163,10 @@
         <v>124</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J49" s="14" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.3">
@@ -4173,25 +4174,25 @@
         <v>45</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D50" s="16" t="s">
         <v>102</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G50" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J50" s="14" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.3">
@@ -4199,25 +4200,25 @@
         <v>46</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D51" s="16" t="s">
         <v>101</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G51" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J51" s="14" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.3">
@@ -4225,25 +4226,25 @@
         <v>47</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D52" s="16" t="s">
         <v>101</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G52" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J52" s="14" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.3">
@@ -4251,25 +4252,25 @@
         <v>48</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D53" s="16" t="s">
         <v>102</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G53" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="J53" s="14" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="54" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -4277,7 +4278,7 @@
         <v>49</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D54" s="16" t="s">
         <v>103</v>
@@ -4289,10 +4290,10 @@
         <v>156</v>
       </c>
       <c r="H54" s="15" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="J54" s="14" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.3">
@@ -4300,7 +4301,7 @@
         <v>50</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D55" s="16" t="s">
         <v>102</v>
@@ -4312,10 +4313,10 @@
         <v>124</v>
       </c>
       <c r="H55" s="15" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="56" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4323,7 +4324,7 @@
         <v>51</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D56" s="16" t="s">
         <v>103</v>
@@ -4335,10 +4336,10 @@
         <v>156</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J56" s="14" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.3">
@@ -4346,28 +4347,28 @@
         <v>52</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D57" s="16" t="s">
         <v>102</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G57" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H57" s="15" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J57" s="14" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="58" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4375,25 +4376,25 @@
         <v>53</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D58" s="16" t="s">
         <v>102</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G58" s="16" t="s">
         <v>144</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="J58" s="14" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="59" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -4401,7 +4402,7 @@
         <v>54</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D59" s="16" t="s">
         <v>103</v>
@@ -4413,10 +4414,10 @@
         <v>130</v>
       </c>
       <c r="H59" s="15" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J59" s="14" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="60" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4424,7 +4425,7 @@
         <v>55</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D60" s="16" t="s">
         <v>102</v>
@@ -4436,10 +4437,10 @@
         <v>130</v>
       </c>
       <c r="H60" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="J60" s="14" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="61" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4447,7 +4448,7 @@
         <v>56</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D61" s="16" t="s">
         <v>101</v>
@@ -4459,10 +4460,10 @@
         <v>124</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J61" s="14" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.3">
@@ -4470,7 +4471,7 @@
         <v>57</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D62" s="16" t="s">
         <v>101</v>
@@ -4482,10 +4483,10 @@
         <v>124</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="J62" s="14" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.3">
@@ -4493,7 +4494,7 @@
         <v>58</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D63" s="16" t="s">
         <v>102</v>
@@ -4505,10 +4506,10 @@
         <v>124</v>
       </c>
       <c r="H63" s="15" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="J63" s="14" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="64" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4516,7 +4517,7 @@
         <v>59</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D64" s="16" t="s">
         <v>102</v>
@@ -4525,13 +4526,13 @@
         <v>123</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H64" s="15" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="J64" s="14" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="65" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4539,7 +4540,7 @@
         <v>60</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D65" s="16" t="s">
         <v>103</v>
@@ -4551,10 +4552,10 @@
         <v>144</v>
       </c>
       <c r="H65" s="15" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J65" s="14" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="66" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -4562,7 +4563,7 @@
         <v>61</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D66" s="16" t="s">
         <v>102</v>
@@ -4574,10 +4575,10 @@
         <v>130</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="J66" s="14" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="67" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -4585,7 +4586,7 @@
         <v>62</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D67" s="16" t="s">
         <v>103</v>
@@ -4597,10 +4598,10 @@
         <v>130</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="J67" s="14" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="68" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4608,7 +4609,7 @@
         <v>63</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D68" s="16" t="s">
         <v>102</v>
@@ -4620,10 +4621,10 @@
         <v>124</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="J68" s="14" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="69" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4631,22 +4632,22 @@
         <v>64</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D69" s="16" t="s">
         <v>102</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G69" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="J69" s="14" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="70" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4654,7 +4655,7 @@
         <v>65</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D70" s="16" t="s">
         <v>102</v>
@@ -4663,16 +4664,16 @@
         <v>123</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G70" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H70" s="15" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="J70" s="14" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.3">
@@ -4680,7 +4681,7 @@
         <v>66</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D71" s="16" t="s">
         <v>102</v>
@@ -4689,16 +4690,16 @@
         <v>123</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G71" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="J71" s="14" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.3">
@@ -4706,7 +4707,7 @@
         <v>67</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D72" s="16" t="s">
         <v>101</v>
@@ -4715,16 +4716,16 @@
         <v>123</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G72" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H72" s="15" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J72" s="14" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.3">
@@ -4732,25 +4733,25 @@
         <v>68</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D73" s="16" t="s">
         <v>101</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G73" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H73" s="15" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="J73" s="14" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.3">
@@ -4758,25 +4759,25 @@
         <v>69</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D74" s="16" t="s">
         <v>102</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G74" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="J74" s="14" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="75" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -4784,7 +4785,7 @@
         <v>70</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D75" s="16" t="s">
         <v>103</v>
@@ -4793,16 +4794,16 @@
         <v>123</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G75" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="J75" s="14" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="76" spans="2:10" ht="66" x14ac:dyDescent="0.3">
@@ -4810,7 +4811,7 @@
         <v>71</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D76" s="16" t="s">
         <v>103</v>
@@ -4822,10 +4823,10 @@
         <v>156</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="J76" s="14" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.3">
@@ -4833,7 +4834,7 @@
         <v>72</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D77" s="16" t="s">
         <v>101</v>
@@ -4842,16 +4843,16 @@
         <v>123</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G77" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="J77" s="14" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.3">
@@ -4859,7 +4860,7 @@
         <v>73</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D78" s="16" t="s">
         <v>102</v>
@@ -4868,16 +4869,16 @@
         <v>123</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G78" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="J78" s="14" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.3">
@@ -4885,25 +4886,25 @@
         <v>74</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D79" s="16" t="s">
         <v>101</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G79" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="J79" s="14" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="80" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4911,25 +4912,25 @@
         <v>75</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D80" s="16" t="s">
         <v>102</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G80" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="J80" s="14" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="81" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4937,7 +4938,7 @@
         <v>76</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D81" s="16" t="s">
         <v>102</v>
@@ -4946,16 +4947,16 @@
         <v>120</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G81" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="J81" s="14" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="82" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4963,22 +4964,22 @@
         <v>77</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D82" s="16" t="s">
         <v>101</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G82" s="16" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H82" s="15" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J82" s="14" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="83" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4986,25 +4987,25 @@
         <v>78</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D83" s="16" t="s">
         <v>102</v>
       </c>
       <c r="E83" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="F83" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="G83" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="H83" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="F83" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="G83" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="H83" s="15" t="s">
-        <v>246</v>
-      </c>
       <c r="J83" s="14" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="84" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5012,22 +5013,22 @@
         <v>79</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D84" s="16" t="s">
         <v>102</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H84" s="15" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="J84" s="14" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="85" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5035,30 +5036,30 @@
         <v>80</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D85" s="16" t="s">
         <v>103</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H85" s="15" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="J85" s="14" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J87" s="14" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.3">
@@ -5066,19 +5067,19 @@
         <v>90</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D88" s="16" t="s">
         <v>101</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G88" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H88" s="15" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
+++ b/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAD68A8-69C0-474D-8442-42CD22E7B3A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53363E42-0FB3-4C42-A4AC-A8AA6334F3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9C64985F-4ADF-44CE-9572-0998CB538CFF}"/>
   </bookViews>
@@ -2366,7 +2366,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2439,6 +2439,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2451,6 +2469,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2460,6 +2487,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2469,17 +2535,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2489,114 +2588,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2935,7 +2926,7 @@
   <dimension ref="B1:K88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2972,30 +2963,30 @@
       </c>
     </row>
     <row r="2" spans="2:10" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
     </row>
     <row r="3" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="26"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="17" t="s">
@@ -3242,685 +3233,685 @@
         <v>292</v>
       </c>
     </row>
-    <row r="14" spans="2:10" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="69">
+    <row r="14" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="25">
         <v>9</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="D14" s="69" t="s">
+      <c r="D14" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E14" s="69" t="s">
+      <c r="E14" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69" t="s">
+      <c r="F14" s="25"/>
+      <c r="G14" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="H14" s="70" t="s">
+      <c r="H14" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="J14" s="68" t="s">
+      <c r="J14" s="24" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="15" spans="2:10" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="69">
+    <row r="15" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="25">
         <v>10</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="D15" s="69" t="s">
+      <c r="D15" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="69" t="s">
+      <c r="E15" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69" t="s">
+      <c r="F15" s="25"/>
+      <c r="G15" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="H15" s="70" t="s">
+      <c r="H15" s="26" t="s">
         <v>395</v>
       </c>
-      <c r="J15" s="68" t="s">
+      <c r="J15" s="24" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="16" spans="2:10" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="69">
+    <row r="16" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="25">
         <v>11</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="D16" s="69" t="s">
+      <c r="D16" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E16" s="69" t="s">
+      <c r="E16" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69" t="s">
+      <c r="F16" s="25"/>
+      <c r="G16" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="H16" s="70" t="s">
+      <c r="H16" s="26" t="s">
         <v>396</v>
       </c>
-      <c r="J16" s="68" t="s">
+      <c r="J16" s="24" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="17" spans="2:11" s="68" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="B17" s="69">
+    <row r="17" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B17" s="25">
         <v>12</v>
       </c>
-      <c r="C17" s="69" t="s">
+      <c r="C17" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="D17" s="69" t="s">
+      <c r="D17" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="69" t="s">
+      <c r="E17" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="F17" s="69"/>
-      <c r="G17" s="71" t="s">
+      <c r="F17" s="25"/>
+      <c r="G17" s="27" t="s">
         <v>397</v>
       </c>
-      <c r="H17" s="70" t="s">
+      <c r="H17" s="26" t="s">
         <v>398</v>
       </c>
-      <c r="J17" s="68" t="s">
+      <c r="J17" s="24" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="2:11" s="68" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B18" s="69">
+    <row r="18" spans="2:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B18" s="25">
         <v>13</v>
       </c>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="D18" s="69" t="s">
+      <c r="D18" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="69" t="s">
+      <c r="E18" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="69" t="s">
+      <c r="F18" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="G18" s="69" t="s">
+      <c r="G18" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="H18" s="70" t="s">
+      <c r="H18" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="J18" s="68" t="s">
+      <c r="J18" s="24" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="19" spans="2:11" s="68" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="B19" s="69">
+    <row r="19" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B19" s="25">
         <v>14</v>
       </c>
-      <c r="C19" s="69" t="s">
+      <c r="C19" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="D19" s="69" t="s">
+      <c r="D19" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="69" t="s">
+      <c r="E19" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="F19" s="69" t="s">
+      <c r="F19" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="G19" s="69" t="s">
+      <c r="G19" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="H19" s="70" t="s">
+      <c r="H19" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="J19" s="68" t="s">
+      <c r="J19" s="24" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="20" spans="2:11" s="68" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="B20" s="69">
+    <row r="20" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B20" s="25">
         <v>15</v>
       </c>
-      <c r="C20" s="69" t="s">
+      <c r="C20" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="D20" s="69" t="s">
+      <c r="D20" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E20" s="69" t="s">
+      <c r="E20" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="F20" s="69" t="s">
+      <c r="F20" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="G20" s="69" t="s">
+      <c r="G20" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="H20" s="70" t="s">
+      <c r="H20" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="J20" s="68" t="s">
+      <c r="J20" s="24" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="21" spans="2:11" s="68" customFormat="1" ht="66" x14ac:dyDescent="0.3">
-      <c r="B21" s="69">
+    <row r="21" spans="2:11" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B21" s="25">
         <v>16</v>
       </c>
-      <c r="C21" s="69" t="s">
+      <c r="C21" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="D21" s="69" t="s">
+      <c r="D21" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="E21" s="69" t="s">
+      <c r="E21" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="F21" s="69" t="s">
+      <c r="F21" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="G21" s="69" t="s">
+      <c r="G21" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="H21" s="70" t="s">
+      <c r="H21" s="26" t="s">
         <v>385</v>
       </c>
-      <c r="J21" s="68" t="s">
+      <c r="J21" s="24" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="2:11" s="73" customFormat="1" ht="66" x14ac:dyDescent="0.3">
-      <c r="B22" s="71">
+    <row r="22" spans="2:11" s="29" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B22" s="27">
         <v>17</v>
       </c>
-      <c r="C22" s="71" t="s">
+      <c r="C22" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="D22" s="71" t="s">
+      <c r="D22" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="E22" s="71" t="s">
+      <c r="E22" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="F22" s="71" t="s">
+      <c r="F22" s="27" t="s">
         <v>270</v>
       </c>
-      <c r="G22" s="71" t="s">
+      <c r="G22" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="H22" s="72" t="s">
+      <c r="H22" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="J22" s="73" t="s">
+      <c r="J22" s="29" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="23" spans="2:11" s="68" customFormat="1" ht="66" x14ac:dyDescent="0.3">
-      <c r="B23" s="69">
+    <row r="23" spans="2:11" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B23" s="25">
         <v>18</v>
       </c>
-      <c r="C23" s="69" t="s">
+      <c r="C23" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="D23" s="69" t="s">
+      <c r="D23" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E23" s="69" t="s">
+      <c r="E23" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="F23" s="69" t="s">
+      <c r="F23" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="G23" s="69" t="s">
+      <c r="G23" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="H23" s="70" t="s">
+      <c r="H23" s="26" t="s">
         <v>399</v>
       </c>
-      <c r="J23" s="68" t="s">
+      <c r="J23" s="24" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="24" spans="2:11" s="68" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B24" s="69">
+    <row r="24" spans="2:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B24" s="25">
         <v>19</v>
       </c>
-      <c r="C24" s="69" t="s">
+      <c r="C24" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="D24" s="69" t="s">
+      <c r="D24" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="E24" s="69" t="s">
+      <c r="E24" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="F24" s="69" t="s">
+      <c r="F24" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="G24" s="69" t="s">
+      <c r="G24" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="H24" s="72" t="s">
+      <c r="H24" s="28" t="s">
         <v>400</v>
       </c>
-      <c r="J24" s="68" t="s">
+      <c r="J24" s="24" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="25" spans="2:11" s="68" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="B25" s="69">
+    <row r="25" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B25" s="25">
         <v>20</v>
       </c>
-      <c r="C25" s="69" t="s">
+      <c r="C25" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="D25" s="69" t="s">
+      <c r="D25" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="E25" s="69" t="s">
+      <c r="E25" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69" t="s">
+      <c r="F25" s="25"/>
+      <c r="G25" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="H25" s="70" t="s">
+      <c r="H25" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="J25" s="68" t="s">
+      <c r="J25" s="24" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="26" spans="2:11" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="69">
+    <row r="26" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="25">
         <v>21</v>
       </c>
-      <c r="C26" s="69" t="s">
+      <c r="C26" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="D26" s="69" t="s">
+      <c r="D26" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="E26" s="69" t="s">
+      <c r="E26" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69" t="s">
+      <c r="F26" s="25"/>
+      <c r="G26" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="H26" s="70" t="s">
+      <c r="H26" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="J26" s="68" t="s">
+      <c r="J26" s="24" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="27" spans="2:11" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="69">
+    <row r="27" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="25">
         <v>22</v>
       </c>
-      <c r="C27" s="69" t="s">
+      <c r="C27" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="D27" s="69" t="s">
+      <c r="D27" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="E27" s="69" t="s">
+      <c r="E27" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="F27" s="69" t="s">
+      <c r="F27" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="G27" s="69" t="s">
+      <c r="G27" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="H27" s="72" t="s">
+      <c r="H27" s="28" t="s">
         <v>401</v>
       </c>
-      <c r="J27" s="68" t="s">
+      <c r="J27" s="24" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="28" spans="2:11" s="68" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B28" s="69">
+    <row r="28" spans="2:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B28" s="25">
         <v>23</v>
       </c>
-      <c r="C28" s="71" t="s">
+      <c r="C28" s="27" t="s">
         <v>403</v>
       </c>
-      <c r="D28" s="69" t="s">
+      <c r="D28" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E28" s="69" t="s">
+      <c r="E28" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69" t="s">
+      <c r="F28" s="25"/>
+      <c r="G28" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="H28" s="70" t="s">
+      <c r="H28" s="26" t="s">
         <v>402</v>
       </c>
-      <c r="I28" s="68" t="s">
+      <c r="I28" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="J28" s="68" t="s">
+      <c r="J28" s="24" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="29" spans="2:11" s="68" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="B29" s="69">
+    <row r="29" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B29" s="25">
         <v>24</v>
       </c>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="D29" s="69" t="s">
+      <c r="D29" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E29" s="69" t="s">
+      <c r="E29" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="F29" s="69" t="s">
+      <c r="F29" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="G29" s="69" t="s">
+      <c r="G29" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="H29" s="70" t="s">
+      <c r="H29" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="J29" s="68" t="s">
+      <c r="J29" s="24" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="30" spans="2:11" s="68" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B30" s="69">
+    <row r="30" spans="2:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B30" s="25">
         <v>25</v>
       </c>
-      <c r="C30" s="69" t="s">
+      <c r="C30" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="D30" s="69" t="s">
+      <c r="D30" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="E30" s="69" t="s">
+      <c r="E30" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="F30" s="69" t="s">
+      <c r="F30" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="G30" s="69" t="s">
+      <c r="G30" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="H30" s="70" t="s">
+      <c r="H30" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="I30" s="68" t="s">
+      <c r="I30" s="24" t="s">
         <v>386</v>
       </c>
-      <c r="J30" s="68" t="s">
+      <c r="J30" s="24" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="31" spans="2:11" s="68" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="B31" s="69">
+    <row r="31" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B31" s="25">
         <v>26</v>
       </c>
-      <c r="C31" s="69" t="s">
+      <c r="C31" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="D31" s="69" t="s">
+      <c r="D31" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="E31" s="69" t="s">
+      <c r="E31" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="F31" s="69" t="s">
+      <c r="F31" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="G31" s="69" t="s">
+      <c r="G31" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="H31" s="70" t="s">
+      <c r="H31" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="I31" s="68" t="s">
+      <c r="I31" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="J31" s="68" t="s">
+      <c r="J31" s="24" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="32" spans="2:11" s="73" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="B32" s="71">
+    <row r="32" spans="2:11" s="29" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B32" s="27">
         <v>27</v>
       </c>
-      <c r="C32" s="71" t="s">
+      <c r="C32" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="D32" s="71" t="s">
+      <c r="D32" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="E32" s="71" t="s">
+      <c r="E32" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71" t="s">
+      <c r="F32" s="27"/>
+      <c r="G32" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="H32" s="72" t="s">
+      <c r="H32" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="J32" s="73" t="s">
+      <c r="J32" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="K32" s="73" t="s">
+      <c r="K32" s="29" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="33" spans="2:11" s="73" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="B33" s="71">
+    <row r="33" spans="2:11" s="29" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B33" s="27">
         <v>28</v>
       </c>
-      <c r="C33" s="71" t="s">
+      <c r="C33" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="D33" s="71" t="s">
+      <c r="D33" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="71" t="s">
+      <c r="E33" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="F33" s="71" t="s">
+      <c r="F33" s="27" t="s">
         <v>270</v>
       </c>
-      <c r="G33" s="71" t="s">
+      <c r="G33" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="H33" s="72" t="s">
+      <c r="H33" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="J33" s="73" t="s">
+      <c r="J33" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="K33" s="73" t="s">
+      <c r="K33" s="29" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="34" spans="2:11" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="69">
+    <row r="34" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="25">
         <v>29</v>
       </c>
-      <c r="C34" s="69" t="s">
+      <c r="C34" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="D34" s="69" t="s">
+      <c r="D34" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E34" s="69" t="s">
+      <c r="E34" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="F34" s="69" t="s">
+      <c r="F34" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="G34" s="69" t="s">
+      <c r="G34" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="H34" s="70" t="s">
+      <c r="H34" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="J34" s="68" t="s">
+      <c r="J34" s="24" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="35" spans="2:11" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="69">
+    <row r="35" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="25">
         <v>30</v>
       </c>
-      <c r="C35" s="69" t="s">
+      <c r="C35" s="25" t="s">
         <v>387</v>
       </c>
-      <c r="D35" s="69" t="s">
+      <c r="D35" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E35" s="69" t="s">
+      <c r="E35" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="F35" s="69" t="s">
+      <c r="F35" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="G35" s="69" t="s">
+      <c r="G35" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="H35" s="70" t="s">
+      <c r="H35" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="J35" s="68" t="s">
+      <c r="J35" s="24" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="36" spans="2:11" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="69">
+    <row r="36" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="25">
         <v>31</v>
       </c>
-      <c r="C36" s="69" t="s">
+      <c r="C36" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="D36" s="69" t="s">
+      <c r="D36" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="69" t="s">
+      <c r="E36" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="F36" s="69"/>
-      <c r="G36" s="69" t="s">
+      <c r="F36" s="25"/>
+      <c r="G36" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="H36" s="70" t="s">
+      <c r="H36" s="26" t="s">
         <v>388</v>
       </c>
-      <c r="J36" s="68" t="s">
+      <c r="J36" s="24" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="37" spans="2:11" s="76" customFormat="1" ht="66" x14ac:dyDescent="0.3">
-      <c r="B37" s="74">
+    <row r="37" spans="2:11" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B37" s="25">
         <v>32</v>
       </c>
-      <c r="C37" s="74" t="s">
+      <c r="C37" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="D37" s="74" t="s">
+      <c r="D37" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E37" s="74" t="s">
+      <c r="E37" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="F37" s="74" t="s">
+      <c r="F37" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="G37" s="74" t="s">
+      <c r="G37" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="H37" s="75" t="s">
+      <c r="H37" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="J37" s="76" t="s">
+      <c r="J37" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="K37" s="76" t="s">
+      <c r="K37" s="24" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="38" spans="2:11" s="76" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="B38" s="74">
+    <row r="38" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B38" s="25">
         <v>33</v>
       </c>
-      <c r="C38" s="74" t="s">
+      <c r="C38" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="D38" s="74" t="s">
+      <c r="D38" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E38" s="74" t="s">
+      <c r="E38" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="F38" s="74" t="s">
+      <c r="F38" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="G38" s="74" t="s">
+      <c r="G38" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="H38" s="75" t="s">
+      <c r="H38" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="J38" s="76" t="s">
+      <c r="J38" s="24" t="s">
         <v>317</v>
       </c>
-      <c r="K38" s="76" t="s">
+      <c r="K38" s="24" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="39" spans="2:11" s="76" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="B39" s="74">
+    <row r="39" spans="2:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="B39" s="16">
         <v>34</v>
       </c>
-      <c r="C39" s="74" t="s">
+      <c r="C39" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="D39" s="74" t="s">
+      <c r="D39" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="E39" s="74" t="s">
+      <c r="E39" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="F39" s="74" t="s">
+      <c r="F39" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="G39" s="74" t="s">
+      <c r="G39" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="H39" s="75" t="s">
+      <c r="H39" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="J39" s="76" t="s">
+      <c r="J39" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="K39" s="76" t="s">
+      <c r="K39" s="14" t="s">
         <v>394</v>
       </c>
     </row>
@@ -5111,34 +5102,34 @@
   <sheetData>
     <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="51"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="70"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="44">
+      <c r="B3" s="50">
         <v>1</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="59" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -5149,10 +5140,10 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="45"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
       <c r="H4" s="1" t="s">
@@ -5163,12 +5154,12 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="46"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
       <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
@@ -5177,22 +5168,22 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="28">
+      <c r="B6" s="37">
         <v>2</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="46" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -5203,10 +5194,10 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="29"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
       <c r="F7" s="35"/>
       <c r="G7" s="35"/>
       <c r="H7" s="1" t="s">
@@ -5217,10 +5208,10 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="30"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
       <c r="F8" s="36"/>
       <c r="G8" s="36"/>
       <c r="H8" s="7" t="s">
@@ -5231,22 +5222,22 @@
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="44">
+      <c r="B9" s="50">
         <v>3</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="52" t="s">
+      <c r="F9" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="52" t="s">
+      <c r="G9" s="59" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -5257,10 +5248,10 @@
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="45"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
       <c r="F10" s="35"/>
       <c r="G10" s="35"/>
       <c r="H10" s="1" t="s">
@@ -5271,12 +5262,12 @@
       </c>
     </row>
     <row r="11" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="46"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
       <c r="H11" s="2" t="s">
         <v>4</v>
       </c>
@@ -5285,22 +5276,22 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="28">
+      <c r="B12" s="37">
         <v>4</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="46" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -5311,10 +5302,10 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="29"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
       <c r="F13" s="35"/>
       <c r="G13" s="35"/>
       <c r="H13" s="1" t="s">
@@ -5325,10 +5316,10 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="30"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
       <c r="F14" s="36"/>
       <c r="G14" s="36"/>
       <c r="H14" s="7" t="s">
@@ -5339,22 +5330,22 @@
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="44">
+      <c r="B15" s="50">
         <v>5</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="F15" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="52" t="s">
+      <c r="G15" s="59" t="s">
         <v>31</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -5365,10 +5356,10 @@
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="45"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
       <c r="F16" s="35"/>
       <c r="G16" s="35"/>
       <c r="H16" s="1" t="s">
@@ -5379,12 +5370,12 @@
       </c>
     </row>
     <row r="17" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="46"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
       <c r="H17" s="2" t="s">
         <v>4</v>
       </c>
@@ -5393,22 +5384,22 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="28">
+      <c r="B18" s="37">
         <v>6</v>
       </c>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="34" t="s">
+      <c r="G18" s="46" t="s">
         <v>61</v>
       </c>
       <c r="H18" s="4" t="s">
@@ -5419,10 +5410,10 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="29"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
       <c r="F19" s="35"/>
       <c r="G19" s="35"/>
       <c r="H19" s="1" t="s">
@@ -5433,10 +5424,10 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="30"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
       <c r="F20" s="36"/>
       <c r="G20" s="36"/>
       <c r="H20" s="7" t="s">
@@ -5447,22 +5438,22 @@
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="44">
+      <c r="B21" s="50">
         <v>7</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="E21" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="34" t="s">
+      <c r="F21" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="34" t="s">
+      <c r="G21" s="46" t="s">
         <v>66</v>
       </c>
       <c r="H21" s="4" t="s">
@@ -5473,10 +5464,10 @@
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="45"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
       <c r="F22" s="35"/>
       <c r="G22" s="35"/>
       <c r="H22" s="1" t="s">
@@ -5487,10 +5478,10 @@
       </c>
     </row>
     <row r="23" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="46"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
       <c r="F23" s="36"/>
       <c r="G23" s="36"/>
       <c r="H23" s="7" t="s">
@@ -5501,22 +5492,22 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="28">
+      <c r="B24" s="37">
         <v>8</v>
       </c>
-      <c r="C24" s="47" t="s">
+      <c r="C24" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="42" t="s">
+      <c r="E24" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F24" s="52" t="s">
+      <c r="F24" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="52" t="s">
+      <c r="G24" s="59" t="s">
         <v>95</v>
       </c>
       <c r="H24" s="3" t="s">
@@ -5527,10 +5518,10 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="29"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
       <c r="F25" s="35"/>
       <c r="G25" s="35"/>
       <c r="H25" s="1" t="s">
@@ -5541,12 +5532,12 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="30"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
       <c r="H26" s="2" t="s">
         <v>4</v>
       </c>
@@ -5555,68 +5546,68 @@
       </c>
     </row>
     <row r="27" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="44">
+      <c r="B27" s="50">
         <v>9</v>
       </c>
-      <c r="C27" s="54" t="s">
+      <c r="C27" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="41" t="s">
+      <c r="D27" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="42" t="s">
+      <c r="E27" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="41" t="s">
+      <c r="F27" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="G27" s="41" t="s">
+      <c r="G27" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="41" t="s">
+      <c r="H27" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="I27" s="59" t="s">
+      <c r="I27" s="56" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="45"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="60"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="57"/>
     </row>
     <row r="29" spans="2:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="46"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="61"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="58"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="28">
+      <c r="B30" s="37">
         <v>10</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="41" t="s">
+      <c r="D30" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="42" t="s">
+      <c r="E30" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F30" s="41" t="s">
+      <c r="F30" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="41" t="s">
+      <c r="G30" s="43" t="s">
         <v>46</v>
       </c>
       <c r="H30" s="4" t="s">
@@ -5627,12 +5618,12 @@
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="29"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
       <c r="H31" s="1" t="s">
         <v>3</v>
       </c>
@@ -5641,12 +5632,12 @@
       </c>
     </row>
     <row r="32" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="30"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
       <c r="H32" s="7" t="s">
         <v>4</v>
       </c>
@@ -5655,22 +5646,22 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="44">
+      <c r="B33" s="50">
         <v>11</v>
       </c>
-      <c r="C33" s="58" t="s">
+      <c r="C33" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="41" t="s">
+      <c r="D33" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="42" t="s">
+      <c r="E33" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F33" s="34" t="s">
+      <c r="F33" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G33" s="37" t="s">
+      <c r="G33" s="34" t="s">
         <v>50</v>
       </c>
       <c r="H33" s="4" t="s">
@@ -5681,10 +5672,10 @@
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="45"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
       <c r="F34" s="35"/>
       <c r="G34" s="35"/>
       <c r="H34" s="1" t="s">
@@ -5695,10 +5686,10 @@
       </c>
     </row>
     <row r="35" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="46"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
       <c r="F35" s="36"/>
       <c r="G35" s="36"/>
       <c r="H35" s="7" t="s">
@@ -5709,22 +5700,22 @@
       </c>
     </row>
     <row r="36" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="28">
+      <c r="B36" s="37">
         <v>12</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="41" t="s">
+      <c r="D36" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E36" s="42" t="s">
+      <c r="E36" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F36" s="34" t="s">
+      <c r="F36" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G36" s="34" t="s">
+      <c r="G36" s="46" t="s">
         <v>84</v>
       </c>
       <c r="H36" s="4" t="s">
@@ -5735,10 +5726,10 @@
       </c>
     </row>
     <row r="37" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="29"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
       <c r="F37" s="35"/>
       <c r="G37" s="35"/>
       <c r="H37" s="1" t="s">
@@ -5749,10 +5740,10 @@
       </c>
     </row>
     <row r="38" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="30"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
       <c r="F38" s="36"/>
       <c r="G38" s="36"/>
       <c r="H38" s="7" t="s">
@@ -5763,22 +5754,22 @@
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="44">
+      <c r="B39" s="50">
         <v>13</v>
       </c>
-      <c r="C39" s="47" t="s">
+      <c r="C39" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="41" t="s">
+      <c r="D39" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E39" s="42" t="s">
+      <c r="E39" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F39" s="52" t="s">
+      <c r="F39" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="G39" s="57" t="s">
+      <c r="G39" s="67" t="s">
         <v>44</v>
       </c>
       <c r="H39" s="3" t="s">
@@ -5789,10 +5780,10 @@
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="45"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
       <c r="F40" s="35"/>
       <c r="G40" s="35"/>
       <c r="H40" s="1" t="s">
@@ -5803,12 +5794,12 @@
       </c>
     </row>
     <row r="41" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="46"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
       <c r="H41" s="2" t="s">
         <v>4</v>
       </c>
@@ -5817,22 +5808,22 @@
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="28">
+      <c r="B42" s="37">
         <v>14</v>
       </c>
-      <c r="C42" s="58" t="s">
+      <c r="C42" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="41" t="s">
+      <c r="D42" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E42" s="42" t="s">
+      <c r="E42" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F42" s="34" t="s">
+      <c r="F42" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G42" s="37" t="s">
+      <c r="G42" s="34" t="s">
         <v>54</v>
       </c>
       <c r="H42" s="4" t="s">
@@ -5843,10 +5834,10 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="29"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
       <c r="F43" s="35"/>
       <c r="G43" s="35"/>
       <c r="H43" s="1" t="s">
@@ -5857,10 +5848,10 @@
       </c>
     </row>
     <row r="44" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="30"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
       <c r="F44" s="36"/>
       <c r="G44" s="36"/>
       <c r="H44" s="7" t="s">
@@ -5871,22 +5862,22 @@
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="44">
+      <c r="B45" s="50">
         <v>15</v>
       </c>
-      <c r="C45" s="47" t="s">
+      <c r="C45" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="41" t="s">
+      <c r="D45" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E45" s="42" t="s">
+      <c r="E45" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F45" s="52" t="s">
+      <c r="F45" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="G45" s="52" t="s">
+      <c r="G45" s="59" t="s">
         <v>45</v>
       </c>
       <c r="H45" s="3" t="s">
@@ -5897,10 +5888,10 @@
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="45"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
       <c r="F46" s="35"/>
       <c r="G46" s="35"/>
       <c r="H46" s="1" t="s">
@@ -5911,12 +5902,12 @@
       </c>
     </row>
     <row r="47" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="46"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
       <c r="H47" s="2" t="s">
         <v>4</v>
       </c>
@@ -5925,22 +5916,22 @@
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="28">
+      <c r="B48" s="37">
         <v>16</v>
       </c>
-      <c r="C48" s="31" t="s">
+      <c r="C48" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="41" t="s">
+      <c r="D48" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E48" s="42" t="s">
+      <c r="E48" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F48" s="34" t="s">
+      <c r="F48" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G48" s="34" t="s">
+      <c r="G48" s="46" t="s">
         <v>56</v>
       </c>
       <c r="H48" s="4" t="s">
@@ -5951,10 +5942,10 @@
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="29"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
       <c r="F49" s="35"/>
       <c r="G49" s="35"/>
       <c r="H49" s="1" t="s">
@@ -5965,10 +5956,10 @@
       </c>
     </row>
     <row r="50" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="30"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
       <c r="F50" s="36"/>
       <c r="G50" s="36"/>
       <c r="H50" s="7" t="s">
@@ -5979,22 +5970,22 @@
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B51" s="44">
+      <c r="B51" s="50">
         <v>17</v>
       </c>
-      <c r="C51" s="31" t="s">
+      <c r="C51" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="41" t="s">
+      <c r="D51" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E51" s="42" t="s">
+      <c r="E51" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F51" s="34" t="s">
+      <c r="F51" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G51" s="34" t="s">
+      <c r="G51" s="46" t="s">
         <v>74</v>
       </c>
       <c r="H51" s="4" t="s">
@@ -6005,10 +5996,10 @@
       </c>
     </row>
     <row r="52" spans="2:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="B52" s="45"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
       <c r="F52" s="35"/>
       <c r="G52" s="35"/>
       <c r="H52" s="1" t="s">
@@ -6019,10 +6010,10 @@
       </c>
     </row>
     <row r="53" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="46"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45"/>
       <c r="F53" s="36"/>
       <c r="G53" s="36"/>
       <c r="H53" s="7" t="s">
@@ -6033,22 +6024,22 @@
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="28">
+      <c r="B54" s="37">
         <v>18</v>
       </c>
-      <c r="C54" s="31" t="s">
+      <c r="C54" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="41" t="s">
+      <c r="D54" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E54" s="42" t="s">
+      <c r="E54" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F54" s="34" t="s">
+      <c r="F54" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G54" s="37" t="s">
+      <c r="G54" s="34" t="s">
         <v>79</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -6059,10 +6050,10 @@
       </c>
     </row>
     <row r="55" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="29"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="42"/>
-      <c r="E55" s="42"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
       <c r="F55" s="35"/>
       <c r="G55" s="35"/>
       <c r="H55" s="1" t="s">
@@ -6073,10 +6064,10 @@
       </c>
     </row>
     <row r="56" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="30"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="43"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45"/>
       <c r="F56" s="36"/>
       <c r="G56" s="36"/>
       <c r="H56" s="7" t="s">
@@ -6087,22 +6078,22 @@
       </c>
     </row>
     <row r="57" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="44">
+      <c r="B57" s="50">
         <v>19</v>
       </c>
-      <c r="C57" s="31" t="s">
+      <c r="C57" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="D57" s="41" t="s">
+      <c r="D57" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E57" s="42" t="s">
+      <c r="E57" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F57" s="34" t="s">
+      <c r="F57" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G57" s="34" t="s">
+      <c r="G57" s="46" t="s">
         <v>89</v>
       </c>
       <c r="H57" s="4" t="s">
@@ -6113,10 +6104,10 @@
       </c>
     </row>
     <row r="58" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="45"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="42"/>
-      <c r="E58" s="42"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="44"/>
       <c r="F58" s="35"/>
       <c r="G58" s="35"/>
       <c r="H58" s="1" t="s">
@@ -6127,10 +6118,10 @@
       </c>
     </row>
     <row r="59" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="46"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
+      <c r="B59" s="52"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
       <c r="F59" s="36"/>
       <c r="G59" s="36"/>
       <c r="H59" s="7" t="s">
@@ -6141,22 +6132,22 @@
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="28">
+      <c r="B60" s="37">
         <v>20</v>
       </c>
-      <c r="C60" s="62" t="s">
+      <c r="C60" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="D60" s="41" t="s">
+      <c r="D60" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E60" s="42" t="s">
+      <c r="E60" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F60" s="34" t="s">
+      <c r="F60" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G60" s="37" t="s">
+      <c r="G60" s="34" t="s">
         <v>97</v>
       </c>
       <c r="H60" s="4" t="s">
@@ -6167,10 +6158,10 @@
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="29"/>
-      <c r="C61" s="63"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
       <c r="F61" s="35"/>
       <c r="G61" s="35"/>
       <c r="H61" s="1" t="s">
@@ -6181,10 +6172,10 @@
       </c>
     </row>
     <row r="62" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="30"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="43"/>
-      <c r="E62" s="43"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="45"/>
       <c r="F62" s="36"/>
       <c r="G62" s="36"/>
       <c r="H62" s="7" t="s">
@@ -6195,22 +6186,22 @@
       </c>
     </row>
     <row r="63" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="28">
+      <c r="B63" s="37">
         <v>21</v>
       </c>
-      <c r="C63" s="38" t="s">
+      <c r="C63" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="D63" s="41" t="s">
+      <c r="D63" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E63" s="41" t="s">
+      <c r="E63" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="F63" s="41" t="s">
+      <c r="F63" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="G63" s="65" t="s">
+      <c r="G63" s="47" t="s">
         <v>106</v>
       </c>
       <c r="H63" s="4" t="s">
@@ -6221,12 +6212,12 @@
       </c>
     </row>
     <row r="64" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="29"/>
-      <c r="C64" s="39"/>
-      <c r="D64" s="42"/>
-      <c r="E64" s="42"/>
-      <c r="F64" s="42"/>
-      <c r="G64" s="66"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="44"/>
+      <c r="G64" s="48"/>
       <c r="H64" s="1" t="s">
         <v>3</v>
       </c>
@@ -6235,12 +6226,12 @@
       </c>
     </row>
     <row r="65" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="30"/>
-      <c r="C65" s="40"/>
-      <c r="D65" s="43"/>
-      <c r="E65" s="43"/>
-      <c r="F65" s="43"/>
-      <c r="G65" s="67"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="73"/>
+      <c r="D65" s="45"/>
+      <c r="E65" s="45"/>
+      <c r="F65" s="45"/>
+      <c r="G65" s="49"/>
       <c r="H65" s="7" t="s">
         <v>4</v>
       </c>
@@ -6249,22 +6240,22 @@
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="28">
+      <c r="B66" s="37">
         <v>22</v>
       </c>
-      <c r="C66" s="62" t="s">
+      <c r="C66" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="D66" s="41" t="s">
+      <c r="D66" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E66" s="42" t="s">
+      <c r="E66" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F66" s="34" t="s">
+      <c r="F66" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G66" s="37" t="s">
+      <c r="G66" s="34" t="s">
         <v>97</v>
       </c>
       <c r="H66" s="4" t="s">
@@ -6275,10 +6266,10 @@
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B67" s="29"/>
-      <c r="C67" s="63"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="42"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="44"/>
       <c r="F67" s="35"/>
       <c r="G67" s="35"/>
       <c r="H67" s="1" t="s">
@@ -6289,10 +6280,10 @@
       </c>
     </row>
     <row r="68" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="30"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="43"/>
-      <c r="E68" s="43"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="45"/>
       <c r="F68" s="36"/>
       <c r="G68" s="36"/>
       <c r="H68" s="7" t="s">
@@ -6304,44 +6295,79 @@
     </row>
   </sheetData>
   <mergeCells count="135">
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D6:D8"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="D15:D17"/>
@@ -6366,79 +6392,44 @@
     <mergeCell ref="F15:F17"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="F18:F20"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="G57:G59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
+++ b/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53363E42-0FB3-4C42-A4AC-A8AA6334F3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C0B54D-0E53-40F6-91F1-C7825163A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9C64985F-4ADF-44CE-9572-0998CB538CFF}"/>
   </bookViews>
@@ -838,11 +838,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3개의 토사물 카드 중 하나를 선택하여 핸드로 가져온다
-만복도 -30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>소화제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1741,6 +1736,11 @@
   <si>
     <t>독의 숨결
 카드 이미지 불에서 독으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3개의 토사물 카드 중 하나를 선택하여 핸드로 가져온다
+만복도 -20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2469,22 +2469,106 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2497,96 +2581,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2925,8 +2925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E337946-5511-4AD1-8A21-3FB7BE6153D1}">
   <dimension ref="B1:K88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD38"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3002,7 +3002,7 @@
         <v>141</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>119</v>
@@ -3146,7 +3146,7 @@
         <v>131</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J10" s="23" t="s">
         <v>139</v>
@@ -3166,7 +3166,7 @@
         <v>133</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G11" s="21" t="s">
         <v>124</v>
@@ -3195,16 +3195,16 @@
         <v>120</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G12" s="21" t="s">
         <v>124</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3221,16 +3221,16 @@
         <v>120</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G13" s="21" t="s">
         <v>124</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3254,7 +3254,7 @@
         <v>160</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3275,10 +3275,10 @@
         <v>144</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3299,10 +3299,10 @@
         <v>130</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3320,13 +3320,13 @@
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="H17" s="26" t="s">
         <v>397</v>
       </c>
-      <c r="H17" s="26" t="s">
-        <v>398</v>
-      </c>
       <c r="J17" s="24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="2:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3343,7 +3343,7 @@
         <v>123</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G18" s="25" t="s">
         <v>144</v>
@@ -3352,7 +3352,7 @@
         <v>157</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3369,7 +3369,7 @@
         <v>123</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G19" s="25" t="s">
         <v>124</v>
@@ -3378,7 +3378,7 @@
         <v>159</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3395,7 +3395,7 @@
         <v>123</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G20" s="25" t="s">
         <v>130</v>
@@ -3404,7 +3404,7 @@
         <v>162</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="2:11" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -3421,16 +3421,16 @@
         <v>123</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G21" s="25" t="s">
         <v>124</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="2:11" s="29" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -3447,7 +3447,7 @@
         <v>123</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G22" s="27" t="s">
         <v>124</v>
@@ -3456,7 +3456,7 @@
         <v>165</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="2:11" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -3473,16 +3473,16 @@
         <v>123</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G23" s="25" t="s">
         <v>130</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="2:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3499,16 +3499,16 @@
         <v>123</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G24" s="25" t="s">
         <v>130</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J24" s="24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3532,7 +3532,7 @@
         <v>169</v>
       </c>
       <c r="J25" s="24" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3556,7 +3556,7 @@
         <v>170</v>
       </c>
       <c r="J26" s="24" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3573,16 +3573,16 @@
         <v>175</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G27" s="25" t="s">
         <v>144</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="28" spans="2:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3590,7 +3590,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D28" s="25" t="s">
         <v>102</v>
@@ -3603,13 +3603,13 @@
         <v>130</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I28" s="24" t="s">
         <v>172</v>
       </c>
       <c r="J28" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3626,16 +3626,16 @@
         <v>175</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G29" s="25" t="s">
         <v>144</v>
       </c>
       <c r="H29" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J29" s="24" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30" spans="2:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3652,19 +3652,19 @@
         <v>175</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G30" s="25" t="s">
         <v>130</v>
       </c>
       <c r="H30" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3681,7 +3681,7 @@
         <v>175</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G31" s="25" t="s">
         <v>124</v>
@@ -3693,7 +3693,7 @@
         <v>180</v>
       </c>
       <c r="J31" s="24" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="32" spans="2:11" s="29" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3717,10 +3717,10 @@
         <v>182</v>
       </c>
       <c r="J32" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="33" spans="2:11" s="29" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3737,19 +3737,19 @@
         <v>123</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G33" s="27" t="s">
         <v>130</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K33" s="29" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="34" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3766,7 +3766,7 @@
         <v>123</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G34" s="25" t="s">
         <v>124</v>
@@ -3775,7 +3775,7 @@
         <v>185</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3783,7 +3783,7 @@
         <v>30</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D35" s="25" t="s">
         <v>102</v>
@@ -3792,7 +3792,7 @@
         <v>175</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G35" s="25" t="s">
         <v>130</v>
@@ -3801,7 +3801,7 @@
         <v>186</v>
       </c>
       <c r="J35" s="24" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="36" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3822,10 +3822,10 @@
         <v>124</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J36" s="24" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="37" spans="2:11" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -3842,19 +3842,19 @@
         <v>120</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G37" s="25" t="s">
         <v>130</v>
       </c>
       <c r="H37" s="26" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J37" s="24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K37" s="24" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="38" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3871,48 +3871,48 @@
         <v>120</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G38" s="25" t="s">
         <v>130</v>
       </c>
       <c r="H38" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J38" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="K38" s="24" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B39" s="21">
+        <v>34</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="H39" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="J39" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="K38" s="24" t="s">
+      <c r="K39" s="23" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="B39" s="16">
-        <v>34</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="G39" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="J39" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="K39" s="14" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="33" x14ac:dyDescent="0.3">
@@ -3920,7 +3920,7 @@
         <v>35</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>102</v>
@@ -3932,10 +3932,10 @@
         <v>124</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J40" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="41" spans="2:11" ht="82.5" x14ac:dyDescent="0.3">
@@ -3943,7 +3943,7 @@
         <v>36</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>103</v>
@@ -3952,16 +3952,16 @@
         <v>123</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G41" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J41" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42" spans="2:11" ht="33" x14ac:dyDescent="0.3">
@@ -3969,7 +3969,7 @@
         <v>37</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>103</v>
@@ -3981,10 +3981,10 @@
         <v>144</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J42" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
@@ -3992,7 +3992,7 @@
         <v>38</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>102</v>
@@ -4004,10 +4004,10 @@
         <v>130</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J43" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
@@ -4015,7 +4015,7 @@
         <v>39</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D44" s="16" t="s">
         <v>102</v>
@@ -4027,10 +4027,10 @@
         <v>130</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J44" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
@@ -4038,7 +4038,7 @@
         <v>40</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D45" s="16" t="s">
         <v>102</v>
@@ -4047,16 +4047,16 @@
         <v>120</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G45" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
@@ -4064,7 +4064,7 @@
         <v>41</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D46" s="16" t="s">
         <v>102</v>
@@ -4073,16 +4073,16 @@
         <v>120</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G46" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
@@ -4090,7 +4090,7 @@
         <v>42</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D47" s="16" t="s">
         <v>102</v>
@@ -4099,16 +4099,16 @@
         <v>120</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G47" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J47" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
@@ -4116,7 +4116,7 @@
         <v>43</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>103</v>
@@ -4125,16 +4125,16 @@
         <v>120</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G48" s="16" t="s">
         <v>156</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J48" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="49" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4142,7 +4142,7 @@
         <v>44</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D49" s="16" t="s">
         <v>102</v>
@@ -4154,10 +4154,10 @@
         <v>124</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J49" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.3">
@@ -4165,7 +4165,7 @@
         <v>45</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D50" s="16" t="s">
         <v>102</v>
@@ -4177,13 +4177,13 @@
         <v>124</v>
       </c>
       <c r="H50" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="I50" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="I50" s="14" t="s">
-        <v>210</v>
-      </c>
       <c r="J50" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.3">
@@ -4191,7 +4191,7 @@
         <v>46</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D51" s="16" t="s">
         <v>101</v>
@@ -4203,13 +4203,13 @@
         <v>124</v>
       </c>
       <c r="H51" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="I51" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="I51" s="14" t="s">
-        <v>213</v>
-      </c>
       <c r="J51" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.3">
@@ -4217,7 +4217,7 @@
         <v>47</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D52" s="16" t="s">
         <v>101</v>
@@ -4229,13 +4229,13 @@
         <v>124</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J52" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.3">
@@ -4243,7 +4243,7 @@
         <v>48</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D53" s="16" t="s">
         <v>102</v>
@@ -4255,13 +4255,13 @@
         <v>130</v>
       </c>
       <c r="H53" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="I53" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="I53" s="14" t="s">
-        <v>219</v>
-      </c>
       <c r="J53" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="54" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -4269,7 +4269,7 @@
         <v>49</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D54" s="16" t="s">
         <v>103</v>
@@ -4281,10 +4281,10 @@
         <v>156</v>
       </c>
       <c r="H54" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="J54" s="14" t="s">
         <v>334</v>
-      </c>
-      <c r="J54" s="14" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.3">
@@ -4292,7 +4292,7 @@
         <v>50</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D55" s="16" t="s">
         <v>102</v>
@@ -4304,10 +4304,10 @@
         <v>124</v>
       </c>
       <c r="H55" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="56" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4315,7 +4315,7 @@
         <v>51</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D56" s="16" t="s">
         <v>103</v>
@@ -4327,10 +4327,10 @@
         <v>156</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J56" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.3">
@@ -4338,7 +4338,7 @@
         <v>52</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D57" s="16" t="s">
         <v>102</v>
@@ -4347,19 +4347,19 @@
         <v>175</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G57" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H57" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="I57" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="I57" s="14" t="s">
-        <v>224</v>
-      </c>
       <c r="J57" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="58" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4367,7 +4367,7 @@
         <v>53</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D58" s="16" t="s">
         <v>102</v>
@@ -4376,16 +4376,16 @@
         <v>175</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G58" s="16" t="s">
         <v>144</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J58" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="59" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -4405,10 +4405,10 @@
         <v>130</v>
       </c>
       <c r="H59" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J59" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="60" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4416,7 +4416,7 @@
         <v>55</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D60" s="16" t="s">
         <v>102</v>
@@ -4428,10 +4428,10 @@
         <v>130</v>
       </c>
       <c r="H60" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="J60" s="14" t="s">
         <v>344</v>
-      </c>
-      <c r="J60" s="14" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="61" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4439,7 +4439,7 @@
         <v>56</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D61" s="16" t="s">
         <v>101</v>
@@ -4451,10 +4451,10 @@
         <v>124</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J61" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.3">
@@ -4462,7 +4462,7 @@
         <v>57</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D62" s="16" t="s">
         <v>101</v>
@@ -4474,10 +4474,10 @@
         <v>124</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J62" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.3">
@@ -4485,7 +4485,7 @@
         <v>58</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D63" s="16" t="s">
         <v>102</v>
@@ -4497,10 +4497,10 @@
         <v>124</v>
       </c>
       <c r="H63" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J63" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="64" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4508,7 +4508,7 @@
         <v>59</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D64" s="16" t="s">
         <v>102</v>
@@ -4517,13 +4517,13 @@
         <v>123</v>
       </c>
       <c r="G64" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="H64" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="H64" s="15" t="s">
-        <v>249</v>
-      </c>
       <c r="J64" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="65" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4531,7 +4531,7 @@
         <v>60</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D65" s="16" t="s">
         <v>103</v>
@@ -4543,10 +4543,10 @@
         <v>144</v>
       </c>
       <c r="H65" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J65" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="66" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -4554,7 +4554,7 @@
         <v>61</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D66" s="16" t="s">
         <v>102</v>
@@ -4566,10 +4566,10 @@
         <v>130</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J66" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="67" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -4577,7 +4577,7 @@
         <v>62</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D67" s="16" t="s">
         <v>103</v>
@@ -4589,10 +4589,10 @@
         <v>130</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J67" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="68" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4600,7 +4600,7 @@
         <v>63</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D68" s="16" t="s">
         <v>102</v>
@@ -4612,10 +4612,10 @@
         <v>124</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J68" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="69" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4623,7 +4623,7 @@
         <v>64</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D69" s="16" t="s">
         <v>102</v>
@@ -4635,10 +4635,10 @@
         <v>124</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J69" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="70" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4646,7 +4646,7 @@
         <v>65</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D70" s="16" t="s">
         <v>102</v>
@@ -4655,16 +4655,16 @@
         <v>123</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G70" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H70" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="J70" s="14" t="s">
         <v>361</v>
-      </c>
-      <c r="J70" s="14" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.3">
@@ -4672,7 +4672,7 @@
         <v>66</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D71" s="16" t="s">
         <v>102</v>
@@ -4681,16 +4681,16 @@
         <v>123</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G71" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H71" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="J71" s="14" t="s">
         <v>364</v>
-      </c>
-      <c r="J71" s="14" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.3">
@@ -4698,7 +4698,7 @@
         <v>67</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D72" s="16" t="s">
         <v>101</v>
@@ -4707,16 +4707,16 @@
         <v>123</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G72" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H72" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J72" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.3">
@@ -4724,7 +4724,7 @@
         <v>68</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D73" s="16" t="s">
         <v>101</v>
@@ -4733,16 +4733,16 @@
         <v>175</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G73" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H73" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J73" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.3">
@@ -4750,7 +4750,7 @@
         <v>69</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D74" s="16" t="s">
         <v>102</v>
@@ -4759,16 +4759,16 @@
         <v>175</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G74" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J74" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="75" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -4776,7 +4776,7 @@
         <v>70</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D75" s="16" t="s">
         <v>103</v>
@@ -4785,16 +4785,16 @@
         <v>123</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G75" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J75" s="14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="76" spans="2:10" ht="66" x14ac:dyDescent="0.3">
@@ -4802,7 +4802,7 @@
         <v>71</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D76" s="16" t="s">
         <v>103</v>
@@ -4814,10 +4814,10 @@
         <v>156</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J76" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.3">
@@ -4825,7 +4825,7 @@
         <v>72</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D77" s="16" t="s">
         <v>101</v>
@@ -4834,16 +4834,16 @@
         <v>123</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G77" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J77" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.3">
@@ -4851,7 +4851,7 @@
         <v>73</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D78" s="16" t="s">
         <v>102</v>
@@ -4860,16 +4860,16 @@
         <v>123</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G78" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J78" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.3">
@@ -4877,7 +4877,7 @@
         <v>74</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D79" s="16" t="s">
         <v>101</v>
@@ -4886,16 +4886,16 @@
         <v>175</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G79" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J79" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="80" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4903,7 +4903,7 @@
         <v>75</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D80" s="16" t="s">
         <v>102</v>
@@ -4912,16 +4912,16 @@
         <v>175</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G80" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J80" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="81" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4929,7 +4929,7 @@
         <v>76</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D81" s="16" t="s">
         <v>102</v>
@@ -4938,16 +4938,16 @@
         <v>120</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G81" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J81" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="82" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4955,22 +4955,22 @@
         <v>77</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D82" s="16" t="s">
         <v>101</v>
       </c>
       <c r="E82" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="G82" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="G82" s="16" t="s">
-        <v>239</v>
-      </c>
       <c r="H82" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J82" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="83" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4978,25 +4978,25 @@
         <v>78</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D83" s="16" t="s">
         <v>102</v>
       </c>
       <c r="E83" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="F83" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="G83" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="F83" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="G83" s="16" t="s">
-        <v>239</v>
-      </c>
       <c r="H83" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J83" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="84" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5004,22 +5004,22 @@
         <v>79</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D84" s="16" t="s">
         <v>102</v>
       </c>
       <c r="E84" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="G84" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="G84" s="16" t="s">
-        <v>239</v>
-      </c>
       <c r="H84" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J84" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="85" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5027,30 +5027,30 @@
         <v>80</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D85" s="16" t="s">
         <v>103</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H85" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J85" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J87" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.3">
@@ -5058,19 +5058,19 @@
         <v>90</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D88" s="16" t="s">
         <v>101</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G88" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H88" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -5102,34 +5102,34 @@
   <sheetData>
     <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="70"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="50">
         <v>1</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="58" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -5141,11 +5141,11 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="51"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
       <c r="H4" s="1" t="s">
         <v>3</v>
       </c>
@@ -5155,11 +5155,11 @@
     </row>
     <row r="5" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="52"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
       <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
@@ -5168,22 +5168,22 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="37">
+      <c r="B6" s="34">
         <v>2</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="40" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -5194,12 +5194,12 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="38"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
       <c r="H7" s="1" t="s">
         <v>3</v>
       </c>
@@ -5208,12 +5208,12 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="39"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
       <c r="H8" s="7" t="s">
         <v>4</v>
       </c>
@@ -5225,19 +5225,19 @@
       <c r="B9" s="50">
         <v>3</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="59" t="s">
+      <c r="G9" s="58" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -5249,11 +5249,11 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="51"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
       <c r="H10" s="1" t="s">
         <v>3</v>
       </c>
@@ -5263,11 +5263,11 @@
     </row>
     <row r="11" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="52"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
       <c r="H11" s="2" t="s">
         <v>4</v>
       </c>
@@ -5276,22 +5276,22 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="37">
+      <c r="B12" s="34">
         <v>4</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="46" t="s">
+      <c r="F12" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="40" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -5302,12 +5302,12 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="38"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
       <c r="H13" s="1" t="s">
         <v>3</v>
       </c>
@@ -5316,12 +5316,12 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="39"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
       <c r="H14" s="7" t="s">
         <v>4</v>
       </c>
@@ -5333,19 +5333,19 @@
       <c r="B15" s="50">
         <v>5</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="59" t="s">
+      <c r="F15" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="59" t="s">
+      <c r="G15" s="58" t="s">
         <v>31</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -5357,11 +5357,11 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="51"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="1" t="s">
         <v>3</v>
       </c>
@@ -5371,11 +5371,11 @@
     </row>
     <row r="17" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="52"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
       <c r="H17" s="2" t="s">
         <v>4</v>
       </c>
@@ -5384,22 +5384,22 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="37">
+      <c r="B18" s="34">
         <v>6</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="46" t="s">
+      <c r="F18" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="46" t="s">
+      <c r="G18" s="40" t="s">
         <v>61</v>
       </c>
       <c r="H18" s="4" t="s">
@@ -5410,12 +5410,12 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="38"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
       <c r="H19" s="1" t="s">
         <v>3</v>
       </c>
@@ -5424,12 +5424,12 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="39"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
       <c r="H20" s="7" t="s">
         <v>4</v>
       </c>
@@ -5441,19 +5441,19 @@
       <c r="B21" s="50">
         <v>7</v>
       </c>
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="44" t="s">
+      <c r="E21" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="40" t="s">
         <v>66</v>
       </c>
       <c r="H21" s="4" t="s">
@@ -5465,11 +5465,11 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="51"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
       <c r="H22" s="1" t="s">
         <v>3</v>
       </c>
@@ -5479,11 +5479,11 @@
     </row>
     <row r="23" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="52"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
       <c r="H23" s="7" t="s">
         <v>4</v>
       </c>
@@ -5492,22 +5492,22 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="37">
+      <c r="B24" s="34">
         <v>8</v>
       </c>
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="E24" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F24" s="59" t="s">
+      <c r="F24" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="59" t="s">
+      <c r="G24" s="58" t="s">
         <v>95</v>
       </c>
       <c r="H24" s="3" t="s">
@@ -5518,12 +5518,12 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="38"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
       <c r="H25" s="1" t="s">
         <v>3</v>
       </c>
@@ -5532,12 +5532,12 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="39"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
       <c r="H26" s="2" t="s">
         <v>4</v>
       </c>
@@ -5549,65 +5549,65 @@
       <c r="B27" s="50">
         <v>9</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="43" t="s">
+      <c r="D27" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="44" t="s">
+      <c r="E27" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="43" t="s">
+      <c r="F27" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G27" s="43" t="s">
+      <c r="G27" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="43" t="s">
+      <c r="H27" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="I27" s="56" t="s">
+      <c r="I27" s="65" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="51"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="57"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="66"/>
     </row>
     <row r="29" spans="2:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="52"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="58"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="67"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="37">
+      <c r="B30" s="34">
         <v>10</v>
       </c>
-      <c r="C30" s="61" t="s">
+      <c r="C30" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="43" t="s">
+      <c r="D30" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="44" t="s">
+      <c r="E30" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F30" s="43" t="s">
+      <c r="F30" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="43" t="s">
+      <c r="G30" s="47" t="s">
         <v>46</v>
       </c>
       <c r="H30" s="4" t="s">
@@ -5618,12 +5618,12 @@
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="38"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
       <c r="H31" s="1" t="s">
         <v>3</v>
       </c>
@@ -5632,12 +5632,12 @@
       </c>
     </row>
     <row r="32" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="39"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
       <c r="H32" s="7" t="s">
         <v>4</v>
       </c>
@@ -5649,19 +5649,19 @@
       <c r="B33" s="50">
         <v>11</v>
       </c>
-      <c r="C33" s="66" t="s">
+      <c r="C33" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="43" t="s">
+      <c r="D33" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="44" t="s">
+      <c r="E33" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F33" s="46" t="s">
+      <c r="F33" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G33" s="34" t="s">
+      <c r="G33" s="43" t="s">
         <v>50</v>
       </c>
       <c r="H33" s="4" t="s">
@@ -5673,11 +5673,11 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="51"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
       <c r="H34" s="1" t="s">
         <v>3</v>
       </c>
@@ -5687,11 +5687,11 @@
     </row>
     <row r="35" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="52"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
       <c r="H35" s="7" t="s">
         <v>4</v>
       </c>
@@ -5700,22 +5700,22 @@
       </c>
     </row>
     <row r="36" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="37">
+      <c r="B36" s="34">
         <v>12</v>
       </c>
-      <c r="C36" s="53" t="s">
+      <c r="C36" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="43" t="s">
+      <c r="D36" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E36" s="44" t="s">
+      <c r="E36" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F36" s="46" t="s">
+      <c r="F36" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G36" s="46" t="s">
+      <c r="G36" s="40" t="s">
         <v>84</v>
       </c>
       <c r="H36" s="4" t="s">
@@ -5726,12 +5726,12 @@
       </c>
     </row>
     <row r="37" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="38"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
       <c r="H37" s="1" t="s">
         <v>3</v>
       </c>
@@ -5740,12 +5740,12 @@
       </c>
     </row>
     <row r="38" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="39"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
       <c r="H38" s="7" t="s">
         <v>4</v>
       </c>
@@ -5757,19 +5757,19 @@
       <c r="B39" s="50">
         <v>13</v>
       </c>
-      <c r="C39" s="64" t="s">
+      <c r="C39" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="43" t="s">
+      <c r="D39" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E39" s="44" t="s">
+      <c r="E39" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F39" s="59" t="s">
+      <c r="F39" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="G39" s="67" t="s">
+      <c r="G39" s="63" t="s">
         <v>44</v>
       </c>
       <c r="H39" s="3" t="s">
@@ -5781,11 +5781,11 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="51"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
       <c r="H40" s="1" t="s">
         <v>3</v>
       </c>
@@ -5795,11 +5795,11 @@
     </row>
     <row r="41" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="52"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
       <c r="H41" s="2" t="s">
         <v>4</v>
       </c>
@@ -5808,22 +5808,22 @@
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="37">
+      <c r="B42" s="34">
         <v>14</v>
       </c>
-      <c r="C42" s="66" t="s">
+      <c r="C42" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="43" t="s">
+      <c r="D42" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E42" s="44" t="s">
+      <c r="E42" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F42" s="46" t="s">
+      <c r="F42" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="G42" s="34" t="s">
+      <c r="G42" s="43" t="s">
         <v>54</v>
       </c>
       <c r="H42" s="4" t="s">
@@ -5834,12 +5834,12 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="38"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
       <c r="H43" s="1" t="s">
         <v>3</v>
       </c>
@@ -5848,12 +5848,12 @@
       </c>
     </row>
     <row r="44" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="39"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
       <c r="H44" s="7" t="s">
         <v>4</v>
       </c>
@@ -5865,19 +5865,19 @@
       <c r="B45" s="50">
         <v>15</v>
       </c>
-      <c r="C45" s="64" t="s">
+      <c r="C45" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="43" t="s">
+      <c r="D45" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E45" s="44" t="s">
+      <c r="E45" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F45" s="59" t="s">
+      <c r="F45" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="G45" s="59" t="s">
+      <c r="G45" s="58" t="s">
         <v>45</v>
       </c>
       <c r="H45" s="3" t="s">
@@ -5889,11 +5889,11 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="51"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
       <c r="H46" s="1" t="s">
         <v>3</v>
       </c>
@@ -5903,11 +5903,11 @@
     </row>
     <row r="47" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="52"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
       <c r="H47" s="2" t="s">
         <v>4</v>
       </c>
@@ -5916,22 +5916,22 @@
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="37">
+      <c r="B48" s="34">
         <v>16</v>
       </c>
-      <c r="C48" s="53" t="s">
+      <c r="C48" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="43" t="s">
+      <c r="D48" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E48" s="44" t="s">
+      <c r="E48" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F48" s="46" t="s">
+      <c r="F48" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="G48" s="46" t="s">
+      <c r="G48" s="40" t="s">
         <v>56</v>
       </c>
       <c r="H48" s="4" t="s">
@@ -5942,12 +5942,12 @@
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="38"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
       <c r="H49" s="1" t="s">
         <v>3</v>
       </c>
@@ -5956,12 +5956,12 @@
       </c>
     </row>
     <row r="50" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="39"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
       <c r="H50" s="7" t="s">
         <v>4</v>
       </c>
@@ -5973,19 +5973,19 @@
       <c r="B51" s="50">
         <v>17</v>
       </c>
-      <c r="C51" s="53" t="s">
+      <c r="C51" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="43" t="s">
+      <c r="D51" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E51" s="44" t="s">
+      <c r="E51" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F51" s="46" t="s">
+      <c r="F51" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G51" s="46" t="s">
+      <c r="G51" s="40" t="s">
         <v>74</v>
       </c>
       <c r="H51" s="4" t="s">
@@ -5997,11 +5997,11 @@
     </row>
     <row r="52" spans="2:9" ht="33" x14ac:dyDescent="0.3">
       <c r="B52" s="51"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
       <c r="H52" s="1" t="s">
         <v>3</v>
       </c>
@@ -6011,11 +6011,11 @@
     </row>
     <row r="53" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="52"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
       <c r="H53" s="7" t="s">
         <v>4</v>
       </c>
@@ -6024,22 +6024,22 @@
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="37">
+      <c r="B54" s="34">
         <v>18</v>
       </c>
-      <c r="C54" s="53" t="s">
+      <c r="C54" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="43" t="s">
+      <c r="D54" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E54" s="44" t="s">
+      <c r="E54" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F54" s="46" t="s">
+      <c r="F54" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G54" s="34" t="s">
+      <c r="G54" s="43" t="s">
         <v>79</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -6050,12 +6050,12 @@
       </c>
     </row>
     <row r="55" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="38"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
       </c>
@@ -6064,12 +6064,12 @@
       </c>
     </row>
     <row r="56" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="39"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="45"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
       <c r="H56" s="7" t="s">
         <v>4</v>
       </c>
@@ -6081,19 +6081,19 @@
       <c r="B57" s="50">
         <v>19</v>
       </c>
-      <c r="C57" s="53" t="s">
+      <c r="C57" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="D57" s="43" t="s">
+      <c r="D57" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E57" s="44" t="s">
+      <c r="E57" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F57" s="46" t="s">
+      <c r="F57" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G57" s="46" t="s">
+      <c r="G57" s="40" t="s">
         <v>89</v>
       </c>
       <c r="H57" s="4" t="s">
@@ -6105,11 +6105,11 @@
     </row>
     <row r="58" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="51"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
       <c r="H58" s="1" t="s">
         <v>3</v>
       </c>
@@ -6119,11 +6119,11 @@
     </row>
     <row r="59" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="52"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
       <c r="H59" s="7" t="s">
         <v>4</v>
       </c>
@@ -6132,22 +6132,22 @@
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="37">
+      <c r="B60" s="34">
         <v>20</v>
       </c>
-      <c r="C60" s="40" t="s">
+      <c r="C60" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="D60" s="43" t="s">
+      <c r="D60" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E60" s="44" t="s">
+      <c r="E60" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F60" s="46" t="s">
+      <c r="F60" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="G60" s="34" t="s">
+      <c r="G60" s="43" t="s">
         <v>97</v>
       </c>
       <c r="H60" s="4" t="s">
@@ -6158,12 +6158,12 @@
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="38"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
       <c r="H61" s="1" t="s">
         <v>3</v>
       </c>
@@ -6172,12 +6172,12 @@
       </c>
     </row>
     <row r="62" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="39"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="45"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
       <c r="H62" s="7" t="s">
         <v>4</v>
       </c>
@@ -6186,22 +6186,22 @@
       </c>
     </row>
     <row r="63" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="37">
+      <c r="B63" s="34">
         <v>21</v>
       </c>
-      <c r="C63" s="71" t="s">
+      <c r="C63" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="D63" s="43" t="s">
+      <c r="D63" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E63" s="43" t="s">
+      <c r="E63" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="F63" s="43" t="s">
+      <c r="F63" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G63" s="47" t="s">
+      <c r="G63" s="71" t="s">
         <v>106</v>
       </c>
       <c r="H63" s="4" t="s">
@@ -6212,12 +6212,12 @@
       </c>
     </row>
     <row r="64" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="38"/>
-      <c r="C64" s="72"/>
-      <c r="D64" s="44"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="44"/>
-      <c r="G64" s="48"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="48"/>
+      <c r="E64" s="48"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="72"/>
       <c r="H64" s="1" t="s">
         <v>3</v>
       </c>
@@ -6226,12 +6226,12 @@
       </c>
     </row>
     <row r="65" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="39"/>
-      <c r="C65" s="73"/>
-      <c r="D65" s="45"/>
-      <c r="E65" s="45"/>
-      <c r="F65" s="45"/>
-      <c r="G65" s="49"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="73"/>
       <c r="H65" s="7" t="s">
         <v>4</v>
       </c>
@@ -6240,22 +6240,22 @@
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="37">
+      <c r="B66" s="34">
         <v>22</v>
       </c>
-      <c r="C66" s="40" t="s">
+      <c r="C66" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="D66" s="43" t="s">
+      <c r="D66" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E66" s="44" t="s">
+      <c r="E66" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F66" s="46" t="s">
+      <c r="F66" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="G66" s="34" t="s">
+      <c r="G66" s="43" t="s">
         <v>97</v>
       </c>
       <c r="H66" s="4" t="s">
@@ -6266,12 +6266,12 @@
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B67" s="38"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="44"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="48"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="41"/>
       <c r="H67" s="1" t="s">
         <v>3</v>
       </c>
@@ -6280,12 +6280,12 @@
       </c>
     </row>
     <row r="68" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="39"/>
-      <c r="C68" s="42"/>
-      <c r="D68" s="45"/>
-      <c r="E68" s="45"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
       <c r="H68" s="7" t="s">
         <v>4</v>
       </c>
@@ -6295,6 +6295,117 @@
     </row>
   </sheetData>
   <mergeCells count="135">
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="F51:F53"/>
     <mergeCell ref="B54:B56"/>
     <mergeCell ref="C54:C56"/>
     <mergeCell ref="F54:F56"/>
@@ -6319,117 +6430,6 @@
     <mergeCell ref="E42:E44"/>
     <mergeCell ref="E48:E50"/>
     <mergeCell ref="E51:E53"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="G57:G59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
+++ b/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C0B54D-0E53-40F6-91F1-C7825163A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C34FC8-FAD1-4AED-B400-E3392B213F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9C64985F-4ADF-44CE-9572-0998CB538CFF}"/>
   </bookViews>
@@ -992,11 +992,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전투 종료 시 루시의 체력을 10 회복 시킨다
-소화 불량 카드 1개를 소멸 시킨다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아군 전체 공격력 상승
 만복도 + 30
 소화불량 카드 1개 획득</t>
@@ -1741,6 +1736,11 @@
   <si>
     <t>3개의 토사물 카드 중 하나를 선택하여 핸드로 가져온다
 만복도 -20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 종료 시 루시의 체력을 5 회복 시킨다
+소화 불량 카드 1개를 소멸 시킨다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2469,6 +2469,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2478,6 +2487,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2487,17 +2535,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2506,87 +2587,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3002,7 +3002,7 @@
         <v>141</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>119</v>
@@ -3146,7 +3146,7 @@
         <v>131</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J10" s="23" t="s">
         <v>139</v>
@@ -3166,7 +3166,7 @@
         <v>133</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G11" s="21" t="s">
         <v>124</v>
@@ -3195,7 +3195,7 @@
         <v>120</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G12" s="21" t="s">
         <v>124</v>
@@ -3204,7 +3204,7 @@
         <v>224</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3221,7 +3221,7 @@
         <v>120</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G13" s="21" t="s">
         <v>124</v>
@@ -3230,7 +3230,7 @@
         <v>225</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3254,7 +3254,7 @@
         <v>160</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3275,10 +3275,10 @@
         <v>144</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3299,10 +3299,10 @@
         <v>130</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3320,13 +3320,13 @@
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="H17" s="26" t="s">
         <v>396</v>
       </c>
-      <c r="H17" s="26" t="s">
-        <v>397</v>
-      </c>
       <c r="J17" s="24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="2:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3343,7 +3343,7 @@
         <v>123</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G18" s="25" t="s">
         <v>144</v>
@@ -3352,7 +3352,7 @@
         <v>157</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3369,7 +3369,7 @@
         <v>123</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G19" s="25" t="s">
         <v>124</v>
@@ -3378,7 +3378,7 @@
         <v>159</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3395,7 +3395,7 @@
         <v>123</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G20" s="25" t="s">
         <v>130</v>
@@ -3404,7 +3404,7 @@
         <v>162</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="2:11" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -3421,16 +3421,16 @@
         <v>123</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G21" s="25" t="s">
         <v>124</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="2:11" s="29" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -3447,7 +3447,7 @@
         <v>123</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G22" s="27" t="s">
         <v>124</v>
@@ -3456,7 +3456,7 @@
         <v>165</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="2:11" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -3473,16 +3473,16 @@
         <v>123</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G23" s="25" t="s">
         <v>130</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="2:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3499,16 +3499,16 @@
         <v>123</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G24" s="25" t="s">
         <v>130</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J24" s="24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3532,7 +3532,7 @@
         <v>169</v>
       </c>
       <c r="J25" s="24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3556,7 +3556,7 @@
         <v>170</v>
       </c>
       <c r="J26" s="24" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3573,16 +3573,16 @@
         <v>175</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G27" s="25" t="s">
         <v>144</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="2:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3590,7 +3590,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D28" s="25" t="s">
         <v>102</v>
@@ -3603,13 +3603,13 @@
         <v>130</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I28" s="24" t="s">
         <v>172</v>
       </c>
       <c r="J28" s="24" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3626,16 +3626,16 @@
         <v>175</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G29" s="25" t="s">
         <v>144</v>
       </c>
       <c r="H29" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J29" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="2:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3652,19 +3652,19 @@
         <v>175</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G30" s="25" t="s">
         <v>130</v>
       </c>
       <c r="H30" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3681,7 +3681,7 @@
         <v>175</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G31" s="25" t="s">
         <v>124</v>
@@ -3693,7 +3693,7 @@
         <v>180</v>
       </c>
       <c r="J31" s="24" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32" spans="2:11" s="29" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3717,10 +3717,10 @@
         <v>182</v>
       </c>
       <c r="J32" s="29" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="33" spans="2:11" s="29" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3737,19 +3737,19 @@
         <v>123</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G33" s="27" t="s">
         <v>130</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K33" s="29" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="34" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3766,7 +3766,7 @@
         <v>123</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G34" s="25" t="s">
         <v>124</v>
@@ -3775,7 +3775,7 @@
         <v>185</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="35" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3783,7 +3783,7 @@
         <v>30</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D35" s="25" t="s">
         <v>102</v>
@@ -3792,7 +3792,7 @@
         <v>175</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G35" s="25" t="s">
         <v>130</v>
@@ -3801,7 +3801,7 @@
         <v>186</v>
       </c>
       <c r="J35" s="24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="36" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3822,10 +3822,10 @@
         <v>124</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J36" s="24" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="37" spans="2:11" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -3842,19 +3842,19 @@
         <v>120</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G37" s="25" t="s">
         <v>130</v>
       </c>
       <c r="H37" s="26" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J37" s="24" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K37" s="24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="38" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3871,7 +3871,7 @@
         <v>120</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G38" s="25" t="s">
         <v>130</v>
@@ -3880,10 +3880,10 @@
         <v>226</v>
       </c>
       <c r="J38" s="24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K38" s="24" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="39" spans="2:11" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3900,19 +3900,19 @@
         <v>123</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G39" s="21" t="s">
         <v>124</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J39" s="23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K39" s="23" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="33" x14ac:dyDescent="0.3">
@@ -3932,10 +3932,10 @@
         <v>124</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>228</v>
+        <v>403</v>
       </c>
       <c r="J40" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="41" spans="2:11" ht="82.5" x14ac:dyDescent="0.3">
@@ -3952,16 +3952,16 @@
         <v>123</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G41" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J41" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="42" spans="2:11" ht="33" x14ac:dyDescent="0.3">
@@ -3969,7 +3969,7 @@
         <v>37</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>103</v>
@@ -3984,7 +3984,7 @@
         <v>193</v>
       </c>
       <c r="J42" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
@@ -4007,7 +4007,7 @@
         <v>195</v>
       </c>
       <c r="J43" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
@@ -4030,7 +4030,7 @@
         <v>197</v>
       </c>
       <c r="J44" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
@@ -4047,7 +4047,7 @@
         <v>120</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G45" s="16" t="s">
         <v>130</v>
@@ -4056,7 +4056,7 @@
         <v>202</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
@@ -4073,7 +4073,7 @@
         <v>120</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G46" s="16" t="s">
         <v>130</v>
@@ -4082,7 +4082,7 @@
         <v>203</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
@@ -4099,7 +4099,7 @@
         <v>120</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G47" s="16" t="s">
         <v>130</v>
@@ -4108,7 +4108,7 @@
         <v>204</v>
       </c>
       <c r="J47" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
@@ -4125,7 +4125,7 @@
         <v>120</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G48" s="16" t="s">
         <v>156</v>
@@ -4134,7 +4134,7 @@
         <v>205</v>
       </c>
       <c r="J48" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="49" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4157,7 +4157,7 @@
         <v>207</v>
       </c>
       <c r="J49" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.3">
@@ -4183,7 +4183,7 @@
         <v>209</v>
       </c>
       <c r="J50" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.3">
@@ -4209,7 +4209,7 @@
         <v>212</v>
       </c>
       <c r="J51" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.3">
@@ -4235,7 +4235,7 @@
         <v>214</v>
       </c>
       <c r="J52" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.3">
@@ -4243,7 +4243,7 @@
         <v>48</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D53" s="16" t="s">
         <v>102</v>
@@ -4261,7 +4261,7 @@
         <v>218</v>
       </c>
       <c r="J53" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="54" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -4269,7 +4269,7 @@
         <v>49</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D54" s="16" t="s">
         <v>103</v>
@@ -4281,10 +4281,10 @@
         <v>156</v>
       </c>
       <c r="H54" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="J54" s="14" t="s">
         <v>333</v>
-      </c>
-      <c r="J54" s="14" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.3">
@@ -4292,7 +4292,7 @@
         <v>50</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D55" s="16" t="s">
         <v>102</v>
@@ -4304,10 +4304,10 @@
         <v>124</v>
       </c>
       <c r="H55" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="56" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4330,7 +4330,7 @@
         <v>220</v>
       </c>
       <c r="J56" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.3">
@@ -4347,7 +4347,7 @@
         <v>175</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G57" s="16" t="s">
         <v>124</v>
@@ -4359,7 +4359,7 @@
         <v>223</v>
       </c>
       <c r="J57" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="58" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4376,16 +4376,16 @@
         <v>175</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G58" s="16" t="s">
         <v>144</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J58" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="59" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -4405,10 +4405,10 @@
         <v>130</v>
       </c>
       <c r="H59" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J59" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="60" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4416,7 +4416,7 @@
         <v>55</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D60" s="16" t="s">
         <v>102</v>
@@ -4428,10 +4428,10 @@
         <v>130</v>
       </c>
       <c r="H60" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="J60" s="14" t="s">
         <v>343</v>
-      </c>
-      <c r="J60" s="14" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="61" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4439,7 +4439,7 @@
         <v>56</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D61" s="16" t="s">
         <v>101</v>
@@ -4451,10 +4451,10 @@
         <v>124</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J61" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.3">
@@ -4462,7 +4462,7 @@
         <v>57</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D62" s="16" t="s">
         <v>101</v>
@@ -4474,10 +4474,10 @@
         <v>124</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J62" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.3">
@@ -4485,7 +4485,7 @@
         <v>58</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D63" s="16" t="s">
         <v>102</v>
@@ -4497,10 +4497,10 @@
         <v>124</v>
       </c>
       <c r="H63" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J63" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="64" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4508,7 +4508,7 @@
         <v>59</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D64" s="16" t="s">
         <v>102</v>
@@ -4517,13 +4517,13 @@
         <v>123</v>
       </c>
       <c r="G64" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="H64" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="H64" s="15" t="s">
-        <v>248</v>
-      </c>
       <c r="J64" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="65" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4531,7 +4531,7 @@
         <v>60</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D65" s="16" t="s">
         <v>103</v>
@@ -4543,10 +4543,10 @@
         <v>144</v>
       </c>
       <c r="H65" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J65" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="66" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -4554,7 +4554,7 @@
         <v>61</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D66" s="16" t="s">
         <v>102</v>
@@ -4566,10 +4566,10 @@
         <v>130</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J66" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="67" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -4577,7 +4577,7 @@
         <v>62</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D67" s="16" t="s">
         <v>103</v>
@@ -4589,10 +4589,10 @@
         <v>130</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J67" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="68" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4600,7 +4600,7 @@
         <v>63</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D68" s="16" t="s">
         <v>102</v>
@@ -4612,10 +4612,10 @@
         <v>124</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J68" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="69" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4623,7 +4623,7 @@
         <v>64</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D69" s="16" t="s">
         <v>102</v>
@@ -4635,10 +4635,10 @@
         <v>124</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J69" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="70" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4646,7 +4646,7 @@
         <v>65</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D70" s="16" t="s">
         <v>102</v>
@@ -4655,16 +4655,16 @@
         <v>123</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G70" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H70" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="J70" s="14" t="s">
         <v>360</v>
-      </c>
-      <c r="J70" s="14" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.3">
@@ -4672,7 +4672,7 @@
         <v>66</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D71" s="16" t="s">
         <v>102</v>
@@ -4681,16 +4681,16 @@
         <v>123</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G71" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H71" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="J71" s="14" t="s">
         <v>363</v>
-      </c>
-      <c r="J71" s="14" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.3">
@@ -4698,7 +4698,7 @@
         <v>67</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D72" s="16" t="s">
         <v>101</v>
@@ -4707,16 +4707,16 @@
         <v>123</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G72" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H72" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J72" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.3">
@@ -4724,7 +4724,7 @@
         <v>68</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D73" s="16" t="s">
         <v>101</v>
@@ -4733,16 +4733,16 @@
         <v>175</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G73" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H73" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J73" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.3">
@@ -4750,7 +4750,7 @@
         <v>69</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D74" s="16" t="s">
         <v>102</v>
@@ -4759,16 +4759,16 @@
         <v>175</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G74" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J74" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="75" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -4776,7 +4776,7 @@
         <v>70</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D75" s="16" t="s">
         <v>103</v>
@@ -4785,16 +4785,16 @@
         <v>123</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G75" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J75" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="76" spans="2:10" ht="66" x14ac:dyDescent="0.3">
@@ -4802,7 +4802,7 @@
         <v>71</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D76" s="16" t="s">
         <v>103</v>
@@ -4814,10 +4814,10 @@
         <v>156</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J76" s="14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.3">
@@ -4825,7 +4825,7 @@
         <v>72</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D77" s="16" t="s">
         <v>101</v>
@@ -4834,16 +4834,16 @@
         <v>123</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G77" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J77" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.3">
@@ -4851,7 +4851,7 @@
         <v>73</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D78" s="16" t="s">
         <v>102</v>
@@ -4860,16 +4860,16 @@
         <v>123</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G78" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J78" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.3">
@@ -4877,7 +4877,7 @@
         <v>74</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D79" s="16" t="s">
         <v>101</v>
@@ -4886,16 +4886,16 @@
         <v>175</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G79" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J79" s="14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="80" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4903,7 +4903,7 @@
         <v>75</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D80" s="16" t="s">
         <v>102</v>
@@ -4912,16 +4912,16 @@
         <v>175</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G80" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J80" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="81" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4929,7 +4929,7 @@
         <v>76</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D81" s="16" t="s">
         <v>102</v>
@@ -4938,16 +4938,16 @@
         <v>120</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G81" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J81" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="82" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4955,22 +4955,22 @@
         <v>77</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D82" s="16" t="s">
         <v>101</v>
       </c>
       <c r="E82" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="G82" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="G82" s="16" t="s">
-        <v>238</v>
-      </c>
       <c r="H82" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J82" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="83" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4978,25 +4978,25 @@
         <v>78</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D83" s="16" t="s">
         <v>102</v>
       </c>
       <c r="E83" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="F83" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="G83" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="F83" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="G83" s="16" t="s">
-        <v>238</v>
-      </c>
       <c r="H83" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J83" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="84" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5004,22 +5004,22 @@
         <v>79</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D84" s="16" t="s">
         <v>102</v>
       </c>
       <c r="E84" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="G84" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="G84" s="16" t="s">
-        <v>238</v>
-      </c>
       <c r="H84" s="15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J84" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="85" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5027,30 +5027,30 @@
         <v>80</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D85" s="16" t="s">
         <v>103</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H85" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J85" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J87" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.3">
@@ -5058,19 +5058,19 @@
         <v>90</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D88" s="16" t="s">
         <v>101</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G88" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H88" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -5102,34 +5102,34 @@
   <sheetData>
     <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="70"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="50">
         <v>1</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="F3" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="59" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -5141,11 +5141,11 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="51"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
       <c r="H4" s="1" t="s">
         <v>3</v>
       </c>
@@ -5155,11 +5155,11 @@
     </row>
     <row r="5" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="52"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
       <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
@@ -5168,22 +5168,22 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="34">
+      <c r="B6" s="37">
         <v>2</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="46" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -5194,12 +5194,12 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="35"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="1" t="s">
         <v>3</v>
       </c>
@@ -5208,12 +5208,12 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="36"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
       <c r="H8" s="7" t="s">
         <v>4</v>
       </c>
@@ -5225,19 +5225,19 @@
       <c r="B9" s="50">
         <v>3</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="58" t="s">
+      <c r="G9" s="59" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -5249,11 +5249,11 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="51"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
       <c r="H10" s="1" t="s">
         <v>3</v>
       </c>
@@ -5263,11 +5263,11 @@
     </row>
     <row r="11" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="52"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
       <c r="H11" s="2" t="s">
         <v>4</v>
       </c>
@@ -5276,22 +5276,22 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="34">
+      <c r="B12" s="37">
         <v>4</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="G12" s="46" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -5302,12 +5302,12 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="35"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
       <c r="H13" s="1" t="s">
         <v>3</v>
       </c>
@@ -5316,12 +5316,12 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="36"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
       <c r="H14" s="7" t="s">
         <v>4</v>
       </c>
@@ -5333,19 +5333,19 @@
       <c r="B15" s="50">
         <v>5</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="48" t="s">
+      <c r="E15" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="58" t="s">
+      <c r="F15" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="58" t="s">
+      <c r="G15" s="59" t="s">
         <v>31</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -5357,11 +5357,11 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="51"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
       <c r="H16" s="1" t="s">
         <v>3</v>
       </c>
@@ -5371,11 +5371,11 @@
     </row>
     <row r="17" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="52"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
       <c r="H17" s="2" t="s">
         <v>4</v>
       </c>
@@ -5384,22 +5384,22 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="34">
+      <c r="B18" s="37">
         <v>6</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="C18" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="40" t="s">
+      <c r="G18" s="46" t="s">
         <v>61</v>
       </c>
       <c r="H18" s="4" t="s">
@@ -5410,12 +5410,12 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="35"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
       <c r="H19" s="1" t="s">
         <v>3</v>
       </c>
@@ -5424,12 +5424,12 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="36"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
       <c r="H20" s="7" t="s">
         <v>4</v>
       </c>
@@ -5441,19 +5441,19 @@
       <c r="B21" s="50">
         <v>7</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="48" t="s">
+      <c r="E21" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="40" t="s">
+      <c r="G21" s="46" t="s">
         <v>66</v>
       </c>
       <c r="H21" s="4" t="s">
@@ -5465,11 +5465,11 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="51"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
       <c r="H22" s="1" t="s">
         <v>3</v>
       </c>
@@ -5479,11 +5479,11 @@
     </row>
     <row r="23" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="52"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
       <c r="H23" s="7" t="s">
         <v>4</v>
       </c>
@@ -5492,22 +5492,22 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="34">
+      <c r="B24" s="37">
         <v>8</v>
       </c>
-      <c r="C24" s="53" t="s">
+      <c r="C24" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="47" t="s">
+      <c r="D24" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F24" s="58" t="s">
+      <c r="F24" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="58" t="s">
+      <c r="G24" s="59" t="s">
         <v>95</v>
       </c>
       <c r="H24" s="3" t="s">
@@ -5518,12 +5518,12 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="35"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
       <c r="H25" s="1" t="s">
         <v>3</v>
       </c>
@@ -5532,12 +5532,12 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="36"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
       <c r="H26" s="2" t="s">
         <v>4</v>
       </c>
@@ -5549,65 +5549,65 @@
       <c r="B27" s="50">
         <v>9</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="D27" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="48" t="s">
+      <c r="E27" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="47" t="s">
+      <c r="F27" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="G27" s="47" t="s">
+      <c r="G27" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="47" t="s">
+      <c r="H27" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="I27" s="65" t="s">
+      <c r="I27" s="56" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="51"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="66"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="57"/>
     </row>
     <row r="29" spans="2:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="52"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="67"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="58"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="34">
+      <c r="B30" s="37">
         <v>10</v>
       </c>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="47" t="s">
+      <c r="D30" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="48" t="s">
+      <c r="E30" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F30" s="47" t="s">
+      <c r="F30" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="47" t="s">
+      <c r="G30" s="43" t="s">
         <v>46</v>
       </c>
       <c r="H30" s="4" t="s">
@@ -5618,12 +5618,12 @@
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="35"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
       <c r="H31" s="1" t="s">
         <v>3</v>
       </c>
@@ -5632,12 +5632,12 @@
       </c>
     </row>
     <row r="32" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="36"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
       <c r="H32" s="7" t="s">
         <v>4</v>
       </c>
@@ -5649,19 +5649,19 @@
       <c r="B33" s="50">
         <v>11</v>
       </c>
-      <c r="C33" s="64" t="s">
+      <c r="C33" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="47" t="s">
+      <c r="D33" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="48" t="s">
+      <c r="E33" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F33" s="40" t="s">
+      <c r="F33" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G33" s="43" t="s">
+      <c r="G33" s="34" t="s">
         <v>50</v>
       </c>
       <c r="H33" s="4" t="s">
@@ -5673,11 +5673,11 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="51"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
       <c r="H34" s="1" t="s">
         <v>3</v>
       </c>
@@ -5687,11 +5687,11 @@
     </row>
     <row r="35" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="52"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
       <c r="H35" s="7" t="s">
         <v>4</v>
       </c>
@@ -5700,22 +5700,22 @@
       </c>
     </row>
     <row r="36" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="34">
+      <c r="B36" s="37">
         <v>12</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="47" t="s">
+      <c r="D36" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E36" s="48" t="s">
+      <c r="E36" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F36" s="40" t="s">
+      <c r="F36" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G36" s="40" t="s">
+      <c r="G36" s="46" t="s">
         <v>84</v>
       </c>
       <c r="H36" s="4" t="s">
@@ -5726,12 +5726,12 @@
       </c>
     </row>
     <row r="37" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="35"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
       <c r="H37" s="1" t="s">
         <v>3</v>
       </c>
@@ -5740,12 +5740,12 @@
       </c>
     </row>
     <row r="38" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="36"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
       <c r="H38" s="7" t="s">
         <v>4</v>
       </c>
@@ -5757,19 +5757,19 @@
       <c r="B39" s="50">
         <v>13</v>
       </c>
-      <c r="C39" s="53" t="s">
+      <c r="C39" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="47" t="s">
+      <c r="D39" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E39" s="48" t="s">
+      <c r="E39" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F39" s="58" t="s">
+      <c r="F39" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="G39" s="63" t="s">
+      <c r="G39" s="67" t="s">
         <v>44</v>
       </c>
       <c r="H39" s="3" t="s">
@@ -5781,11 +5781,11 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="51"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
       <c r="H40" s="1" t="s">
         <v>3</v>
       </c>
@@ -5795,11 +5795,11 @@
     </row>
     <row r="41" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="52"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
       <c r="H41" s="2" t="s">
         <v>4</v>
       </c>
@@ -5808,22 +5808,22 @@
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="34">
+      <c r="B42" s="37">
         <v>14</v>
       </c>
-      <c r="C42" s="64" t="s">
+      <c r="C42" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="47" t="s">
+      <c r="D42" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E42" s="48" t="s">
+      <c r="E42" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F42" s="40" t="s">
+      <c r="F42" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G42" s="43" t="s">
+      <c r="G42" s="34" t="s">
         <v>54</v>
       </c>
       <c r="H42" s="4" t="s">
@@ -5834,12 +5834,12 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="35"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
       <c r="H43" s="1" t="s">
         <v>3</v>
       </c>
@@ -5848,12 +5848,12 @@
       </c>
     </row>
     <row r="44" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="36"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
       <c r="H44" s="7" t="s">
         <v>4</v>
       </c>
@@ -5865,19 +5865,19 @@
       <c r="B45" s="50">
         <v>15</v>
       </c>
-      <c r="C45" s="53" t="s">
+      <c r="C45" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="47" t="s">
+      <c r="D45" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E45" s="48" t="s">
+      <c r="E45" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F45" s="58" t="s">
+      <c r="F45" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="G45" s="58" t="s">
+      <c r="G45" s="59" t="s">
         <v>45</v>
       </c>
       <c r="H45" s="3" t="s">
@@ -5889,11 +5889,11 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="51"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
       <c r="H46" s="1" t="s">
         <v>3</v>
       </c>
@@ -5903,11 +5903,11 @@
     </row>
     <row r="47" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="52"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
       <c r="H47" s="2" t="s">
         <v>4</v>
       </c>
@@ -5916,22 +5916,22 @@
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="34">
+      <c r="B48" s="37">
         <v>16</v>
       </c>
-      <c r="C48" s="37" t="s">
+      <c r="C48" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="47" t="s">
+      <c r="D48" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E48" s="48" t="s">
+      <c r="E48" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F48" s="40" t="s">
+      <c r="F48" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G48" s="40" t="s">
+      <c r="G48" s="46" t="s">
         <v>56</v>
       </c>
       <c r="H48" s="4" t="s">
@@ -5942,12 +5942,12 @@
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="35"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
       <c r="H49" s="1" t="s">
         <v>3</v>
       </c>
@@ -5956,12 +5956,12 @@
       </c>
     </row>
     <row r="50" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="36"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
       <c r="H50" s="7" t="s">
         <v>4</v>
       </c>
@@ -5973,19 +5973,19 @@
       <c r="B51" s="50">
         <v>17</v>
       </c>
-      <c r="C51" s="37" t="s">
+      <c r="C51" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="47" t="s">
+      <c r="D51" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E51" s="48" t="s">
+      <c r="E51" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F51" s="40" t="s">
+      <c r="F51" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G51" s="40" t="s">
+      <c r="G51" s="46" t="s">
         <v>74</v>
       </c>
       <c r="H51" s="4" t="s">
@@ -5997,11 +5997,11 @@
     </row>
     <row r="52" spans="2:9" ht="33" x14ac:dyDescent="0.3">
       <c r="B52" s="51"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
       <c r="H52" s="1" t="s">
         <v>3</v>
       </c>
@@ -6011,11 +6011,11 @@
     </row>
     <row r="53" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="52"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
       <c r="H53" s="7" t="s">
         <v>4</v>
       </c>
@@ -6024,22 +6024,22 @@
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="34">
+      <c r="B54" s="37">
         <v>18</v>
       </c>
-      <c r="C54" s="37" t="s">
+      <c r="C54" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="47" t="s">
+      <c r="D54" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E54" s="48" t="s">
+      <c r="E54" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F54" s="40" t="s">
+      <c r="F54" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G54" s="43" t="s">
+      <c r="G54" s="34" t="s">
         <v>79</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -6050,12 +6050,12 @@
       </c>
     </row>
     <row r="55" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="35"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
       </c>
@@ -6064,12 +6064,12 @@
       </c>
     </row>
     <row r="56" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="36"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="42"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
       <c r="H56" s="7" t="s">
         <v>4</v>
       </c>
@@ -6081,19 +6081,19 @@
       <c r="B57" s="50">
         <v>19</v>
       </c>
-      <c r="C57" s="37" t="s">
+      <c r="C57" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="D57" s="47" t="s">
+      <c r="D57" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E57" s="48" t="s">
+      <c r="E57" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F57" s="40" t="s">
+      <c r="F57" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G57" s="40" t="s">
+      <c r="G57" s="46" t="s">
         <v>89</v>
       </c>
       <c r="H57" s="4" t="s">
@@ -6105,11 +6105,11 @@
     </row>
     <row r="58" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="51"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="48"/>
-      <c r="E58" s="48"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
       <c r="H58" s="1" t="s">
         <v>3</v>
       </c>
@@ -6119,11 +6119,11 @@
     </row>
     <row r="59" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="52"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
       <c r="H59" s="7" t="s">
         <v>4</v>
       </c>
@@ -6132,22 +6132,22 @@
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="34">
+      <c r="B60" s="37">
         <v>20</v>
       </c>
-      <c r="C60" s="68" t="s">
+      <c r="C60" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="D60" s="47" t="s">
+      <c r="D60" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E60" s="48" t="s">
+      <c r="E60" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F60" s="40" t="s">
+      <c r="F60" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G60" s="43" t="s">
+      <c r="G60" s="34" t="s">
         <v>97</v>
       </c>
       <c r="H60" s="4" t="s">
@@ -6158,12 +6158,12 @@
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="35"/>
-      <c r="C61" s="69"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="48"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="41"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
       <c r="H61" s="1" t="s">
         <v>3</v>
       </c>
@@ -6172,12 +6172,12 @@
       </c>
     </row>
     <row r="62" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="36"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="42"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
       <c r="H62" s="7" t="s">
         <v>4</v>
       </c>
@@ -6186,22 +6186,22 @@
       </c>
     </row>
     <row r="63" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="34">
+      <c r="B63" s="37">
         <v>21</v>
       </c>
-      <c r="C63" s="44" t="s">
+      <c r="C63" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="D63" s="47" t="s">
+      <c r="D63" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E63" s="47" t="s">
+      <c r="E63" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="F63" s="47" t="s">
+      <c r="F63" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="G63" s="71" t="s">
+      <c r="G63" s="47" t="s">
         <v>106</v>
       </c>
       <c r="H63" s="4" t="s">
@@ -6212,12 +6212,12 @@
       </c>
     </row>
     <row r="64" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="35"/>
-      <c r="C64" s="45"/>
-      <c r="D64" s="48"/>
-      <c r="E64" s="48"/>
-      <c r="F64" s="48"/>
-      <c r="G64" s="72"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="44"/>
+      <c r="G64" s="48"/>
       <c r="H64" s="1" t="s">
         <v>3</v>
       </c>
@@ -6226,12 +6226,12 @@
       </c>
     </row>
     <row r="65" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="36"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="73"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="73"/>
+      <c r="D65" s="45"/>
+      <c r="E65" s="45"/>
+      <c r="F65" s="45"/>
+      <c r="G65" s="49"/>
       <c r="H65" s="7" t="s">
         <v>4</v>
       </c>
@@ -6240,22 +6240,22 @@
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="34">
+      <c r="B66" s="37">
         <v>22</v>
       </c>
-      <c r="C66" s="68" t="s">
+      <c r="C66" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="D66" s="47" t="s">
+      <c r="D66" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E66" s="48" t="s">
+      <c r="E66" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F66" s="40" t="s">
+      <c r="F66" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G66" s="43" t="s">
+      <c r="G66" s="34" t="s">
         <v>97</v>
       </c>
       <c r="H66" s="4" t="s">
@@ -6266,12 +6266,12 @@
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B67" s="35"/>
-      <c r="C67" s="69"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="48"/>
-      <c r="F67" s="41"/>
-      <c r="G67" s="41"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
       <c r="H67" s="1" t="s">
         <v>3</v>
       </c>
@@ -6280,12 +6280,12 @@
       </c>
     </row>
     <row r="68" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="36"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="49"/>
-      <c r="E68" s="49"/>
-      <c r="F68" s="42"/>
-      <c r="G68" s="42"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="45"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
       <c r="H68" s="7" t="s">
         <v>4</v>
       </c>
@@ -6295,44 +6295,79 @@
     </row>
   </sheetData>
   <mergeCells count="135">
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D6:D8"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="D15:D17"/>
@@ -6357,79 +6392,44 @@
     <mergeCell ref="F15:F17"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="F18:F20"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="G57:G59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
+++ b/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C34FC8-FAD1-4AED-B400-E3392B213F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340DBDF6-40BC-4736-88E2-AA9A470D0D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9C64985F-4ADF-44CE-9572-0998CB538CFF}"/>
   </bookViews>
@@ -2469,22 +2469,106 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2497,96 +2581,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2926,7 +2926,7 @@
   <dimension ref="B1:K88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3915,75 +3915,77 @@
         <v>392</v>
       </c>
     </row>
-    <row r="40" spans="2:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="B40" s="16">
+    <row r="40" spans="2:11" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B40" s="21">
         <v>35</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="G40" s="16" t="s">
+      <c r="F40" s="21"/>
+      <c r="G40" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="H40" s="15" t="s">
+      <c r="H40" s="22" t="s">
         <v>403</v>
       </c>
-      <c r="J40" s="14" t="s">
+      <c r="J40" s="23" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="41" spans="2:11" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B41" s="16">
+    <row r="41" spans="2:11" s="29" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B41" s="27">
         <v>36</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="F41" s="16" t="s">
+      <c r="F41" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="G41" s="16" t="s">
+      <c r="G41" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="H41" s="15" t="s">
+      <c r="H41" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="J41" s="14" t="s">
+      <c r="J41" s="29" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="42" spans="2:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="B42" s="16">
+    <row r="42" spans="2:11" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B42" s="21">
         <v>37</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="G42" s="16" t="s">
+      <c r="F42" s="21"/>
+      <c r="G42" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="H42" s="15" t="s">
+      <c r="H42" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="J42" s="14" t="s">
+      <c r="J42" s="23" t="s">
         <v>319</v>
       </c>
     </row>
@@ -5102,34 +5104,34 @@
   <sheetData>
     <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="70"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="50">
         <v>1</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="58" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -5141,11 +5143,11 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="51"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
       <c r="H4" s="1" t="s">
         <v>3</v>
       </c>
@@ -5155,11 +5157,11 @@
     </row>
     <row r="5" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="52"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
       <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
@@ -5168,22 +5170,22 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="37">
+      <c r="B6" s="34">
         <v>2</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="40" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -5194,12 +5196,12 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="38"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
       <c r="H7" s="1" t="s">
         <v>3</v>
       </c>
@@ -5208,12 +5210,12 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="39"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
       <c r="H8" s="7" t="s">
         <v>4</v>
       </c>
@@ -5225,19 +5227,19 @@
       <c r="B9" s="50">
         <v>3</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="59" t="s">
+      <c r="G9" s="58" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -5249,11 +5251,11 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="51"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
       <c r="H10" s="1" t="s">
         <v>3</v>
       </c>
@@ -5263,11 +5265,11 @@
     </row>
     <row r="11" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="52"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
       <c r="H11" s="2" t="s">
         <v>4</v>
       </c>
@@ -5276,22 +5278,22 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="37">
+      <c r="B12" s="34">
         <v>4</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="46" t="s">
+      <c r="F12" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="40" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -5302,12 +5304,12 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="38"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
       <c r="H13" s="1" t="s">
         <v>3</v>
       </c>
@@ -5316,12 +5318,12 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="39"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
       <c r="H14" s="7" t="s">
         <v>4</v>
       </c>
@@ -5333,19 +5335,19 @@
       <c r="B15" s="50">
         <v>5</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="59" t="s">
+      <c r="F15" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="59" t="s">
+      <c r="G15" s="58" t="s">
         <v>31</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -5357,11 +5359,11 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="51"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="1" t="s">
         <v>3</v>
       </c>
@@ -5371,11 +5373,11 @@
     </row>
     <row r="17" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="52"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
       <c r="H17" s="2" t="s">
         <v>4</v>
       </c>
@@ -5384,22 +5386,22 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="37">
+      <c r="B18" s="34">
         <v>6</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="46" t="s">
+      <c r="F18" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="46" t="s">
+      <c r="G18" s="40" t="s">
         <v>61</v>
       </c>
       <c r="H18" s="4" t="s">
@@ -5410,12 +5412,12 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="38"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
       <c r="H19" s="1" t="s">
         <v>3</v>
       </c>
@@ -5424,12 +5426,12 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="39"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
       <c r="H20" s="7" t="s">
         <v>4</v>
       </c>
@@ -5441,19 +5443,19 @@
       <c r="B21" s="50">
         <v>7</v>
       </c>
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="44" t="s">
+      <c r="E21" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="40" t="s">
         <v>66</v>
       </c>
       <c r="H21" s="4" t="s">
@@ -5465,11 +5467,11 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="51"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
       <c r="H22" s="1" t="s">
         <v>3</v>
       </c>
@@ -5479,11 +5481,11 @@
     </row>
     <row r="23" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="52"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
       <c r="H23" s="7" t="s">
         <v>4</v>
       </c>
@@ -5492,22 +5494,22 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="37">
+      <c r="B24" s="34">
         <v>8</v>
       </c>
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="E24" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F24" s="59" t="s">
+      <c r="F24" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="59" t="s">
+      <c r="G24" s="58" t="s">
         <v>95</v>
       </c>
       <c r="H24" s="3" t="s">
@@ -5518,12 +5520,12 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="38"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
       <c r="H25" s="1" t="s">
         <v>3</v>
       </c>
@@ -5532,12 +5534,12 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="39"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
       <c r="H26" s="2" t="s">
         <v>4</v>
       </c>
@@ -5549,65 +5551,65 @@
       <c r="B27" s="50">
         <v>9</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="43" t="s">
+      <c r="D27" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="44" t="s">
+      <c r="E27" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="43" t="s">
+      <c r="F27" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G27" s="43" t="s">
+      <c r="G27" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="43" t="s">
+      <c r="H27" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="I27" s="56" t="s">
+      <c r="I27" s="65" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="51"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="57"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="66"/>
     </row>
     <row r="29" spans="2:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="52"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="58"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="67"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="37">
+      <c r="B30" s="34">
         <v>10</v>
       </c>
-      <c r="C30" s="61" t="s">
+      <c r="C30" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="43" t="s">
+      <c r="D30" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="44" t="s">
+      <c r="E30" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F30" s="43" t="s">
+      <c r="F30" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="43" t="s">
+      <c r="G30" s="47" t="s">
         <v>46</v>
       </c>
       <c r="H30" s="4" t="s">
@@ -5618,12 +5620,12 @@
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="38"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
       <c r="H31" s="1" t="s">
         <v>3</v>
       </c>
@@ -5632,12 +5634,12 @@
       </c>
     </row>
     <row r="32" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="39"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
       <c r="H32" s="7" t="s">
         <v>4</v>
       </c>
@@ -5649,19 +5651,19 @@
       <c r="B33" s="50">
         <v>11</v>
       </c>
-      <c r="C33" s="66" t="s">
+      <c r="C33" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="43" t="s">
+      <c r="D33" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="44" t="s">
+      <c r="E33" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F33" s="46" t="s">
+      <c r="F33" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G33" s="34" t="s">
+      <c r="G33" s="43" t="s">
         <v>50</v>
       </c>
       <c r="H33" s="4" t="s">
@@ -5673,11 +5675,11 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="51"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
       <c r="H34" s="1" t="s">
         <v>3</v>
       </c>
@@ -5687,11 +5689,11 @@
     </row>
     <row r="35" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="52"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
       <c r="H35" s="7" t="s">
         <v>4</v>
       </c>
@@ -5700,22 +5702,22 @@
       </c>
     </row>
     <row r="36" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="37">
+      <c r="B36" s="34">
         <v>12</v>
       </c>
-      <c r="C36" s="53" t="s">
+      <c r="C36" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="43" t="s">
+      <c r="D36" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E36" s="44" t="s">
+      <c r="E36" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F36" s="46" t="s">
+      <c r="F36" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G36" s="46" t="s">
+      <c r="G36" s="40" t="s">
         <v>84</v>
       </c>
       <c r="H36" s="4" t="s">
@@ -5726,12 +5728,12 @@
       </c>
     </row>
     <row r="37" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="38"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
       <c r="H37" s="1" t="s">
         <v>3</v>
       </c>
@@ -5740,12 +5742,12 @@
       </c>
     </row>
     <row r="38" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="39"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
       <c r="H38" s="7" t="s">
         <v>4</v>
       </c>
@@ -5757,19 +5759,19 @@
       <c r="B39" s="50">
         <v>13</v>
       </c>
-      <c r="C39" s="64" t="s">
+      <c r="C39" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="43" t="s">
+      <c r="D39" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E39" s="44" t="s">
+      <c r="E39" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F39" s="59" t="s">
+      <c r="F39" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="G39" s="67" t="s">
+      <c r="G39" s="63" t="s">
         <v>44</v>
       </c>
       <c r="H39" s="3" t="s">
@@ -5781,11 +5783,11 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="51"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
       <c r="H40" s="1" t="s">
         <v>3</v>
       </c>
@@ -5795,11 +5797,11 @@
     </row>
     <row r="41" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="52"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
       <c r="H41" s="2" t="s">
         <v>4</v>
       </c>
@@ -5808,22 +5810,22 @@
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="37">
+      <c r="B42" s="34">
         <v>14</v>
       </c>
-      <c r="C42" s="66" t="s">
+      <c r="C42" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="43" t="s">
+      <c r="D42" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E42" s="44" t="s">
+      <c r="E42" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F42" s="46" t="s">
+      <c r="F42" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="G42" s="34" t="s">
+      <c r="G42" s="43" t="s">
         <v>54</v>
       </c>
       <c r="H42" s="4" t="s">
@@ -5834,12 +5836,12 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="38"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
       <c r="H43" s="1" t="s">
         <v>3</v>
       </c>
@@ -5848,12 +5850,12 @@
       </c>
     </row>
     <row r="44" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="39"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
       <c r="H44" s="7" t="s">
         <v>4</v>
       </c>
@@ -5865,19 +5867,19 @@
       <c r="B45" s="50">
         <v>15</v>
       </c>
-      <c r="C45" s="64" t="s">
+      <c r="C45" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="43" t="s">
+      <c r="D45" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E45" s="44" t="s">
+      <c r="E45" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F45" s="59" t="s">
+      <c r="F45" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="G45" s="59" t="s">
+      <c r="G45" s="58" t="s">
         <v>45</v>
       </c>
       <c r="H45" s="3" t="s">
@@ -5889,11 +5891,11 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="51"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
       <c r="H46" s="1" t="s">
         <v>3</v>
       </c>
@@ -5903,11 +5905,11 @@
     </row>
     <row r="47" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="52"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
       <c r="H47" s="2" t="s">
         <v>4</v>
       </c>
@@ -5916,22 +5918,22 @@
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="37">
+      <c r="B48" s="34">
         <v>16</v>
       </c>
-      <c r="C48" s="53" t="s">
+      <c r="C48" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="43" t="s">
+      <c r="D48" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E48" s="44" t="s">
+      <c r="E48" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F48" s="46" t="s">
+      <c r="F48" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="G48" s="46" t="s">
+      <c r="G48" s="40" t="s">
         <v>56</v>
       </c>
       <c r="H48" s="4" t="s">
@@ -5942,12 +5944,12 @@
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="38"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
       <c r="H49" s="1" t="s">
         <v>3</v>
       </c>
@@ -5956,12 +5958,12 @@
       </c>
     </row>
     <row r="50" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="39"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
       <c r="H50" s="7" t="s">
         <v>4</v>
       </c>
@@ -5973,19 +5975,19 @@
       <c r="B51" s="50">
         <v>17</v>
       </c>
-      <c r="C51" s="53" t="s">
+      <c r="C51" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="43" t="s">
+      <c r="D51" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E51" s="44" t="s">
+      <c r="E51" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F51" s="46" t="s">
+      <c r="F51" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G51" s="46" t="s">
+      <c r="G51" s="40" t="s">
         <v>74</v>
       </c>
       <c r="H51" s="4" t="s">
@@ -5997,11 +5999,11 @@
     </row>
     <row r="52" spans="2:9" ht="33" x14ac:dyDescent="0.3">
       <c r="B52" s="51"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
       <c r="H52" s="1" t="s">
         <v>3</v>
       </c>
@@ -6011,11 +6013,11 @@
     </row>
     <row r="53" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="52"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
       <c r="H53" s="7" t="s">
         <v>4</v>
       </c>
@@ -6024,22 +6026,22 @@
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="37">
+      <c r="B54" s="34">
         <v>18</v>
       </c>
-      <c r="C54" s="53" t="s">
+      <c r="C54" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="43" t="s">
+      <c r="D54" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E54" s="44" t="s">
+      <c r="E54" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F54" s="46" t="s">
+      <c r="F54" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G54" s="34" t="s">
+      <c r="G54" s="43" t="s">
         <v>79</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -6050,12 +6052,12 @@
       </c>
     </row>
     <row r="55" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="38"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
       </c>
@@ -6064,12 +6066,12 @@
       </c>
     </row>
     <row r="56" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="39"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="45"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
       <c r="H56" s="7" t="s">
         <v>4</v>
       </c>
@@ -6081,19 +6083,19 @@
       <c r="B57" s="50">
         <v>19</v>
       </c>
-      <c r="C57" s="53" t="s">
+      <c r="C57" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="D57" s="43" t="s">
+      <c r="D57" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E57" s="44" t="s">
+      <c r="E57" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F57" s="46" t="s">
+      <c r="F57" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G57" s="46" t="s">
+      <c r="G57" s="40" t="s">
         <v>89</v>
       </c>
       <c r="H57" s="4" t="s">
@@ -6105,11 +6107,11 @@
     </row>
     <row r="58" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="51"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
       <c r="H58" s="1" t="s">
         <v>3</v>
       </c>
@@ -6119,11 +6121,11 @@
     </row>
     <row r="59" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="52"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
       <c r="H59" s="7" t="s">
         <v>4</v>
       </c>
@@ -6132,22 +6134,22 @@
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="37">
+      <c r="B60" s="34">
         <v>20</v>
       </c>
-      <c r="C60" s="40" t="s">
+      <c r="C60" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="D60" s="43" t="s">
+      <c r="D60" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E60" s="44" t="s">
+      <c r="E60" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F60" s="46" t="s">
+      <c r="F60" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="G60" s="34" t="s">
+      <c r="G60" s="43" t="s">
         <v>97</v>
       </c>
       <c r="H60" s="4" t="s">
@@ -6158,12 +6160,12 @@
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="38"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
       <c r="H61" s="1" t="s">
         <v>3</v>
       </c>
@@ -6172,12 +6174,12 @@
       </c>
     </row>
     <row r="62" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="39"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="45"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
       <c r="H62" s="7" t="s">
         <v>4</v>
       </c>
@@ -6186,22 +6188,22 @@
       </c>
     </row>
     <row r="63" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="37">
+      <c r="B63" s="34">
         <v>21</v>
       </c>
-      <c r="C63" s="71" t="s">
+      <c r="C63" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="D63" s="43" t="s">
+      <c r="D63" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E63" s="43" t="s">
+      <c r="E63" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="F63" s="43" t="s">
+      <c r="F63" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G63" s="47" t="s">
+      <c r="G63" s="71" t="s">
         <v>106</v>
       </c>
       <c r="H63" s="4" t="s">
@@ -6212,12 +6214,12 @@
       </c>
     </row>
     <row r="64" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="38"/>
-      <c r="C64" s="72"/>
-      <c r="D64" s="44"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="44"/>
-      <c r="G64" s="48"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="48"/>
+      <c r="E64" s="48"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="72"/>
       <c r="H64" s="1" t="s">
         <v>3</v>
       </c>
@@ -6226,12 +6228,12 @@
       </c>
     </row>
     <row r="65" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="39"/>
-      <c r="C65" s="73"/>
-      <c r="D65" s="45"/>
-      <c r="E65" s="45"/>
-      <c r="F65" s="45"/>
-      <c r="G65" s="49"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="73"/>
       <c r="H65" s="7" t="s">
         <v>4</v>
       </c>
@@ -6240,22 +6242,22 @@
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="37">
+      <c r="B66" s="34">
         <v>22</v>
       </c>
-      <c r="C66" s="40" t="s">
+      <c r="C66" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="D66" s="43" t="s">
+      <c r="D66" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E66" s="44" t="s">
+      <c r="E66" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F66" s="46" t="s">
+      <c r="F66" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="G66" s="34" t="s">
+      <c r="G66" s="43" t="s">
         <v>97</v>
       </c>
       <c r="H66" s="4" t="s">
@@ -6266,12 +6268,12 @@
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B67" s="38"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="44"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="48"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="41"/>
       <c r="H67" s="1" t="s">
         <v>3</v>
       </c>
@@ -6280,12 +6282,12 @@
       </c>
     </row>
     <row r="68" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="39"/>
-      <c r="C68" s="42"/>
-      <c r="D68" s="45"/>
-      <c r="E68" s="45"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
       <c r="H68" s="7" t="s">
         <v>4</v>
       </c>
@@ -6295,6 +6297,117 @@
     </row>
   </sheetData>
   <mergeCells count="135">
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="F51:F53"/>
     <mergeCell ref="B54:B56"/>
     <mergeCell ref="C54:C56"/>
     <mergeCell ref="F54:F56"/>
@@ -6319,117 +6432,6 @@
     <mergeCell ref="E42:E44"/>
     <mergeCell ref="E48:E50"/>
     <mergeCell ref="E51:E53"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="G57:G59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
+++ b/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340DBDF6-40BC-4736-88E2-AA9A470D0D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B307FEAD-4EE3-43DA-9F19-61F67899003F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9C64985F-4ADF-44CE-9572-0998CB538CFF}"/>
   </bookViews>
@@ -2469,6 +2469,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2478,6 +2487,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2487,17 +2535,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2506,87 +2587,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2925,8 +2925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E337946-5511-4AD1-8A21-3FB7BE6153D1}">
   <dimension ref="B1:K88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3989,49 +3989,51 @@
         <v>319</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="16">
+    <row r="43" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="21">
         <v>38</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="G43" s="16" t="s">
+      <c r="F43" s="21"/>
+      <c r="G43" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="H43" s="15" t="s">
+      <c r="H43" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="J43" s="14" t="s">
+      <c r="J43" s="23" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="16">
+    <row r="44" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="21">
         <v>39</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="G44" s="16" t="s">
+      <c r="F44" s="21"/>
+      <c r="G44" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="H44" s="15" t="s">
+      <c r="H44" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="J44" s="14" t="s">
+      <c r="J44" s="23" t="s">
         <v>321</v>
       </c>
     </row>
@@ -5104,34 +5106,34 @@
   <sheetData>
     <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="70"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="50">
         <v>1</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="F3" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="59" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -5143,11 +5145,11 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="51"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
       <c r="H4" s="1" t="s">
         <v>3</v>
       </c>
@@ -5157,11 +5159,11 @@
     </row>
     <row r="5" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="52"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
       <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
@@ -5170,22 +5172,22 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="34">
+      <c r="B6" s="37">
         <v>2</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="46" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -5196,12 +5198,12 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="35"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="1" t="s">
         <v>3</v>
       </c>
@@ -5210,12 +5212,12 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="36"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
       <c r="H8" s="7" t="s">
         <v>4</v>
       </c>
@@ -5227,19 +5229,19 @@
       <c r="B9" s="50">
         <v>3</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="58" t="s">
+      <c r="G9" s="59" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -5251,11 +5253,11 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="51"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
       <c r="H10" s="1" t="s">
         <v>3</v>
       </c>
@@ -5265,11 +5267,11 @@
     </row>
     <row r="11" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="52"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
       <c r="H11" s="2" t="s">
         <v>4</v>
       </c>
@@ -5278,22 +5280,22 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="34">
+      <c r="B12" s="37">
         <v>4</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="G12" s="46" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -5304,12 +5306,12 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="35"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
       <c r="H13" s="1" t="s">
         <v>3</v>
       </c>
@@ -5318,12 +5320,12 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="36"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
       <c r="H14" s="7" t="s">
         <v>4</v>
       </c>
@@ -5335,19 +5337,19 @@
       <c r="B15" s="50">
         <v>5</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="48" t="s">
+      <c r="E15" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="58" t="s">
+      <c r="F15" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="58" t="s">
+      <c r="G15" s="59" t="s">
         <v>31</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -5359,11 +5361,11 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="51"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
       <c r="H16" s="1" t="s">
         <v>3</v>
       </c>
@@ -5373,11 +5375,11 @@
     </row>
     <row r="17" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="52"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
       <c r="H17" s="2" t="s">
         <v>4</v>
       </c>
@@ -5386,22 +5388,22 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="34">
+      <c r="B18" s="37">
         <v>6</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="C18" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="40" t="s">
+      <c r="G18" s="46" t="s">
         <v>61</v>
       </c>
       <c r="H18" s="4" t="s">
@@ -5412,12 +5414,12 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="35"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
       <c r="H19" s="1" t="s">
         <v>3</v>
       </c>
@@ -5426,12 +5428,12 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="36"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
       <c r="H20" s="7" t="s">
         <v>4</v>
       </c>
@@ -5443,19 +5445,19 @@
       <c r="B21" s="50">
         <v>7</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="48" t="s">
+      <c r="E21" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="40" t="s">
+      <c r="G21" s="46" t="s">
         <v>66</v>
       </c>
       <c r="H21" s="4" t="s">
@@ -5467,11 +5469,11 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="51"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
       <c r="H22" s="1" t="s">
         <v>3</v>
       </c>
@@ -5481,11 +5483,11 @@
     </row>
     <row r="23" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="52"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
       <c r="H23" s="7" t="s">
         <v>4</v>
       </c>
@@ -5494,22 +5496,22 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="34">
+      <c r="B24" s="37">
         <v>8</v>
       </c>
-      <c r="C24" s="53" t="s">
+      <c r="C24" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="47" t="s">
+      <c r="D24" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F24" s="58" t="s">
+      <c r="F24" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="58" t="s">
+      <c r="G24" s="59" t="s">
         <v>95</v>
       </c>
       <c r="H24" s="3" t="s">
@@ -5520,12 +5522,12 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="35"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
       <c r="H25" s="1" t="s">
         <v>3</v>
       </c>
@@ -5534,12 +5536,12 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="36"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
       <c r="H26" s="2" t="s">
         <v>4</v>
       </c>
@@ -5551,65 +5553,65 @@
       <c r="B27" s="50">
         <v>9</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="D27" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="48" t="s">
+      <c r="E27" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="47" t="s">
+      <c r="F27" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="G27" s="47" t="s">
+      <c r="G27" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="47" t="s">
+      <c r="H27" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="I27" s="65" t="s">
+      <c r="I27" s="56" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="51"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="66"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="57"/>
     </row>
     <row r="29" spans="2:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="52"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="67"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="58"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="34">
+      <c r="B30" s="37">
         <v>10</v>
       </c>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="47" t="s">
+      <c r="D30" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="48" t="s">
+      <c r="E30" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F30" s="47" t="s">
+      <c r="F30" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="47" t="s">
+      <c r="G30" s="43" t="s">
         <v>46</v>
       </c>
       <c r="H30" s="4" t="s">
@@ -5620,12 +5622,12 @@
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="35"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
       <c r="H31" s="1" t="s">
         <v>3</v>
       </c>
@@ -5634,12 +5636,12 @@
       </c>
     </row>
     <row r="32" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="36"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
       <c r="H32" s="7" t="s">
         <v>4</v>
       </c>
@@ -5651,19 +5653,19 @@
       <c r="B33" s="50">
         <v>11</v>
       </c>
-      <c r="C33" s="64" t="s">
+      <c r="C33" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="47" t="s">
+      <c r="D33" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="48" t="s">
+      <c r="E33" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F33" s="40" t="s">
+      <c r="F33" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G33" s="43" t="s">
+      <c r="G33" s="34" t="s">
         <v>50</v>
       </c>
       <c r="H33" s="4" t="s">
@@ -5675,11 +5677,11 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="51"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
       <c r="H34" s="1" t="s">
         <v>3</v>
       </c>
@@ -5689,11 +5691,11 @@
     </row>
     <row r="35" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="52"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
       <c r="H35" s="7" t="s">
         <v>4</v>
       </c>
@@ -5702,22 +5704,22 @@
       </c>
     </row>
     <row r="36" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="34">
+      <c r="B36" s="37">
         <v>12</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="47" t="s">
+      <c r="D36" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E36" s="48" t="s">
+      <c r="E36" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F36" s="40" t="s">
+      <c r="F36" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G36" s="40" t="s">
+      <c r="G36" s="46" t="s">
         <v>84</v>
       </c>
       <c r="H36" s="4" t="s">
@@ -5728,12 +5730,12 @@
       </c>
     </row>
     <row r="37" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="35"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
       <c r="H37" s="1" t="s">
         <v>3</v>
       </c>
@@ -5742,12 +5744,12 @@
       </c>
     </row>
     <row r="38" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="36"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
       <c r="H38" s="7" t="s">
         <v>4</v>
       </c>
@@ -5759,19 +5761,19 @@
       <c r="B39" s="50">
         <v>13</v>
       </c>
-      <c r="C39" s="53" t="s">
+      <c r="C39" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="47" t="s">
+      <c r="D39" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E39" s="48" t="s">
+      <c r="E39" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F39" s="58" t="s">
+      <c r="F39" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="G39" s="63" t="s">
+      <c r="G39" s="67" t="s">
         <v>44</v>
       </c>
       <c r="H39" s="3" t="s">
@@ -5783,11 +5785,11 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="51"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
       <c r="H40" s="1" t="s">
         <v>3</v>
       </c>
@@ -5797,11 +5799,11 @@
     </row>
     <row r="41" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="52"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
       <c r="H41" s="2" t="s">
         <v>4</v>
       </c>
@@ -5810,22 +5812,22 @@
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="34">
+      <c r="B42" s="37">
         <v>14</v>
       </c>
-      <c r="C42" s="64" t="s">
+      <c r="C42" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="47" t="s">
+      <c r="D42" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E42" s="48" t="s">
+      <c r="E42" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F42" s="40" t="s">
+      <c r="F42" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G42" s="43" t="s">
+      <c r="G42" s="34" t="s">
         <v>54</v>
       </c>
       <c r="H42" s="4" t="s">
@@ -5836,12 +5838,12 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="35"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
       <c r="H43" s="1" t="s">
         <v>3</v>
       </c>
@@ -5850,12 +5852,12 @@
       </c>
     </row>
     <row r="44" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="36"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
       <c r="H44" s="7" t="s">
         <v>4</v>
       </c>
@@ -5867,19 +5869,19 @@
       <c r="B45" s="50">
         <v>15</v>
       </c>
-      <c r="C45" s="53" t="s">
+      <c r="C45" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="47" t="s">
+      <c r="D45" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E45" s="48" t="s">
+      <c r="E45" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F45" s="58" t="s">
+      <c r="F45" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="G45" s="58" t="s">
+      <c r="G45" s="59" t="s">
         <v>45</v>
       </c>
       <c r="H45" s="3" t="s">
@@ -5891,11 +5893,11 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="51"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
       <c r="H46" s="1" t="s">
         <v>3</v>
       </c>
@@ -5905,11 +5907,11 @@
     </row>
     <row r="47" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="52"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
       <c r="H47" s="2" t="s">
         <v>4</v>
       </c>
@@ -5918,22 +5920,22 @@
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="34">
+      <c r="B48" s="37">
         <v>16</v>
       </c>
-      <c r="C48" s="37" t="s">
+      <c r="C48" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="47" t="s">
+      <c r="D48" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E48" s="48" t="s">
+      <c r="E48" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F48" s="40" t="s">
+      <c r="F48" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G48" s="40" t="s">
+      <c r="G48" s="46" t="s">
         <v>56</v>
       </c>
       <c r="H48" s="4" t="s">
@@ -5944,12 +5946,12 @@
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="35"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
       <c r="H49" s="1" t="s">
         <v>3</v>
       </c>
@@ -5958,12 +5960,12 @@
       </c>
     </row>
     <row r="50" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="36"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
       <c r="H50" s="7" t="s">
         <v>4</v>
       </c>
@@ -5975,19 +5977,19 @@
       <c r="B51" s="50">
         <v>17</v>
       </c>
-      <c r="C51" s="37" t="s">
+      <c r="C51" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="47" t="s">
+      <c r="D51" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E51" s="48" t="s">
+      <c r="E51" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F51" s="40" t="s">
+      <c r="F51" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G51" s="40" t="s">
+      <c r="G51" s="46" t="s">
         <v>74</v>
       </c>
       <c r="H51" s="4" t="s">
@@ -5999,11 +6001,11 @@
     </row>
     <row r="52" spans="2:9" ht="33" x14ac:dyDescent="0.3">
       <c r="B52" s="51"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
       <c r="H52" s="1" t="s">
         <v>3</v>
       </c>
@@ -6013,11 +6015,11 @@
     </row>
     <row r="53" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="52"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
       <c r="H53" s="7" t="s">
         <v>4</v>
       </c>
@@ -6026,22 +6028,22 @@
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="34">
+      <c r="B54" s="37">
         <v>18</v>
       </c>
-      <c r="C54" s="37" t="s">
+      <c r="C54" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="47" t="s">
+      <c r="D54" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E54" s="48" t="s">
+      <c r="E54" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F54" s="40" t="s">
+      <c r="F54" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G54" s="43" t="s">
+      <c r="G54" s="34" t="s">
         <v>79</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -6052,12 +6054,12 @@
       </c>
     </row>
     <row r="55" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="35"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
       </c>
@@ -6066,12 +6068,12 @@
       </c>
     </row>
     <row r="56" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="36"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="42"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
       <c r="H56" s="7" t="s">
         <v>4</v>
       </c>
@@ -6083,19 +6085,19 @@
       <c r="B57" s="50">
         <v>19</v>
       </c>
-      <c r="C57" s="37" t="s">
+      <c r="C57" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="D57" s="47" t="s">
+      <c r="D57" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E57" s="48" t="s">
+      <c r="E57" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F57" s="40" t="s">
+      <c r="F57" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G57" s="40" t="s">
+      <c r="G57" s="46" t="s">
         <v>89</v>
       </c>
       <c r="H57" s="4" t="s">
@@ -6107,11 +6109,11 @@
     </row>
     <row r="58" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="51"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="48"/>
-      <c r="E58" s="48"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
       <c r="H58" s="1" t="s">
         <v>3</v>
       </c>
@@ -6121,11 +6123,11 @@
     </row>
     <row r="59" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="52"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
       <c r="H59" s="7" t="s">
         <v>4</v>
       </c>
@@ -6134,22 +6136,22 @@
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="34">
+      <c r="B60" s="37">
         <v>20</v>
       </c>
-      <c r="C60" s="68" t="s">
+      <c r="C60" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="D60" s="47" t="s">
+      <c r="D60" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E60" s="48" t="s">
+      <c r="E60" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F60" s="40" t="s">
+      <c r="F60" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G60" s="43" t="s">
+      <c r="G60" s="34" t="s">
         <v>97</v>
       </c>
       <c r="H60" s="4" t="s">
@@ -6160,12 +6162,12 @@
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="35"/>
-      <c r="C61" s="69"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="48"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="41"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
       <c r="H61" s="1" t="s">
         <v>3</v>
       </c>
@@ -6174,12 +6176,12 @@
       </c>
     </row>
     <row r="62" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="36"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="42"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
       <c r="H62" s="7" t="s">
         <v>4</v>
       </c>
@@ -6188,22 +6190,22 @@
       </c>
     </row>
     <row r="63" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="34">
+      <c r="B63" s="37">
         <v>21</v>
       </c>
-      <c r="C63" s="44" t="s">
+      <c r="C63" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="D63" s="47" t="s">
+      <c r="D63" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E63" s="47" t="s">
+      <c r="E63" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="F63" s="47" t="s">
+      <c r="F63" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="G63" s="71" t="s">
+      <c r="G63" s="47" t="s">
         <v>106</v>
       </c>
       <c r="H63" s="4" t="s">
@@ -6214,12 +6216,12 @@
       </c>
     </row>
     <row r="64" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="35"/>
-      <c r="C64" s="45"/>
-      <c r="D64" s="48"/>
-      <c r="E64" s="48"/>
-      <c r="F64" s="48"/>
-      <c r="G64" s="72"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="44"/>
+      <c r="G64" s="48"/>
       <c r="H64" s="1" t="s">
         <v>3</v>
       </c>
@@ -6228,12 +6230,12 @@
       </c>
     </row>
     <row r="65" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="36"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="73"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="73"/>
+      <c r="D65" s="45"/>
+      <c r="E65" s="45"/>
+      <c r="F65" s="45"/>
+      <c r="G65" s="49"/>
       <c r="H65" s="7" t="s">
         <v>4</v>
       </c>
@@ -6242,22 +6244,22 @@
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="34">
+      <c r="B66" s="37">
         <v>22</v>
       </c>
-      <c r="C66" s="68" t="s">
+      <c r="C66" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="D66" s="47" t="s">
+      <c r="D66" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E66" s="48" t="s">
+      <c r="E66" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F66" s="40" t="s">
+      <c r="F66" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G66" s="43" t="s">
+      <c r="G66" s="34" t="s">
         <v>97</v>
       </c>
       <c r="H66" s="4" t="s">
@@ -6268,12 +6270,12 @@
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B67" s="35"/>
-      <c r="C67" s="69"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="48"/>
-      <c r="F67" s="41"/>
-      <c r="G67" s="41"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
       <c r="H67" s="1" t="s">
         <v>3</v>
       </c>
@@ -6282,12 +6284,12 @@
       </c>
     </row>
     <row r="68" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="36"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="49"/>
-      <c r="E68" s="49"/>
-      <c r="F68" s="42"/>
-      <c r="G68" s="42"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="45"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
       <c r="H68" s="7" t="s">
         <v>4</v>
       </c>
@@ -6297,44 +6299,79 @@
     </row>
   </sheetData>
   <mergeCells count="135">
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D6:D8"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="D15:D17"/>
@@ -6359,79 +6396,44 @@
     <mergeCell ref="F15:F17"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="F18:F20"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="G57:G59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
+++ b/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B307FEAD-4EE3-43DA-9F19-61F67899003F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2F3ED3-8A78-4154-9E51-150598C54DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9C64985F-4ADF-44CE-9572-0998CB538CFF}"/>
   </bookViews>
@@ -887,18 +887,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>체력 5, 공격력 5의 작은 언니 소환 (하반신이 없는 궁수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">체력 8, 공격력 5의 큰 오빠 소환 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력 5, 공격력 8의 큰 언니 소환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>삼키기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1741,6 +1729,18 @@
   <si>
     <t>전투 종료 시 루시의 체력을 5 회복 시킨다
 소화 불량 카드 1개를 소멸 시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 5, 공격력 4의 작은 언니 소환 (하반신이 없는 궁수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">체력 8, 공격력 4의 큰 오빠 소환 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력3, 공격력 6의 큰 언니 소환</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2469,22 +2469,106 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2497,96 +2581,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2926,7 +2926,7 @@
   <dimension ref="B1:K88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:XFD44"/>
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3002,7 +3002,7 @@
         <v>141</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>119</v>
@@ -3146,7 +3146,7 @@
         <v>131</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="J10" s="23" t="s">
         <v>139</v>
@@ -3166,7 +3166,7 @@
         <v>133</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G11" s="21" t="s">
         <v>124</v>
@@ -3195,16 +3195,16 @@
         <v>120</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G12" s="21" t="s">
         <v>124</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3221,16 +3221,16 @@
         <v>120</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G13" s="21" t="s">
         <v>124</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3254,7 +3254,7 @@
         <v>160</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3275,10 +3275,10 @@
         <v>144</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3299,10 +3299,10 @@
         <v>130</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3320,13 +3320,13 @@
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="27" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="2:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3343,7 +3343,7 @@
         <v>123</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G18" s="25" t="s">
         <v>144</v>
@@ -3352,7 +3352,7 @@
         <v>157</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3369,7 +3369,7 @@
         <v>123</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G19" s="25" t="s">
         <v>124</v>
@@ -3378,7 +3378,7 @@
         <v>159</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3395,7 +3395,7 @@
         <v>123</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G20" s="25" t="s">
         <v>130</v>
@@ -3404,7 +3404,7 @@
         <v>162</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="2:11" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -3421,16 +3421,16 @@
         <v>123</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G21" s="25" t="s">
         <v>124</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="2:11" s="29" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -3447,7 +3447,7 @@
         <v>123</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G22" s="27" t="s">
         <v>124</v>
@@ -3456,7 +3456,7 @@
         <v>165</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="2:11" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -3473,16 +3473,16 @@
         <v>123</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G23" s="25" t="s">
         <v>130</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="2:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3499,16 +3499,16 @@
         <v>123</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G24" s="25" t="s">
         <v>130</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J24" s="24" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3532,7 +3532,7 @@
         <v>169</v>
       </c>
       <c r="J25" s="24" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3556,7 +3556,7 @@
         <v>170</v>
       </c>
       <c r="J26" s="24" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3573,16 +3573,16 @@
         <v>175</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G27" s="25" t="s">
         <v>144</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28" spans="2:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3590,7 +3590,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D28" s="25" t="s">
         <v>102</v>
@@ -3603,13 +3603,13 @@
         <v>130</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I28" s="24" t="s">
         <v>172</v>
       </c>
       <c r="J28" s="24" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3626,16 +3626,16 @@
         <v>175</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G29" s="25" t="s">
         <v>144</v>
       </c>
       <c r="H29" s="26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="J29" s="24" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="2:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3652,19 +3652,19 @@
         <v>175</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G30" s="25" t="s">
         <v>130</v>
       </c>
       <c r="H30" s="26" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3681,7 +3681,7 @@
         <v>175</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G31" s="25" t="s">
         <v>124</v>
@@ -3693,7 +3693,7 @@
         <v>180</v>
       </c>
       <c r="J31" s="24" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="2:11" s="29" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3717,10 +3717,10 @@
         <v>182</v>
       </c>
       <c r="J32" s="29" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="33" spans="2:11" s="29" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3737,19 +3737,19 @@
         <v>123</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G33" s="27" t="s">
         <v>130</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K33" s="29" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="34" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3766,7 +3766,7 @@
         <v>123</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G34" s="25" t="s">
         <v>124</v>
@@ -3775,7 +3775,7 @@
         <v>185</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3783,7 +3783,7 @@
         <v>30</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D35" s="25" t="s">
         <v>102</v>
@@ -3792,7 +3792,7 @@
         <v>175</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G35" s="25" t="s">
         <v>130</v>
@@ -3801,7 +3801,7 @@
         <v>186</v>
       </c>
       <c r="J35" s="24" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="36" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3822,10 +3822,10 @@
         <v>124</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="J36" s="24" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="37" spans="2:11" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -3842,19 +3842,19 @@
         <v>120</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G37" s="25" t="s">
         <v>130</v>
       </c>
       <c r="H37" s="26" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="J37" s="24" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="K37" s="24" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="38" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3871,19 +3871,19 @@
         <v>120</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G38" s="25" t="s">
         <v>130</v>
       </c>
       <c r="H38" s="26" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J38" s="24" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="K38" s="24" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="39" spans="2:11" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3900,19 +3900,19 @@
         <v>123</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G39" s="21" t="s">
         <v>124</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="J39" s="23" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="K39" s="23" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="40" spans="2:11" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3933,10 +3933,10 @@
         <v>124</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="J40" s="23" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="41" spans="2:11" s="29" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
@@ -3953,16 +3953,16 @@
         <v>123</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G41" s="27" t="s">
         <v>130</v>
       </c>
       <c r="H41" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J41" s="29" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="42" spans="2:11" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3970,7 +3970,7 @@
         <v>37</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D42" s="21" t="s">
         <v>103</v>
@@ -3986,7 +3986,7 @@
         <v>193</v>
       </c>
       <c r="J42" s="23" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="43" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4010,7 +4010,7 @@
         <v>195</v>
       </c>
       <c r="J43" s="23" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4034,7 +4034,7 @@
         <v>197</v>
       </c>
       <c r="J44" s="23" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
@@ -4051,16 +4051,16 @@
         <v>120</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H45" s="15" t="s">
         <v>202</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
@@ -4077,16 +4077,16 @@
         <v>120</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>203</v>
+        <v>401</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
@@ -4103,16 +4103,16 @@
         <v>120</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>204</v>
+        <v>402</v>
       </c>
       <c r="J47" s="14" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
@@ -4129,16 +4129,16 @@
         <v>120</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>205</v>
+        <v>403</v>
       </c>
       <c r="J48" s="14" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="49" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4146,7 +4146,7 @@
         <v>44</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D49" s="16" t="s">
         <v>102</v>
@@ -4158,10 +4158,10 @@
         <v>124</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J49" s="14" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.3">
@@ -4169,7 +4169,7 @@
         <v>45</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D50" s="16" t="s">
         <v>102</v>
@@ -4181,13 +4181,13 @@
         <v>124</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J50" s="14" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.3">
@@ -4195,7 +4195,7 @@
         <v>46</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D51" s="16" t="s">
         <v>101</v>
@@ -4207,13 +4207,13 @@
         <v>124</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J51" s="14" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.3">
@@ -4221,7 +4221,7 @@
         <v>47</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D52" s="16" t="s">
         <v>101</v>
@@ -4233,13 +4233,13 @@
         <v>124</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J52" s="14" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.3">
@@ -4247,7 +4247,7 @@
         <v>48</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D53" s="16" t="s">
         <v>102</v>
@@ -4259,13 +4259,13 @@
         <v>130</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J53" s="14" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="54" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -4273,7 +4273,7 @@
         <v>49</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D54" s="16" t="s">
         <v>103</v>
@@ -4285,10 +4285,10 @@
         <v>156</v>
       </c>
       <c r="H54" s="15" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="J54" s="14" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.3">
@@ -4296,7 +4296,7 @@
         <v>50</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D55" s="16" t="s">
         <v>102</v>
@@ -4308,10 +4308,10 @@
         <v>124</v>
       </c>
       <c r="H55" s="15" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="56" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4319,7 +4319,7 @@
         <v>51</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D56" s="16" t="s">
         <v>103</v>
@@ -4331,10 +4331,10 @@
         <v>156</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J56" s="14" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.3">
@@ -4342,7 +4342,7 @@
         <v>52</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D57" s="16" t="s">
         <v>102</v>
@@ -4351,19 +4351,19 @@
         <v>175</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G57" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H57" s="15" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J57" s="14" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="58" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4371,7 +4371,7 @@
         <v>53</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D58" s="16" t="s">
         <v>102</v>
@@ -4380,16 +4380,16 @@
         <v>175</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G58" s="16" t="s">
         <v>144</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="J58" s="14" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="59" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -4409,10 +4409,10 @@
         <v>130</v>
       </c>
       <c r="H59" s="15" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J59" s="14" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="60" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4420,7 +4420,7 @@
         <v>55</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D60" s="16" t="s">
         <v>102</v>
@@ -4432,10 +4432,10 @@
         <v>130</v>
       </c>
       <c r="H60" s="15" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="J60" s="14" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="61" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4443,7 +4443,7 @@
         <v>56</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D61" s="16" t="s">
         <v>101</v>
@@ -4455,10 +4455,10 @@
         <v>124</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J61" s="14" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.3">
@@ -4466,7 +4466,7 @@
         <v>57</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D62" s="16" t="s">
         <v>101</v>
@@ -4478,10 +4478,10 @@
         <v>124</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="J62" s="14" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.3">
@@ -4489,7 +4489,7 @@
         <v>58</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D63" s="16" t="s">
         <v>102</v>
@@ -4501,10 +4501,10 @@
         <v>124</v>
       </c>
       <c r="H63" s="15" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J63" s="14" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="64" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4512,7 +4512,7 @@
         <v>59</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D64" s="16" t="s">
         <v>102</v>
@@ -4521,13 +4521,13 @@
         <v>123</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H64" s="15" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="J64" s="14" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="65" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4535,7 +4535,7 @@
         <v>60</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D65" s="16" t="s">
         <v>103</v>
@@ -4547,10 +4547,10 @@
         <v>144</v>
       </c>
       <c r="H65" s="15" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="J65" s="14" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="66" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -4558,7 +4558,7 @@
         <v>61</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D66" s="16" t="s">
         <v>102</v>
@@ -4570,10 +4570,10 @@
         <v>130</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J66" s="14" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="67" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -4581,7 +4581,7 @@
         <v>62</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D67" s="16" t="s">
         <v>103</v>
@@ -4593,10 +4593,10 @@
         <v>130</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J67" s="14" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="68" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4604,7 +4604,7 @@
         <v>63</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D68" s="16" t="s">
         <v>102</v>
@@ -4616,10 +4616,10 @@
         <v>124</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="J68" s="14" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="69" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4627,7 +4627,7 @@
         <v>64</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D69" s="16" t="s">
         <v>102</v>
@@ -4639,10 +4639,10 @@
         <v>124</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J69" s="14" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="70" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4650,7 +4650,7 @@
         <v>65</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D70" s="16" t="s">
         <v>102</v>
@@ -4659,16 +4659,16 @@
         <v>123</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G70" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H70" s="15" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="J70" s="14" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.3">
@@ -4676,7 +4676,7 @@
         <v>66</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D71" s="16" t="s">
         <v>102</v>
@@ -4685,16 +4685,16 @@
         <v>123</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G71" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J71" s="14" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.3">
@@ -4702,7 +4702,7 @@
         <v>67</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D72" s="16" t="s">
         <v>101</v>
@@ -4711,16 +4711,16 @@
         <v>123</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G72" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H72" s="15" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J72" s="14" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.3">
@@ -4728,7 +4728,7 @@
         <v>68</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D73" s="16" t="s">
         <v>101</v>
@@ -4737,16 +4737,16 @@
         <v>175</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G73" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H73" s="15" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J73" s="14" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.3">
@@ -4754,7 +4754,7 @@
         <v>69</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D74" s="16" t="s">
         <v>102</v>
@@ -4763,16 +4763,16 @@
         <v>175</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G74" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J74" s="14" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="75" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -4780,7 +4780,7 @@
         <v>70</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D75" s="16" t="s">
         <v>103</v>
@@ -4789,16 +4789,16 @@
         <v>123</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G75" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J75" s="14" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="76" spans="2:10" ht="66" x14ac:dyDescent="0.3">
@@ -4806,7 +4806,7 @@
         <v>71</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D76" s="16" t="s">
         <v>103</v>
@@ -4818,10 +4818,10 @@
         <v>156</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J76" s="14" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.3">
@@ -4829,7 +4829,7 @@
         <v>72</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D77" s="16" t="s">
         <v>101</v>
@@ -4838,16 +4838,16 @@
         <v>123</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G77" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J77" s="14" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.3">
@@ -4855,7 +4855,7 @@
         <v>73</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D78" s="16" t="s">
         <v>102</v>
@@ -4864,16 +4864,16 @@
         <v>123</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G78" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="J78" s="14" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.3">
@@ -4881,7 +4881,7 @@
         <v>74</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D79" s="16" t="s">
         <v>101</v>
@@ -4890,16 +4890,16 @@
         <v>175</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G79" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J79" s="14" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="80" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4907,7 +4907,7 @@
         <v>75</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D80" s="16" t="s">
         <v>102</v>
@@ -4916,16 +4916,16 @@
         <v>175</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G80" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J80" s="14" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="81" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4933,7 +4933,7 @@
         <v>76</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D81" s="16" t="s">
         <v>102</v>
@@ -4942,16 +4942,16 @@
         <v>120</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G81" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J81" s="14" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="82" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4959,22 +4959,22 @@
         <v>77</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D82" s="16" t="s">
         <v>101</v>
       </c>
       <c r="E82" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="G82" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="H82" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="G82" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="H82" s="15" t="s">
-        <v>239</v>
-      </c>
       <c r="J82" s="14" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="83" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4982,25 +4982,25 @@
         <v>78</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D83" s="16" t="s">
         <v>102</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F83" s="16" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G83" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="H83" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="H83" s="15" t="s">
-        <v>240</v>
-      </c>
       <c r="J83" s="14" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="84" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5008,22 +5008,22 @@
         <v>79</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D84" s="16" t="s">
         <v>102</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H84" s="15" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="J84" s="14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="85" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5031,30 +5031,30 @@
         <v>80</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D85" s="16" t="s">
         <v>103</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H85" s="15" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="J85" s="14" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J87" s="14" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.3">
@@ -5062,19 +5062,19 @@
         <v>90</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D88" s="16" t="s">
         <v>101</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G88" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H88" s="15" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -5106,34 +5106,34 @@
   <sheetData>
     <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="70"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="50">
         <v>1</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="58" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -5145,11 +5145,11 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="51"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
       <c r="H4" s="1" t="s">
         <v>3</v>
       </c>
@@ -5159,11 +5159,11 @@
     </row>
     <row r="5" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="52"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
       <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
@@ -5172,22 +5172,22 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="37">
+      <c r="B6" s="34">
         <v>2</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="40" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -5198,12 +5198,12 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="38"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
       <c r="H7" s="1" t="s">
         <v>3</v>
       </c>
@@ -5212,12 +5212,12 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="39"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
       <c r="H8" s="7" t="s">
         <v>4</v>
       </c>
@@ -5229,19 +5229,19 @@
       <c r="B9" s="50">
         <v>3</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="59" t="s">
+      <c r="G9" s="58" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -5253,11 +5253,11 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="51"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
       <c r="H10" s="1" t="s">
         <v>3</v>
       </c>
@@ -5267,11 +5267,11 @@
     </row>
     <row r="11" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="52"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
       <c r="H11" s="2" t="s">
         <v>4</v>
       </c>
@@ -5280,22 +5280,22 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="37">
+      <c r="B12" s="34">
         <v>4</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="46" t="s">
+      <c r="F12" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="40" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -5306,12 +5306,12 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="38"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
       <c r="H13" s="1" t="s">
         <v>3</v>
       </c>
@@ -5320,12 +5320,12 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="39"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
       <c r="H14" s="7" t="s">
         <v>4</v>
       </c>
@@ -5337,19 +5337,19 @@
       <c r="B15" s="50">
         <v>5</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="59" t="s">
+      <c r="F15" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="59" t="s">
+      <c r="G15" s="58" t="s">
         <v>31</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -5361,11 +5361,11 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="51"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="1" t="s">
         <v>3</v>
       </c>
@@ -5375,11 +5375,11 @@
     </row>
     <row r="17" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="52"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
       <c r="H17" s="2" t="s">
         <v>4</v>
       </c>
@@ -5388,22 +5388,22 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="37">
+      <c r="B18" s="34">
         <v>6</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="46" t="s">
+      <c r="F18" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="46" t="s">
+      <c r="G18" s="40" t="s">
         <v>61</v>
       </c>
       <c r="H18" s="4" t="s">
@@ -5414,12 +5414,12 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="38"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
       <c r="H19" s="1" t="s">
         <v>3</v>
       </c>
@@ -5428,12 +5428,12 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="39"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
       <c r="H20" s="7" t="s">
         <v>4</v>
       </c>
@@ -5445,19 +5445,19 @@
       <c r="B21" s="50">
         <v>7</v>
       </c>
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="44" t="s">
+      <c r="E21" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="40" t="s">
         <v>66</v>
       </c>
       <c r="H21" s="4" t="s">
@@ -5469,11 +5469,11 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="51"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
       <c r="H22" s="1" t="s">
         <v>3</v>
       </c>
@@ -5483,11 +5483,11 @@
     </row>
     <row r="23" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="52"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
       <c r="H23" s="7" t="s">
         <v>4</v>
       </c>
@@ -5496,22 +5496,22 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="37">
+      <c r="B24" s="34">
         <v>8</v>
       </c>
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="E24" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F24" s="59" t="s">
+      <c r="F24" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="59" t="s">
+      <c r="G24" s="58" t="s">
         <v>95</v>
       </c>
       <c r="H24" s="3" t="s">
@@ -5522,12 +5522,12 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="38"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
       <c r="H25" s="1" t="s">
         <v>3</v>
       </c>
@@ -5536,12 +5536,12 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="39"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
       <c r="H26" s="2" t="s">
         <v>4</v>
       </c>
@@ -5553,65 +5553,65 @@
       <c r="B27" s="50">
         <v>9</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="43" t="s">
+      <c r="D27" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="44" t="s">
+      <c r="E27" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="43" t="s">
+      <c r="F27" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G27" s="43" t="s">
+      <c r="G27" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="43" t="s">
+      <c r="H27" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="I27" s="56" t="s">
+      <c r="I27" s="65" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="51"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="57"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="66"/>
     </row>
     <row r="29" spans="2:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="52"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="58"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="67"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="37">
+      <c r="B30" s="34">
         <v>10</v>
       </c>
-      <c r="C30" s="61" t="s">
+      <c r="C30" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="43" t="s">
+      <c r="D30" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="44" t="s">
+      <c r="E30" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F30" s="43" t="s">
+      <c r="F30" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="43" t="s">
+      <c r="G30" s="47" t="s">
         <v>46</v>
       </c>
       <c r="H30" s="4" t="s">
@@ -5622,12 +5622,12 @@
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="38"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
       <c r="H31" s="1" t="s">
         <v>3</v>
       </c>
@@ -5636,12 +5636,12 @@
       </c>
     </row>
     <row r="32" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="39"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
       <c r="H32" s="7" t="s">
         <v>4</v>
       </c>
@@ -5653,19 +5653,19 @@
       <c r="B33" s="50">
         <v>11</v>
       </c>
-      <c r="C33" s="66" t="s">
+      <c r="C33" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="43" t="s">
+      <c r="D33" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="44" t="s">
+      <c r="E33" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F33" s="46" t="s">
+      <c r="F33" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G33" s="34" t="s">
+      <c r="G33" s="43" t="s">
         <v>50</v>
       </c>
       <c r="H33" s="4" t="s">
@@ -5677,11 +5677,11 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="51"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
       <c r="H34" s="1" t="s">
         <v>3</v>
       </c>
@@ -5691,11 +5691,11 @@
     </row>
     <row r="35" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="52"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
       <c r="H35" s="7" t="s">
         <v>4</v>
       </c>
@@ -5704,22 +5704,22 @@
       </c>
     </row>
     <row r="36" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="37">
+      <c r="B36" s="34">
         <v>12</v>
       </c>
-      <c r="C36" s="53" t="s">
+      <c r="C36" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="43" t="s">
+      <c r="D36" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E36" s="44" t="s">
+      <c r="E36" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F36" s="46" t="s">
+      <c r="F36" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G36" s="46" t="s">
+      <c r="G36" s="40" t="s">
         <v>84</v>
       </c>
       <c r="H36" s="4" t="s">
@@ -5730,12 +5730,12 @@
       </c>
     </row>
     <row r="37" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="38"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
       <c r="H37" s="1" t="s">
         <v>3</v>
       </c>
@@ -5744,12 +5744,12 @@
       </c>
     </row>
     <row r="38" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="39"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
       <c r="H38" s="7" t="s">
         <v>4</v>
       </c>
@@ -5761,19 +5761,19 @@
       <c r="B39" s="50">
         <v>13</v>
       </c>
-      <c r="C39" s="64" t="s">
+      <c r="C39" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="43" t="s">
+      <c r="D39" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E39" s="44" t="s">
+      <c r="E39" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F39" s="59" t="s">
+      <c r="F39" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="G39" s="67" t="s">
+      <c r="G39" s="63" t="s">
         <v>44</v>
       </c>
       <c r="H39" s="3" t="s">
@@ -5785,11 +5785,11 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="51"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
       <c r="H40" s="1" t="s">
         <v>3</v>
       </c>
@@ -5799,11 +5799,11 @@
     </row>
     <row r="41" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="52"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
       <c r="H41" s="2" t="s">
         <v>4</v>
       </c>
@@ -5812,22 +5812,22 @@
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="37">
+      <c r="B42" s="34">
         <v>14</v>
       </c>
-      <c r="C42" s="66" t="s">
+      <c r="C42" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="43" t="s">
+      <c r="D42" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E42" s="44" t="s">
+      <c r="E42" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F42" s="46" t="s">
+      <c r="F42" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="G42" s="34" t="s">
+      <c r="G42" s="43" t="s">
         <v>54</v>
       </c>
       <c r="H42" s="4" t="s">
@@ -5838,12 +5838,12 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="38"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
       <c r="H43" s="1" t="s">
         <v>3</v>
       </c>
@@ -5852,12 +5852,12 @@
       </c>
     </row>
     <row r="44" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="39"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
       <c r="H44" s="7" t="s">
         <v>4</v>
       </c>
@@ -5869,19 +5869,19 @@
       <c r="B45" s="50">
         <v>15</v>
       </c>
-      <c r="C45" s="64" t="s">
+      <c r="C45" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="43" t="s">
+      <c r="D45" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E45" s="44" t="s">
+      <c r="E45" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F45" s="59" t="s">
+      <c r="F45" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="G45" s="59" t="s">
+      <c r="G45" s="58" t="s">
         <v>45</v>
       </c>
       <c r="H45" s="3" t="s">
@@ -5893,11 +5893,11 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="51"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
       <c r="H46" s="1" t="s">
         <v>3</v>
       </c>
@@ -5907,11 +5907,11 @@
     </row>
     <row r="47" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="52"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
       <c r="H47" s="2" t="s">
         <v>4</v>
       </c>
@@ -5920,22 +5920,22 @@
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="37">
+      <c r="B48" s="34">
         <v>16</v>
       </c>
-      <c r="C48" s="53" t="s">
+      <c r="C48" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="43" t="s">
+      <c r="D48" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E48" s="44" t="s">
+      <c r="E48" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F48" s="46" t="s">
+      <c r="F48" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="G48" s="46" t="s">
+      <c r="G48" s="40" t="s">
         <v>56</v>
       </c>
       <c r="H48" s="4" t="s">
@@ -5946,12 +5946,12 @@
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="38"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
       <c r="H49" s="1" t="s">
         <v>3</v>
       </c>
@@ -5960,12 +5960,12 @@
       </c>
     </row>
     <row r="50" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="39"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
       <c r="H50" s="7" t="s">
         <v>4</v>
       </c>
@@ -5977,19 +5977,19 @@
       <c r="B51" s="50">
         <v>17</v>
       </c>
-      <c r="C51" s="53" t="s">
+      <c r="C51" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="43" t="s">
+      <c r="D51" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E51" s="44" t="s">
+      <c r="E51" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F51" s="46" t="s">
+      <c r="F51" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G51" s="46" t="s">
+      <c r="G51" s="40" t="s">
         <v>74</v>
       </c>
       <c r="H51" s="4" t="s">
@@ -6001,11 +6001,11 @@
     </row>
     <row r="52" spans="2:9" ht="33" x14ac:dyDescent="0.3">
       <c r="B52" s="51"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
       <c r="H52" s="1" t="s">
         <v>3</v>
       </c>
@@ -6015,11 +6015,11 @@
     </row>
     <row r="53" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="52"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
       <c r="H53" s="7" t="s">
         <v>4</v>
       </c>
@@ -6028,22 +6028,22 @@
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="37">
+      <c r="B54" s="34">
         <v>18</v>
       </c>
-      <c r="C54" s="53" t="s">
+      <c r="C54" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="43" t="s">
+      <c r="D54" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E54" s="44" t="s">
+      <c r="E54" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F54" s="46" t="s">
+      <c r="F54" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G54" s="34" t="s">
+      <c r="G54" s="43" t="s">
         <v>79</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -6054,12 +6054,12 @@
       </c>
     </row>
     <row r="55" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="38"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
       </c>
@@ -6068,12 +6068,12 @@
       </c>
     </row>
     <row r="56" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="39"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="45"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
       <c r="H56" s="7" t="s">
         <v>4</v>
       </c>
@@ -6085,19 +6085,19 @@
       <c r="B57" s="50">
         <v>19</v>
       </c>
-      <c r="C57" s="53" t="s">
+      <c r="C57" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="D57" s="43" t="s">
+      <c r="D57" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E57" s="44" t="s">
+      <c r="E57" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F57" s="46" t="s">
+      <c r="F57" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G57" s="46" t="s">
+      <c r="G57" s="40" t="s">
         <v>89</v>
       </c>
       <c r="H57" s="4" t="s">
@@ -6109,11 +6109,11 @@
     </row>
     <row r="58" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="51"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
       <c r="H58" s="1" t="s">
         <v>3</v>
       </c>
@@ -6123,11 +6123,11 @@
     </row>
     <row r="59" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="52"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
       <c r="H59" s="7" t="s">
         <v>4</v>
       </c>
@@ -6136,22 +6136,22 @@
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="37">
+      <c r="B60" s="34">
         <v>20</v>
       </c>
-      <c r="C60" s="40" t="s">
+      <c r="C60" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="D60" s="43" t="s">
+      <c r="D60" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E60" s="44" t="s">
+      <c r="E60" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F60" s="46" t="s">
+      <c r="F60" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="G60" s="34" t="s">
+      <c r="G60" s="43" t="s">
         <v>97</v>
       </c>
       <c r="H60" s="4" t="s">
@@ -6162,12 +6162,12 @@
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="38"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
       <c r="H61" s="1" t="s">
         <v>3</v>
       </c>
@@ -6176,12 +6176,12 @@
       </c>
     </row>
     <row r="62" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="39"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="45"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
       <c r="H62" s="7" t="s">
         <v>4</v>
       </c>
@@ -6190,22 +6190,22 @@
       </c>
     </row>
     <row r="63" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="37">
+      <c r="B63" s="34">
         <v>21</v>
       </c>
-      <c r="C63" s="71" t="s">
+      <c r="C63" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="D63" s="43" t="s">
+      <c r="D63" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E63" s="43" t="s">
+      <c r="E63" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="F63" s="43" t="s">
+      <c r="F63" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G63" s="47" t="s">
+      <c r="G63" s="71" t="s">
         <v>106</v>
       </c>
       <c r="H63" s="4" t="s">
@@ -6216,12 +6216,12 @@
       </c>
     </row>
     <row r="64" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="38"/>
-      <c r="C64" s="72"/>
-      <c r="D64" s="44"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="44"/>
-      <c r="G64" s="48"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="48"/>
+      <c r="E64" s="48"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="72"/>
       <c r="H64" s="1" t="s">
         <v>3</v>
       </c>
@@ -6230,12 +6230,12 @@
       </c>
     </row>
     <row r="65" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="39"/>
-      <c r="C65" s="73"/>
-      <c r="D65" s="45"/>
-      <c r="E65" s="45"/>
-      <c r="F65" s="45"/>
-      <c r="G65" s="49"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="73"/>
       <c r="H65" s="7" t="s">
         <v>4</v>
       </c>
@@ -6244,22 +6244,22 @@
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="37">
+      <c r="B66" s="34">
         <v>22</v>
       </c>
-      <c r="C66" s="40" t="s">
+      <c r="C66" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="D66" s="43" t="s">
+      <c r="D66" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E66" s="44" t="s">
+      <c r="E66" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F66" s="46" t="s">
+      <c r="F66" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="G66" s="34" t="s">
+      <c r="G66" s="43" t="s">
         <v>97</v>
       </c>
       <c r="H66" s="4" t="s">
@@ -6270,12 +6270,12 @@
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B67" s="38"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="44"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="48"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="41"/>
       <c r="H67" s="1" t="s">
         <v>3</v>
       </c>
@@ -6284,12 +6284,12 @@
       </c>
     </row>
     <row r="68" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="39"/>
-      <c r="C68" s="42"/>
-      <c r="D68" s="45"/>
-      <c r="E68" s="45"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
       <c r="H68" s="7" t="s">
         <v>4</v>
       </c>
@@ -6299,6 +6299,117 @@
     </row>
   </sheetData>
   <mergeCells count="135">
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="F51:F53"/>
     <mergeCell ref="B54:B56"/>
     <mergeCell ref="C54:C56"/>
     <mergeCell ref="F54:F56"/>
@@ -6323,117 +6434,6 @@
     <mergeCell ref="E42:E44"/>
     <mergeCell ref="E48:E50"/>
     <mergeCell ref="E51:E53"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="G57:G59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
+++ b/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2F3ED3-8A78-4154-9E51-150598C54DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F70792F-E60E-4B73-A7C7-776F007499A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9C64985F-4ADF-44CE-9572-0998CB538CFF}"/>
   </bookViews>
@@ -2469,6 +2469,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2478,6 +2487,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2487,17 +2535,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2506,87 +2587,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2925,8 +2925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E337946-5511-4AD1-8A21-3FB7BE6153D1}">
   <dimension ref="B1:K88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4037,107 +4037,107 @@
         <v>318</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="16">
+    <row r="45" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="21">
         <v>40</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="F45" s="16" t="s">
+      <c r="F45" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="G45" s="16" t="s">
+      <c r="G45" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="H45" s="15" t="s">
+      <c r="H45" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="J45" s="14" t="s">
+      <c r="J45" s="23" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="16">
+    <row r="46" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="21">
         <v>41</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="F46" s="16" t="s">
+      <c r="F46" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="G46" s="16" t="s">
+      <c r="G46" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="H46" s="15" t="s">
+      <c r="H46" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="J46" s="14" t="s">
+      <c r="J46" s="23" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="16">
+    <row r="47" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="21">
         <v>42</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="F47" s="16" t="s">
+      <c r="F47" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="G47" s="16" t="s">
+      <c r="G47" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="H47" s="15" t="s">
+      <c r="H47" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="J47" s="14" t="s">
+      <c r="J47" s="23" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="16">
+    <row r="48" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="21">
         <v>43</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D48" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="F48" s="16" t="s">
+      <c r="F48" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="G48" s="16" t="s">
+      <c r="G48" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="H48" s="15" t="s">
+      <c r="H48" s="22" t="s">
         <v>403</v>
       </c>
-      <c r="J48" s="14" t="s">
+      <c r="J48" s="23" t="s">
         <v>322</v>
       </c>
     </row>
@@ -5106,34 +5106,34 @@
   <sheetData>
     <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="70"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="50">
         <v>1</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="F3" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="59" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -5145,11 +5145,11 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="51"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
       <c r="H4" s="1" t="s">
         <v>3</v>
       </c>
@@ -5159,11 +5159,11 @@
     </row>
     <row r="5" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="52"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
       <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
@@ -5172,22 +5172,22 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="34">
+      <c r="B6" s="37">
         <v>2</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="46" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -5198,12 +5198,12 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="35"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="1" t="s">
         <v>3</v>
       </c>
@@ -5212,12 +5212,12 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="36"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
       <c r="H8" s="7" t="s">
         <v>4</v>
       </c>
@@ -5229,19 +5229,19 @@
       <c r="B9" s="50">
         <v>3</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="58" t="s">
+      <c r="G9" s="59" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -5253,11 +5253,11 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="51"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
       <c r="H10" s="1" t="s">
         <v>3</v>
       </c>
@@ -5267,11 +5267,11 @@
     </row>
     <row r="11" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="52"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
       <c r="H11" s="2" t="s">
         <v>4</v>
       </c>
@@ -5280,22 +5280,22 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="34">
+      <c r="B12" s="37">
         <v>4</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="G12" s="46" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -5306,12 +5306,12 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="35"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
       <c r="H13" s="1" t="s">
         <v>3</v>
       </c>
@@ -5320,12 +5320,12 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="36"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
       <c r="H14" s="7" t="s">
         <v>4</v>
       </c>
@@ -5337,19 +5337,19 @@
       <c r="B15" s="50">
         <v>5</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="48" t="s">
+      <c r="E15" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="58" t="s">
+      <c r="F15" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="58" t="s">
+      <c r="G15" s="59" t="s">
         <v>31</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -5361,11 +5361,11 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="51"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
       <c r="H16" s="1" t="s">
         <v>3</v>
       </c>
@@ -5375,11 +5375,11 @@
     </row>
     <row r="17" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="52"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
       <c r="H17" s="2" t="s">
         <v>4</v>
       </c>
@@ -5388,22 +5388,22 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="34">
+      <c r="B18" s="37">
         <v>6</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="C18" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="40" t="s">
+      <c r="G18" s="46" t="s">
         <v>61</v>
       </c>
       <c r="H18" s="4" t="s">
@@ -5414,12 +5414,12 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="35"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
       <c r="H19" s="1" t="s">
         <v>3</v>
       </c>
@@ -5428,12 +5428,12 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="36"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
       <c r="H20" s="7" t="s">
         <v>4</v>
       </c>
@@ -5445,19 +5445,19 @@
       <c r="B21" s="50">
         <v>7</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="48" t="s">
+      <c r="E21" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="40" t="s">
+      <c r="G21" s="46" t="s">
         <v>66</v>
       </c>
       <c r="H21" s="4" t="s">
@@ -5469,11 +5469,11 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="51"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
       <c r="H22" s="1" t="s">
         <v>3</v>
       </c>
@@ -5483,11 +5483,11 @@
     </row>
     <row r="23" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="52"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
       <c r="H23" s="7" t="s">
         <v>4</v>
       </c>
@@ -5496,22 +5496,22 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="34">
+      <c r="B24" s="37">
         <v>8</v>
       </c>
-      <c r="C24" s="53" t="s">
+      <c r="C24" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="47" t="s">
+      <c r="D24" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F24" s="58" t="s">
+      <c r="F24" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="58" t="s">
+      <c r="G24" s="59" t="s">
         <v>95</v>
       </c>
       <c r="H24" s="3" t="s">
@@ -5522,12 +5522,12 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="35"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
       <c r="H25" s="1" t="s">
         <v>3</v>
       </c>
@@ -5536,12 +5536,12 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="36"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
       <c r="H26" s="2" t="s">
         <v>4</v>
       </c>
@@ -5553,65 +5553,65 @@
       <c r="B27" s="50">
         <v>9</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="D27" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="48" t="s">
+      <c r="E27" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="47" t="s">
+      <c r="F27" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="G27" s="47" t="s">
+      <c r="G27" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="47" t="s">
+      <c r="H27" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="I27" s="65" t="s">
+      <c r="I27" s="56" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="51"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="66"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="57"/>
     </row>
     <row r="29" spans="2:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="52"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="67"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="58"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="34">
+      <c r="B30" s="37">
         <v>10</v>
       </c>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="47" t="s">
+      <c r="D30" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="48" t="s">
+      <c r="E30" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F30" s="47" t="s">
+      <c r="F30" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="47" t="s">
+      <c r="G30" s="43" t="s">
         <v>46</v>
       </c>
       <c r="H30" s="4" t="s">
@@ -5622,12 +5622,12 @@
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="35"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
       <c r="H31" s="1" t="s">
         <v>3</v>
       </c>
@@ -5636,12 +5636,12 @@
       </c>
     </row>
     <row r="32" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="36"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
       <c r="H32" s="7" t="s">
         <v>4</v>
       </c>
@@ -5653,19 +5653,19 @@
       <c r="B33" s="50">
         <v>11</v>
       </c>
-      <c r="C33" s="64" t="s">
+      <c r="C33" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="47" t="s">
+      <c r="D33" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="48" t="s">
+      <c r="E33" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F33" s="40" t="s">
+      <c r="F33" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G33" s="43" t="s">
+      <c r="G33" s="34" t="s">
         <v>50</v>
       </c>
       <c r="H33" s="4" t="s">
@@ -5677,11 +5677,11 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="51"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
       <c r="H34" s="1" t="s">
         <v>3</v>
       </c>
@@ -5691,11 +5691,11 @@
     </row>
     <row r="35" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="52"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
       <c r="H35" s="7" t="s">
         <v>4</v>
       </c>
@@ -5704,22 +5704,22 @@
       </c>
     </row>
     <row r="36" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="34">
+      <c r="B36" s="37">
         <v>12</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="47" t="s">
+      <c r="D36" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E36" s="48" t="s">
+      <c r="E36" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F36" s="40" t="s">
+      <c r="F36" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G36" s="40" t="s">
+      <c r="G36" s="46" t="s">
         <v>84</v>
       </c>
       <c r="H36" s="4" t="s">
@@ -5730,12 +5730,12 @@
       </c>
     </row>
     <row r="37" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="35"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
       <c r="H37" s="1" t="s">
         <v>3</v>
       </c>
@@ -5744,12 +5744,12 @@
       </c>
     </row>
     <row r="38" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="36"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
       <c r="H38" s="7" t="s">
         <v>4</v>
       </c>
@@ -5761,19 +5761,19 @@
       <c r="B39" s="50">
         <v>13</v>
       </c>
-      <c r="C39" s="53" t="s">
+      <c r="C39" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="47" t="s">
+      <c r="D39" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E39" s="48" t="s">
+      <c r="E39" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F39" s="58" t="s">
+      <c r="F39" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="G39" s="63" t="s">
+      <c r="G39" s="67" t="s">
         <v>44</v>
       </c>
       <c r="H39" s="3" t="s">
@@ -5785,11 +5785,11 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="51"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
       <c r="H40" s="1" t="s">
         <v>3</v>
       </c>
@@ -5799,11 +5799,11 @@
     </row>
     <row r="41" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="52"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
       <c r="H41" s="2" t="s">
         <v>4</v>
       </c>
@@ -5812,22 +5812,22 @@
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="34">
+      <c r="B42" s="37">
         <v>14</v>
       </c>
-      <c r="C42" s="64" t="s">
+      <c r="C42" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="47" t="s">
+      <c r="D42" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E42" s="48" t="s">
+      <c r="E42" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F42" s="40" t="s">
+      <c r="F42" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G42" s="43" t="s">
+      <c r="G42" s="34" t="s">
         <v>54</v>
       </c>
       <c r="H42" s="4" t="s">
@@ -5838,12 +5838,12 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="35"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
       <c r="H43" s="1" t="s">
         <v>3</v>
       </c>
@@ -5852,12 +5852,12 @@
       </c>
     </row>
     <row r="44" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="36"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
       <c r="H44" s="7" t="s">
         <v>4</v>
       </c>
@@ -5869,19 +5869,19 @@
       <c r="B45" s="50">
         <v>15</v>
       </c>
-      <c r="C45" s="53" t="s">
+      <c r="C45" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="47" t="s">
+      <c r="D45" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E45" s="48" t="s">
+      <c r="E45" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F45" s="58" t="s">
+      <c r="F45" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="G45" s="58" t="s">
+      <c r="G45" s="59" t="s">
         <v>45</v>
       </c>
       <c r="H45" s="3" t="s">
@@ -5893,11 +5893,11 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="51"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
       <c r="H46" s="1" t="s">
         <v>3</v>
       </c>
@@ -5907,11 +5907,11 @@
     </row>
     <row r="47" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="52"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
       <c r="H47" s="2" t="s">
         <v>4</v>
       </c>
@@ -5920,22 +5920,22 @@
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="34">
+      <c r="B48" s="37">
         <v>16</v>
       </c>
-      <c r="C48" s="37" t="s">
+      <c r="C48" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="47" t="s">
+      <c r="D48" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E48" s="48" t="s">
+      <c r="E48" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F48" s="40" t="s">
+      <c r="F48" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G48" s="40" t="s">
+      <c r="G48" s="46" t="s">
         <v>56</v>
       </c>
       <c r="H48" s="4" t="s">
@@ -5946,12 +5946,12 @@
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="35"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
       <c r="H49" s="1" t="s">
         <v>3</v>
       </c>
@@ -5960,12 +5960,12 @@
       </c>
     </row>
     <row r="50" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="36"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
       <c r="H50" s="7" t="s">
         <v>4</v>
       </c>
@@ -5977,19 +5977,19 @@
       <c r="B51" s="50">
         <v>17</v>
       </c>
-      <c r="C51" s="37" t="s">
+      <c r="C51" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="47" t="s">
+      <c r="D51" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E51" s="48" t="s">
+      <c r="E51" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F51" s="40" t="s">
+      <c r="F51" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G51" s="40" t="s">
+      <c r="G51" s="46" t="s">
         <v>74</v>
       </c>
       <c r="H51" s="4" t="s">
@@ -6001,11 +6001,11 @@
     </row>
     <row r="52" spans="2:9" ht="33" x14ac:dyDescent="0.3">
       <c r="B52" s="51"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
       <c r="H52" s="1" t="s">
         <v>3</v>
       </c>
@@ -6015,11 +6015,11 @@
     </row>
     <row r="53" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="52"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
       <c r="H53" s="7" t="s">
         <v>4</v>
       </c>
@@ -6028,22 +6028,22 @@
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="34">
+      <c r="B54" s="37">
         <v>18</v>
       </c>
-      <c r="C54" s="37" t="s">
+      <c r="C54" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="47" t="s">
+      <c r="D54" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E54" s="48" t="s">
+      <c r="E54" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F54" s="40" t="s">
+      <c r="F54" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G54" s="43" t="s">
+      <c r="G54" s="34" t="s">
         <v>79</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -6054,12 +6054,12 @@
       </c>
     </row>
     <row r="55" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="35"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
       </c>
@@ -6068,12 +6068,12 @@
       </c>
     </row>
     <row r="56" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="36"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="42"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
       <c r="H56" s="7" t="s">
         <v>4</v>
       </c>
@@ -6085,19 +6085,19 @@
       <c r="B57" s="50">
         <v>19</v>
       </c>
-      <c r="C57" s="37" t="s">
+      <c r="C57" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="D57" s="47" t="s">
+      <c r="D57" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E57" s="48" t="s">
+      <c r="E57" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F57" s="40" t="s">
+      <c r="F57" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G57" s="40" t="s">
+      <c r="G57" s="46" t="s">
         <v>89</v>
       </c>
       <c r="H57" s="4" t="s">
@@ -6109,11 +6109,11 @@
     </row>
     <row r="58" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="51"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="48"/>
-      <c r="E58" s="48"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
       <c r="H58" s="1" t="s">
         <v>3</v>
       </c>
@@ -6123,11 +6123,11 @@
     </row>
     <row r="59" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="52"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
       <c r="H59" s="7" t="s">
         <v>4</v>
       </c>
@@ -6136,22 +6136,22 @@
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="34">
+      <c r="B60" s="37">
         <v>20</v>
       </c>
-      <c r="C60" s="68" t="s">
+      <c r="C60" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="D60" s="47" t="s">
+      <c r="D60" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E60" s="48" t="s">
+      <c r="E60" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F60" s="40" t="s">
+      <c r="F60" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G60" s="43" t="s">
+      <c r="G60" s="34" t="s">
         <v>97</v>
       </c>
       <c r="H60" s="4" t="s">
@@ -6162,12 +6162,12 @@
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="35"/>
-      <c r="C61" s="69"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="48"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="41"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
       <c r="H61" s="1" t="s">
         <v>3</v>
       </c>
@@ -6176,12 +6176,12 @@
       </c>
     </row>
     <row r="62" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="36"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="42"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
       <c r="H62" s="7" t="s">
         <v>4</v>
       </c>
@@ -6190,22 +6190,22 @@
       </c>
     </row>
     <row r="63" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="34">
+      <c r="B63" s="37">
         <v>21</v>
       </c>
-      <c r="C63" s="44" t="s">
+      <c r="C63" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="D63" s="47" t="s">
+      <c r="D63" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E63" s="47" t="s">
+      <c r="E63" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="F63" s="47" t="s">
+      <c r="F63" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="G63" s="71" t="s">
+      <c r="G63" s="47" t="s">
         <v>106</v>
       </c>
       <c r="H63" s="4" t="s">
@@ -6216,12 +6216,12 @@
       </c>
     </row>
     <row r="64" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="35"/>
-      <c r="C64" s="45"/>
-      <c r="D64" s="48"/>
-      <c r="E64" s="48"/>
-      <c r="F64" s="48"/>
-      <c r="G64" s="72"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="44"/>
+      <c r="G64" s="48"/>
       <c r="H64" s="1" t="s">
         <v>3</v>
       </c>
@@ -6230,12 +6230,12 @@
       </c>
     </row>
     <row r="65" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="36"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="73"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="73"/>
+      <c r="D65" s="45"/>
+      <c r="E65" s="45"/>
+      <c r="F65" s="45"/>
+      <c r="G65" s="49"/>
       <c r="H65" s="7" t="s">
         <v>4</v>
       </c>
@@ -6244,22 +6244,22 @@
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="34">
+      <c r="B66" s="37">
         <v>22</v>
       </c>
-      <c r="C66" s="68" t="s">
+      <c r="C66" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="D66" s="47" t="s">
+      <c r="D66" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E66" s="48" t="s">
+      <c r="E66" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F66" s="40" t="s">
+      <c r="F66" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G66" s="43" t="s">
+      <c r="G66" s="34" t="s">
         <v>97</v>
       </c>
       <c r="H66" s="4" t="s">
@@ -6270,12 +6270,12 @@
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B67" s="35"/>
-      <c r="C67" s="69"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="48"/>
-      <c r="F67" s="41"/>
-      <c r="G67" s="41"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
       <c r="H67" s="1" t="s">
         <v>3</v>
       </c>
@@ -6284,12 +6284,12 @@
       </c>
     </row>
     <row r="68" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="36"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="49"/>
-      <c r="E68" s="49"/>
-      <c r="F68" s="42"/>
-      <c r="G68" s="42"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="45"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
       <c r="H68" s="7" t="s">
         <v>4</v>
       </c>
@@ -6299,44 +6299,79 @@
     </row>
   </sheetData>
   <mergeCells count="135">
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D6:D8"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="D15:D17"/>
@@ -6361,79 +6396,44 @@
     <mergeCell ref="F15:F17"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="F18:F20"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="G57:G59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
+++ b/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F70792F-E60E-4B73-A7C7-776F007499A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCE97CC-D02B-427E-BF9D-7A5A51C6C3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9C64985F-4ADF-44CE-9572-0998CB538CFF}"/>
   </bookViews>
@@ -908,10 +908,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">선택한 크리쳐의 생명력 5 회복, 보호막 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">1턴간 보호막 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1741,6 +1737,10 @@
   </si>
   <si>
     <t>체력3, 공격력 6의 큰 언니 소환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">선택한 크리쳐의 생명력 3 회복, 보호막 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2469,22 +2469,106 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2497,96 +2581,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2926,7 +2926,7 @@
   <dimension ref="B1:K88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3002,7 +3002,7 @@
         <v>141</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>119</v>
@@ -3146,7 +3146,7 @@
         <v>131</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J10" s="23" t="s">
         <v>139</v>
@@ -3166,7 +3166,7 @@
         <v>133</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G11" s="21" t="s">
         <v>124</v>
@@ -3195,16 +3195,16 @@
         <v>120</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G12" s="21" t="s">
         <v>124</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3221,16 +3221,16 @@
         <v>120</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G13" s="21" t="s">
         <v>124</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3254,7 +3254,7 @@
         <v>160</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3275,10 +3275,10 @@
         <v>144</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3299,10 +3299,10 @@
         <v>130</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3320,13 +3320,13 @@
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="H17" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="H17" s="26" t="s">
-        <v>393</v>
-      </c>
       <c r="J17" s="24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="2:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3343,7 +3343,7 @@
         <v>123</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G18" s="25" t="s">
         <v>144</v>
@@ -3352,7 +3352,7 @@
         <v>157</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3369,7 +3369,7 @@
         <v>123</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G19" s="25" t="s">
         <v>124</v>
@@ -3378,7 +3378,7 @@
         <v>159</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3395,7 +3395,7 @@
         <v>123</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G20" s="25" t="s">
         <v>130</v>
@@ -3404,7 +3404,7 @@
         <v>162</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="2:11" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -3421,16 +3421,16 @@
         <v>123</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G21" s="25" t="s">
         <v>124</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="2:11" s="29" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -3447,7 +3447,7 @@
         <v>123</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G22" s="27" t="s">
         <v>124</v>
@@ -3456,7 +3456,7 @@
         <v>165</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="2:11" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -3473,16 +3473,16 @@
         <v>123</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G23" s="25" t="s">
         <v>130</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="2:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3499,16 +3499,16 @@
         <v>123</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G24" s="25" t="s">
         <v>130</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J24" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3532,7 +3532,7 @@
         <v>169</v>
       </c>
       <c r="J25" s="24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3556,7 +3556,7 @@
         <v>170</v>
       </c>
       <c r="J26" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3573,16 +3573,16 @@
         <v>175</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G27" s="25" t="s">
         <v>144</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="2:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3590,7 +3590,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D28" s="25" t="s">
         <v>102</v>
@@ -3603,13 +3603,13 @@
         <v>130</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I28" s="24" t="s">
         <v>172</v>
       </c>
       <c r="J28" s="24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3626,16 +3626,16 @@
         <v>175</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G29" s="25" t="s">
         <v>144</v>
       </c>
       <c r="H29" s="26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J29" s="24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="2:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3652,19 +3652,19 @@
         <v>175</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G30" s="25" t="s">
         <v>130</v>
       </c>
       <c r="H30" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3681,7 +3681,7 @@
         <v>175</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G31" s="25" t="s">
         <v>124</v>
@@ -3693,7 +3693,7 @@
         <v>180</v>
       </c>
       <c r="J31" s="24" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="2:11" s="29" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3717,10 +3717,10 @@
         <v>182</v>
       </c>
       <c r="J32" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="33" spans="2:11" s="29" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3737,19 +3737,19 @@
         <v>123</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G33" s="27" t="s">
         <v>130</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K33" s="29" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="34" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3766,7 +3766,7 @@
         <v>123</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G34" s="25" t="s">
         <v>124</v>
@@ -3775,7 +3775,7 @@
         <v>185</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3783,7 +3783,7 @@
         <v>30</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D35" s="25" t="s">
         <v>102</v>
@@ -3792,7 +3792,7 @@
         <v>175</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G35" s="25" t="s">
         <v>130</v>
@@ -3801,7 +3801,7 @@
         <v>186</v>
       </c>
       <c r="J35" s="24" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3822,10 +3822,10 @@
         <v>124</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J36" s="24" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37" spans="2:11" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -3842,19 +3842,19 @@
         <v>120</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G37" s="25" t="s">
         <v>130</v>
       </c>
       <c r="H37" s="26" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J37" s="24" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K37" s="24" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="38" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3871,19 +3871,19 @@
         <v>120</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G38" s="25" t="s">
         <v>130</v>
       </c>
       <c r="H38" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J38" s="24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K38" s="24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="39" spans="2:11" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3900,19 +3900,19 @@
         <v>123</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G39" s="21" t="s">
         <v>124</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J39" s="23" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K39" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="40" spans="2:11" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3933,10 +3933,10 @@
         <v>124</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J40" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41" spans="2:11" s="29" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
@@ -3953,16 +3953,16 @@
         <v>123</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G41" s="27" t="s">
         <v>130</v>
       </c>
       <c r="H41" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J41" s="29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42" spans="2:11" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3970,7 +3970,7 @@
         <v>37</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D42" s="21" t="s">
         <v>103</v>
@@ -3986,7 +3986,7 @@
         <v>193</v>
       </c>
       <c r="J42" s="23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="43" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4010,7 +4010,7 @@
         <v>195</v>
       </c>
       <c r="J43" s="23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="44" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4034,7 +4034,7 @@
         <v>197</v>
       </c>
       <c r="J44" s="23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4051,7 +4051,7 @@
         <v>120</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G45" s="21" t="s">
         <v>124</v>
@@ -4060,7 +4060,7 @@
         <v>202</v>
       </c>
       <c r="J45" s="23" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="46" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4077,16 +4077,16 @@
         <v>120</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G46" s="21" t="s">
         <v>124</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J46" s="23" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="47" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4103,16 +4103,16 @@
         <v>120</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G47" s="21" t="s">
         <v>124</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J47" s="23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="48" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4129,39 +4129,40 @@
         <v>120</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G48" s="21" t="s">
         <v>130</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J48" s="23" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B49" s="21">
+        <v>44</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="H49" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="J49" s="23" t="s">
         <v>322</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B49" s="16">
-        <v>44</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="G49" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H49" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="J49" s="14" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.3">
@@ -4187,7 +4188,7 @@
         <v>206</v>
       </c>
       <c r="J50" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.3">
@@ -4195,25 +4196,25 @@
         <v>46</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E51" s="16" t="s">
         <v>175</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="H51" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="I51" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="I51" s="14" t="s">
-        <v>209</v>
-      </c>
       <c r="J51" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.3">
@@ -4221,7 +4222,7 @@
         <v>47</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D52" s="16" t="s">
         <v>101</v>
@@ -4233,13 +4234,13 @@
         <v>124</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J52" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.3">
@@ -4247,7 +4248,7 @@
         <v>48</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D53" s="16" t="s">
         <v>102</v>
@@ -4259,13 +4260,13 @@
         <v>130</v>
       </c>
       <c r="H53" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="I53" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="I53" s="14" t="s">
-        <v>215</v>
-      </c>
       <c r="J53" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="54" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -4273,7 +4274,7 @@
         <v>49</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D54" s="16" t="s">
         <v>103</v>
@@ -4285,10 +4286,10 @@
         <v>156</v>
       </c>
       <c r="H54" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="J54" s="14" t="s">
         <v>329</v>
-      </c>
-      <c r="J54" s="14" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.3">
@@ -4296,7 +4297,7 @@
         <v>50</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D55" s="16" t="s">
         <v>102</v>
@@ -4308,10 +4309,10 @@
         <v>124</v>
       </c>
       <c r="H55" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="56" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4319,7 +4320,7 @@
         <v>51</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D56" s="16" t="s">
         <v>103</v>
@@ -4331,10 +4332,10 @@
         <v>156</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J56" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.3">
@@ -4342,7 +4343,7 @@
         <v>52</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D57" s="16" t="s">
         <v>102</v>
@@ -4351,19 +4352,19 @@
         <v>175</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G57" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H57" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="I57" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="I57" s="14" t="s">
-        <v>220</v>
-      </c>
       <c r="J57" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="58" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4371,7 +4372,7 @@
         <v>53</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D58" s="16" t="s">
         <v>102</v>
@@ -4380,16 +4381,16 @@
         <v>175</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G58" s="16" t="s">
         <v>144</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J58" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="59" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -4409,10 +4410,10 @@
         <v>130</v>
       </c>
       <c r="H59" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J59" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="60" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4420,7 +4421,7 @@
         <v>55</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D60" s="16" t="s">
         <v>102</v>
@@ -4432,10 +4433,10 @@
         <v>130</v>
       </c>
       <c r="H60" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="J60" s="14" t="s">
         <v>339</v>
-      </c>
-      <c r="J60" s="14" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="61" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4443,7 +4444,7 @@
         <v>56</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D61" s="16" t="s">
         <v>101</v>
@@ -4455,10 +4456,10 @@
         <v>124</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J61" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.3">
@@ -4466,7 +4467,7 @@
         <v>57</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D62" s="16" t="s">
         <v>101</v>
@@ -4478,10 +4479,10 @@
         <v>124</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J62" s="14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.3">
@@ -4489,7 +4490,7 @@
         <v>58</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D63" s="16" t="s">
         <v>102</v>
@@ -4501,10 +4502,10 @@
         <v>124</v>
       </c>
       <c r="H63" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J63" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="64" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4512,7 +4513,7 @@
         <v>59</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D64" s="16" t="s">
         <v>102</v>
@@ -4521,13 +4522,13 @@
         <v>123</v>
       </c>
       <c r="G64" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="H64" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="H64" s="15" t="s">
-        <v>244</v>
-      </c>
       <c r="J64" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="65" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4535,7 +4536,7 @@
         <v>60</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D65" s="16" t="s">
         <v>103</v>
@@ -4547,10 +4548,10 @@
         <v>144</v>
       </c>
       <c r="H65" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J65" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="66" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -4558,7 +4559,7 @@
         <v>61</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D66" s="16" t="s">
         <v>102</v>
@@ -4570,10 +4571,10 @@
         <v>130</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J66" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="67" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -4581,7 +4582,7 @@
         <v>62</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D67" s="16" t="s">
         <v>103</v>
@@ -4593,10 +4594,10 @@
         <v>130</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J67" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="68" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4604,7 +4605,7 @@
         <v>63</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D68" s="16" t="s">
         <v>102</v>
@@ -4616,10 +4617,10 @@
         <v>124</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J68" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="69" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4627,7 +4628,7 @@
         <v>64</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D69" s="16" t="s">
         <v>102</v>
@@ -4639,10 +4640,10 @@
         <v>124</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J69" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="70" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4650,7 +4651,7 @@
         <v>65</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D70" s="16" t="s">
         <v>102</v>
@@ -4659,16 +4660,16 @@
         <v>123</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G70" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H70" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="J70" s="14" t="s">
         <v>356</v>
-      </c>
-      <c r="J70" s="14" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.3">
@@ -4676,7 +4677,7 @@
         <v>66</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D71" s="16" t="s">
         <v>102</v>
@@ -4685,16 +4686,16 @@
         <v>123</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G71" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H71" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="J71" s="14" t="s">
         <v>359</v>
-      </c>
-      <c r="J71" s="14" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.3">
@@ -4702,7 +4703,7 @@
         <v>67</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D72" s="16" t="s">
         <v>101</v>
@@ -4711,16 +4712,16 @@
         <v>123</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G72" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H72" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J72" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.3">
@@ -4728,7 +4729,7 @@
         <v>68</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D73" s="16" t="s">
         <v>101</v>
@@ -4737,16 +4738,16 @@
         <v>175</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G73" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H73" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J73" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.3">
@@ -4754,7 +4755,7 @@
         <v>69</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D74" s="16" t="s">
         <v>102</v>
@@ -4763,16 +4764,16 @@
         <v>175</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G74" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J74" s="14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="75" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -4780,7 +4781,7 @@
         <v>70</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D75" s="16" t="s">
         <v>103</v>
@@ -4789,16 +4790,16 @@
         <v>123</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G75" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J75" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="76" spans="2:10" ht="66" x14ac:dyDescent="0.3">
@@ -4806,7 +4807,7 @@
         <v>71</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D76" s="16" t="s">
         <v>103</v>
@@ -4818,10 +4819,10 @@
         <v>156</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J76" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.3">
@@ -4829,7 +4830,7 @@
         <v>72</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D77" s="16" t="s">
         <v>101</v>
@@ -4838,16 +4839,16 @@
         <v>123</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G77" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J77" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.3">
@@ -4855,7 +4856,7 @@
         <v>73</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D78" s="16" t="s">
         <v>102</v>
@@ -4864,16 +4865,16 @@
         <v>123</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G78" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J78" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.3">
@@ -4881,7 +4882,7 @@
         <v>74</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D79" s="16" t="s">
         <v>101</v>
@@ -4890,16 +4891,16 @@
         <v>175</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G79" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J79" s="14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="80" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4907,7 +4908,7 @@
         <v>75</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D80" s="16" t="s">
         <v>102</v>
@@ -4916,16 +4917,16 @@
         <v>175</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G80" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J80" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="81" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4933,7 +4934,7 @@
         <v>76</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D81" s="16" t="s">
         <v>102</v>
@@ -4942,16 +4943,16 @@
         <v>120</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G81" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J81" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="82" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4959,22 +4960,22 @@
         <v>77</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D82" s="16" t="s">
         <v>101</v>
       </c>
       <c r="E82" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="G82" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="G82" s="16" t="s">
-        <v>234</v>
-      </c>
       <c r="H82" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J82" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="83" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4982,25 +4983,25 @@
         <v>78</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D83" s="16" t="s">
         <v>102</v>
       </c>
       <c r="E83" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="F83" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="G83" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="F83" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="G83" s="16" t="s">
-        <v>234</v>
-      </c>
       <c r="H83" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J83" s="14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="84" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5008,22 +5009,22 @@
         <v>79</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D84" s="16" t="s">
         <v>102</v>
       </c>
       <c r="E84" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="G84" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="G84" s="16" t="s">
-        <v>234</v>
-      </c>
       <c r="H84" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J84" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="85" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5031,30 +5032,30 @@
         <v>80</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D85" s="16" t="s">
         <v>103</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H85" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J85" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J87" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.3">
@@ -5062,19 +5063,19 @@
         <v>90</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D88" s="16" t="s">
         <v>101</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G88" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H88" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -5106,34 +5107,34 @@
   <sheetData>
     <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="70"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="50">
         <v>1</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="58" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -5145,11 +5146,11 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="51"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
       <c r="H4" s="1" t="s">
         <v>3</v>
       </c>
@@ -5159,11 +5160,11 @@
     </row>
     <row r="5" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="52"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
       <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
@@ -5172,22 +5173,22 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="37">
+      <c r="B6" s="34">
         <v>2</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="40" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -5198,12 +5199,12 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="38"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
       <c r="H7" s="1" t="s">
         <v>3</v>
       </c>
@@ -5212,12 +5213,12 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="39"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
       <c r="H8" s="7" t="s">
         <v>4</v>
       </c>
@@ -5229,19 +5230,19 @@
       <c r="B9" s="50">
         <v>3</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="59" t="s">
+      <c r="G9" s="58" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -5253,11 +5254,11 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="51"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
       <c r="H10" s="1" t="s">
         <v>3</v>
       </c>
@@ -5267,11 +5268,11 @@
     </row>
     <row r="11" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="52"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
       <c r="H11" s="2" t="s">
         <v>4</v>
       </c>
@@ -5280,22 +5281,22 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="37">
+      <c r="B12" s="34">
         <v>4</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="46" t="s">
+      <c r="F12" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="40" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -5306,12 +5307,12 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="38"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
       <c r="H13" s="1" t="s">
         <v>3</v>
       </c>
@@ -5320,12 +5321,12 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="39"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
       <c r="H14" s="7" t="s">
         <v>4</v>
       </c>
@@ -5337,19 +5338,19 @@
       <c r="B15" s="50">
         <v>5</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="59" t="s">
+      <c r="F15" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="59" t="s">
+      <c r="G15" s="58" t="s">
         <v>31</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -5361,11 +5362,11 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="51"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="1" t="s">
         <v>3</v>
       </c>
@@ -5375,11 +5376,11 @@
     </row>
     <row r="17" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="52"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
       <c r="H17" s="2" t="s">
         <v>4</v>
       </c>
@@ -5388,22 +5389,22 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="37">
+      <c r="B18" s="34">
         <v>6</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="46" t="s">
+      <c r="F18" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="46" t="s">
+      <c r="G18" s="40" t="s">
         <v>61</v>
       </c>
       <c r="H18" s="4" t="s">
@@ -5414,12 +5415,12 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="38"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
       <c r="H19" s="1" t="s">
         <v>3</v>
       </c>
@@ -5428,12 +5429,12 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="39"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
       <c r="H20" s="7" t="s">
         <v>4</v>
       </c>
@@ -5445,19 +5446,19 @@
       <c r="B21" s="50">
         <v>7</v>
       </c>
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="44" t="s">
+      <c r="E21" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="40" t="s">
         <v>66</v>
       </c>
       <c r="H21" s="4" t="s">
@@ -5469,11 +5470,11 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="51"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
       <c r="H22" s="1" t="s">
         <v>3</v>
       </c>
@@ -5483,11 +5484,11 @@
     </row>
     <row r="23" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="52"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
       <c r="H23" s="7" t="s">
         <v>4</v>
       </c>
@@ -5496,22 +5497,22 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="37">
+      <c r="B24" s="34">
         <v>8</v>
       </c>
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="E24" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F24" s="59" t="s">
+      <c r="F24" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="59" t="s">
+      <c r="G24" s="58" t="s">
         <v>95</v>
       </c>
       <c r="H24" s="3" t="s">
@@ -5522,12 +5523,12 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="38"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
       <c r="H25" s="1" t="s">
         <v>3</v>
       </c>
@@ -5536,12 +5537,12 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="39"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
       <c r="H26" s="2" t="s">
         <v>4</v>
       </c>
@@ -5553,65 +5554,65 @@
       <c r="B27" s="50">
         <v>9</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="43" t="s">
+      <c r="D27" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="44" t="s">
+      <c r="E27" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="43" t="s">
+      <c r="F27" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G27" s="43" t="s">
+      <c r="G27" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="43" t="s">
+      <c r="H27" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="I27" s="56" t="s">
+      <c r="I27" s="65" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="51"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="57"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="66"/>
     </row>
     <row r="29" spans="2:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="52"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="58"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="67"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="37">
+      <c r="B30" s="34">
         <v>10</v>
       </c>
-      <c r="C30" s="61" t="s">
+      <c r="C30" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="43" t="s">
+      <c r="D30" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="44" t="s">
+      <c r="E30" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F30" s="43" t="s">
+      <c r="F30" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="43" t="s">
+      <c r="G30" s="47" t="s">
         <v>46</v>
       </c>
       <c r="H30" s="4" t="s">
@@ -5622,12 +5623,12 @@
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="38"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
       <c r="H31" s="1" t="s">
         <v>3</v>
       </c>
@@ -5636,12 +5637,12 @@
       </c>
     </row>
     <row r="32" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="39"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
       <c r="H32" s="7" t="s">
         <v>4</v>
       </c>
@@ -5653,19 +5654,19 @@
       <c r="B33" s="50">
         <v>11</v>
       </c>
-      <c r="C33" s="66" t="s">
+      <c r="C33" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="43" t="s">
+      <c r="D33" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="44" t="s">
+      <c r="E33" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F33" s="46" t="s">
+      <c r="F33" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G33" s="34" t="s">
+      <c r="G33" s="43" t="s">
         <v>50</v>
       </c>
       <c r="H33" s="4" t="s">
@@ -5677,11 +5678,11 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="51"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
       <c r="H34" s="1" t="s">
         <v>3</v>
       </c>
@@ -5691,11 +5692,11 @@
     </row>
     <row r="35" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="52"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
       <c r="H35" s="7" t="s">
         <v>4</v>
       </c>
@@ -5704,22 +5705,22 @@
       </c>
     </row>
     <row r="36" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="37">
+      <c r="B36" s="34">
         <v>12</v>
       </c>
-      <c r="C36" s="53" t="s">
+      <c r="C36" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="43" t="s">
+      <c r="D36" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E36" s="44" t="s">
+      <c r="E36" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F36" s="46" t="s">
+      <c r="F36" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G36" s="46" t="s">
+      <c r="G36" s="40" t="s">
         <v>84</v>
       </c>
       <c r="H36" s="4" t="s">
@@ -5730,12 +5731,12 @@
       </c>
     </row>
     <row r="37" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="38"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
       <c r="H37" s="1" t="s">
         <v>3</v>
       </c>
@@ -5744,12 +5745,12 @@
       </c>
     </row>
     <row r="38" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="39"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
       <c r="H38" s="7" t="s">
         <v>4</v>
       </c>
@@ -5761,19 +5762,19 @@
       <c r="B39" s="50">
         <v>13</v>
       </c>
-      <c r="C39" s="64" t="s">
+      <c r="C39" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="43" t="s">
+      <c r="D39" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E39" s="44" t="s">
+      <c r="E39" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F39" s="59" t="s">
+      <c r="F39" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="G39" s="67" t="s">
+      <c r="G39" s="63" t="s">
         <v>44</v>
       </c>
       <c r="H39" s="3" t="s">
@@ -5785,11 +5786,11 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="51"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
       <c r="H40" s="1" t="s">
         <v>3</v>
       </c>
@@ -5799,11 +5800,11 @@
     </row>
     <row r="41" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="52"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
       <c r="H41" s="2" t="s">
         <v>4</v>
       </c>
@@ -5812,22 +5813,22 @@
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="37">
+      <c r="B42" s="34">
         <v>14</v>
       </c>
-      <c r="C42" s="66" t="s">
+      <c r="C42" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="43" t="s">
+      <c r="D42" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E42" s="44" t="s">
+      <c r="E42" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F42" s="46" t="s">
+      <c r="F42" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="G42" s="34" t="s">
+      <c r="G42" s="43" t="s">
         <v>54</v>
       </c>
       <c r="H42" s="4" t="s">
@@ -5838,12 +5839,12 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="38"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
       <c r="H43" s="1" t="s">
         <v>3</v>
       </c>
@@ -5852,12 +5853,12 @@
       </c>
     </row>
     <row r="44" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="39"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
       <c r="H44" s="7" t="s">
         <v>4</v>
       </c>
@@ -5869,19 +5870,19 @@
       <c r="B45" s="50">
         <v>15</v>
       </c>
-      <c r="C45" s="64" t="s">
+      <c r="C45" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="43" t="s">
+      <c r="D45" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E45" s="44" t="s">
+      <c r="E45" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F45" s="59" t="s">
+      <c r="F45" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="G45" s="59" t="s">
+      <c r="G45" s="58" t="s">
         <v>45</v>
       </c>
       <c r="H45" s="3" t="s">
@@ -5893,11 +5894,11 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="51"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
       <c r="H46" s="1" t="s">
         <v>3</v>
       </c>
@@ -5907,11 +5908,11 @@
     </row>
     <row r="47" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="52"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
       <c r="H47" s="2" t="s">
         <v>4</v>
       </c>
@@ -5920,22 +5921,22 @@
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="37">
+      <c r="B48" s="34">
         <v>16</v>
       </c>
-      <c r="C48" s="53" t="s">
+      <c r="C48" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="43" t="s">
+      <c r="D48" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E48" s="44" t="s">
+      <c r="E48" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F48" s="46" t="s">
+      <c r="F48" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="G48" s="46" t="s">
+      <c r="G48" s="40" t="s">
         <v>56</v>
       </c>
       <c r="H48" s="4" t="s">
@@ -5946,12 +5947,12 @@
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="38"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
       <c r="H49" s="1" t="s">
         <v>3</v>
       </c>
@@ -5960,12 +5961,12 @@
       </c>
     </row>
     <row r="50" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="39"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
       <c r="H50" s="7" t="s">
         <v>4</v>
       </c>
@@ -5977,19 +5978,19 @@
       <c r="B51" s="50">
         <v>17</v>
       </c>
-      <c r="C51" s="53" t="s">
+      <c r="C51" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="43" t="s">
+      <c r="D51" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E51" s="44" t="s">
+      <c r="E51" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F51" s="46" t="s">
+      <c r="F51" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G51" s="46" t="s">
+      <c r="G51" s="40" t="s">
         <v>74</v>
       </c>
       <c r="H51" s="4" t="s">
@@ -6001,11 +6002,11 @@
     </row>
     <row r="52" spans="2:9" ht="33" x14ac:dyDescent="0.3">
       <c r="B52" s="51"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
       <c r="H52" s="1" t="s">
         <v>3</v>
       </c>
@@ -6015,11 +6016,11 @@
     </row>
     <row r="53" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="52"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
       <c r="H53" s="7" t="s">
         <v>4</v>
       </c>
@@ -6028,22 +6029,22 @@
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="37">
+      <c r="B54" s="34">
         <v>18</v>
       </c>
-      <c r="C54" s="53" t="s">
+      <c r="C54" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="43" t="s">
+      <c r="D54" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E54" s="44" t="s">
+      <c r="E54" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F54" s="46" t="s">
+      <c r="F54" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G54" s="34" t="s">
+      <c r="G54" s="43" t="s">
         <v>79</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -6054,12 +6055,12 @@
       </c>
     </row>
     <row r="55" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="38"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
       </c>
@@ -6068,12 +6069,12 @@
       </c>
     </row>
     <row r="56" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="39"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="45"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
       <c r="H56" s="7" t="s">
         <v>4</v>
       </c>
@@ -6085,19 +6086,19 @@
       <c r="B57" s="50">
         <v>19</v>
       </c>
-      <c r="C57" s="53" t="s">
+      <c r="C57" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="D57" s="43" t="s">
+      <c r="D57" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E57" s="44" t="s">
+      <c r="E57" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F57" s="46" t="s">
+      <c r="F57" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G57" s="46" t="s">
+      <c r="G57" s="40" t="s">
         <v>89</v>
       </c>
       <c r="H57" s="4" t="s">
@@ -6109,11 +6110,11 @@
     </row>
     <row r="58" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="51"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
       <c r="H58" s="1" t="s">
         <v>3</v>
       </c>
@@ -6123,11 +6124,11 @@
     </row>
     <row r="59" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="52"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
       <c r="H59" s="7" t="s">
         <v>4</v>
       </c>
@@ -6136,22 +6137,22 @@
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="37">
+      <c r="B60" s="34">
         <v>20</v>
       </c>
-      <c r="C60" s="40" t="s">
+      <c r="C60" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="D60" s="43" t="s">
+      <c r="D60" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E60" s="44" t="s">
+      <c r="E60" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F60" s="46" t="s">
+      <c r="F60" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="G60" s="34" t="s">
+      <c r="G60" s="43" t="s">
         <v>97</v>
       </c>
       <c r="H60" s="4" t="s">
@@ -6162,12 +6163,12 @@
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="38"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
       <c r="H61" s="1" t="s">
         <v>3</v>
       </c>
@@ -6176,12 +6177,12 @@
       </c>
     </row>
     <row r="62" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="39"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="45"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
       <c r="H62" s="7" t="s">
         <v>4</v>
       </c>
@@ -6190,22 +6191,22 @@
       </c>
     </row>
     <row r="63" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="37">
+      <c r="B63" s="34">
         <v>21</v>
       </c>
-      <c r="C63" s="71" t="s">
+      <c r="C63" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="D63" s="43" t="s">
+      <c r="D63" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E63" s="43" t="s">
+      <c r="E63" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="F63" s="43" t="s">
+      <c r="F63" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G63" s="47" t="s">
+      <c r="G63" s="71" t="s">
         <v>106</v>
       </c>
       <c r="H63" s="4" t="s">
@@ -6216,12 +6217,12 @@
       </c>
     </row>
     <row r="64" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="38"/>
-      <c r="C64" s="72"/>
-      <c r="D64" s="44"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="44"/>
-      <c r="G64" s="48"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="48"/>
+      <c r="E64" s="48"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="72"/>
       <c r="H64" s="1" t="s">
         <v>3</v>
       </c>
@@ -6230,12 +6231,12 @@
       </c>
     </row>
     <row r="65" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="39"/>
-      <c r="C65" s="73"/>
-      <c r="D65" s="45"/>
-      <c r="E65" s="45"/>
-      <c r="F65" s="45"/>
-      <c r="G65" s="49"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="73"/>
       <c r="H65" s="7" t="s">
         <v>4</v>
       </c>
@@ -6244,22 +6245,22 @@
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="37">
+      <c r="B66" s="34">
         <v>22</v>
       </c>
-      <c r="C66" s="40" t="s">
+      <c r="C66" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="D66" s="43" t="s">
+      <c r="D66" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E66" s="44" t="s">
+      <c r="E66" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F66" s="46" t="s">
+      <c r="F66" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="G66" s="34" t="s">
+      <c r="G66" s="43" t="s">
         <v>97</v>
       </c>
       <c r="H66" s="4" t="s">
@@ -6270,12 +6271,12 @@
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B67" s="38"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="44"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="48"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="41"/>
       <c r="H67" s="1" t="s">
         <v>3</v>
       </c>
@@ -6284,12 +6285,12 @@
       </c>
     </row>
     <row r="68" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="39"/>
-      <c r="C68" s="42"/>
-      <c r="D68" s="45"/>
-      <c r="E68" s="45"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
       <c r="H68" s="7" t="s">
         <v>4</v>
       </c>
@@ -6299,6 +6300,117 @@
     </row>
   </sheetData>
   <mergeCells count="135">
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="F51:F53"/>
     <mergeCell ref="B54:B56"/>
     <mergeCell ref="C54:C56"/>
     <mergeCell ref="F54:F56"/>
@@ -6323,117 +6435,6 @@
     <mergeCell ref="E42:E44"/>
     <mergeCell ref="E48:E50"/>
     <mergeCell ref="E51:E53"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="G57:G59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
+++ b/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCE97CC-D02B-427E-BF9D-7A5A51C6C3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293F6BEB-5597-49D5-ABC3-9ACD47FE15FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9C64985F-4ADF-44CE-9572-0998CB538CFF}"/>
   </bookViews>
@@ -920,10 +920,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3턴간 소화 상태 (턴 종료 시 만복도 10 증가)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>유황 고구마</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1741,6 +1737,10 @@
   </si>
   <si>
     <t xml:space="preserve">선택한 크리쳐의 생명력 3 회복, 보호막 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2턴간 소화 상태 (턴 종료 시 만복도 10 증가)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2469,6 +2469,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2478,6 +2487,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2487,17 +2535,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2506,87 +2587,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2926,7 +2926,7 @@
   <dimension ref="B1:K88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3002,7 +3002,7 @@
         <v>141</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>119</v>
@@ -3146,7 +3146,7 @@
         <v>131</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J10" s="23" t="s">
         <v>139</v>
@@ -3166,7 +3166,7 @@
         <v>133</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G11" s="21" t="s">
         <v>124</v>
@@ -3195,16 +3195,16 @@
         <v>120</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G12" s="21" t="s">
         <v>124</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3221,16 +3221,16 @@
         <v>120</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G13" s="21" t="s">
         <v>124</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3254,7 +3254,7 @@
         <v>160</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3275,10 +3275,10 @@
         <v>144</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3299,10 +3299,10 @@
         <v>130</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3320,13 +3320,13 @@
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="27" t="s">
+        <v>390</v>
+      </c>
+      <c r="H17" s="26" t="s">
         <v>391</v>
       </c>
-      <c r="H17" s="26" t="s">
-        <v>392</v>
-      </c>
       <c r="J17" s="24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="2:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3343,7 +3343,7 @@
         <v>123</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G18" s="25" t="s">
         <v>144</v>
@@ -3352,7 +3352,7 @@
         <v>157</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3369,7 +3369,7 @@
         <v>123</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G19" s="25" t="s">
         <v>124</v>
@@ -3378,7 +3378,7 @@
         <v>159</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3395,7 +3395,7 @@
         <v>123</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G20" s="25" t="s">
         <v>130</v>
@@ -3404,7 +3404,7 @@
         <v>162</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="2:11" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -3421,16 +3421,16 @@
         <v>123</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G21" s="25" t="s">
         <v>124</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22" spans="2:11" s="29" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -3447,7 +3447,7 @@
         <v>123</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G22" s="27" t="s">
         <v>124</v>
@@ -3456,7 +3456,7 @@
         <v>165</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="2:11" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -3473,16 +3473,16 @@
         <v>123</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G23" s="25" t="s">
         <v>130</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="2:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3499,16 +3499,16 @@
         <v>123</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G24" s="25" t="s">
         <v>130</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J24" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3532,7 +3532,7 @@
         <v>169</v>
       </c>
       <c r="J25" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3556,7 +3556,7 @@
         <v>170</v>
       </c>
       <c r="J26" s="24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3573,16 +3573,16 @@
         <v>175</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G27" s="25" t="s">
         <v>144</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="28" spans="2:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3590,7 +3590,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D28" s="25" t="s">
         <v>102</v>
@@ -3603,13 +3603,13 @@
         <v>130</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I28" s="24" t="s">
         <v>172</v>
       </c>
       <c r="J28" s="24" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3626,16 +3626,16 @@
         <v>175</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G29" s="25" t="s">
         <v>144</v>
       </c>
       <c r="H29" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J29" s="24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="2:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3652,19 +3652,19 @@
         <v>175</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G30" s="25" t="s">
         <v>130</v>
       </c>
       <c r="H30" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3681,7 +3681,7 @@
         <v>175</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G31" s="25" t="s">
         <v>124</v>
@@ -3693,7 +3693,7 @@
         <v>180</v>
       </c>
       <c r="J31" s="24" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="32" spans="2:11" s="29" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3717,10 +3717,10 @@
         <v>182</v>
       </c>
       <c r="J32" s="29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="33" spans="2:11" s="29" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3737,19 +3737,19 @@
         <v>123</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G33" s="27" t="s">
         <v>130</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K33" s="29" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="34" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3766,7 +3766,7 @@
         <v>123</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G34" s="25" t="s">
         <v>124</v>
@@ -3775,7 +3775,7 @@
         <v>185</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3783,7 +3783,7 @@
         <v>30</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D35" s="25" t="s">
         <v>102</v>
@@ -3792,7 +3792,7 @@
         <v>175</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G35" s="25" t="s">
         <v>130</v>
@@ -3801,7 +3801,7 @@
         <v>186</v>
       </c>
       <c r="J35" s="24" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="36" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3822,10 +3822,10 @@
         <v>124</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J36" s="24" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37" spans="2:11" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -3842,19 +3842,19 @@
         <v>120</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G37" s="25" t="s">
         <v>130</v>
       </c>
       <c r="H37" s="26" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J37" s="24" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K37" s="24" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="38" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3871,19 +3871,19 @@
         <v>120</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G38" s="25" t="s">
         <v>130</v>
       </c>
       <c r="H38" s="26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J38" s="24" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K38" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="39" spans="2:11" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3900,19 +3900,19 @@
         <v>123</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G39" s="21" t="s">
         <v>124</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J39" s="23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K39" s="23" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="40" spans="2:11" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3933,10 +3933,10 @@
         <v>124</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J40" s="23" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="41" spans="2:11" s="29" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
@@ -3953,16 +3953,16 @@
         <v>123</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G41" s="27" t="s">
         <v>130</v>
       </c>
       <c r="H41" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J41" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42" spans="2:11" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3970,7 +3970,7 @@
         <v>37</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D42" s="21" t="s">
         <v>103</v>
@@ -3986,7 +3986,7 @@
         <v>193</v>
       </c>
       <c r="J42" s="23" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="43" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4010,7 +4010,7 @@
         <v>195</v>
       </c>
       <c r="J43" s="23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="44" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4034,7 +4034,7 @@
         <v>197</v>
       </c>
       <c r="J44" s="23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="45" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4051,7 +4051,7 @@
         <v>120</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G45" s="21" t="s">
         <v>124</v>
@@ -4060,7 +4060,7 @@
         <v>202</v>
       </c>
       <c r="J45" s="23" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="46" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4077,16 +4077,16 @@
         <v>120</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G46" s="21" t="s">
         <v>124</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J46" s="23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="47" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4103,16 +4103,16 @@
         <v>120</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G47" s="21" t="s">
         <v>124</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J47" s="23" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="48" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4129,16 +4129,16 @@
         <v>120</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G48" s="21" t="s">
         <v>130</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J48" s="23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="49" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4162,85 +4162,88 @@
         <v>204</v>
       </c>
       <c r="J49" s="23" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="25">
+        <v>45</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="H50" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="I50" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="J50" s="24" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B50" s="16">
-        <v>45</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="D50" s="16" t="s">
+    <row r="51" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="25">
+        <v>46</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="D51" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E51" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="G50" s="16" t="s">
+      <c r="F51" s="25"/>
+      <c r="G51" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="H51" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="I51" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="J51" s="24" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="25">
+        <v>47</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="H50" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="I50" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="J50" s="14" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B51" s="16">
-        <v>46</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="G51" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="H51" s="15" t="s">
+      <c r="H52" s="26" t="s">
         <v>403</v>
       </c>
-      <c r="I51" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="J51" s="14" t="s">
+      <c r="I52" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="J52" s="24" t="s">
         <v>324</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B52" s="16">
-        <v>47</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="G52" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H52" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="I52" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="J52" s="14" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.3">
@@ -4248,7 +4251,7 @@
         <v>48</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D53" s="16" t="s">
         <v>102</v>
@@ -4260,13 +4263,13 @@
         <v>130</v>
       </c>
       <c r="H53" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="I53" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="I53" s="14" t="s">
-        <v>214</v>
-      </c>
       <c r="J53" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="54" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -4274,7 +4277,7 @@
         <v>49</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D54" s="16" t="s">
         <v>103</v>
@@ -4286,10 +4289,10 @@
         <v>156</v>
       </c>
       <c r="H54" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="J54" s="14" t="s">
         <v>328</v>
-      </c>
-      <c r="J54" s="14" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.3">
@@ -4297,7 +4300,7 @@
         <v>50</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D55" s="16" t="s">
         <v>102</v>
@@ -4309,10 +4312,10 @@
         <v>124</v>
       </c>
       <c r="H55" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="56" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4320,7 +4323,7 @@
         <v>51</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D56" s="16" t="s">
         <v>103</v>
@@ -4332,10 +4335,10 @@
         <v>156</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J56" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.3">
@@ -4343,7 +4346,7 @@
         <v>52</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D57" s="16" t="s">
         <v>102</v>
@@ -4352,19 +4355,19 @@
         <v>175</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G57" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H57" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="I57" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="I57" s="14" t="s">
-        <v>219</v>
-      </c>
       <c r="J57" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="58" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4372,7 +4375,7 @@
         <v>53</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D58" s="16" t="s">
         <v>102</v>
@@ -4381,16 +4384,16 @@
         <v>175</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G58" s="16" t="s">
         <v>144</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J58" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="59" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -4410,10 +4413,10 @@
         <v>130</v>
       </c>
       <c r="H59" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J59" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="60" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4421,7 +4424,7 @@
         <v>55</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D60" s="16" t="s">
         <v>102</v>
@@ -4433,10 +4436,10 @@
         <v>130</v>
       </c>
       <c r="H60" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="J60" s="14" t="s">
         <v>338</v>
-      </c>
-      <c r="J60" s="14" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="61" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4444,7 +4447,7 @@
         <v>56</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D61" s="16" t="s">
         <v>101</v>
@@ -4456,10 +4459,10 @@
         <v>124</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J61" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.3">
@@ -4467,7 +4470,7 @@
         <v>57</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D62" s="16" t="s">
         <v>101</v>
@@ -4479,10 +4482,10 @@
         <v>124</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J62" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.3">
@@ -4490,7 +4493,7 @@
         <v>58</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D63" s="16" t="s">
         <v>102</v>
@@ -4502,10 +4505,10 @@
         <v>124</v>
       </c>
       <c r="H63" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J63" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="64" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4513,7 +4516,7 @@
         <v>59</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D64" s="16" t="s">
         <v>102</v>
@@ -4522,13 +4525,13 @@
         <v>123</v>
       </c>
       <c r="G64" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="H64" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="H64" s="15" t="s">
-        <v>243</v>
-      </c>
       <c r="J64" s="14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="65" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4536,7 +4539,7 @@
         <v>60</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D65" s="16" t="s">
         <v>103</v>
@@ -4548,10 +4551,10 @@
         <v>144</v>
       </c>
       <c r="H65" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J65" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="66" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -4559,7 +4562,7 @@
         <v>61</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D66" s="16" t="s">
         <v>102</v>
@@ -4571,10 +4574,10 @@
         <v>130</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J66" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="67" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -4582,7 +4585,7 @@
         <v>62</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D67" s="16" t="s">
         <v>103</v>
@@ -4594,10 +4597,10 @@
         <v>130</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J67" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="68" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4605,7 +4608,7 @@
         <v>63</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D68" s="16" t="s">
         <v>102</v>
@@ -4617,10 +4620,10 @@
         <v>124</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J68" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="69" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4628,7 +4631,7 @@
         <v>64</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D69" s="16" t="s">
         <v>102</v>
@@ -4640,10 +4643,10 @@
         <v>124</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J69" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="70" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4651,7 +4654,7 @@
         <v>65</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D70" s="16" t="s">
         <v>102</v>
@@ -4660,16 +4663,16 @@
         <v>123</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G70" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H70" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="J70" s="14" t="s">
         <v>355</v>
-      </c>
-      <c r="J70" s="14" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.3">
@@ -4677,7 +4680,7 @@
         <v>66</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D71" s="16" t="s">
         <v>102</v>
@@ -4686,16 +4689,16 @@
         <v>123</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G71" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H71" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="J71" s="14" t="s">
         <v>358</v>
-      </c>
-      <c r="J71" s="14" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.3">
@@ -4703,7 +4706,7 @@
         <v>67</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D72" s="16" t="s">
         <v>101</v>
@@ -4712,16 +4715,16 @@
         <v>123</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G72" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H72" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J72" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.3">
@@ -4729,7 +4732,7 @@
         <v>68</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D73" s="16" t="s">
         <v>101</v>
@@ -4738,16 +4741,16 @@
         <v>175</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G73" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H73" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J73" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.3">
@@ -4755,7 +4758,7 @@
         <v>69</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D74" s="16" t="s">
         <v>102</v>
@@ -4764,16 +4767,16 @@
         <v>175</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G74" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J74" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="75" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -4781,7 +4784,7 @@
         <v>70</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D75" s="16" t="s">
         <v>103</v>
@@ -4790,16 +4793,16 @@
         <v>123</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G75" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J75" s="14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="76" spans="2:10" ht="66" x14ac:dyDescent="0.3">
@@ -4807,7 +4810,7 @@
         <v>71</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D76" s="16" t="s">
         <v>103</v>
@@ -4819,10 +4822,10 @@
         <v>156</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J76" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.3">
@@ -4830,7 +4833,7 @@
         <v>72</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D77" s="16" t="s">
         <v>101</v>
@@ -4839,16 +4842,16 @@
         <v>123</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G77" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J77" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.3">
@@ -4856,7 +4859,7 @@
         <v>73</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D78" s="16" t="s">
         <v>102</v>
@@ -4865,16 +4868,16 @@
         <v>123</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G78" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J78" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.3">
@@ -4882,7 +4885,7 @@
         <v>74</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D79" s="16" t="s">
         <v>101</v>
@@ -4891,16 +4894,16 @@
         <v>175</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G79" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J79" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="80" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4908,7 +4911,7 @@
         <v>75</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D80" s="16" t="s">
         <v>102</v>
@@ -4917,16 +4920,16 @@
         <v>175</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G80" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J80" s="14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="81" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4934,7 +4937,7 @@
         <v>76</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D81" s="16" t="s">
         <v>102</v>
@@ -4943,16 +4946,16 @@
         <v>120</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G81" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J81" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="82" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4960,22 +4963,22 @@
         <v>77</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D82" s="16" t="s">
         <v>101</v>
       </c>
       <c r="E82" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="G82" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="G82" s="16" t="s">
-        <v>233</v>
-      </c>
       <c r="H82" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J82" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="83" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4983,25 +4986,25 @@
         <v>78</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D83" s="16" t="s">
         <v>102</v>
       </c>
       <c r="E83" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="F83" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="G83" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="F83" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="G83" s="16" t="s">
-        <v>233</v>
-      </c>
       <c r="H83" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J83" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="84" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5009,22 +5012,22 @@
         <v>79</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D84" s="16" t="s">
         <v>102</v>
       </c>
       <c r="E84" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="G84" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="G84" s="16" t="s">
-        <v>233</v>
-      </c>
       <c r="H84" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J84" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="85" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5032,30 +5035,30 @@
         <v>80</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D85" s="16" t="s">
         <v>103</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H85" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J85" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J87" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.3">
@@ -5063,19 +5066,19 @@
         <v>90</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D88" s="16" t="s">
         <v>101</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G88" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H88" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -5107,34 +5110,34 @@
   <sheetData>
     <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="70"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="50">
         <v>1</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="F3" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="59" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -5146,11 +5149,11 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="51"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
       <c r="H4" s="1" t="s">
         <v>3</v>
       </c>
@@ -5160,11 +5163,11 @@
     </row>
     <row r="5" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="52"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
       <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
@@ -5173,22 +5176,22 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="34">
+      <c r="B6" s="37">
         <v>2</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="46" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -5199,12 +5202,12 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="35"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="1" t="s">
         <v>3</v>
       </c>
@@ -5213,12 +5216,12 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="36"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
       <c r="H8" s="7" t="s">
         <v>4</v>
       </c>
@@ -5230,19 +5233,19 @@
       <c r="B9" s="50">
         <v>3</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="58" t="s">
+      <c r="G9" s="59" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -5254,11 +5257,11 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="51"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
       <c r="H10" s="1" t="s">
         <v>3</v>
       </c>
@@ -5268,11 +5271,11 @@
     </row>
     <row r="11" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="52"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
       <c r="H11" s="2" t="s">
         <v>4</v>
       </c>
@@ -5281,22 +5284,22 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="34">
+      <c r="B12" s="37">
         <v>4</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="G12" s="46" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -5307,12 +5310,12 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="35"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
       <c r="H13" s="1" t="s">
         <v>3</v>
       </c>
@@ -5321,12 +5324,12 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="36"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
       <c r="H14" s="7" t="s">
         <v>4</v>
       </c>
@@ -5338,19 +5341,19 @@
       <c r="B15" s="50">
         <v>5</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="48" t="s">
+      <c r="E15" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="58" t="s">
+      <c r="F15" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="58" t="s">
+      <c r="G15" s="59" t="s">
         <v>31</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -5362,11 +5365,11 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="51"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
       <c r="H16" s="1" t="s">
         <v>3</v>
       </c>
@@ -5376,11 +5379,11 @@
     </row>
     <row r="17" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="52"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
       <c r="H17" s="2" t="s">
         <v>4</v>
       </c>
@@ -5389,22 +5392,22 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="34">
+      <c r="B18" s="37">
         <v>6</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="C18" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="40" t="s">
+      <c r="G18" s="46" t="s">
         <v>61</v>
       </c>
       <c r="H18" s="4" t="s">
@@ -5415,12 +5418,12 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="35"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
       <c r="H19" s="1" t="s">
         <v>3</v>
       </c>
@@ -5429,12 +5432,12 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="36"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
       <c r="H20" s="7" t="s">
         <v>4</v>
       </c>
@@ -5446,19 +5449,19 @@
       <c r="B21" s="50">
         <v>7</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="48" t="s">
+      <c r="E21" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="40" t="s">
+      <c r="G21" s="46" t="s">
         <v>66</v>
       </c>
       <c r="H21" s="4" t="s">
@@ -5470,11 +5473,11 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="51"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
       <c r="H22" s="1" t="s">
         <v>3</v>
       </c>
@@ -5484,11 +5487,11 @@
     </row>
     <row r="23" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="52"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
       <c r="H23" s="7" t="s">
         <v>4</v>
       </c>
@@ -5497,22 +5500,22 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="34">
+      <c r="B24" s="37">
         <v>8</v>
       </c>
-      <c r="C24" s="53" t="s">
+      <c r="C24" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="47" t="s">
+      <c r="D24" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F24" s="58" t="s">
+      <c r="F24" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="58" t="s">
+      <c r="G24" s="59" t="s">
         <v>95</v>
       </c>
       <c r="H24" s="3" t="s">
@@ -5523,12 +5526,12 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="35"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
       <c r="H25" s="1" t="s">
         <v>3</v>
       </c>
@@ -5537,12 +5540,12 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="36"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
       <c r="H26" s="2" t="s">
         <v>4</v>
       </c>
@@ -5554,65 +5557,65 @@
       <c r="B27" s="50">
         <v>9</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="D27" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="48" t="s">
+      <c r="E27" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="47" t="s">
+      <c r="F27" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="G27" s="47" t="s">
+      <c r="G27" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="47" t="s">
+      <c r="H27" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="I27" s="65" t="s">
+      <c r="I27" s="56" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="51"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="66"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="57"/>
     </row>
     <row r="29" spans="2:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="52"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="67"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="58"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="34">
+      <c r="B30" s="37">
         <v>10</v>
       </c>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="47" t="s">
+      <c r="D30" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="48" t="s">
+      <c r="E30" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F30" s="47" t="s">
+      <c r="F30" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="47" t="s">
+      <c r="G30" s="43" t="s">
         <v>46</v>
       </c>
       <c r="H30" s="4" t="s">
@@ -5623,12 +5626,12 @@
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="35"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
       <c r="H31" s="1" t="s">
         <v>3</v>
       </c>
@@ -5637,12 +5640,12 @@
       </c>
     </row>
     <row r="32" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="36"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
       <c r="H32" s="7" t="s">
         <v>4</v>
       </c>
@@ -5654,19 +5657,19 @@
       <c r="B33" s="50">
         <v>11</v>
       </c>
-      <c r="C33" s="64" t="s">
+      <c r="C33" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="47" t="s">
+      <c r="D33" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="48" t="s">
+      <c r="E33" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F33" s="40" t="s">
+      <c r="F33" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G33" s="43" t="s">
+      <c r="G33" s="34" t="s">
         <v>50</v>
       </c>
       <c r="H33" s="4" t="s">
@@ -5678,11 +5681,11 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="51"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
       <c r="H34" s="1" t="s">
         <v>3</v>
       </c>
@@ -5692,11 +5695,11 @@
     </row>
     <row r="35" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="52"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
       <c r="H35" s="7" t="s">
         <v>4</v>
       </c>
@@ -5705,22 +5708,22 @@
       </c>
     </row>
     <row r="36" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="34">
+      <c r="B36" s="37">
         <v>12</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="47" t="s">
+      <c r="D36" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E36" s="48" t="s">
+      <c r="E36" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F36" s="40" t="s">
+      <c r="F36" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G36" s="40" t="s">
+      <c r="G36" s="46" t="s">
         <v>84</v>
       </c>
       <c r="H36" s="4" t="s">
@@ -5731,12 +5734,12 @@
       </c>
     </row>
     <row r="37" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="35"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
       <c r="H37" s="1" t="s">
         <v>3</v>
       </c>
@@ -5745,12 +5748,12 @@
       </c>
     </row>
     <row r="38" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="36"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
       <c r="H38" s="7" t="s">
         <v>4</v>
       </c>
@@ -5762,19 +5765,19 @@
       <c r="B39" s="50">
         <v>13</v>
       </c>
-      <c r="C39" s="53" t="s">
+      <c r="C39" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="47" t="s">
+      <c r="D39" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E39" s="48" t="s">
+      <c r="E39" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F39" s="58" t="s">
+      <c r="F39" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="G39" s="63" t="s">
+      <c r="G39" s="67" t="s">
         <v>44</v>
       </c>
       <c r="H39" s="3" t="s">
@@ -5786,11 +5789,11 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="51"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
       <c r="H40" s="1" t="s">
         <v>3</v>
       </c>
@@ -5800,11 +5803,11 @@
     </row>
     <row r="41" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="52"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
       <c r="H41" s="2" t="s">
         <v>4</v>
       </c>
@@ -5813,22 +5816,22 @@
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="34">
+      <c r="B42" s="37">
         <v>14</v>
       </c>
-      <c r="C42" s="64" t="s">
+      <c r="C42" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="47" t="s">
+      <c r="D42" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E42" s="48" t="s">
+      <c r="E42" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F42" s="40" t="s">
+      <c r="F42" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G42" s="43" t="s">
+      <c r="G42" s="34" t="s">
         <v>54</v>
       </c>
       <c r="H42" s="4" t="s">
@@ -5839,12 +5842,12 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="35"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
       <c r="H43" s="1" t="s">
         <v>3</v>
       </c>
@@ -5853,12 +5856,12 @@
       </c>
     </row>
     <row r="44" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="36"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
       <c r="H44" s="7" t="s">
         <v>4</v>
       </c>
@@ -5870,19 +5873,19 @@
       <c r="B45" s="50">
         <v>15</v>
       </c>
-      <c r="C45" s="53" t="s">
+      <c r="C45" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="47" t="s">
+      <c r="D45" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E45" s="48" t="s">
+      <c r="E45" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F45" s="58" t="s">
+      <c r="F45" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="G45" s="58" t="s">
+      <c r="G45" s="59" t="s">
         <v>45</v>
       </c>
       <c r="H45" s="3" t="s">
@@ -5894,11 +5897,11 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="51"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
       <c r="H46" s="1" t="s">
         <v>3</v>
       </c>
@@ -5908,11 +5911,11 @@
     </row>
     <row r="47" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="52"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
       <c r="H47" s="2" t="s">
         <v>4</v>
       </c>
@@ -5921,22 +5924,22 @@
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="34">
+      <c r="B48" s="37">
         <v>16</v>
       </c>
-      <c r="C48" s="37" t="s">
+      <c r="C48" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="47" t="s">
+      <c r="D48" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E48" s="48" t="s">
+      <c r="E48" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F48" s="40" t="s">
+      <c r="F48" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G48" s="40" t="s">
+      <c r="G48" s="46" t="s">
         <v>56</v>
       </c>
       <c r="H48" s="4" t="s">
@@ -5947,12 +5950,12 @@
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="35"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
       <c r="H49" s="1" t="s">
         <v>3</v>
       </c>
@@ -5961,12 +5964,12 @@
       </c>
     </row>
     <row r="50" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="36"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
       <c r="H50" s="7" t="s">
         <v>4</v>
       </c>
@@ -5978,19 +5981,19 @@
       <c r="B51" s="50">
         <v>17</v>
       </c>
-      <c r="C51" s="37" t="s">
+      <c r="C51" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="47" t="s">
+      <c r="D51" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E51" s="48" t="s">
+      <c r="E51" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F51" s="40" t="s">
+      <c r="F51" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G51" s="40" t="s">
+      <c r="G51" s="46" t="s">
         <v>74</v>
       </c>
       <c r="H51" s="4" t="s">
@@ -6002,11 +6005,11 @@
     </row>
     <row r="52" spans="2:9" ht="33" x14ac:dyDescent="0.3">
       <c r="B52" s="51"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
       <c r="H52" s="1" t="s">
         <v>3</v>
       </c>
@@ -6016,11 +6019,11 @@
     </row>
     <row r="53" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="52"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
       <c r="H53" s="7" t="s">
         <v>4</v>
       </c>
@@ -6029,22 +6032,22 @@
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="34">
+      <c r="B54" s="37">
         <v>18</v>
       </c>
-      <c r="C54" s="37" t="s">
+      <c r="C54" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="47" t="s">
+      <c r="D54" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E54" s="48" t="s">
+      <c r="E54" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F54" s="40" t="s">
+      <c r="F54" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G54" s="43" t="s">
+      <c r="G54" s="34" t="s">
         <v>79</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -6055,12 +6058,12 @@
       </c>
     </row>
     <row r="55" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="35"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
       </c>
@@ -6069,12 +6072,12 @@
       </c>
     </row>
     <row r="56" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="36"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="42"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
       <c r="H56" s="7" t="s">
         <v>4</v>
       </c>
@@ -6086,19 +6089,19 @@
       <c r="B57" s="50">
         <v>19</v>
       </c>
-      <c r="C57" s="37" t="s">
+      <c r="C57" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="D57" s="47" t="s">
+      <c r="D57" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E57" s="48" t="s">
+      <c r="E57" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F57" s="40" t="s">
+      <c r="F57" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G57" s="40" t="s">
+      <c r="G57" s="46" t="s">
         <v>89</v>
       </c>
       <c r="H57" s="4" t="s">
@@ -6110,11 +6113,11 @@
     </row>
     <row r="58" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="51"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="48"/>
-      <c r="E58" s="48"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
       <c r="H58" s="1" t="s">
         <v>3</v>
       </c>
@@ -6124,11 +6127,11 @@
     </row>
     <row r="59" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="52"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
       <c r="H59" s="7" t="s">
         <v>4</v>
       </c>
@@ -6137,22 +6140,22 @@
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="34">
+      <c r="B60" s="37">
         <v>20</v>
       </c>
-      <c r="C60" s="68" t="s">
+      <c r="C60" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="D60" s="47" t="s">
+      <c r="D60" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E60" s="48" t="s">
+      <c r="E60" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F60" s="40" t="s">
+      <c r="F60" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G60" s="43" t="s">
+      <c r="G60" s="34" t="s">
         <v>97</v>
       </c>
       <c r="H60" s="4" t="s">
@@ -6163,12 +6166,12 @@
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="35"/>
-      <c r="C61" s="69"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="48"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="41"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
       <c r="H61" s="1" t="s">
         <v>3</v>
       </c>
@@ -6177,12 +6180,12 @@
       </c>
     </row>
     <row r="62" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="36"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="42"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
       <c r="H62" s="7" t="s">
         <v>4</v>
       </c>
@@ -6191,22 +6194,22 @@
       </c>
     </row>
     <row r="63" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="34">
+      <c r="B63" s="37">
         <v>21</v>
       </c>
-      <c r="C63" s="44" t="s">
+      <c r="C63" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="D63" s="47" t="s">
+      <c r="D63" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E63" s="47" t="s">
+      <c r="E63" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="F63" s="47" t="s">
+      <c r="F63" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="G63" s="71" t="s">
+      <c r="G63" s="47" t="s">
         <v>106</v>
       </c>
       <c r="H63" s="4" t="s">
@@ -6217,12 +6220,12 @@
       </c>
     </row>
     <row r="64" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="35"/>
-      <c r="C64" s="45"/>
-      <c r="D64" s="48"/>
-      <c r="E64" s="48"/>
-      <c r="F64" s="48"/>
-      <c r="G64" s="72"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="44"/>
+      <c r="G64" s="48"/>
       <c r="H64" s="1" t="s">
         <v>3</v>
       </c>
@@ -6231,12 +6234,12 @@
       </c>
     </row>
     <row r="65" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="36"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="73"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="73"/>
+      <c r="D65" s="45"/>
+      <c r="E65" s="45"/>
+      <c r="F65" s="45"/>
+      <c r="G65" s="49"/>
       <c r="H65" s="7" t="s">
         <v>4</v>
       </c>
@@ -6245,22 +6248,22 @@
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="34">
+      <c r="B66" s="37">
         <v>22</v>
       </c>
-      <c r="C66" s="68" t="s">
+      <c r="C66" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="D66" s="47" t="s">
+      <c r="D66" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E66" s="48" t="s">
+      <c r="E66" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F66" s="40" t="s">
+      <c r="F66" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G66" s="43" t="s">
+      <c r="G66" s="34" t="s">
         <v>97</v>
       </c>
       <c r="H66" s="4" t="s">
@@ -6271,12 +6274,12 @@
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B67" s="35"/>
-      <c r="C67" s="69"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="48"/>
-      <c r="F67" s="41"/>
-      <c r="G67" s="41"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
       <c r="H67" s="1" t="s">
         <v>3</v>
       </c>
@@ -6285,12 +6288,12 @@
       </c>
     </row>
     <row r="68" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="36"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="49"/>
-      <c r="E68" s="49"/>
-      <c r="F68" s="42"/>
-      <c r="G68" s="42"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="45"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
       <c r="H68" s="7" t="s">
         <v>4</v>
       </c>
@@ -6300,44 +6303,79 @@
     </row>
   </sheetData>
   <mergeCells count="135">
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D6:D8"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="D15:D17"/>
@@ -6362,79 +6400,44 @@
     <mergeCell ref="F15:F17"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="F18:F20"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="G57:G59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
+++ b/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293F6BEB-5597-49D5-ABC3-9ACD47FE15FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535D32D2-9FD9-4AE7-952A-F124A7DB3098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9C64985F-4ADF-44CE-9572-0998CB538CFF}"/>
   </bookViews>
@@ -924,10 +924,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2턴간 적 크리쳐 중 하나를 스턴 시킨다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>적 2턴간 스턴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1407,10 +1403,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전기 충격기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">전기를 튀기고 있는 전기 충격기 이미지 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1741,6 +1733,18 @@
   </si>
   <si>
     <t>2턴간 소화 상태 (턴 종료 시 만복도 10 증가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만복도 50 이상 일 때 사용 가능. 
+1열 공격력 4
+2,3열 공격력 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기 충격기
+묵직한 한방
+(이미지 변경)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2469,22 +2473,106 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2497,96 +2585,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2925,8 +2929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E337946-5511-4AD1-8A21-3FB7BE6153D1}">
   <dimension ref="B1:K88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3002,7 +3006,7 @@
         <v>141</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>119</v>
@@ -3146,7 +3150,7 @@
         <v>131</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="J10" s="23" t="s">
         <v>139</v>
@@ -3166,7 +3170,7 @@
         <v>133</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G11" s="21" t="s">
         <v>124</v>
@@ -3195,16 +3199,16 @@
         <v>120</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G12" s="21" t="s">
         <v>124</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3221,16 +3225,16 @@
         <v>120</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G13" s="21" t="s">
         <v>124</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3254,7 +3258,7 @@
         <v>160</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3275,10 +3279,10 @@
         <v>144</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3299,10 +3303,10 @@
         <v>130</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3320,13 +3324,13 @@
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="27" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="2:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3343,7 +3347,7 @@
         <v>123</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G18" s="25" t="s">
         <v>144</v>
@@ -3352,7 +3356,7 @@
         <v>157</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3369,7 +3373,7 @@
         <v>123</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G19" s="25" t="s">
         <v>124</v>
@@ -3378,7 +3382,7 @@
         <v>159</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3395,7 +3399,7 @@
         <v>123</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G20" s="25" t="s">
         <v>130</v>
@@ -3404,7 +3408,7 @@
         <v>162</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="2:11" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -3421,16 +3425,16 @@
         <v>123</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G21" s="25" t="s">
         <v>124</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="2:11" s="29" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -3447,7 +3451,7 @@
         <v>123</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G22" s="27" t="s">
         <v>124</v>
@@ -3456,7 +3460,7 @@
         <v>165</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="2:11" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -3473,16 +3477,16 @@
         <v>123</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G23" s="25" t="s">
         <v>130</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="2:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3499,16 +3503,16 @@
         <v>123</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G24" s="25" t="s">
         <v>130</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="J24" s="24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3532,7 +3536,7 @@
         <v>169</v>
       </c>
       <c r="J25" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3556,7 +3560,7 @@
         <v>170</v>
       </c>
       <c r="J26" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="27" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3573,16 +3577,16 @@
         <v>175</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G27" s="25" t="s">
         <v>144</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28" spans="2:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3590,7 +3594,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D28" s="25" t="s">
         <v>102</v>
@@ -3603,13 +3607,13 @@
         <v>130</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I28" s="24" t="s">
         <v>172</v>
       </c>
       <c r="J28" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3626,16 +3630,16 @@
         <v>175</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G29" s="25" t="s">
         <v>144</v>
       </c>
       <c r="H29" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J29" s="24" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="2:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3652,19 +3656,19 @@
         <v>175</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G30" s="25" t="s">
         <v>130</v>
       </c>
       <c r="H30" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3681,7 +3685,7 @@
         <v>175</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G31" s="25" t="s">
         <v>124</v>
@@ -3693,7 +3697,7 @@
         <v>180</v>
       </c>
       <c r="J31" s="24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32" spans="2:11" s="29" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3717,10 +3721,10 @@
         <v>182</v>
       </c>
       <c r="J32" s="29" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="33" spans="2:11" s="29" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3737,19 +3741,19 @@
         <v>123</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G33" s="27" t="s">
         <v>130</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K33" s="29" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="34" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3766,7 +3770,7 @@
         <v>123</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G34" s="25" t="s">
         <v>124</v>
@@ -3775,7 +3779,7 @@
         <v>185</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3783,7 +3787,7 @@
         <v>30</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D35" s="25" t="s">
         <v>102</v>
@@ -3792,7 +3796,7 @@
         <v>175</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G35" s="25" t="s">
         <v>130</v>
@@ -3801,7 +3805,7 @@
         <v>186</v>
       </c>
       <c r="J35" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3822,10 +3826,10 @@
         <v>124</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J36" s="24" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="37" spans="2:11" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -3842,19 +3846,19 @@
         <v>120</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G37" s="25" t="s">
         <v>130</v>
       </c>
       <c r="H37" s="26" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="J37" s="24" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K37" s="24" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="38" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3871,19 +3875,19 @@
         <v>120</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G38" s="25" t="s">
         <v>130</v>
       </c>
       <c r="H38" s="26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J38" s="24" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K38" s="24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="39" spans="2:11" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3900,19 +3904,19 @@
         <v>123</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G39" s="21" t="s">
         <v>124</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J39" s="23" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K39" s="23" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="40" spans="2:11" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3933,10 +3937,10 @@
         <v>124</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J40" s="23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="41" spans="2:11" s="29" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
@@ -3953,16 +3957,16 @@
         <v>123</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G41" s="27" t="s">
         <v>130</v>
       </c>
       <c r="H41" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J41" s="29" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="42" spans="2:11" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3970,7 +3974,7 @@
         <v>37</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D42" s="21" t="s">
         <v>103</v>
@@ -3986,7 +3990,7 @@
         <v>193</v>
       </c>
       <c r="J42" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="43" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4010,7 +4014,7 @@
         <v>195</v>
       </c>
       <c r="J43" s="23" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="44" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4034,7 +4038,7 @@
         <v>197</v>
       </c>
       <c r="J44" s="23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="45" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4051,7 +4055,7 @@
         <v>120</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G45" s="21" t="s">
         <v>124</v>
@@ -4060,7 +4064,7 @@
         <v>202</v>
       </c>
       <c r="J45" s="23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="46" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4077,16 +4081,16 @@
         <v>120</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G46" s="21" t="s">
         <v>124</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J46" s="23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="47" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4103,16 +4107,16 @@
         <v>120</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G47" s="21" t="s">
         <v>124</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J47" s="23" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="48" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4129,16 +4133,16 @@
         <v>120</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G48" s="21" t="s">
         <v>130</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J48" s="23" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="49" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4162,7 +4166,7 @@
         <v>204</v>
       </c>
       <c r="J49" s="23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -4189,7 +4193,7 @@
         <v>206</v>
       </c>
       <c r="J50" s="24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="51" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -4210,13 +4214,13 @@
         <v>130</v>
       </c>
       <c r="H51" s="26" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I51" s="24" t="s">
         <v>208</v>
       </c>
       <c r="J51" s="24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="52" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -4237,39 +4241,40 @@
         <v>124</v>
       </c>
       <c r="H52" s="26" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I52" s="24" t="s">
         <v>210</v>
       </c>
       <c r="J52" s="24" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" s="29" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B53" s="27">
+        <v>48</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E53" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="H53" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="I53" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="J53" s="29" t="s">
         <v>324</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B53" s="16">
-        <v>48</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="G53" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="H53" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="I53" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="J53" s="14" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="54" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -4277,7 +4282,7 @@
         <v>49</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D54" s="16" t="s">
         <v>103</v>
@@ -4289,10 +4294,10 @@
         <v>156</v>
       </c>
       <c r="H54" s="15" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J54" s="14" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.3">
@@ -4300,7 +4305,7 @@
         <v>50</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D55" s="16" t="s">
         <v>102</v>
@@ -4312,10 +4317,10 @@
         <v>124</v>
       </c>
       <c r="H55" s="15" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="56" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4323,7 +4328,7 @@
         <v>51</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D56" s="16" t="s">
         <v>103</v>
@@ -4335,10 +4340,10 @@
         <v>156</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J56" s="14" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.3">
@@ -4346,7 +4351,7 @@
         <v>52</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D57" s="16" t="s">
         <v>102</v>
@@ -4355,19 +4360,19 @@
         <v>175</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G57" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H57" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="I57" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="I57" s="14" t="s">
-        <v>218</v>
-      </c>
       <c r="J57" s="14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="58" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4375,7 +4380,7 @@
         <v>53</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D58" s="16" t="s">
         <v>102</v>
@@ -4384,16 +4389,16 @@
         <v>175</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G58" s="16" t="s">
         <v>144</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J58" s="14" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="59" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -4413,10 +4418,10 @@
         <v>130</v>
       </c>
       <c r="H59" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J59" s="14" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="60" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4424,7 +4429,7 @@
         <v>55</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D60" s="16" t="s">
         <v>102</v>
@@ -4436,10 +4441,10 @@
         <v>130</v>
       </c>
       <c r="H60" s="15" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="J60" s="14" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="61" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4447,7 +4452,7 @@
         <v>56</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D61" s="16" t="s">
         <v>101</v>
@@ -4459,10 +4464,10 @@
         <v>124</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J61" s="14" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.3">
@@ -4470,7 +4475,7 @@
         <v>57</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D62" s="16" t="s">
         <v>101</v>
@@ -4482,10 +4487,10 @@
         <v>124</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J62" s="14" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.3">
@@ -4493,7 +4498,7 @@
         <v>58</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D63" s="16" t="s">
         <v>102</v>
@@ -4505,10 +4510,10 @@
         <v>124</v>
       </c>
       <c r="H63" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J63" s="14" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="64" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4516,7 +4521,7 @@
         <v>59</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D64" s="16" t="s">
         <v>102</v>
@@ -4525,13 +4530,13 @@
         <v>123</v>
       </c>
       <c r="G64" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="H64" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="H64" s="15" t="s">
-        <v>242</v>
-      </c>
       <c r="J64" s="14" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="65" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4539,7 +4544,7 @@
         <v>60</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D65" s="16" t="s">
         <v>103</v>
@@ -4551,10 +4556,10 @@
         <v>144</v>
       </c>
       <c r="H65" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J65" s="14" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="66" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -4562,7 +4567,7 @@
         <v>61</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D66" s="16" t="s">
         <v>102</v>
@@ -4574,10 +4579,10 @@
         <v>130</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J66" s="14" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="67" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -4585,7 +4590,7 @@
         <v>62</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D67" s="16" t="s">
         <v>103</v>
@@ -4597,10 +4602,10 @@
         <v>130</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J67" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="68" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4608,7 +4613,7 @@
         <v>63</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D68" s="16" t="s">
         <v>102</v>
@@ -4620,10 +4625,10 @@
         <v>124</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J68" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="69" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4631,7 +4636,7 @@
         <v>64</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D69" s="16" t="s">
         <v>102</v>
@@ -4643,10 +4648,10 @@
         <v>124</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J69" s="14" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="70" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4654,7 +4659,7 @@
         <v>65</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D70" s="16" t="s">
         <v>102</v>
@@ -4663,16 +4668,16 @@
         <v>123</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G70" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H70" s="15" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J70" s="14" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.3">
@@ -4680,7 +4685,7 @@
         <v>66</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D71" s="16" t="s">
         <v>102</v>
@@ -4689,16 +4694,16 @@
         <v>123</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G71" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J71" s="14" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.3">
@@ -4706,7 +4711,7 @@
         <v>67</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D72" s="16" t="s">
         <v>101</v>
@@ -4715,16 +4720,16 @@
         <v>123</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G72" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H72" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J72" s="14" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.3">
@@ -4732,7 +4737,7 @@
         <v>68</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D73" s="16" t="s">
         <v>101</v>
@@ -4741,16 +4746,16 @@
         <v>175</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G73" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H73" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J73" s="14" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.3">
@@ -4758,7 +4763,7 @@
         <v>69</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D74" s="16" t="s">
         <v>102</v>
@@ -4767,16 +4772,16 @@
         <v>175</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G74" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J74" s="14" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="75" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -4784,7 +4789,7 @@
         <v>70</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D75" s="16" t="s">
         <v>103</v>
@@ -4793,16 +4798,16 @@
         <v>123</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G75" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J75" s="14" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="76" spans="2:10" ht="66" x14ac:dyDescent="0.3">
@@ -4810,7 +4815,7 @@
         <v>71</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D76" s="16" t="s">
         <v>103</v>
@@ -4822,10 +4827,10 @@
         <v>156</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J76" s="14" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.3">
@@ -4833,7 +4838,7 @@
         <v>72</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D77" s="16" t="s">
         <v>101</v>
@@ -4842,16 +4847,16 @@
         <v>123</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G77" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J77" s="14" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.3">
@@ -4859,7 +4864,7 @@
         <v>73</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D78" s="16" t="s">
         <v>102</v>
@@ -4868,16 +4873,16 @@
         <v>123</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G78" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J78" s="14" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.3">
@@ -4885,7 +4890,7 @@
         <v>74</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D79" s="16" t="s">
         <v>101</v>
@@ -4894,16 +4899,16 @@
         <v>175</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G79" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J79" s="14" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="80" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4911,7 +4916,7 @@
         <v>75</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D80" s="16" t="s">
         <v>102</v>
@@ -4920,16 +4925,16 @@
         <v>175</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G80" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J80" s="14" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="81" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4937,7 +4942,7 @@
         <v>76</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D81" s="16" t="s">
         <v>102</v>
@@ -4946,16 +4951,16 @@
         <v>120</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G81" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J81" s="14" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="82" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4963,22 +4968,22 @@
         <v>77</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D82" s="16" t="s">
         <v>101</v>
       </c>
       <c r="E82" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="G82" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="G82" s="16" t="s">
-        <v>232</v>
-      </c>
       <c r="H82" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J82" s="14" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="83" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4986,25 +4991,25 @@
         <v>78</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D83" s="16" t="s">
         <v>102</v>
       </c>
       <c r="E83" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="F83" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="G83" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="F83" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="G83" s="16" t="s">
-        <v>232</v>
-      </c>
       <c r="H83" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J83" s="14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="84" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5012,22 +5017,22 @@
         <v>79</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D84" s="16" t="s">
         <v>102</v>
       </c>
       <c r="E84" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="G84" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="G84" s="16" t="s">
-        <v>232</v>
-      </c>
       <c r="H84" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="J84" s="14" t="s">
         <v>372</v>
-      </c>
-      <c r="J84" s="14" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="85" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5035,30 +5040,30 @@
         <v>80</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D85" s="16" t="s">
         <v>103</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H85" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J85" s="14" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J87" s="14" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.3">
@@ -5066,19 +5071,19 @@
         <v>90</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D88" s="16" t="s">
         <v>101</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G88" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H88" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -5110,34 +5115,34 @@
   <sheetData>
     <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="70"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="50">
         <v>1</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="58" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -5149,11 +5154,11 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="51"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
       <c r="H4" s="1" t="s">
         <v>3</v>
       </c>
@@ -5163,11 +5168,11 @@
     </row>
     <row r="5" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="52"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
       <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
@@ -5176,22 +5181,22 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="37">
+      <c r="B6" s="34">
         <v>2</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="40" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -5202,12 +5207,12 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="38"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
       <c r="H7" s="1" t="s">
         <v>3</v>
       </c>
@@ -5216,12 +5221,12 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="39"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
       <c r="H8" s="7" t="s">
         <v>4</v>
       </c>
@@ -5233,19 +5238,19 @@
       <c r="B9" s="50">
         <v>3</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="59" t="s">
+      <c r="G9" s="58" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -5257,11 +5262,11 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="51"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
       <c r="H10" s="1" t="s">
         <v>3</v>
       </c>
@@ -5271,11 +5276,11 @@
     </row>
     <row r="11" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="52"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
       <c r="H11" s="2" t="s">
         <v>4</v>
       </c>
@@ -5284,22 +5289,22 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="37">
+      <c r="B12" s="34">
         <v>4</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="46" t="s">
+      <c r="F12" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="40" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -5310,12 +5315,12 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="38"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
       <c r="H13" s="1" t="s">
         <v>3</v>
       </c>
@@ -5324,12 +5329,12 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="39"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
       <c r="H14" s="7" t="s">
         <v>4</v>
       </c>
@@ -5341,19 +5346,19 @@
       <c r="B15" s="50">
         <v>5</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="59" t="s">
+      <c r="F15" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="59" t="s">
+      <c r="G15" s="58" t="s">
         <v>31</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -5365,11 +5370,11 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="51"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="1" t="s">
         <v>3</v>
       </c>
@@ -5379,11 +5384,11 @@
     </row>
     <row r="17" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="52"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
       <c r="H17" s="2" t="s">
         <v>4</v>
       </c>
@@ -5392,22 +5397,22 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="37">
+      <c r="B18" s="34">
         <v>6</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="46" t="s">
+      <c r="F18" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="46" t="s">
+      <c r="G18" s="40" t="s">
         <v>61</v>
       </c>
       <c r="H18" s="4" t="s">
@@ -5418,12 +5423,12 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="38"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
       <c r="H19" s="1" t="s">
         <v>3</v>
       </c>
@@ -5432,12 +5437,12 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="39"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
       <c r="H20" s="7" t="s">
         <v>4</v>
       </c>
@@ -5449,19 +5454,19 @@
       <c r="B21" s="50">
         <v>7</v>
       </c>
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="44" t="s">
+      <c r="E21" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="40" t="s">
         <v>66</v>
       </c>
       <c r="H21" s="4" t="s">
@@ -5473,11 +5478,11 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="51"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
       <c r="H22" s="1" t="s">
         <v>3</v>
       </c>
@@ -5487,11 +5492,11 @@
     </row>
     <row r="23" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="52"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
       <c r="H23" s="7" t="s">
         <v>4</v>
       </c>
@@ -5500,22 +5505,22 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="37">
+      <c r="B24" s="34">
         <v>8</v>
       </c>
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="E24" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F24" s="59" t="s">
+      <c r="F24" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="59" t="s">
+      <c r="G24" s="58" t="s">
         <v>95</v>
       </c>
       <c r="H24" s="3" t="s">
@@ -5526,12 +5531,12 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="38"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
       <c r="H25" s="1" t="s">
         <v>3</v>
       </c>
@@ -5540,12 +5545,12 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="39"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
       <c r="H26" s="2" t="s">
         <v>4</v>
       </c>
@@ -5557,65 +5562,65 @@
       <c r="B27" s="50">
         <v>9</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="43" t="s">
+      <c r="D27" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="44" t="s">
+      <c r="E27" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="43" t="s">
+      <c r="F27" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G27" s="43" t="s">
+      <c r="G27" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="43" t="s">
+      <c r="H27" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="I27" s="56" t="s">
+      <c r="I27" s="65" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="51"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="57"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="66"/>
     </row>
     <row r="29" spans="2:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="52"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="58"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="67"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="37">
+      <c r="B30" s="34">
         <v>10</v>
       </c>
-      <c r="C30" s="61" t="s">
+      <c r="C30" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="43" t="s">
+      <c r="D30" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="44" t="s">
+      <c r="E30" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F30" s="43" t="s">
+      <c r="F30" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="43" t="s">
+      <c r="G30" s="47" t="s">
         <v>46</v>
       </c>
       <c r="H30" s="4" t="s">
@@ -5626,12 +5631,12 @@
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="38"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
       <c r="H31" s="1" t="s">
         <v>3</v>
       </c>
@@ -5640,12 +5645,12 @@
       </c>
     </row>
     <row r="32" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="39"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
       <c r="H32" s="7" t="s">
         <v>4</v>
       </c>
@@ -5657,19 +5662,19 @@
       <c r="B33" s="50">
         <v>11</v>
       </c>
-      <c r="C33" s="66" t="s">
+      <c r="C33" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="43" t="s">
+      <c r="D33" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="44" t="s">
+      <c r="E33" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F33" s="46" t="s">
+      <c r="F33" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G33" s="34" t="s">
+      <c r="G33" s="43" t="s">
         <v>50</v>
       </c>
       <c r="H33" s="4" t="s">
@@ -5681,11 +5686,11 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="51"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
       <c r="H34" s="1" t="s">
         <v>3</v>
       </c>
@@ -5695,11 +5700,11 @@
     </row>
     <row r="35" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="52"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
       <c r="H35" s="7" t="s">
         <v>4</v>
       </c>
@@ -5708,22 +5713,22 @@
       </c>
     </row>
     <row r="36" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="37">
+      <c r="B36" s="34">
         <v>12</v>
       </c>
-      <c r="C36" s="53" t="s">
+      <c r="C36" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="43" t="s">
+      <c r="D36" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E36" s="44" t="s">
+      <c r="E36" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F36" s="46" t="s">
+      <c r="F36" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G36" s="46" t="s">
+      <c r="G36" s="40" t="s">
         <v>84</v>
       </c>
       <c r="H36" s="4" t="s">
@@ -5734,12 +5739,12 @@
       </c>
     </row>
     <row r="37" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="38"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
       <c r="H37" s="1" t="s">
         <v>3</v>
       </c>
@@ -5748,12 +5753,12 @@
       </c>
     </row>
     <row r="38" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="39"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
       <c r="H38" s="7" t="s">
         <v>4</v>
       </c>
@@ -5765,19 +5770,19 @@
       <c r="B39" s="50">
         <v>13</v>
       </c>
-      <c r="C39" s="64" t="s">
+      <c r="C39" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="43" t="s">
+      <c r="D39" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E39" s="44" t="s">
+      <c r="E39" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F39" s="59" t="s">
+      <c r="F39" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="G39" s="67" t="s">
+      <c r="G39" s="63" t="s">
         <v>44</v>
       </c>
       <c r="H39" s="3" t="s">
@@ -5789,11 +5794,11 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="51"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
       <c r="H40" s="1" t="s">
         <v>3</v>
       </c>
@@ -5803,11 +5808,11 @@
     </row>
     <row r="41" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="52"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
       <c r="H41" s="2" t="s">
         <v>4</v>
       </c>
@@ -5816,22 +5821,22 @@
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="37">
+      <c r="B42" s="34">
         <v>14</v>
       </c>
-      <c r="C42" s="66" t="s">
+      <c r="C42" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="43" t="s">
+      <c r="D42" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E42" s="44" t="s">
+      <c r="E42" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F42" s="46" t="s">
+      <c r="F42" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="G42" s="34" t="s">
+      <c r="G42" s="43" t="s">
         <v>54</v>
       </c>
       <c r="H42" s="4" t="s">
@@ -5842,12 +5847,12 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="38"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
       <c r="H43" s="1" t="s">
         <v>3</v>
       </c>
@@ -5856,12 +5861,12 @@
       </c>
     </row>
     <row r="44" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="39"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
       <c r="H44" s="7" t="s">
         <v>4</v>
       </c>
@@ -5873,19 +5878,19 @@
       <c r="B45" s="50">
         <v>15</v>
       </c>
-      <c r="C45" s="64" t="s">
+      <c r="C45" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="43" t="s">
+      <c r="D45" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E45" s="44" t="s">
+      <c r="E45" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F45" s="59" t="s">
+      <c r="F45" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="G45" s="59" t="s">
+      <c r="G45" s="58" t="s">
         <v>45</v>
       </c>
       <c r="H45" s="3" t="s">
@@ -5897,11 +5902,11 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="51"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
       <c r="H46" s="1" t="s">
         <v>3</v>
       </c>
@@ -5911,11 +5916,11 @@
     </row>
     <row r="47" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="52"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
       <c r="H47" s="2" t="s">
         <v>4</v>
       </c>
@@ -5924,22 +5929,22 @@
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="37">
+      <c r="B48" s="34">
         <v>16</v>
       </c>
-      <c r="C48" s="53" t="s">
+      <c r="C48" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="43" t="s">
+      <c r="D48" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E48" s="44" t="s">
+      <c r="E48" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F48" s="46" t="s">
+      <c r="F48" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="G48" s="46" t="s">
+      <c r="G48" s="40" t="s">
         <v>56</v>
       </c>
       <c r="H48" s="4" t="s">
@@ -5950,12 +5955,12 @@
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="38"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
       <c r="H49" s="1" t="s">
         <v>3</v>
       </c>
@@ -5964,12 +5969,12 @@
       </c>
     </row>
     <row r="50" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="39"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
       <c r="H50" s="7" t="s">
         <v>4</v>
       </c>
@@ -5981,19 +5986,19 @@
       <c r="B51" s="50">
         <v>17</v>
       </c>
-      <c r="C51" s="53" t="s">
+      <c r="C51" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="43" t="s">
+      <c r="D51" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E51" s="44" t="s">
+      <c r="E51" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F51" s="46" t="s">
+      <c r="F51" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G51" s="46" t="s">
+      <c r="G51" s="40" t="s">
         <v>74</v>
       </c>
       <c r="H51" s="4" t="s">
@@ -6005,11 +6010,11 @@
     </row>
     <row r="52" spans="2:9" ht="33" x14ac:dyDescent="0.3">
       <c r="B52" s="51"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
       <c r="H52" s="1" t="s">
         <v>3</v>
       </c>
@@ -6019,11 +6024,11 @@
     </row>
     <row r="53" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="52"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
       <c r="H53" s="7" t="s">
         <v>4</v>
       </c>
@@ -6032,22 +6037,22 @@
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="37">
+      <c r="B54" s="34">
         <v>18</v>
       </c>
-      <c r="C54" s="53" t="s">
+      <c r="C54" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="43" t="s">
+      <c r="D54" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E54" s="44" t="s">
+      <c r="E54" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F54" s="46" t="s">
+      <c r="F54" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G54" s="34" t="s">
+      <c r="G54" s="43" t="s">
         <v>79</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -6058,12 +6063,12 @@
       </c>
     </row>
     <row r="55" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="38"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
       </c>
@@ -6072,12 +6077,12 @@
       </c>
     </row>
     <row r="56" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="39"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="45"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
       <c r="H56" s="7" t="s">
         <v>4</v>
       </c>
@@ -6089,19 +6094,19 @@
       <c r="B57" s="50">
         <v>19</v>
       </c>
-      <c r="C57" s="53" t="s">
+      <c r="C57" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="D57" s="43" t="s">
+      <c r="D57" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E57" s="44" t="s">
+      <c r="E57" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F57" s="46" t="s">
+      <c r="F57" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G57" s="46" t="s">
+      <c r="G57" s="40" t="s">
         <v>89</v>
       </c>
       <c r="H57" s="4" t="s">
@@ -6113,11 +6118,11 @@
     </row>
     <row r="58" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="51"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
       <c r="H58" s="1" t="s">
         <v>3</v>
       </c>
@@ -6127,11 +6132,11 @@
     </row>
     <row r="59" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="52"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
       <c r="H59" s="7" t="s">
         <v>4</v>
       </c>
@@ -6140,22 +6145,22 @@
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="37">
+      <c r="B60" s="34">
         <v>20</v>
       </c>
-      <c r="C60" s="40" t="s">
+      <c r="C60" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="D60" s="43" t="s">
+      <c r="D60" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E60" s="44" t="s">
+      <c r="E60" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F60" s="46" t="s">
+      <c r="F60" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="G60" s="34" t="s">
+      <c r="G60" s="43" t="s">
         <v>97</v>
       </c>
       <c r="H60" s="4" t="s">
@@ -6166,12 +6171,12 @@
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="38"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
       <c r="H61" s="1" t="s">
         <v>3</v>
       </c>
@@ -6180,12 +6185,12 @@
       </c>
     </row>
     <row r="62" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="39"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="45"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
       <c r="H62" s="7" t="s">
         <v>4</v>
       </c>
@@ -6194,22 +6199,22 @@
       </c>
     </row>
     <row r="63" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="37">
+      <c r="B63" s="34">
         <v>21</v>
       </c>
-      <c r="C63" s="71" t="s">
+      <c r="C63" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="D63" s="43" t="s">
+      <c r="D63" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E63" s="43" t="s">
+      <c r="E63" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="F63" s="43" t="s">
+      <c r="F63" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G63" s="47" t="s">
+      <c r="G63" s="71" t="s">
         <v>106</v>
       </c>
       <c r="H63" s="4" t="s">
@@ -6220,12 +6225,12 @@
       </c>
     </row>
     <row r="64" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="38"/>
-      <c r="C64" s="72"/>
-      <c r="D64" s="44"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="44"/>
-      <c r="G64" s="48"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="48"/>
+      <c r="E64" s="48"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="72"/>
       <c r="H64" s="1" t="s">
         <v>3</v>
       </c>
@@ -6234,12 +6239,12 @@
       </c>
     </row>
     <row r="65" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="39"/>
-      <c r="C65" s="73"/>
-      <c r="D65" s="45"/>
-      <c r="E65" s="45"/>
-      <c r="F65" s="45"/>
-      <c r="G65" s="49"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="73"/>
       <c r="H65" s="7" t="s">
         <v>4</v>
       </c>
@@ -6248,22 +6253,22 @@
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="37">
+      <c r="B66" s="34">
         <v>22</v>
       </c>
-      <c r="C66" s="40" t="s">
+      <c r="C66" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="D66" s="43" t="s">
+      <c r="D66" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E66" s="44" t="s">
+      <c r="E66" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F66" s="46" t="s">
+      <c r="F66" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="G66" s="34" t="s">
+      <c r="G66" s="43" t="s">
         <v>97</v>
       </c>
       <c r="H66" s="4" t="s">
@@ -6274,12 +6279,12 @@
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B67" s="38"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="44"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="48"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="41"/>
       <c r="H67" s="1" t="s">
         <v>3</v>
       </c>
@@ -6288,12 +6293,12 @@
       </c>
     </row>
     <row r="68" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="39"/>
-      <c r="C68" s="42"/>
-      <c r="D68" s="45"/>
-      <c r="E68" s="45"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
       <c r="H68" s="7" t="s">
         <v>4</v>
       </c>
@@ -6303,6 +6308,117 @@
     </row>
   </sheetData>
   <mergeCells count="135">
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="F51:F53"/>
     <mergeCell ref="B54:B56"/>
     <mergeCell ref="C54:C56"/>
     <mergeCell ref="F54:F56"/>
@@ -6327,117 +6443,6 @@
     <mergeCell ref="E42:E44"/>
     <mergeCell ref="E48:E50"/>
     <mergeCell ref="E51:E53"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="G57:G59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
+++ b/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535D32D2-9FD9-4AE7-952A-F124A7DB3098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D42B3C9-EFF3-4D2A-B26F-CE4408857DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9C64985F-4ADF-44CE-9572-0998CB538CFF}"/>
   </bookViews>
@@ -2473,6 +2473,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2482,6 +2491,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2491,17 +2539,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2510,87 +2591,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2929,8 +2929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E337946-5511-4AD1-8A21-3FB7BE6153D1}">
   <dimension ref="B1:K88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4277,26 +4277,27 @@
         <v>324</v>
       </c>
     </row>
-    <row r="54" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B54" s="16">
+    <row r="54" spans="2:10" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B54" s="21">
         <v>49</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="D54" s="16" t="s">
+      <c r="D54" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="G54" s="16" t="s">
+      <c r="F54" s="21"/>
+      <c r="G54" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="H54" s="15" t="s">
+      <c r="H54" s="22" t="s">
         <v>325</v>
       </c>
-      <c r="J54" s="14" t="s">
+      <c r="J54" s="23" t="s">
         <v>326</v>
       </c>
     </row>
@@ -5115,34 +5116,34 @@
   <sheetData>
     <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="70"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="50">
         <v>1</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="F3" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="59" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -5154,11 +5155,11 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="51"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
       <c r="H4" s="1" t="s">
         <v>3</v>
       </c>
@@ -5168,11 +5169,11 @@
     </row>
     <row r="5" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="52"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
       <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
@@ -5181,22 +5182,22 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="34">
+      <c r="B6" s="37">
         <v>2</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="46" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -5207,12 +5208,12 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="35"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="1" t="s">
         <v>3</v>
       </c>
@@ -5221,12 +5222,12 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="36"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
       <c r="H8" s="7" t="s">
         <v>4</v>
       </c>
@@ -5238,19 +5239,19 @@
       <c r="B9" s="50">
         <v>3</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="58" t="s">
+      <c r="G9" s="59" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -5262,11 +5263,11 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="51"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
       <c r="H10" s="1" t="s">
         <v>3</v>
       </c>
@@ -5276,11 +5277,11 @@
     </row>
     <row r="11" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="52"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
       <c r="H11" s="2" t="s">
         <v>4</v>
       </c>
@@ -5289,22 +5290,22 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="34">
+      <c r="B12" s="37">
         <v>4</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="G12" s="46" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -5315,12 +5316,12 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="35"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
       <c r="H13" s="1" t="s">
         <v>3</v>
       </c>
@@ -5329,12 +5330,12 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="36"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
       <c r="H14" s="7" t="s">
         <v>4</v>
       </c>
@@ -5346,19 +5347,19 @@
       <c r="B15" s="50">
         <v>5</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="48" t="s">
+      <c r="E15" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="58" t="s">
+      <c r="F15" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="58" t="s">
+      <c r="G15" s="59" t="s">
         <v>31</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -5370,11 +5371,11 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="51"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
       <c r="H16" s="1" t="s">
         <v>3</v>
       </c>
@@ -5384,11 +5385,11 @@
     </row>
     <row r="17" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="52"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
       <c r="H17" s="2" t="s">
         <v>4</v>
       </c>
@@ -5397,22 +5398,22 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="34">
+      <c r="B18" s="37">
         <v>6</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="C18" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="40" t="s">
+      <c r="G18" s="46" t="s">
         <v>61</v>
       </c>
       <c r="H18" s="4" t="s">
@@ -5423,12 +5424,12 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="35"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
       <c r="H19" s="1" t="s">
         <v>3</v>
       </c>
@@ -5437,12 +5438,12 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="36"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
       <c r="H20" s="7" t="s">
         <v>4</v>
       </c>
@@ -5454,19 +5455,19 @@
       <c r="B21" s="50">
         <v>7</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="48" t="s">
+      <c r="E21" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="40" t="s">
+      <c r="G21" s="46" t="s">
         <v>66</v>
       </c>
       <c r="H21" s="4" t="s">
@@ -5478,11 +5479,11 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="51"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
       <c r="H22" s="1" t="s">
         <v>3</v>
       </c>
@@ -5492,11 +5493,11 @@
     </row>
     <row r="23" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="52"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
       <c r="H23" s="7" t="s">
         <v>4</v>
       </c>
@@ -5505,22 +5506,22 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="34">
+      <c r="B24" s="37">
         <v>8</v>
       </c>
-      <c r="C24" s="53" t="s">
+      <c r="C24" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="47" t="s">
+      <c r="D24" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F24" s="58" t="s">
+      <c r="F24" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="58" t="s">
+      <c r="G24" s="59" t="s">
         <v>95</v>
       </c>
       <c r="H24" s="3" t="s">
@@ -5531,12 +5532,12 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="35"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
       <c r="H25" s="1" t="s">
         <v>3</v>
       </c>
@@ -5545,12 +5546,12 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="36"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
       <c r="H26" s="2" t="s">
         <v>4</v>
       </c>
@@ -5562,65 +5563,65 @@
       <c r="B27" s="50">
         <v>9</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="D27" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="48" t="s">
+      <c r="E27" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="47" t="s">
+      <c r="F27" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="G27" s="47" t="s">
+      <c r="G27" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="47" t="s">
+      <c r="H27" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="I27" s="65" t="s">
+      <c r="I27" s="56" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="51"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="66"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="57"/>
     </row>
     <row r="29" spans="2:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="52"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="67"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="58"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="34">
+      <c r="B30" s="37">
         <v>10</v>
       </c>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="47" t="s">
+      <c r="D30" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="48" t="s">
+      <c r="E30" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F30" s="47" t="s">
+      <c r="F30" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="47" t="s">
+      <c r="G30" s="43" t="s">
         <v>46</v>
       </c>
       <c r="H30" s="4" t="s">
@@ -5631,12 +5632,12 @@
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="35"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
       <c r="H31" s="1" t="s">
         <v>3</v>
       </c>
@@ -5645,12 +5646,12 @@
       </c>
     </row>
     <row r="32" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="36"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
       <c r="H32" s="7" t="s">
         <v>4</v>
       </c>
@@ -5662,19 +5663,19 @@
       <c r="B33" s="50">
         <v>11</v>
       </c>
-      <c r="C33" s="64" t="s">
+      <c r="C33" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="47" t="s">
+      <c r="D33" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="48" t="s">
+      <c r="E33" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F33" s="40" t="s">
+      <c r="F33" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G33" s="43" t="s">
+      <c r="G33" s="34" t="s">
         <v>50</v>
       </c>
       <c r="H33" s="4" t="s">
@@ -5686,11 +5687,11 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="51"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
       <c r="H34" s="1" t="s">
         <v>3</v>
       </c>
@@ -5700,11 +5701,11 @@
     </row>
     <row r="35" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="52"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
       <c r="H35" s="7" t="s">
         <v>4</v>
       </c>
@@ -5713,22 +5714,22 @@
       </c>
     </row>
     <row r="36" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="34">
+      <c r="B36" s="37">
         <v>12</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="47" t="s">
+      <c r="D36" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E36" s="48" t="s">
+      <c r="E36" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F36" s="40" t="s">
+      <c r="F36" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G36" s="40" t="s">
+      <c r="G36" s="46" t="s">
         <v>84</v>
       </c>
       <c r="H36" s="4" t="s">
@@ -5739,12 +5740,12 @@
       </c>
     </row>
     <row r="37" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="35"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
       <c r="H37" s="1" t="s">
         <v>3</v>
       </c>
@@ -5753,12 +5754,12 @@
       </c>
     </row>
     <row r="38" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="36"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
       <c r="H38" s="7" t="s">
         <v>4</v>
       </c>
@@ -5770,19 +5771,19 @@
       <c r="B39" s="50">
         <v>13</v>
       </c>
-      <c r="C39" s="53" t="s">
+      <c r="C39" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="47" t="s">
+      <c r="D39" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E39" s="48" t="s">
+      <c r="E39" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F39" s="58" t="s">
+      <c r="F39" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="G39" s="63" t="s">
+      <c r="G39" s="67" t="s">
         <v>44</v>
       </c>
       <c r="H39" s="3" t="s">
@@ -5794,11 +5795,11 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="51"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
       <c r="H40" s="1" t="s">
         <v>3</v>
       </c>
@@ -5808,11 +5809,11 @@
     </row>
     <row r="41" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="52"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
       <c r="H41" s="2" t="s">
         <v>4</v>
       </c>
@@ -5821,22 +5822,22 @@
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="34">
+      <c r="B42" s="37">
         <v>14</v>
       </c>
-      <c r="C42" s="64" t="s">
+      <c r="C42" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="47" t="s">
+      <c r="D42" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E42" s="48" t="s">
+      <c r="E42" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F42" s="40" t="s">
+      <c r="F42" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G42" s="43" t="s">
+      <c r="G42" s="34" t="s">
         <v>54</v>
       </c>
       <c r="H42" s="4" t="s">
@@ -5847,12 +5848,12 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="35"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
       <c r="H43" s="1" t="s">
         <v>3</v>
       </c>
@@ -5861,12 +5862,12 @@
       </c>
     </row>
     <row r="44" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="36"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
       <c r="H44" s="7" t="s">
         <v>4</v>
       </c>
@@ -5878,19 +5879,19 @@
       <c r="B45" s="50">
         <v>15</v>
       </c>
-      <c r="C45" s="53" t="s">
+      <c r="C45" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="47" t="s">
+      <c r="D45" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E45" s="48" t="s">
+      <c r="E45" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F45" s="58" t="s">
+      <c r="F45" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="G45" s="58" t="s">
+      <c r="G45" s="59" t="s">
         <v>45</v>
       </c>
       <c r="H45" s="3" t="s">
@@ -5902,11 +5903,11 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="51"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
       <c r="H46" s="1" t="s">
         <v>3</v>
       </c>
@@ -5916,11 +5917,11 @@
     </row>
     <row r="47" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="52"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
       <c r="H47" s="2" t="s">
         <v>4</v>
       </c>
@@ -5929,22 +5930,22 @@
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="34">
+      <c r="B48" s="37">
         <v>16</v>
       </c>
-      <c r="C48" s="37" t="s">
+      <c r="C48" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="47" t="s">
+      <c r="D48" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E48" s="48" t="s">
+      <c r="E48" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F48" s="40" t="s">
+      <c r="F48" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G48" s="40" t="s">
+      <c r="G48" s="46" t="s">
         <v>56</v>
       </c>
       <c r="H48" s="4" t="s">
@@ -5955,12 +5956,12 @@
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="35"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
       <c r="H49" s="1" t="s">
         <v>3</v>
       </c>
@@ -5969,12 +5970,12 @@
       </c>
     </row>
     <row r="50" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="36"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
       <c r="H50" s="7" t="s">
         <v>4</v>
       </c>
@@ -5986,19 +5987,19 @@
       <c r="B51" s="50">
         <v>17</v>
       </c>
-      <c r="C51" s="37" t="s">
+      <c r="C51" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="47" t="s">
+      <c r="D51" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E51" s="48" t="s">
+      <c r="E51" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F51" s="40" t="s">
+      <c r="F51" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G51" s="40" t="s">
+      <c r="G51" s="46" t="s">
         <v>74</v>
       </c>
       <c r="H51" s="4" t="s">
@@ -6010,11 +6011,11 @@
     </row>
     <row r="52" spans="2:9" ht="33" x14ac:dyDescent="0.3">
       <c r="B52" s="51"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
       <c r="H52" s="1" t="s">
         <v>3</v>
       </c>
@@ -6024,11 +6025,11 @@
     </row>
     <row r="53" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="52"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
       <c r="H53" s="7" t="s">
         <v>4</v>
       </c>
@@ -6037,22 +6038,22 @@
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="34">
+      <c r="B54" s="37">
         <v>18</v>
       </c>
-      <c r="C54" s="37" t="s">
+      <c r="C54" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="47" t="s">
+      <c r="D54" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E54" s="48" t="s">
+      <c r="E54" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F54" s="40" t="s">
+      <c r="F54" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G54" s="43" t="s">
+      <c r="G54" s="34" t="s">
         <v>79</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -6063,12 +6064,12 @@
       </c>
     </row>
     <row r="55" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="35"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
       </c>
@@ -6077,12 +6078,12 @@
       </c>
     </row>
     <row r="56" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="36"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="42"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
       <c r="H56" s="7" t="s">
         <v>4</v>
       </c>
@@ -6094,19 +6095,19 @@
       <c r="B57" s="50">
         <v>19</v>
       </c>
-      <c r="C57" s="37" t="s">
+      <c r="C57" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="D57" s="47" t="s">
+      <c r="D57" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E57" s="48" t="s">
+      <c r="E57" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F57" s="40" t="s">
+      <c r="F57" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G57" s="40" t="s">
+      <c r="G57" s="46" t="s">
         <v>89</v>
       </c>
       <c r="H57" s="4" t="s">
@@ -6118,11 +6119,11 @@
     </row>
     <row r="58" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="51"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="48"/>
-      <c r="E58" s="48"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
       <c r="H58" s="1" t="s">
         <v>3</v>
       </c>
@@ -6132,11 +6133,11 @@
     </row>
     <row r="59" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="52"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
       <c r="H59" s="7" t="s">
         <v>4</v>
       </c>
@@ -6145,22 +6146,22 @@
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="34">
+      <c r="B60" s="37">
         <v>20</v>
       </c>
-      <c r="C60" s="68" t="s">
+      <c r="C60" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="D60" s="47" t="s">
+      <c r="D60" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E60" s="48" t="s">
+      <c r="E60" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F60" s="40" t="s">
+      <c r="F60" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G60" s="43" t="s">
+      <c r="G60" s="34" t="s">
         <v>97</v>
       </c>
       <c r="H60" s="4" t="s">
@@ -6171,12 +6172,12 @@
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="35"/>
-      <c r="C61" s="69"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="48"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="41"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
       <c r="H61" s="1" t="s">
         <v>3</v>
       </c>
@@ -6185,12 +6186,12 @@
       </c>
     </row>
     <row r="62" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="36"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="42"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
       <c r="H62" s="7" t="s">
         <v>4</v>
       </c>
@@ -6199,22 +6200,22 @@
       </c>
     </row>
     <row r="63" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="34">
+      <c r="B63" s="37">
         <v>21</v>
       </c>
-      <c r="C63" s="44" t="s">
+      <c r="C63" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="D63" s="47" t="s">
+      <c r="D63" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E63" s="47" t="s">
+      <c r="E63" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="F63" s="47" t="s">
+      <c r="F63" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="G63" s="71" t="s">
+      <c r="G63" s="47" t="s">
         <v>106</v>
       </c>
       <c r="H63" s="4" t="s">
@@ -6225,12 +6226,12 @@
       </c>
     </row>
     <row r="64" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="35"/>
-      <c r="C64" s="45"/>
-      <c r="D64" s="48"/>
-      <c r="E64" s="48"/>
-      <c r="F64" s="48"/>
-      <c r="G64" s="72"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="44"/>
+      <c r="G64" s="48"/>
       <c r="H64" s="1" t="s">
         <v>3</v>
       </c>
@@ -6239,12 +6240,12 @@
       </c>
     </row>
     <row r="65" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="36"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="73"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="73"/>
+      <c r="D65" s="45"/>
+      <c r="E65" s="45"/>
+      <c r="F65" s="45"/>
+      <c r="G65" s="49"/>
       <c r="H65" s="7" t="s">
         <v>4</v>
       </c>
@@ -6253,22 +6254,22 @@
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="34">
+      <c r="B66" s="37">
         <v>22</v>
       </c>
-      <c r="C66" s="68" t="s">
+      <c r="C66" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="D66" s="47" t="s">
+      <c r="D66" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E66" s="48" t="s">
+      <c r="E66" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F66" s="40" t="s">
+      <c r="F66" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G66" s="43" t="s">
+      <c r="G66" s="34" t="s">
         <v>97</v>
       </c>
       <c r="H66" s="4" t="s">
@@ -6279,12 +6280,12 @@
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B67" s="35"/>
-      <c r="C67" s="69"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="48"/>
-      <c r="F67" s="41"/>
-      <c r="G67" s="41"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
       <c r="H67" s="1" t="s">
         <v>3</v>
       </c>
@@ -6293,12 +6294,12 @@
       </c>
     </row>
     <row r="68" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="36"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="49"/>
-      <c r="E68" s="49"/>
-      <c r="F68" s="42"/>
-      <c r="G68" s="42"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="45"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
       <c r="H68" s="7" t="s">
         <v>4</v>
       </c>
@@ -6308,44 +6309,79 @@
     </row>
   </sheetData>
   <mergeCells count="135">
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D6:D8"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="D15:D17"/>
@@ -6370,79 +6406,44 @@
     <mergeCell ref="F15:F17"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="F18:F20"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="G57:G59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
+++ b/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D42B3C9-EFF3-4D2A-B26F-CE4408857DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E0B887-C367-402A-B9E2-DC36D6034BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9C64985F-4ADF-44CE-9572-0998CB538CFF}"/>
   </bookViews>
@@ -1417,10 +1417,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>입맛 다시기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>루시가 혀를 날름 거리는 이미지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1487,10 +1483,6 @@
   </si>
   <si>
     <t>나이프와 포크를 마구잡이로 휘두르는 이미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다음 공격의 공격력 1.5배 증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1745,6 +1737,15 @@
     <t>전기 충격기
 묵직한 한방
 (이미지 변경)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탐식의 욕망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루시의 공격력 5 증가
+만복도 10 감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2473,22 +2474,106 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2501,96 +2586,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2930,7 +2931,7 @@
   <dimension ref="B1:K88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:XFD54"/>
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3150,7 +3151,7 @@
         <v>131</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J10" s="23" t="s">
         <v>139</v>
@@ -3279,7 +3280,7 @@
         <v>144</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J15" s="24" t="s">
         <v>286</v>
@@ -3303,7 +3304,7 @@
         <v>130</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J16" s="24" t="s">
         <v>287</v>
@@ -3324,10 +3325,10 @@
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="27" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="J17" s="24" t="s">
         <v>288</v>
@@ -3431,7 +3432,7 @@
         <v>124</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J21" s="24" t="s">
         <v>292</v>
@@ -3483,7 +3484,7 @@
         <v>130</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="J23" s="24" t="s">
         <v>294</v>
@@ -3509,7 +3510,7 @@
         <v>130</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="J24" s="24" t="s">
         <v>295</v>
@@ -3583,7 +3584,7 @@
         <v>144</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="J27" s="24" t="s">
         <v>298</v>
@@ -3594,7 +3595,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D28" s="25" t="s">
         <v>102</v>
@@ -3607,7 +3608,7 @@
         <v>130</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I28" s="24" t="s">
         <v>172</v>
@@ -3665,7 +3666,7 @@
         <v>222</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="J30" s="24" t="s">
         <v>301</v>
@@ -3724,7 +3725,7 @@
         <v>303</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="33" spans="2:11" s="29" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3753,7 +3754,7 @@
         <v>304</v>
       </c>
       <c r="K33" s="29" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="34" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3787,7 +3788,7 @@
         <v>30</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D35" s="25" t="s">
         <v>102</v>
@@ -3826,7 +3827,7 @@
         <v>124</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J36" s="24" t="s">
         <v>307</v>
@@ -3852,13 +3853,13 @@
         <v>130</v>
       </c>
       <c r="H37" s="26" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="J37" s="24" t="s">
         <v>308</v>
       </c>
       <c r="K37" s="24" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="38" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3887,7 +3888,7 @@
         <v>309</v>
       </c>
       <c r="K38" s="24" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="39" spans="2:11" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3910,13 +3911,13 @@
         <v>124</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="J39" s="23" t="s">
         <v>310</v>
       </c>
       <c r="K39" s="23" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="40" spans="2:11" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3937,7 +3938,7 @@
         <v>124</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J40" s="23" t="s">
         <v>311</v>
@@ -4087,7 +4088,7 @@
         <v>124</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J46" s="23" t="s">
         <v>316</v>
@@ -4113,7 +4114,7 @@
         <v>124</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J47" s="23" t="s">
         <v>318</v>
@@ -4139,7 +4140,7 @@
         <v>130</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J48" s="23" t="s">
         <v>319</v>
@@ -4214,7 +4215,7 @@
         <v>130</v>
       </c>
       <c r="H51" s="26" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I51" s="24" t="s">
         <v>208</v>
@@ -4241,7 +4242,7 @@
         <v>124</v>
       </c>
       <c r="H52" s="26" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I52" s="24" t="s">
         <v>210</v>
@@ -4255,7 +4256,7 @@
         <v>48</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D53" s="27" t="s">
         <v>102</v>
@@ -4268,7 +4269,7 @@
         <v>124</v>
       </c>
       <c r="H53" s="28" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I53" s="29" t="s">
         <v>212</v>
@@ -4282,7 +4283,7 @@
         <v>49</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D54" s="21" t="s">
         <v>103</v>
@@ -4301,27 +4302,28 @@
         <v>326</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B55" s="16">
+    <row r="55" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B55" s="21">
         <v>50</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C55" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E55" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="H55" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="J55" s="23" t="s">
         <v>327</v>
-      </c>
-      <c r="D55" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="G55" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H55" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="J55" s="14" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="56" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4344,7 +4346,7 @@
         <v>214</v>
       </c>
       <c r="J56" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.3">
@@ -4373,7 +4375,7 @@
         <v>217</v>
       </c>
       <c r="J57" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="58" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4396,10 +4398,10 @@
         <v>144</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="J58" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="59" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -4422,7 +4424,7 @@
         <v>242</v>
       </c>
       <c r="J59" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="60" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4430,7 +4432,7 @@
         <v>55</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D60" s="16" t="s">
         <v>102</v>
@@ -4442,10 +4444,10 @@
         <v>130</v>
       </c>
       <c r="H60" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="J60" s="14" t="s">
         <v>335</v>
-      </c>
-      <c r="J60" s="14" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="61" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4468,7 +4470,7 @@
         <v>229</v>
       </c>
       <c r="J61" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.3">
@@ -4491,7 +4493,7 @@
         <v>237</v>
       </c>
       <c r="J62" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.3">
@@ -4514,7 +4516,7 @@
         <v>238</v>
       </c>
       <c r="J63" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="64" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4522,7 +4524,7 @@
         <v>59</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D64" s="16" t="s">
         <v>102</v>
@@ -4537,7 +4539,7 @@
         <v>241</v>
       </c>
       <c r="J64" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="65" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4560,7 +4562,7 @@
         <v>244</v>
       </c>
       <c r="J65" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="66" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -4568,7 +4570,7 @@
         <v>61</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D66" s="16" t="s">
         <v>102</v>
@@ -4583,7 +4585,7 @@
         <v>245</v>
       </c>
       <c r="J66" s="14" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="67" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -4591,7 +4593,7 @@
         <v>62</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D67" s="16" t="s">
         <v>103</v>
@@ -4606,7 +4608,7 @@
         <v>250</v>
       </c>
       <c r="J67" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="68" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4629,7 +4631,7 @@
         <v>247</v>
       </c>
       <c r="J68" s="14" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="69" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4637,7 +4639,7 @@
         <v>64</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D69" s="16" t="s">
         <v>102</v>
@@ -4652,7 +4654,7 @@
         <v>248</v>
       </c>
       <c r="J69" s="14" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="70" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4675,10 +4677,10 @@
         <v>130</v>
       </c>
       <c r="H70" s="15" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J70" s="14" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.3">
@@ -4686,7 +4688,7 @@
         <v>66</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D71" s="16" t="s">
         <v>102</v>
@@ -4701,10 +4703,10 @@
         <v>124</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="J71" s="14" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.3">
@@ -4730,7 +4732,7 @@
         <v>256</v>
       </c>
       <c r="J72" s="14" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.3">
@@ -4756,7 +4758,7 @@
         <v>266</v>
       </c>
       <c r="J73" s="14" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.3">
@@ -4782,7 +4784,7 @@
         <v>268</v>
       </c>
       <c r="J74" s="14" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="75" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -4808,7 +4810,7 @@
         <v>270</v>
       </c>
       <c r="J75" s="14" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="76" spans="2:10" ht="66" x14ac:dyDescent="0.3">
@@ -4831,7 +4833,7 @@
         <v>272</v>
       </c>
       <c r="J76" s="14" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.3">
@@ -4857,7 +4859,7 @@
         <v>280</v>
       </c>
       <c r="J77" s="14" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.3">
@@ -4883,7 +4885,7 @@
         <v>278</v>
       </c>
       <c r="J78" s="14" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.3">
@@ -4891,7 +4893,7 @@
         <v>74</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D79" s="16" t="s">
         <v>101</v>
@@ -4909,7 +4911,7 @@
         <v>276</v>
       </c>
       <c r="J79" s="14" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="80" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4935,7 +4937,7 @@
         <v>274</v>
       </c>
       <c r="J80" s="14" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="81" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4961,7 +4963,7 @@
         <v>282</v>
       </c>
       <c r="J81" s="14" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="82" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4984,7 +4986,7 @@
         <v>233</v>
       </c>
       <c r="J82" s="14" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="83" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5010,7 +5012,7 @@
         <v>234</v>
       </c>
       <c r="J83" s="14" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="84" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5018,7 +5020,7 @@
         <v>79</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D84" s="16" t="s">
         <v>102</v>
@@ -5030,10 +5032,10 @@
         <v>231</v>
       </c>
       <c r="H84" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="J84" s="14" t="s">
         <v>370</v>
-      </c>
-      <c r="J84" s="14" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="85" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5059,12 +5061,12 @@
         <v>253</v>
       </c>
       <c r="J85" s="14" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J87" s="14" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.3">
@@ -5116,34 +5118,34 @@
   <sheetData>
     <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="70"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="50">
         <v>1</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="58" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -5155,11 +5157,11 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="51"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
       <c r="H4" s="1" t="s">
         <v>3</v>
       </c>
@@ -5169,11 +5171,11 @@
     </row>
     <row r="5" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="52"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
       <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
@@ -5182,22 +5184,22 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="37">
+      <c r="B6" s="34">
         <v>2</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="40" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -5208,12 +5210,12 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="38"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
       <c r="H7" s="1" t="s">
         <v>3</v>
       </c>
@@ -5222,12 +5224,12 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="39"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
       <c r="H8" s="7" t="s">
         <v>4</v>
       </c>
@@ -5239,19 +5241,19 @@
       <c r="B9" s="50">
         <v>3</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="59" t="s">
+      <c r="G9" s="58" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -5263,11 +5265,11 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="51"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
       <c r="H10" s="1" t="s">
         <v>3</v>
       </c>
@@ -5277,11 +5279,11 @@
     </row>
     <row r="11" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="52"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
       <c r="H11" s="2" t="s">
         <v>4</v>
       </c>
@@ -5290,22 +5292,22 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="37">
+      <c r="B12" s="34">
         <v>4</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="46" t="s">
+      <c r="F12" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="40" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -5316,12 +5318,12 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="38"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
       <c r="H13" s="1" t="s">
         <v>3</v>
       </c>
@@ -5330,12 +5332,12 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="39"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
       <c r="H14" s="7" t="s">
         <v>4</v>
       </c>
@@ -5347,19 +5349,19 @@
       <c r="B15" s="50">
         <v>5</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="59" t="s">
+      <c r="F15" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="59" t="s">
+      <c r="G15" s="58" t="s">
         <v>31</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -5371,11 +5373,11 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="51"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="1" t="s">
         <v>3</v>
       </c>
@@ -5385,11 +5387,11 @@
     </row>
     <row r="17" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="52"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
       <c r="H17" s="2" t="s">
         <v>4</v>
       </c>
@@ -5398,22 +5400,22 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="37">
+      <c r="B18" s="34">
         <v>6</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="46" t="s">
+      <c r="F18" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="46" t="s">
+      <c r="G18" s="40" t="s">
         <v>61</v>
       </c>
       <c r="H18" s="4" t="s">
@@ -5424,12 +5426,12 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="38"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
       <c r="H19" s="1" t="s">
         <v>3</v>
       </c>
@@ -5438,12 +5440,12 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="39"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
       <c r="H20" s="7" t="s">
         <v>4</v>
       </c>
@@ -5455,19 +5457,19 @@
       <c r="B21" s="50">
         <v>7</v>
       </c>
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="44" t="s">
+      <c r="E21" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="40" t="s">
         <v>66</v>
       </c>
       <c r="H21" s="4" t="s">
@@ -5479,11 +5481,11 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="51"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
       <c r="H22" s="1" t="s">
         <v>3</v>
       </c>
@@ -5493,11 +5495,11 @@
     </row>
     <row r="23" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="52"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
       <c r="H23" s="7" t="s">
         <v>4</v>
       </c>
@@ -5506,22 +5508,22 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="37">
+      <c r="B24" s="34">
         <v>8</v>
       </c>
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="E24" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F24" s="59" t="s">
+      <c r="F24" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="59" t="s">
+      <c r="G24" s="58" t="s">
         <v>95</v>
       </c>
       <c r="H24" s="3" t="s">
@@ -5532,12 +5534,12 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="38"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
       <c r="H25" s="1" t="s">
         <v>3</v>
       </c>
@@ -5546,12 +5548,12 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="39"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
       <c r="H26" s="2" t="s">
         <v>4</v>
       </c>
@@ -5563,65 +5565,65 @@
       <c r="B27" s="50">
         <v>9</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="43" t="s">
+      <c r="D27" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="44" t="s">
+      <c r="E27" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="43" t="s">
+      <c r="F27" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G27" s="43" t="s">
+      <c r="G27" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="43" t="s">
+      <c r="H27" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="I27" s="56" t="s">
+      <c r="I27" s="65" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="51"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="57"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="66"/>
     </row>
     <row r="29" spans="2:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="52"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="58"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="67"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="37">
+      <c r="B30" s="34">
         <v>10</v>
       </c>
-      <c r="C30" s="61" t="s">
+      <c r="C30" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="43" t="s">
+      <c r="D30" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="44" t="s">
+      <c r="E30" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F30" s="43" t="s">
+      <c r="F30" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="43" t="s">
+      <c r="G30" s="47" t="s">
         <v>46</v>
       </c>
       <c r="H30" s="4" t="s">
@@ -5632,12 +5634,12 @@
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="38"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
       <c r="H31" s="1" t="s">
         <v>3</v>
       </c>
@@ -5646,12 +5648,12 @@
       </c>
     </row>
     <row r="32" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="39"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
       <c r="H32" s="7" t="s">
         <v>4</v>
       </c>
@@ -5663,19 +5665,19 @@
       <c r="B33" s="50">
         <v>11</v>
       </c>
-      <c r="C33" s="66" t="s">
+      <c r="C33" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="43" t="s">
+      <c r="D33" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="44" t="s">
+      <c r="E33" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F33" s="46" t="s">
+      <c r="F33" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G33" s="34" t="s">
+      <c r="G33" s="43" t="s">
         <v>50</v>
       </c>
       <c r="H33" s="4" t="s">
@@ -5687,11 +5689,11 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="51"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
       <c r="H34" s="1" t="s">
         <v>3</v>
       </c>
@@ -5701,11 +5703,11 @@
     </row>
     <row r="35" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="52"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
       <c r="H35" s="7" t="s">
         <v>4</v>
       </c>
@@ -5714,22 +5716,22 @@
       </c>
     </row>
     <row r="36" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="37">
+      <c r="B36" s="34">
         <v>12</v>
       </c>
-      <c r="C36" s="53" t="s">
+      <c r="C36" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="43" t="s">
+      <c r="D36" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E36" s="44" t="s">
+      <c r="E36" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F36" s="46" t="s">
+      <c r="F36" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G36" s="46" t="s">
+      <c r="G36" s="40" t="s">
         <v>84</v>
       </c>
       <c r="H36" s="4" t="s">
@@ -5740,12 +5742,12 @@
       </c>
     </row>
     <row r="37" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="38"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
       <c r="H37" s="1" t="s">
         <v>3</v>
       </c>
@@ -5754,12 +5756,12 @@
       </c>
     </row>
     <row r="38" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="39"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
       <c r="H38" s="7" t="s">
         <v>4</v>
       </c>
@@ -5771,19 +5773,19 @@
       <c r="B39" s="50">
         <v>13</v>
       </c>
-      <c r="C39" s="64" t="s">
+      <c r="C39" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="43" t="s">
+      <c r="D39" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E39" s="44" t="s">
+      <c r="E39" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F39" s="59" t="s">
+      <c r="F39" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="G39" s="67" t="s">
+      <c r="G39" s="63" t="s">
         <v>44</v>
       </c>
       <c r="H39" s="3" t="s">
@@ -5795,11 +5797,11 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="51"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
       <c r="H40" s="1" t="s">
         <v>3</v>
       </c>
@@ -5809,11 +5811,11 @@
     </row>
     <row r="41" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="52"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
       <c r="H41" s="2" t="s">
         <v>4</v>
       </c>
@@ -5822,22 +5824,22 @@
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="37">
+      <c r="B42" s="34">
         <v>14</v>
       </c>
-      <c r="C42" s="66" t="s">
+      <c r="C42" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="43" t="s">
+      <c r="D42" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E42" s="44" t="s">
+      <c r="E42" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F42" s="46" t="s">
+      <c r="F42" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="G42" s="34" t="s">
+      <c r="G42" s="43" t="s">
         <v>54</v>
       </c>
       <c r="H42" s="4" t="s">
@@ -5848,12 +5850,12 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="38"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
       <c r="H43" s="1" t="s">
         <v>3</v>
       </c>
@@ -5862,12 +5864,12 @@
       </c>
     </row>
     <row r="44" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="39"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
       <c r="H44" s="7" t="s">
         <v>4</v>
       </c>
@@ -5879,19 +5881,19 @@
       <c r="B45" s="50">
         <v>15</v>
       </c>
-      <c r="C45" s="64" t="s">
+      <c r="C45" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="43" t="s">
+      <c r="D45" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E45" s="44" t="s">
+      <c r="E45" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F45" s="59" t="s">
+      <c r="F45" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="G45" s="59" t="s">
+      <c r="G45" s="58" t="s">
         <v>45</v>
       </c>
       <c r="H45" s="3" t="s">
@@ -5903,11 +5905,11 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="51"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
       <c r="H46" s="1" t="s">
         <v>3</v>
       </c>
@@ -5917,11 +5919,11 @@
     </row>
     <row r="47" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="52"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
       <c r="H47" s="2" t="s">
         <v>4</v>
       </c>
@@ -5930,22 +5932,22 @@
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="37">
+      <c r="B48" s="34">
         <v>16</v>
       </c>
-      <c r="C48" s="53" t="s">
+      <c r="C48" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="43" t="s">
+      <c r="D48" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E48" s="44" t="s">
+      <c r="E48" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F48" s="46" t="s">
+      <c r="F48" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="G48" s="46" t="s">
+      <c r="G48" s="40" t="s">
         <v>56</v>
       </c>
       <c r="H48" s="4" t="s">
@@ -5956,12 +5958,12 @@
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="38"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
       <c r="H49" s="1" t="s">
         <v>3</v>
       </c>
@@ -5970,12 +5972,12 @@
       </c>
     </row>
     <row r="50" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="39"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
       <c r="H50" s="7" t="s">
         <v>4</v>
       </c>
@@ -5987,19 +5989,19 @@
       <c r="B51" s="50">
         <v>17</v>
       </c>
-      <c r="C51" s="53" t="s">
+      <c r="C51" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="43" t="s">
+      <c r="D51" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E51" s="44" t="s">
+      <c r="E51" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F51" s="46" t="s">
+      <c r="F51" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G51" s="46" t="s">
+      <c r="G51" s="40" t="s">
         <v>74</v>
       </c>
       <c r="H51" s="4" t="s">
@@ -6011,11 +6013,11 @@
     </row>
     <row r="52" spans="2:9" ht="33" x14ac:dyDescent="0.3">
       <c r="B52" s="51"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
       <c r="H52" s="1" t="s">
         <v>3</v>
       </c>
@@ -6025,11 +6027,11 @@
     </row>
     <row r="53" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="52"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
       <c r="H53" s="7" t="s">
         <v>4</v>
       </c>
@@ -6038,22 +6040,22 @@
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="37">
+      <c r="B54" s="34">
         <v>18</v>
       </c>
-      <c r="C54" s="53" t="s">
+      <c r="C54" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="43" t="s">
+      <c r="D54" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E54" s="44" t="s">
+      <c r="E54" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F54" s="46" t="s">
+      <c r="F54" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G54" s="34" t="s">
+      <c r="G54" s="43" t="s">
         <v>79</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -6064,12 +6066,12 @@
       </c>
     </row>
     <row r="55" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="38"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
       </c>
@@ -6078,12 +6080,12 @@
       </c>
     </row>
     <row r="56" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="39"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="45"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
       <c r="H56" s="7" t="s">
         <v>4</v>
       </c>
@@ -6095,19 +6097,19 @@
       <c r="B57" s="50">
         <v>19</v>
       </c>
-      <c r="C57" s="53" t="s">
+      <c r="C57" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="D57" s="43" t="s">
+      <c r="D57" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E57" s="44" t="s">
+      <c r="E57" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F57" s="46" t="s">
+      <c r="F57" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G57" s="46" t="s">
+      <c r="G57" s="40" t="s">
         <v>89</v>
       </c>
       <c r="H57" s="4" t="s">
@@ -6119,11 +6121,11 @@
     </row>
     <row r="58" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="51"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
       <c r="H58" s="1" t="s">
         <v>3</v>
       </c>
@@ -6133,11 +6135,11 @@
     </row>
     <row r="59" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="52"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
       <c r="H59" s="7" t="s">
         <v>4</v>
       </c>
@@ -6146,22 +6148,22 @@
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="37">
+      <c r="B60" s="34">
         <v>20</v>
       </c>
-      <c r="C60" s="40" t="s">
+      <c r="C60" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="D60" s="43" t="s">
+      <c r="D60" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E60" s="44" t="s">
+      <c r="E60" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F60" s="46" t="s">
+      <c r="F60" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="G60" s="34" t="s">
+      <c r="G60" s="43" t="s">
         <v>97</v>
       </c>
       <c r="H60" s="4" t="s">
@@ -6172,12 +6174,12 @@
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="38"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
       <c r="H61" s="1" t="s">
         <v>3</v>
       </c>
@@ -6186,12 +6188,12 @@
       </c>
     </row>
     <row r="62" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="39"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="45"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
       <c r="H62" s="7" t="s">
         <v>4</v>
       </c>
@@ -6200,22 +6202,22 @@
       </c>
     </row>
     <row r="63" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="37">
+      <c r="B63" s="34">
         <v>21</v>
       </c>
-      <c r="C63" s="71" t="s">
+      <c r="C63" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="D63" s="43" t="s">
+      <c r="D63" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E63" s="43" t="s">
+      <c r="E63" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="F63" s="43" t="s">
+      <c r="F63" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G63" s="47" t="s">
+      <c r="G63" s="71" t="s">
         <v>106</v>
       </c>
       <c r="H63" s="4" t="s">
@@ -6226,12 +6228,12 @@
       </c>
     </row>
     <row r="64" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="38"/>
-      <c r="C64" s="72"/>
-      <c r="D64" s="44"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="44"/>
-      <c r="G64" s="48"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="48"/>
+      <c r="E64" s="48"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="72"/>
       <c r="H64" s="1" t="s">
         <v>3</v>
       </c>
@@ -6240,12 +6242,12 @@
       </c>
     </row>
     <row r="65" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="39"/>
-      <c r="C65" s="73"/>
-      <c r="D65" s="45"/>
-      <c r="E65" s="45"/>
-      <c r="F65" s="45"/>
-      <c r="G65" s="49"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="73"/>
       <c r="H65" s="7" t="s">
         <v>4</v>
       </c>
@@ -6254,22 +6256,22 @@
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="37">
+      <c r="B66" s="34">
         <v>22</v>
       </c>
-      <c r="C66" s="40" t="s">
+      <c r="C66" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="D66" s="43" t="s">
+      <c r="D66" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E66" s="44" t="s">
+      <c r="E66" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F66" s="46" t="s">
+      <c r="F66" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="G66" s="34" t="s">
+      <c r="G66" s="43" t="s">
         <v>97</v>
       </c>
       <c r="H66" s="4" t="s">
@@ -6280,12 +6282,12 @@
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B67" s="38"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="44"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="48"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="41"/>
       <c r="H67" s="1" t="s">
         <v>3</v>
       </c>
@@ -6294,12 +6296,12 @@
       </c>
     </row>
     <row r="68" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="39"/>
-      <c r="C68" s="42"/>
-      <c r="D68" s="45"/>
-      <c r="E68" s="45"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
       <c r="H68" s="7" t="s">
         <v>4</v>
       </c>
@@ -6309,6 +6311,117 @@
     </row>
   </sheetData>
   <mergeCells count="135">
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="F51:F53"/>
     <mergeCell ref="B54:B56"/>
     <mergeCell ref="C54:C56"/>
     <mergeCell ref="F54:F56"/>
@@ -6333,117 +6446,6 @@
     <mergeCell ref="E42:E44"/>
     <mergeCell ref="E48:E50"/>
     <mergeCell ref="E51:E53"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="G57:G59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
+++ b/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E0B887-C367-402A-B9E2-DC36D6034BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399A8BE6-A893-4C00-A49C-A4BB71CCF8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9C64985F-4ADF-44CE-9572-0998CB538CFF}"/>
+    <workbookView xWindow="6450" yWindow="5565" windowWidth="31950" windowHeight="15435" xr2:uid="{9C64985F-4ADF-44CE-9572-0998CB538CFF}"/>
   </bookViews>
   <sheets>
     <sheet name="루시 카드" sheetId="3" r:id="rId1"/>
@@ -1502,11 +1502,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>만복도 +30
-소화 불량 카드 1장 획득</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>방금 찐 만두 이미지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1746,6 +1741,11 @@
   <si>
     <t>루시의 공격력 5 증가
 만복도 10 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만복도 +50
+소화 불량 카드 3장 획득</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2474,6 +2474,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2483,6 +2492,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2492,17 +2540,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2511,87 +2592,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2930,8 +2930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E337946-5511-4AD1-8A21-3FB7BE6153D1}">
   <dimension ref="B1:K88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3151,7 +3151,7 @@
         <v>131</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J10" s="23" t="s">
         <v>139</v>
@@ -3280,7 +3280,7 @@
         <v>144</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J15" s="24" t="s">
         <v>286</v>
@@ -3304,7 +3304,7 @@
         <v>130</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J16" s="24" t="s">
         <v>287</v>
@@ -3325,10 +3325,10 @@
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="27" t="s">
+        <v>385</v>
+      </c>
+      <c r="H17" s="26" t="s">
         <v>386</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>387</v>
       </c>
       <c r="J17" s="24" t="s">
         <v>288</v>
@@ -3432,7 +3432,7 @@
         <v>124</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J21" s="24" t="s">
         <v>292</v>
@@ -3484,7 +3484,7 @@
         <v>130</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J23" s="24" t="s">
         <v>294</v>
@@ -3510,7 +3510,7 @@
         <v>130</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J24" s="24" t="s">
         <v>295</v>
@@ -3584,7 +3584,7 @@
         <v>144</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J27" s="24" t="s">
         <v>298</v>
@@ -3595,7 +3595,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D28" s="25" t="s">
         <v>102</v>
@@ -3608,7 +3608,7 @@
         <v>130</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I28" s="24" t="s">
         <v>172</v>
@@ -3666,7 +3666,7 @@
         <v>222</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J30" s="24" t="s">
         <v>301</v>
@@ -3725,7 +3725,7 @@
         <v>303</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="33" spans="2:11" s="29" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3754,7 +3754,7 @@
         <v>304</v>
       </c>
       <c r="K33" s="29" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="34" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3788,7 +3788,7 @@
         <v>30</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D35" s="25" t="s">
         <v>102</v>
@@ -3827,7 +3827,7 @@
         <v>124</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J36" s="24" t="s">
         <v>307</v>
@@ -3853,13 +3853,13 @@
         <v>130</v>
       </c>
       <c r="H37" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J37" s="24" t="s">
         <v>308</v>
       </c>
       <c r="K37" s="24" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="38" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3888,7 +3888,7 @@
         <v>309</v>
       </c>
       <c r="K38" s="24" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="39" spans="2:11" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3911,13 +3911,13 @@
         <v>124</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J39" s="23" t="s">
         <v>310</v>
       </c>
       <c r="K39" s="23" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="40" spans="2:11" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3938,7 +3938,7 @@
         <v>124</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J40" s="23" t="s">
         <v>311</v>
@@ -4088,7 +4088,7 @@
         <v>124</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J46" s="23" t="s">
         <v>316</v>
@@ -4114,7 +4114,7 @@
         <v>124</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J47" s="23" t="s">
         <v>318</v>
@@ -4140,7 +4140,7 @@
         <v>130</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J48" s="23" t="s">
         <v>319</v>
@@ -4215,7 +4215,7 @@
         <v>130</v>
       </c>
       <c r="H51" s="26" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I51" s="24" t="s">
         <v>208</v>
@@ -4242,7 +4242,7 @@
         <v>124</v>
       </c>
       <c r="H52" s="26" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I52" s="24" t="s">
         <v>210</v>
@@ -4256,7 +4256,7 @@
         <v>48</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D53" s="27" t="s">
         <v>102</v>
@@ -4269,7 +4269,7 @@
         <v>124</v>
       </c>
       <c r="H53" s="28" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I53" s="29" t="s">
         <v>212</v>
@@ -4307,7 +4307,7 @@
         <v>50</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D55" s="21" t="s">
         <v>102</v>
@@ -4320,7 +4320,7 @@
         <v>144</v>
       </c>
       <c r="H55" s="22" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J55" s="23" t="s">
         <v>327</v>
@@ -4378,29 +4378,29 @@
         <v>329</v>
       </c>
     </row>
-    <row r="58" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B58" s="16">
+    <row r="58" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B58" s="21">
         <v>53</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C58" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="D58" s="16" t="s">
+      <c r="D58" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="F58" s="16" t="s">
+      <c r="F58" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="G58" s="16" t="s">
+      <c r="G58" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="H58" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="J58" s="14" t="s">
+      <c r="H58" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="J58" s="23" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4654,7 +4654,7 @@
         <v>248</v>
       </c>
       <c r="J69" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="70" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4677,10 +4677,10 @@
         <v>130</v>
       </c>
       <c r="H70" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="J70" s="14" t="s">
         <v>350</v>
-      </c>
-      <c r="J70" s="14" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.3">
@@ -4688,7 +4688,7 @@
         <v>66</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D71" s="16" t="s">
         <v>102</v>
@@ -4703,10 +4703,10 @@
         <v>124</v>
       </c>
       <c r="H71" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="J71" s="14" t="s">
         <v>353</v>
-      </c>
-      <c r="J71" s="14" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.3">
@@ -4732,7 +4732,7 @@
         <v>256</v>
       </c>
       <c r="J72" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.3">
@@ -4758,7 +4758,7 @@
         <v>266</v>
       </c>
       <c r="J73" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.3">
@@ -4784,7 +4784,7 @@
         <v>268</v>
       </c>
       <c r="J74" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="75" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -4810,7 +4810,7 @@
         <v>270</v>
       </c>
       <c r="J75" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="76" spans="2:10" ht="66" x14ac:dyDescent="0.3">
@@ -4833,7 +4833,7 @@
         <v>272</v>
       </c>
       <c r="J76" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.3">
@@ -4859,7 +4859,7 @@
         <v>280</v>
       </c>
       <c r="J77" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.3">
@@ -4885,7 +4885,7 @@
         <v>278</v>
       </c>
       <c r="J78" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.3">
@@ -4893,7 +4893,7 @@
         <v>74</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D79" s="16" t="s">
         <v>101</v>
@@ -4911,7 +4911,7 @@
         <v>276</v>
       </c>
       <c r="J79" s="14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="80" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4937,7 +4937,7 @@
         <v>274</v>
       </c>
       <c r="J80" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="81" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4963,7 +4963,7 @@
         <v>282</v>
       </c>
       <c r="J81" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="82" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4986,7 +4986,7 @@
         <v>233</v>
       </c>
       <c r="J82" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="83" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5012,7 +5012,7 @@
         <v>234</v>
       </c>
       <c r="J83" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="84" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5020,7 +5020,7 @@
         <v>79</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D84" s="16" t="s">
         <v>102</v>
@@ -5032,10 +5032,10 @@
         <v>231</v>
       </c>
       <c r="H84" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J84" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="85" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5061,12 +5061,12 @@
         <v>253</v>
       </c>
       <c r="J85" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J87" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.3">
@@ -5118,34 +5118,34 @@
   <sheetData>
     <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="70"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="50">
         <v>1</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="F3" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="59" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -5157,11 +5157,11 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="51"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
       <c r="H4" s="1" t="s">
         <v>3</v>
       </c>
@@ -5171,11 +5171,11 @@
     </row>
     <row r="5" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="52"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
       <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
@@ -5184,22 +5184,22 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="34">
+      <c r="B6" s="37">
         <v>2</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="46" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -5210,12 +5210,12 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="35"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="1" t="s">
         <v>3</v>
       </c>
@@ -5224,12 +5224,12 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="36"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
       <c r="H8" s="7" t="s">
         <v>4</v>
       </c>
@@ -5241,19 +5241,19 @@
       <c r="B9" s="50">
         <v>3</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="58" t="s">
+      <c r="G9" s="59" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -5265,11 +5265,11 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="51"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
       <c r="H10" s="1" t="s">
         <v>3</v>
       </c>
@@ -5279,11 +5279,11 @@
     </row>
     <row r="11" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="52"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
       <c r="H11" s="2" t="s">
         <v>4</v>
       </c>
@@ -5292,22 +5292,22 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="34">
+      <c r="B12" s="37">
         <v>4</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="G12" s="46" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -5318,12 +5318,12 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="35"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
       <c r="H13" s="1" t="s">
         <v>3</v>
       </c>
@@ -5332,12 +5332,12 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="36"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
       <c r="H14" s="7" t="s">
         <v>4</v>
       </c>
@@ -5349,19 +5349,19 @@
       <c r="B15" s="50">
         <v>5</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="48" t="s">
+      <c r="E15" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="58" t="s">
+      <c r="F15" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="58" t="s">
+      <c r="G15" s="59" t="s">
         <v>31</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -5373,11 +5373,11 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="51"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
       <c r="H16" s="1" t="s">
         <v>3</v>
       </c>
@@ -5387,11 +5387,11 @@
     </row>
     <row r="17" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="52"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
       <c r="H17" s="2" t="s">
         <v>4</v>
       </c>
@@ -5400,22 +5400,22 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="34">
+      <c r="B18" s="37">
         <v>6</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="C18" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="40" t="s">
+      <c r="G18" s="46" t="s">
         <v>61</v>
       </c>
       <c r="H18" s="4" t="s">
@@ -5426,12 +5426,12 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="35"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
       <c r="H19" s="1" t="s">
         <v>3</v>
       </c>
@@ -5440,12 +5440,12 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="36"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
       <c r="H20" s="7" t="s">
         <v>4</v>
       </c>
@@ -5457,19 +5457,19 @@
       <c r="B21" s="50">
         <v>7</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="48" t="s">
+      <c r="E21" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="40" t="s">
+      <c r="G21" s="46" t="s">
         <v>66</v>
       </c>
       <c r="H21" s="4" t="s">
@@ -5481,11 +5481,11 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="51"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
       <c r="H22" s="1" t="s">
         <v>3</v>
       </c>
@@ -5495,11 +5495,11 @@
     </row>
     <row r="23" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="52"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
       <c r="H23" s="7" t="s">
         <v>4</v>
       </c>
@@ -5508,22 +5508,22 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="34">
+      <c r="B24" s="37">
         <v>8</v>
       </c>
-      <c r="C24" s="53" t="s">
+      <c r="C24" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="47" t="s">
+      <c r="D24" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F24" s="58" t="s">
+      <c r="F24" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="58" t="s">
+      <c r="G24" s="59" t="s">
         <v>95</v>
       </c>
       <c r="H24" s="3" t="s">
@@ -5534,12 +5534,12 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="35"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
       <c r="H25" s="1" t="s">
         <v>3</v>
       </c>
@@ -5548,12 +5548,12 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="36"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
       <c r="H26" s="2" t="s">
         <v>4</v>
       </c>
@@ -5565,65 +5565,65 @@
       <c r="B27" s="50">
         <v>9</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="D27" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="48" t="s">
+      <c r="E27" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="47" t="s">
+      <c r="F27" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="G27" s="47" t="s">
+      <c r="G27" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="47" t="s">
+      <c r="H27" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="I27" s="65" t="s">
+      <c r="I27" s="56" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="51"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="66"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="57"/>
     </row>
     <row r="29" spans="2:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="52"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="67"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="58"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="34">
+      <c r="B30" s="37">
         <v>10</v>
       </c>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="47" t="s">
+      <c r="D30" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="48" t="s">
+      <c r="E30" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F30" s="47" t="s">
+      <c r="F30" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="47" t="s">
+      <c r="G30" s="43" t="s">
         <v>46</v>
       </c>
       <c r="H30" s="4" t="s">
@@ -5634,12 +5634,12 @@
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="35"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
       <c r="H31" s="1" t="s">
         <v>3</v>
       </c>
@@ -5648,12 +5648,12 @@
       </c>
     </row>
     <row r="32" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="36"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
       <c r="H32" s="7" t="s">
         <v>4</v>
       </c>
@@ -5665,19 +5665,19 @@
       <c r="B33" s="50">
         <v>11</v>
       </c>
-      <c r="C33" s="64" t="s">
+      <c r="C33" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="47" t="s">
+      <c r="D33" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="48" t="s">
+      <c r="E33" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F33" s="40" t="s">
+      <c r="F33" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G33" s="43" t="s">
+      <c r="G33" s="34" t="s">
         <v>50</v>
       </c>
       <c r="H33" s="4" t="s">
@@ -5689,11 +5689,11 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="51"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
       <c r="H34" s="1" t="s">
         <v>3</v>
       </c>
@@ -5703,11 +5703,11 @@
     </row>
     <row r="35" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="52"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
       <c r="H35" s="7" t="s">
         <v>4</v>
       </c>
@@ -5716,22 +5716,22 @@
       </c>
     </row>
     <row r="36" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="34">
+      <c r="B36" s="37">
         <v>12</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="47" t="s">
+      <c r="D36" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E36" s="48" t="s">
+      <c r="E36" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F36" s="40" t="s">
+      <c r="F36" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G36" s="40" t="s">
+      <c r="G36" s="46" t="s">
         <v>84</v>
       </c>
       <c r="H36" s="4" t="s">
@@ -5742,12 +5742,12 @@
       </c>
     </row>
     <row r="37" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="35"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
       <c r="H37" s="1" t="s">
         <v>3</v>
       </c>
@@ -5756,12 +5756,12 @@
       </c>
     </row>
     <row r="38" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="36"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
       <c r="H38" s="7" t="s">
         <v>4</v>
       </c>
@@ -5773,19 +5773,19 @@
       <c r="B39" s="50">
         <v>13</v>
       </c>
-      <c r="C39" s="53" t="s">
+      <c r="C39" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="47" t="s">
+      <c r="D39" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E39" s="48" t="s">
+      <c r="E39" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F39" s="58" t="s">
+      <c r="F39" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="G39" s="63" t="s">
+      <c r="G39" s="67" t="s">
         <v>44</v>
       </c>
       <c r="H39" s="3" t="s">
@@ -5797,11 +5797,11 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="51"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
       <c r="H40" s="1" t="s">
         <v>3</v>
       </c>
@@ -5811,11 +5811,11 @@
     </row>
     <row r="41" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="52"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
       <c r="H41" s="2" t="s">
         <v>4</v>
       </c>
@@ -5824,22 +5824,22 @@
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="34">
+      <c r="B42" s="37">
         <v>14</v>
       </c>
-      <c r="C42" s="64" t="s">
+      <c r="C42" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="47" t="s">
+      <c r="D42" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E42" s="48" t="s">
+      <c r="E42" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F42" s="40" t="s">
+      <c r="F42" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G42" s="43" t="s">
+      <c r="G42" s="34" t="s">
         <v>54</v>
       </c>
       <c r="H42" s="4" t="s">
@@ -5850,12 +5850,12 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="35"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
       <c r="H43" s="1" t="s">
         <v>3</v>
       </c>
@@ -5864,12 +5864,12 @@
       </c>
     </row>
     <row r="44" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="36"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
       <c r="H44" s="7" t="s">
         <v>4</v>
       </c>
@@ -5881,19 +5881,19 @@
       <c r="B45" s="50">
         <v>15</v>
       </c>
-      <c r="C45" s="53" t="s">
+      <c r="C45" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="47" t="s">
+      <c r="D45" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E45" s="48" t="s">
+      <c r="E45" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F45" s="58" t="s">
+      <c r="F45" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="G45" s="58" t="s">
+      <c r="G45" s="59" t="s">
         <v>45</v>
       </c>
       <c r="H45" s="3" t="s">
@@ -5905,11 +5905,11 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="51"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
       <c r="H46" s="1" t="s">
         <v>3</v>
       </c>
@@ -5919,11 +5919,11 @@
     </row>
     <row r="47" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="52"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
       <c r="H47" s="2" t="s">
         <v>4</v>
       </c>
@@ -5932,22 +5932,22 @@
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="34">
+      <c r="B48" s="37">
         <v>16</v>
       </c>
-      <c r="C48" s="37" t="s">
+      <c r="C48" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="47" t="s">
+      <c r="D48" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E48" s="48" t="s">
+      <c r="E48" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F48" s="40" t="s">
+      <c r="F48" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G48" s="40" t="s">
+      <c r="G48" s="46" t="s">
         <v>56</v>
       </c>
       <c r="H48" s="4" t="s">
@@ -5958,12 +5958,12 @@
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="35"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
       <c r="H49" s="1" t="s">
         <v>3</v>
       </c>
@@ -5972,12 +5972,12 @@
       </c>
     </row>
     <row r="50" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="36"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
       <c r="H50" s="7" t="s">
         <v>4</v>
       </c>
@@ -5989,19 +5989,19 @@
       <c r="B51" s="50">
         <v>17</v>
       </c>
-      <c r="C51" s="37" t="s">
+      <c r="C51" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="47" t="s">
+      <c r="D51" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E51" s="48" t="s">
+      <c r="E51" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F51" s="40" t="s">
+      <c r="F51" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G51" s="40" t="s">
+      <c r="G51" s="46" t="s">
         <v>74</v>
       </c>
       <c r="H51" s="4" t="s">
@@ -6013,11 +6013,11 @@
     </row>
     <row r="52" spans="2:9" ht="33" x14ac:dyDescent="0.3">
       <c r="B52" s="51"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
       <c r="H52" s="1" t="s">
         <v>3</v>
       </c>
@@ -6027,11 +6027,11 @@
     </row>
     <row r="53" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="52"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
       <c r="H53" s="7" t="s">
         <v>4</v>
       </c>
@@ -6040,22 +6040,22 @@
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="34">
+      <c r="B54" s="37">
         <v>18</v>
       </c>
-      <c r="C54" s="37" t="s">
+      <c r="C54" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="47" t="s">
+      <c r="D54" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E54" s="48" t="s">
+      <c r="E54" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F54" s="40" t="s">
+      <c r="F54" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G54" s="43" t="s">
+      <c r="G54" s="34" t="s">
         <v>79</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -6066,12 +6066,12 @@
       </c>
     </row>
     <row r="55" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="35"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
       </c>
@@ -6080,12 +6080,12 @@
       </c>
     </row>
     <row r="56" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="36"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="42"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
       <c r="H56" s="7" t="s">
         <v>4</v>
       </c>
@@ -6097,19 +6097,19 @@
       <c r="B57" s="50">
         <v>19</v>
       </c>
-      <c r="C57" s="37" t="s">
+      <c r="C57" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="D57" s="47" t="s">
+      <c r="D57" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E57" s="48" t="s">
+      <c r="E57" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F57" s="40" t="s">
+      <c r="F57" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G57" s="40" t="s">
+      <c r="G57" s="46" t="s">
         <v>89</v>
       </c>
       <c r="H57" s="4" t="s">
@@ -6121,11 +6121,11 @@
     </row>
     <row r="58" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="51"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="48"/>
-      <c r="E58" s="48"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
       <c r="H58" s="1" t="s">
         <v>3</v>
       </c>
@@ -6135,11 +6135,11 @@
     </row>
     <row r="59" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="52"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
       <c r="H59" s="7" t="s">
         <v>4</v>
       </c>
@@ -6148,22 +6148,22 @@
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="34">
+      <c r="B60" s="37">
         <v>20</v>
       </c>
-      <c r="C60" s="68" t="s">
+      <c r="C60" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="D60" s="47" t="s">
+      <c r="D60" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E60" s="48" t="s">
+      <c r="E60" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F60" s="40" t="s">
+      <c r="F60" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G60" s="43" t="s">
+      <c r="G60" s="34" t="s">
         <v>97</v>
       </c>
       <c r="H60" s="4" t="s">
@@ -6174,12 +6174,12 @@
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="35"/>
-      <c r="C61" s="69"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="48"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="41"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
       <c r="H61" s="1" t="s">
         <v>3</v>
       </c>
@@ -6188,12 +6188,12 @@
       </c>
     </row>
     <row r="62" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="36"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="42"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
       <c r="H62" s="7" t="s">
         <v>4</v>
       </c>
@@ -6202,22 +6202,22 @@
       </c>
     </row>
     <row r="63" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="34">
+      <c r="B63" s="37">
         <v>21</v>
       </c>
-      <c r="C63" s="44" t="s">
+      <c r="C63" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="D63" s="47" t="s">
+      <c r="D63" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E63" s="47" t="s">
+      <c r="E63" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="F63" s="47" t="s">
+      <c r="F63" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="G63" s="71" t="s">
+      <c r="G63" s="47" t="s">
         <v>106</v>
       </c>
       <c r="H63" s="4" t="s">
@@ -6228,12 +6228,12 @@
       </c>
     </row>
     <row r="64" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="35"/>
-      <c r="C64" s="45"/>
-      <c r="D64" s="48"/>
-      <c r="E64" s="48"/>
-      <c r="F64" s="48"/>
-      <c r="G64" s="72"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="44"/>
+      <c r="G64" s="48"/>
       <c r="H64" s="1" t="s">
         <v>3</v>
       </c>
@@ -6242,12 +6242,12 @@
       </c>
     </row>
     <row r="65" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="36"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="73"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="73"/>
+      <c r="D65" s="45"/>
+      <c r="E65" s="45"/>
+      <c r="F65" s="45"/>
+      <c r="G65" s="49"/>
       <c r="H65" s="7" t="s">
         <v>4</v>
       </c>
@@ -6256,22 +6256,22 @@
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="34">
+      <c r="B66" s="37">
         <v>22</v>
       </c>
-      <c r="C66" s="68" t="s">
+      <c r="C66" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="D66" s="47" t="s">
+      <c r="D66" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E66" s="48" t="s">
+      <c r="E66" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F66" s="40" t="s">
+      <c r="F66" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G66" s="43" t="s">
+      <c r="G66" s="34" t="s">
         <v>97</v>
       </c>
       <c r="H66" s="4" t="s">
@@ -6282,12 +6282,12 @@
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B67" s="35"/>
-      <c r="C67" s="69"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="48"/>
-      <c r="F67" s="41"/>
-      <c r="G67" s="41"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
       <c r="H67" s="1" t="s">
         <v>3</v>
       </c>
@@ -6296,12 +6296,12 @@
       </c>
     </row>
     <row r="68" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="36"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="49"/>
-      <c r="E68" s="49"/>
-      <c r="F68" s="42"/>
-      <c r="G68" s="42"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="45"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
       <c r="H68" s="7" t="s">
         <v>4</v>
       </c>
@@ -6311,44 +6311,79 @@
     </row>
   </sheetData>
   <mergeCells count="135">
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D6:D8"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="D15:D17"/>
@@ -6373,79 +6408,44 @@
     <mergeCell ref="F15:F17"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="F18:F20"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="G57:G59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
+++ b/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399A8BE6-A893-4C00-A49C-A4BB71CCF8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5327A00C-847A-4208-90FA-9E9C3EE9A9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6450" yWindow="5565" windowWidth="31950" windowHeight="15435" xr2:uid="{9C64985F-4ADF-44CE-9572-0998CB538CFF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9C64985F-4ADF-44CE-9572-0998CB538CFF}"/>
   </bookViews>
   <sheets>
     <sheet name="루시 카드" sheetId="3" r:id="rId1"/>
@@ -2930,8 +2930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E337946-5511-4AD1-8A21-3FB7BE6153D1}">
   <dimension ref="B1:K88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:XFD60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4404,49 +4404,51 @@
         <v>330</v>
       </c>
     </row>
-    <row r="59" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B59" s="16">
+    <row r="59" spans="2:10" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B59" s="21">
         <v>54</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C59" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="D59" s="16" t="s">
+      <c r="D59" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="G59" s="16" t="s">
+      <c r="F59" s="21"/>
+      <c r="G59" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="H59" s="15" t="s">
+      <c r="H59" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="J59" s="14" t="s">
+      <c r="J59" s="23" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="60" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B60" s="16">
+    <row r="60" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B60" s="21">
         <v>55</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C60" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="D60" s="16" t="s">
+      <c r="D60" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="G60" s="16" t="s">
+      <c r="F60" s="21"/>
+      <c r="G60" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="H60" s="15" t="s">
+      <c r="H60" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="J60" s="14" t="s">
+      <c r="J60" s="23" t="s">
         <v>335</v>
       </c>
     </row>

--- a/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
+++ b/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5327A00C-847A-4208-90FA-9E9C3EE9A9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5903DA6F-DB06-4256-A6DC-84987D3921B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9C64985F-4ADF-44CE-9572-0998CB538CFF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="405">
   <si>
     <t>건물</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1746,6 +1746,10 @@
   <si>
     <t>만복도 +50
 소화 불량 카드 3장 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마나 4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2474,22 +2478,106 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2502,96 +2590,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2928,10 +2932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E337946-5511-4AD1-8A21-3FB7BE6153D1}">
-  <dimension ref="B1:K88"/>
+  <dimension ref="B1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:XFD60"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4326,55 +4330,56 @@
         <v>327</v>
       </c>
     </row>
-    <row r="56" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B56" s="16">
+    <row r="56" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B56" s="21">
         <v>51</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C56" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="D56" s="16" t="s">
+      <c r="D56" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="G56" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="H56" s="15" t="s">
+      <c r="F56" s="21"/>
+      <c r="G56" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="H56" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="J56" s="14" t="s">
+      <c r="J56" s="23" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B57" s="16">
+    <row r="57" spans="2:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="21">
         <v>52</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C57" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="D57" s="16" t="s">
+      <c r="D57" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="F57" s="16" t="s">
+      <c r="F57" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="G57" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H57" s="15" t="s">
+      <c r="G57" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="H57" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="I57" s="14" t="s">
+      <c r="I57" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="J57" s="14" t="s">
+      <c r="J57" s="23" t="s">
         <v>329</v>
       </c>
     </row>
@@ -5066,28 +5071,55 @@
         <v>370</v>
       </c>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="J87" s="14" t="s">
+    <row r="86" spans="2:10" s="29" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B86" s="27">
+        <v>81</v>
+      </c>
+      <c r="C86" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="D86" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E86" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="F86" s="27"/>
+      <c r="G86" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="H86" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="I86" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="J86" s="29" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J88" s="14" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B88" s="16">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B89" s="16">
         <v>90</v>
       </c>
-      <c r="C88" s="16" t="s">
+      <c r="C89" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="D88" s="16" t="s">
+      <c r="D89" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="E89" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="G88" s="16" t="s">
+      <c r="G89" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="H88" s="15" t="s">
+      <c r="H89" s="15" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5120,34 +5152,34 @@
   <sheetData>
     <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="70"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="50">
         <v>1</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="58" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -5159,11 +5191,11 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="51"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
       <c r="H4" s="1" t="s">
         <v>3</v>
       </c>
@@ -5173,11 +5205,11 @@
     </row>
     <row r="5" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="52"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
       <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
@@ -5186,22 +5218,22 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="37">
+      <c r="B6" s="34">
         <v>2</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="40" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -5212,12 +5244,12 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="38"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
       <c r="H7" s="1" t="s">
         <v>3</v>
       </c>
@@ -5226,12 +5258,12 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="39"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
       <c r="H8" s="7" t="s">
         <v>4</v>
       </c>
@@ -5243,19 +5275,19 @@
       <c r="B9" s="50">
         <v>3</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="59" t="s">
+      <c r="G9" s="58" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -5267,11 +5299,11 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="51"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
       <c r="H10" s="1" t="s">
         <v>3</v>
       </c>
@@ -5281,11 +5313,11 @@
     </row>
     <row r="11" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="52"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
       <c r="H11" s="2" t="s">
         <v>4</v>
       </c>
@@ -5294,22 +5326,22 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="37">
+      <c r="B12" s="34">
         <v>4</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="46" t="s">
+      <c r="F12" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="40" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -5320,12 +5352,12 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="38"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
       <c r="H13" s="1" t="s">
         <v>3</v>
       </c>
@@ -5334,12 +5366,12 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="39"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
       <c r="H14" s="7" t="s">
         <v>4</v>
       </c>
@@ -5351,19 +5383,19 @@
       <c r="B15" s="50">
         <v>5</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="59" t="s">
+      <c r="F15" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="59" t="s">
+      <c r="G15" s="58" t="s">
         <v>31</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -5375,11 +5407,11 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="51"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="1" t="s">
         <v>3</v>
       </c>
@@ -5389,11 +5421,11 @@
     </row>
     <row r="17" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="52"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
       <c r="H17" s="2" t="s">
         <v>4</v>
       </c>
@@ -5402,22 +5434,22 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="37">
+      <c r="B18" s="34">
         <v>6</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="46" t="s">
+      <c r="F18" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="46" t="s">
+      <c r="G18" s="40" t="s">
         <v>61</v>
       </c>
       <c r="H18" s="4" t="s">
@@ -5428,12 +5460,12 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="38"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
       <c r="H19" s="1" t="s">
         <v>3</v>
       </c>
@@ -5442,12 +5474,12 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="39"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
       <c r="H20" s="7" t="s">
         <v>4</v>
       </c>
@@ -5459,19 +5491,19 @@
       <c r="B21" s="50">
         <v>7</v>
       </c>
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="44" t="s">
+      <c r="E21" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="40" t="s">
         <v>66</v>
       </c>
       <c r="H21" s="4" t="s">
@@ -5483,11 +5515,11 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="51"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
       <c r="H22" s="1" t="s">
         <v>3</v>
       </c>
@@ -5497,11 +5529,11 @@
     </row>
     <row r="23" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="52"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
       <c r="H23" s="7" t="s">
         <v>4</v>
       </c>
@@ -5510,22 +5542,22 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="37">
+      <c r="B24" s="34">
         <v>8</v>
       </c>
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="E24" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F24" s="59" t="s">
+      <c r="F24" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="59" t="s">
+      <c r="G24" s="58" t="s">
         <v>95</v>
       </c>
       <c r="H24" s="3" t="s">
@@ -5536,12 +5568,12 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="38"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
       <c r="H25" s="1" t="s">
         <v>3</v>
       </c>
@@ -5550,12 +5582,12 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="39"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
       <c r="H26" s="2" t="s">
         <v>4</v>
       </c>
@@ -5567,65 +5599,65 @@
       <c r="B27" s="50">
         <v>9</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="43" t="s">
+      <c r="D27" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="44" t="s">
+      <c r="E27" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="43" t="s">
+      <c r="F27" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G27" s="43" t="s">
+      <c r="G27" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="43" t="s">
+      <c r="H27" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="I27" s="56" t="s">
+      <c r="I27" s="65" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="51"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="57"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="66"/>
     </row>
     <row r="29" spans="2:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="52"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="58"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="67"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="37">
+      <c r="B30" s="34">
         <v>10</v>
       </c>
-      <c r="C30" s="61" t="s">
+      <c r="C30" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="43" t="s">
+      <c r="D30" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="44" t="s">
+      <c r="E30" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F30" s="43" t="s">
+      <c r="F30" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="43" t="s">
+      <c r="G30" s="47" t="s">
         <v>46</v>
       </c>
       <c r="H30" s="4" t="s">
@@ -5636,12 +5668,12 @@
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="38"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
       <c r="H31" s="1" t="s">
         <v>3</v>
       </c>
@@ -5650,12 +5682,12 @@
       </c>
     </row>
     <row r="32" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="39"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
       <c r="H32" s="7" t="s">
         <v>4</v>
       </c>
@@ -5667,19 +5699,19 @@
       <c r="B33" s="50">
         <v>11</v>
       </c>
-      <c r="C33" s="66" t="s">
+      <c r="C33" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="43" t="s">
+      <c r="D33" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="44" t="s">
+      <c r="E33" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F33" s="46" t="s">
+      <c r="F33" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G33" s="34" t="s">
+      <c r="G33" s="43" t="s">
         <v>50</v>
       </c>
       <c r="H33" s="4" t="s">
@@ -5691,11 +5723,11 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="51"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
       <c r="H34" s="1" t="s">
         <v>3</v>
       </c>
@@ -5705,11 +5737,11 @@
     </row>
     <row r="35" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="52"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
       <c r="H35" s="7" t="s">
         <v>4</v>
       </c>
@@ -5718,22 +5750,22 @@
       </c>
     </row>
     <row r="36" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="37">
+      <c r="B36" s="34">
         <v>12</v>
       </c>
-      <c r="C36" s="53" t="s">
+      <c r="C36" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="43" t="s">
+      <c r="D36" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E36" s="44" t="s">
+      <c r="E36" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F36" s="46" t="s">
+      <c r="F36" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G36" s="46" t="s">
+      <c r="G36" s="40" t="s">
         <v>84</v>
       </c>
       <c r="H36" s="4" t="s">
@@ -5744,12 +5776,12 @@
       </c>
     </row>
     <row r="37" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="38"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
       <c r="H37" s="1" t="s">
         <v>3</v>
       </c>
@@ -5758,12 +5790,12 @@
       </c>
     </row>
     <row r="38" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="39"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
       <c r="H38" s="7" t="s">
         <v>4</v>
       </c>
@@ -5775,19 +5807,19 @@
       <c r="B39" s="50">
         <v>13</v>
       </c>
-      <c r="C39" s="64" t="s">
+      <c r="C39" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="43" t="s">
+      <c r="D39" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E39" s="44" t="s">
+      <c r="E39" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F39" s="59" t="s">
+      <c r="F39" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="G39" s="67" t="s">
+      <c r="G39" s="63" t="s">
         <v>44</v>
       </c>
       <c r="H39" s="3" t="s">
@@ -5799,11 +5831,11 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="51"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
       <c r="H40" s="1" t="s">
         <v>3</v>
       </c>
@@ -5813,11 +5845,11 @@
     </row>
     <row r="41" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="52"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
       <c r="H41" s="2" t="s">
         <v>4</v>
       </c>
@@ -5826,22 +5858,22 @@
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="37">
+      <c r="B42" s="34">
         <v>14</v>
       </c>
-      <c r="C42" s="66" t="s">
+      <c r="C42" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="43" t="s">
+      <c r="D42" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E42" s="44" t="s">
+      <c r="E42" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F42" s="46" t="s">
+      <c r="F42" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="G42" s="34" t="s">
+      <c r="G42" s="43" t="s">
         <v>54</v>
       </c>
       <c r="H42" s="4" t="s">
@@ -5852,12 +5884,12 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="38"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
       <c r="H43" s="1" t="s">
         <v>3</v>
       </c>
@@ -5866,12 +5898,12 @@
       </c>
     </row>
     <row r="44" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="39"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
       <c r="H44" s="7" t="s">
         <v>4</v>
       </c>
@@ -5883,19 +5915,19 @@
       <c r="B45" s="50">
         <v>15</v>
       </c>
-      <c r="C45" s="64" t="s">
+      <c r="C45" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="43" t="s">
+      <c r="D45" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E45" s="44" t="s">
+      <c r="E45" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F45" s="59" t="s">
+      <c r="F45" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="G45" s="59" t="s">
+      <c r="G45" s="58" t="s">
         <v>45</v>
       </c>
       <c r="H45" s="3" t="s">
@@ -5907,11 +5939,11 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="51"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
       <c r="H46" s="1" t="s">
         <v>3</v>
       </c>
@@ -5921,11 +5953,11 @@
     </row>
     <row r="47" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="52"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
       <c r="H47" s="2" t="s">
         <v>4</v>
       </c>
@@ -5934,22 +5966,22 @@
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="37">
+      <c r="B48" s="34">
         <v>16</v>
       </c>
-      <c r="C48" s="53" t="s">
+      <c r="C48" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="43" t="s">
+      <c r="D48" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E48" s="44" t="s">
+      <c r="E48" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F48" s="46" t="s">
+      <c r="F48" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="G48" s="46" t="s">
+      <c r="G48" s="40" t="s">
         <v>56</v>
       </c>
       <c r="H48" s="4" t="s">
@@ -5960,12 +5992,12 @@
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="38"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
       <c r="H49" s="1" t="s">
         <v>3</v>
       </c>
@@ -5974,12 +6006,12 @@
       </c>
     </row>
     <row r="50" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="39"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
       <c r="H50" s="7" t="s">
         <v>4</v>
       </c>
@@ -5991,19 +6023,19 @@
       <c r="B51" s="50">
         <v>17</v>
       </c>
-      <c r="C51" s="53" t="s">
+      <c r="C51" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="43" t="s">
+      <c r="D51" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E51" s="44" t="s">
+      <c r="E51" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F51" s="46" t="s">
+      <c r="F51" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G51" s="46" t="s">
+      <c r="G51" s="40" t="s">
         <v>74</v>
       </c>
       <c r="H51" s="4" t="s">
@@ -6015,11 +6047,11 @@
     </row>
     <row r="52" spans="2:9" ht="33" x14ac:dyDescent="0.3">
       <c r="B52" s="51"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
       <c r="H52" s="1" t="s">
         <v>3</v>
       </c>
@@ -6029,11 +6061,11 @@
     </row>
     <row r="53" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="52"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
       <c r="H53" s="7" t="s">
         <v>4</v>
       </c>
@@ -6042,22 +6074,22 @@
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="37">
+      <c r="B54" s="34">
         <v>18</v>
       </c>
-      <c r="C54" s="53" t="s">
+      <c r="C54" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="43" t="s">
+      <c r="D54" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E54" s="44" t="s">
+      <c r="E54" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F54" s="46" t="s">
+      <c r="F54" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G54" s="34" t="s">
+      <c r="G54" s="43" t="s">
         <v>79</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -6068,12 +6100,12 @@
       </c>
     </row>
     <row r="55" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="38"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
       </c>
@@ -6082,12 +6114,12 @@
       </c>
     </row>
     <row r="56" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="39"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="45"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
       <c r="H56" s="7" t="s">
         <v>4</v>
       </c>
@@ -6099,19 +6131,19 @@
       <c r="B57" s="50">
         <v>19</v>
       </c>
-      <c r="C57" s="53" t="s">
+      <c r="C57" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="D57" s="43" t="s">
+      <c r="D57" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E57" s="44" t="s">
+      <c r="E57" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F57" s="46" t="s">
+      <c r="F57" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G57" s="46" t="s">
+      <c r="G57" s="40" t="s">
         <v>89</v>
       </c>
       <c r="H57" s="4" t="s">
@@ -6123,11 +6155,11 @@
     </row>
     <row r="58" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="51"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
       <c r="H58" s="1" t="s">
         <v>3</v>
       </c>
@@ -6137,11 +6169,11 @@
     </row>
     <row r="59" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="52"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
       <c r="H59" s="7" t="s">
         <v>4</v>
       </c>
@@ -6150,22 +6182,22 @@
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="37">
+      <c r="B60" s="34">
         <v>20</v>
       </c>
-      <c r="C60" s="40" t="s">
+      <c r="C60" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="D60" s="43" t="s">
+      <c r="D60" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E60" s="44" t="s">
+      <c r="E60" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F60" s="46" t="s">
+      <c r="F60" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="G60" s="34" t="s">
+      <c r="G60" s="43" t="s">
         <v>97</v>
       </c>
       <c r="H60" s="4" t="s">
@@ -6176,12 +6208,12 @@
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="38"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
       <c r="H61" s="1" t="s">
         <v>3</v>
       </c>
@@ -6190,12 +6222,12 @@
       </c>
     </row>
     <row r="62" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="39"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="45"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
       <c r="H62" s="7" t="s">
         <v>4</v>
       </c>
@@ -6204,22 +6236,22 @@
       </c>
     </row>
     <row r="63" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="37">
+      <c r="B63" s="34">
         <v>21</v>
       </c>
-      <c r="C63" s="71" t="s">
+      <c r="C63" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="D63" s="43" t="s">
+      <c r="D63" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E63" s="43" t="s">
+      <c r="E63" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="F63" s="43" t="s">
+      <c r="F63" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G63" s="47" t="s">
+      <c r="G63" s="71" t="s">
         <v>106</v>
       </c>
       <c r="H63" s="4" t="s">
@@ -6230,12 +6262,12 @@
       </c>
     </row>
     <row r="64" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="38"/>
-      <c r="C64" s="72"/>
-      <c r="D64" s="44"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="44"/>
-      <c r="G64" s="48"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="48"/>
+      <c r="E64" s="48"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="72"/>
       <c r="H64" s="1" t="s">
         <v>3</v>
       </c>
@@ -6244,12 +6276,12 @@
       </c>
     </row>
     <row r="65" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="39"/>
-      <c r="C65" s="73"/>
-      <c r="D65" s="45"/>
-      <c r="E65" s="45"/>
-      <c r="F65" s="45"/>
-      <c r="G65" s="49"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="73"/>
       <c r="H65" s="7" t="s">
         <v>4</v>
       </c>
@@ -6258,22 +6290,22 @@
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="37">
+      <c r="B66" s="34">
         <v>22</v>
       </c>
-      <c r="C66" s="40" t="s">
+      <c r="C66" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="D66" s="43" t="s">
+      <c r="D66" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E66" s="44" t="s">
+      <c r="E66" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F66" s="46" t="s">
+      <c r="F66" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="G66" s="34" t="s">
+      <c r="G66" s="43" t="s">
         <v>97</v>
       </c>
       <c r="H66" s="4" t="s">
@@ -6284,12 +6316,12 @@
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B67" s="38"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="44"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="48"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="41"/>
       <c r="H67" s="1" t="s">
         <v>3</v>
       </c>
@@ -6298,12 +6330,12 @@
       </c>
     </row>
     <row r="68" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="39"/>
-      <c r="C68" s="42"/>
-      <c r="D68" s="45"/>
-      <c r="E68" s="45"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
       <c r="H68" s="7" t="s">
         <v>4</v>
       </c>
@@ -6313,6 +6345,117 @@
     </row>
   </sheetData>
   <mergeCells count="135">
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="F51:F53"/>
     <mergeCell ref="B54:B56"/>
     <mergeCell ref="C54:C56"/>
     <mergeCell ref="F54:F56"/>
@@ -6337,117 +6480,6 @@
     <mergeCell ref="E42:E44"/>
     <mergeCell ref="E48:E50"/>
     <mergeCell ref="E51:E53"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="G57:G59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
+++ b/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5903DA6F-DB06-4256-A6DC-84987D3921B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C906460B-75BE-4AAD-86C1-F947CDA9C5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9C64985F-4ADF-44CE-9572-0998CB538CFF}"/>
   </bookViews>
@@ -1003,11 +1003,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>체력 2의 몽마를 소환한다. 
-몽마는 2열의 캐릭터를 1턴간 매번 스턴 시킨다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>건설</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1035,14 +1030,6 @@
   </si>
   <si>
     <t>방어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>루시의 방어력 5를 증가시킨다. 1턴간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>루시의 방어력 3을 증가, 루시의 공격력 2를 증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1750,6 +1737,19 @@
   </si>
   <si>
     <t>마나 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 3의 몽마를 소환한다. 
+몽마는 1, 2열의 캐릭터를 1턴간 매번 스턴 시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루시의 방어력 3를 증가시킨다. 1턴간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루시의 방어력 2을 증가, 루시의 공격력 2를 증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2478,6 +2478,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2487,6 +2496,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2496,17 +2544,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2515,87 +2596,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2935,7 +2935,7 @@
   <dimension ref="B1:K89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:XFD57"/>
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3011,7 +3011,7 @@
         <v>141</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>119</v>
@@ -3155,7 +3155,7 @@
         <v>131</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="J10" s="23" t="s">
         <v>139</v>
@@ -3175,7 +3175,7 @@
         <v>133</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G11" s="21" t="s">
         <v>124</v>
@@ -3204,7 +3204,7 @@
         <v>120</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G12" s="21" t="s">
         <v>124</v>
@@ -3213,7 +3213,7 @@
         <v>218</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3230,7 +3230,7 @@
         <v>120</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G13" s="21" t="s">
         <v>124</v>
@@ -3239,7 +3239,7 @@
         <v>219</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3263,7 +3263,7 @@
         <v>160</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3284,10 +3284,10 @@
         <v>144</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3308,10 +3308,10 @@
         <v>130</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3329,13 +3329,13 @@
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="27" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="2:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3352,7 +3352,7 @@
         <v>123</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G18" s="25" t="s">
         <v>144</v>
@@ -3361,7 +3361,7 @@
         <v>157</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3378,7 +3378,7 @@
         <v>123</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G19" s="25" t="s">
         <v>124</v>
@@ -3387,7 +3387,7 @@
         <v>159</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3404,7 +3404,7 @@
         <v>123</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G20" s="25" t="s">
         <v>130</v>
@@ -3413,7 +3413,7 @@
         <v>162</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="2:11" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -3430,16 +3430,16 @@
         <v>123</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G21" s="25" t="s">
         <v>124</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="2:11" s="29" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -3456,7 +3456,7 @@
         <v>123</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G22" s="27" t="s">
         <v>124</v>
@@ -3465,7 +3465,7 @@
         <v>165</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="2:11" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -3482,16 +3482,16 @@
         <v>123</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G23" s="25" t="s">
         <v>130</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="2:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3508,16 +3508,16 @@
         <v>123</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G24" s="25" t="s">
         <v>130</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="J24" s="24" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3541,7 +3541,7 @@
         <v>169</v>
       </c>
       <c r="J25" s="24" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3565,7 +3565,7 @@
         <v>170</v>
       </c>
       <c r="J26" s="24" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3582,16 +3582,16 @@
         <v>175</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G27" s="25" t="s">
         <v>144</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28" spans="2:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3599,7 +3599,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D28" s="25" t="s">
         <v>102</v>
@@ -3612,13 +3612,13 @@
         <v>130</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="I28" s="24" t="s">
         <v>172</v>
       </c>
       <c r="J28" s="24" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3635,7 +3635,7 @@
         <v>175</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G29" s="25" t="s">
         <v>144</v>
@@ -3644,7 +3644,7 @@
         <v>223</v>
       </c>
       <c r="J29" s="24" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="30" spans="2:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3661,7 +3661,7 @@
         <v>175</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G30" s="25" t="s">
         <v>130</v>
@@ -3670,10 +3670,10 @@
         <v>222</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3690,7 +3690,7 @@
         <v>175</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G31" s="25" t="s">
         <v>124</v>
@@ -3702,7 +3702,7 @@
         <v>180</v>
       </c>
       <c r="J31" s="24" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32" spans="2:11" s="29" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3726,10 +3726,10 @@
         <v>182</v>
       </c>
       <c r="J32" s="29" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="33" spans="2:11" s="29" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3746,19 +3746,19 @@
         <v>123</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G33" s="27" t="s">
         <v>130</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="K33" s="29" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="34" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3775,7 +3775,7 @@
         <v>123</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G34" s="25" t="s">
         <v>124</v>
@@ -3784,7 +3784,7 @@
         <v>185</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3792,7 +3792,7 @@
         <v>30</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D35" s="25" t="s">
         <v>102</v>
@@ -3801,7 +3801,7 @@
         <v>175</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G35" s="25" t="s">
         <v>130</v>
@@ -3810,7 +3810,7 @@
         <v>186</v>
       </c>
       <c r="J35" s="24" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="36" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3831,10 +3831,10 @@
         <v>124</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="J36" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="37" spans="2:11" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -3851,19 +3851,19 @@
         <v>120</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G37" s="25" t="s">
         <v>130</v>
       </c>
       <c r="H37" s="26" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="J37" s="24" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K37" s="24" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="38" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3880,7 +3880,7 @@
         <v>120</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G38" s="25" t="s">
         <v>130</v>
@@ -3889,10 +3889,10 @@
         <v>220</v>
       </c>
       <c r="J38" s="24" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K38" s="24" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="39" spans="2:11" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3909,19 +3909,19 @@
         <v>123</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G39" s="21" t="s">
         <v>124</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="J39" s="23" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K39" s="23" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="40" spans="2:11" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3942,10 +3942,10 @@
         <v>124</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="J40" s="23" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="41" spans="2:11" s="29" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
@@ -3962,7 +3962,7 @@
         <v>123</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G41" s="27" t="s">
         <v>130</v>
@@ -3971,7 +3971,7 @@
         <v>227</v>
       </c>
       <c r="J41" s="29" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="42" spans="2:11" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3979,7 +3979,7 @@
         <v>37</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D42" s="21" t="s">
         <v>103</v>
@@ -3995,7 +3995,7 @@
         <v>193</v>
       </c>
       <c r="J42" s="23" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="43" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4019,7 +4019,7 @@
         <v>195</v>
       </c>
       <c r="J43" s="23" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="44" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4043,7 +4043,7 @@
         <v>197</v>
       </c>
       <c r="J44" s="23" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="45" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4060,7 +4060,7 @@
         <v>120</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G45" s="21" t="s">
         <v>124</v>
@@ -4069,7 +4069,7 @@
         <v>202</v>
       </c>
       <c r="J45" s="23" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="46" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4086,16 +4086,16 @@
         <v>120</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G46" s="21" t="s">
         <v>124</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="J46" s="23" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="47" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4112,16 +4112,16 @@
         <v>120</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G47" s="21" t="s">
         <v>124</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="J47" s="23" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="48" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4138,16 +4138,16 @@
         <v>120</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G48" s="21" t="s">
         <v>130</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J48" s="23" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="49" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4171,7 +4171,7 @@
         <v>204</v>
       </c>
       <c r="J49" s="23" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="50" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -4198,7 +4198,7 @@
         <v>206</v>
       </c>
       <c r="J50" s="24" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="51" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -4219,13 +4219,13 @@
         <v>130</v>
       </c>
       <c r="H51" s="26" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I51" s="24" t="s">
         <v>208</v>
       </c>
       <c r="J51" s="24" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="52" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -4246,13 +4246,13 @@
         <v>124</v>
       </c>
       <c r="H52" s="26" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="I52" s="24" t="s">
         <v>210</v>
       </c>
       <c r="J52" s="24" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="53" spans="2:10" s="29" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -4260,7 +4260,7 @@
         <v>48</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D53" s="27" t="s">
         <v>102</v>
@@ -4273,13 +4273,13 @@
         <v>124</v>
       </c>
       <c r="H53" s="28" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="I53" s="29" t="s">
         <v>212</v>
       </c>
       <c r="J53" s="29" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="54" spans="2:10" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -4287,7 +4287,7 @@
         <v>49</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D54" s="21" t="s">
         <v>103</v>
@@ -4300,10 +4300,10 @@
         <v>156</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="J54" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="55" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4311,7 +4311,7 @@
         <v>50</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D55" s="21" t="s">
         <v>102</v>
@@ -4324,10 +4324,10 @@
         <v>144</v>
       </c>
       <c r="H55" s="22" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="J55" s="23" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="56" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4345,13 +4345,13 @@
       </c>
       <c r="F56" s="21"/>
       <c r="G56" s="21" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H56" s="22" t="s">
         <v>214</v>
       </c>
       <c r="J56" s="23" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="57" spans="2:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4368,7 +4368,7 @@
         <v>175</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G57" s="21" t="s">
         <v>130</v>
@@ -4380,7 +4380,7 @@
         <v>217</v>
       </c>
       <c r="J57" s="23" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="58" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4397,16 +4397,16 @@
         <v>175</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G58" s="21" t="s">
         <v>144</v>
       </c>
       <c r="H58" s="22" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="J58" s="23" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="59" spans="2:10" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -4427,10 +4427,10 @@
         <v>130</v>
       </c>
       <c r="H59" s="22" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="J59" s="23" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="60" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4438,7 +4438,7 @@
         <v>55</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D60" s="21" t="s">
         <v>102</v>
@@ -4451,79 +4451,82 @@
         <v>130</v>
       </c>
       <c r="H60" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="J60" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B61" s="21">
+        <v>56</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="D61" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E61" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="H61" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="J61" s="23" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="21">
+        <v>57</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="D62" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E62" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="H62" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="J62" s="23" t="s">
         <v>334</v>
       </c>
-      <c r="J60" s="23" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B61" s="16">
-        <v>56</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="D61" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="G61" s="16" t="s">
+    </row>
+    <row r="63" spans="2:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="21">
+        <v>58</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E63" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="H61" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="J61" s="14" t="s">
+      <c r="H63" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="J63" s="23" t="s">
         <v>336</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B62" s="16">
-        <v>57</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="D62" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="G62" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H62" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="J62" s="14" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B63" s="16">
-        <v>58</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="D63" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="G63" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H63" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="J63" s="14" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="64" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4531,7 +4534,7 @@
         <v>59</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D64" s="16" t="s">
         <v>102</v>
@@ -4540,13 +4543,13 @@
         <v>123</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H64" s="15" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J64" s="14" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="65" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4554,7 +4557,7 @@
         <v>60</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D65" s="16" t="s">
         <v>103</v>
@@ -4566,10 +4569,10 @@
         <v>144</v>
       </c>
       <c r="H65" s="15" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J65" s="14" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="66" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -4577,7 +4580,7 @@
         <v>61</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D66" s="16" t="s">
         <v>102</v>
@@ -4589,10 +4592,10 @@
         <v>130</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="J66" s="14" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="67" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -4600,7 +4603,7 @@
         <v>62</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D67" s="16" t="s">
         <v>103</v>
@@ -4612,10 +4615,10 @@
         <v>130</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="J67" s="14" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="68" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4623,7 +4626,7 @@
         <v>63</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D68" s="16" t="s">
         <v>102</v>
@@ -4635,10 +4638,10 @@
         <v>124</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="J68" s="14" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="69" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4646,7 +4649,7 @@
         <v>64</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D69" s="16" t="s">
         <v>102</v>
@@ -4658,10 +4661,10 @@
         <v>124</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J69" s="14" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="70" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4669,7 +4672,7 @@
         <v>65</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D70" s="16" t="s">
         <v>102</v>
@@ -4678,16 +4681,16 @@
         <v>123</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G70" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H70" s="15" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="J70" s="14" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.3">
@@ -4695,7 +4698,7 @@
         <v>66</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D71" s="16" t="s">
         <v>102</v>
@@ -4704,16 +4707,16 @@
         <v>123</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G71" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="J71" s="14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.3">
@@ -4721,7 +4724,7 @@
         <v>67</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D72" s="16" t="s">
         <v>101</v>
@@ -4730,16 +4733,16 @@
         <v>123</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G72" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H72" s="15" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J72" s="14" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.3">
@@ -4747,7 +4750,7 @@
         <v>68</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D73" s="16" t="s">
         <v>101</v>
@@ -4756,16 +4759,16 @@
         <v>175</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G73" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H73" s="15" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J73" s="14" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.3">
@@ -4773,7 +4776,7 @@
         <v>69</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D74" s="16" t="s">
         <v>102</v>
@@ -4782,16 +4785,16 @@
         <v>175</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G74" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="J74" s="14" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="75" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -4799,7 +4802,7 @@
         <v>70</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D75" s="16" t="s">
         <v>103</v>
@@ -4808,16 +4811,16 @@
         <v>123</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G75" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="J75" s="14" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="76" spans="2:10" ht="66" x14ac:dyDescent="0.3">
@@ -4825,7 +4828,7 @@
         <v>71</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D76" s="16" t="s">
         <v>103</v>
@@ -4837,10 +4840,10 @@
         <v>156</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J76" s="14" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.3">
@@ -4848,7 +4851,7 @@
         <v>72</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D77" s="16" t="s">
         <v>101</v>
@@ -4857,16 +4860,16 @@
         <v>123</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G77" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J77" s="14" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.3">
@@ -4874,7 +4877,7 @@
         <v>73</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D78" s="16" t="s">
         <v>102</v>
@@ -4883,16 +4886,16 @@
         <v>123</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G78" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J78" s="14" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.3">
@@ -4900,7 +4903,7 @@
         <v>74</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D79" s="16" t="s">
         <v>101</v>
@@ -4909,16 +4912,16 @@
         <v>175</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G79" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J79" s="14" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="80" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4926,7 +4929,7 @@
         <v>75</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D80" s="16" t="s">
         <v>102</v>
@@ -4935,16 +4938,16 @@
         <v>175</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G80" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J80" s="14" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="81" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4952,7 +4955,7 @@
         <v>76</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D81" s="16" t="s">
         <v>102</v>
@@ -4961,16 +4964,16 @@
         <v>120</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G81" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J81" s="14" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="82" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4978,22 +4981,22 @@
         <v>77</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D82" s="16" t="s">
         <v>101</v>
       </c>
       <c r="E82" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="G82" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="G82" s="16" t="s">
-        <v>231</v>
-      </c>
       <c r="H82" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J82" s="14" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="83" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5001,25 +5004,25 @@
         <v>78</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D83" s="16" t="s">
         <v>102</v>
       </c>
       <c r="E83" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="F83" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="G83" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="F83" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="G83" s="16" t="s">
-        <v>231</v>
-      </c>
       <c r="H83" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J83" s="14" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="84" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5027,22 +5030,22 @@
         <v>79</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D84" s="16" t="s">
         <v>102</v>
       </c>
       <c r="E84" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="G84" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="G84" s="16" t="s">
-        <v>231</v>
-      </c>
       <c r="H84" s="15" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="J84" s="14" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="85" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5050,25 +5053,25 @@
         <v>80</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D85" s="16" t="s">
         <v>103</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H85" s="15" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="J85" s="14" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="86" spans="2:10" s="29" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -5076,7 +5079,7 @@
         <v>81</v>
       </c>
       <c r="C86" s="27" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D86" s="27" t="s">
         <v>102</v>
@@ -5089,18 +5092,18 @@
         <v>124</v>
       </c>
       <c r="H86" s="28" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="I86" s="29" t="s">
         <v>212</v>
       </c>
       <c r="J86" s="29" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J88" s="14" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.3">
@@ -5152,34 +5155,34 @@
   <sheetData>
     <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="70"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="50">
         <v>1</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="F3" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="59" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -5191,11 +5194,11 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="51"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
       <c r="H4" s="1" t="s">
         <v>3</v>
       </c>
@@ -5205,11 +5208,11 @@
     </row>
     <row r="5" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="52"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
       <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
@@ -5218,22 +5221,22 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="34">
+      <c r="B6" s="37">
         <v>2</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="46" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -5244,12 +5247,12 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="35"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="1" t="s">
         <v>3</v>
       </c>
@@ -5258,12 +5261,12 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="36"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
       <c r="H8" s="7" t="s">
         <v>4</v>
       </c>
@@ -5275,19 +5278,19 @@
       <c r="B9" s="50">
         <v>3</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="58" t="s">
+      <c r="G9" s="59" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -5299,11 +5302,11 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="51"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
       <c r="H10" s="1" t="s">
         <v>3</v>
       </c>
@@ -5313,11 +5316,11 @@
     </row>
     <row r="11" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="52"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
       <c r="H11" s="2" t="s">
         <v>4</v>
       </c>
@@ -5326,22 +5329,22 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="34">
+      <c r="B12" s="37">
         <v>4</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="G12" s="46" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -5352,12 +5355,12 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="35"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
       <c r="H13" s="1" t="s">
         <v>3</v>
       </c>
@@ -5366,12 +5369,12 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="36"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
       <c r="H14" s="7" t="s">
         <v>4</v>
       </c>
@@ -5383,19 +5386,19 @@
       <c r="B15" s="50">
         <v>5</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="48" t="s">
+      <c r="E15" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="58" t="s">
+      <c r="F15" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="58" t="s">
+      <c r="G15" s="59" t="s">
         <v>31</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -5407,11 +5410,11 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="51"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
       <c r="H16" s="1" t="s">
         <v>3</v>
       </c>
@@ -5421,11 +5424,11 @@
     </row>
     <row r="17" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="52"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
       <c r="H17" s="2" t="s">
         <v>4</v>
       </c>
@@ -5434,22 +5437,22 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="34">
+      <c r="B18" s="37">
         <v>6</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="C18" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="40" t="s">
+      <c r="G18" s="46" t="s">
         <v>61</v>
       </c>
       <c r="H18" s="4" t="s">
@@ -5460,12 +5463,12 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="35"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
       <c r="H19" s="1" t="s">
         <v>3</v>
       </c>
@@ -5474,12 +5477,12 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="36"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
       <c r="H20" s="7" t="s">
         <v>4</v>
       </c>
@@ -5491,19 +5494,19 @@
       <c r="B21" s="50">
         <v>7</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="48" t="s">
+      <c r="E21" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="40" t="s">
+      <c r="G21" s="46" t="s">
         <v>66</v>
       </c>
       <c r="H21" s="4" t="s">
@@ -5515,11 +5518,11 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="51"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
       <c r="H22" s="1" t="s">
         <v>3</v>
       </c>
@@ -5529,11 +5532,11 @@
     </row>
     <row r="23" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="52"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
       <c r="H23" s="7" t="s">
         <v>4</v>
       </c>
@@ -5542,22 +5545,22 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="34">
+      <c r="B24" s="37">
         <v>8</v>
       </c>
-      <c r="C24" s="53" t="s">
+      <c r="C24" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="47" t="s">
+      <c r="D24" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F24" s="58" t="s">
+      <c r="F24" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="58" t="s">
+      <c r="G24" s="59" t="s">
         <v>95</v>
       </c>
       <c r="H24" s="3" t="s">
@@ -5568,12 +5571,12 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="35"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
       <c r="H25" s="1" t="s">
         <v>3</v>
       </c>
@@ -5582,12 +5585,12 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="36"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
       <c r="H26" s="2" t="s">
         <v>4</v>
       </c>
@@ -5599,65 +5602,65 @@
       <c r="B27" s="50">
         <v>9</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="D27" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="48" t="s">
+      <c r="E27" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="47" t="s">
+      <c r="F27" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="G27" s="47" t="s">
+      <c r="G27" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="47" t="s">
+      <c r="H27" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="I27" s="65" t="s">
+      <c r="I27" s="56" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="51"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="66"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="57"/>
     </row>
     <row r="29" spans="2:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="52"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="67"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="58"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="34">
+      <c r="B30" s="37">
         <v>10</v>
       </c>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="47" t="s">
+      <c r="D30" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="48" t="s">
+      <c r="E30" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F30" s="47" t="s">
+      <c r="F30" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="47" t="s">
+      <c r="G30" s="43" t="s">
         <v>46</v>
       </c>
       <c r="H30" s="4" t="s">
@@ -5668,12 +5671,12 @@
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="35"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
       <c r="H31" s="1" t="s">
         <v>3</v>
       </c>
@@ -5682,12 +5685,12 @@
       </c>
     </row>
     <row r="32" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="36"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
       <c r="H32" s="7" t="s">
         <v>4</v>
       </c>
@@ -5699,19 +5702,19 @@
       <c r="B33" s="50">
         <v>11</v>
       </c>
-      <c r="C33" s="64" t="s">
+      <c r="C33" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="47" t="s">
+      <c r="D33" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="48" t="s">
+      <c r="E33" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F33" s="40" t="s">
+      <c r="F33" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G33" s="43" t="s">
+      <c r="G33" s="34" t="s">
         <v>50</v>
       </c>
       <c r="H33" s="4" t="s">
@@ -5723,11 +5726,11 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="51"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
       <c r="H34" s="1" t="s">
         <v>3</v>
       </c>
@@ -5737,11 +5740,11 @@
     </row>
     <row r="35" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="52"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
       <c r="H35" s="7" t="s">
         <v>4</v>
       </c>
@@ -5750,22 +5753,22 @@
       </c>
     </row>
     <row r="36" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="34">
+      <c r="B36" s="37">
         <v>12</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="47" t="s">
+      <c r="D36" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E36" s="48" t="s">
+      <c r="E36" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F36" s="40" t="s">
+      <c r="F36" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G36" s="40" t="s">
+      <c r="G36" s="46" t="s">
         <v>84</v>
       </c>
       <c r="H36" s="4" t="s">
@@ -5776,12 +5779,12 @@
       </c>
     </row>
     <row r="37" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="35"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
       <c r="H37" s="1" t="s">
         <v>3</v>
       </c>
@@ -5790,12 +5793,12 @@
       </c>
     </row>
     <row r="38" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="36"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
       <c r="H38" s="7" t="s">
         <v>4</v>
       </c>
@@ -5807,19 +5810,19 @@
       <c r="B39" s="50">
         <v>13</v>
       </c>
-      <c r="C39" s="53" t="s">
+      <c r="C39" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="47" t="s">
+      <c r="D39" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E39" s="48" t="s">
+      <c r="E39" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F39" s="58" t="s">
+      <c r="F39" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="G39" s="63" t="s">
+      <c r="G39" s="67" t="s">
         <v>44</v>
       </c>
       <c r="H39" s="3" t="s">
@@ -5831,11 +5834,11 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="51"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
       <c r="H40" s="1" t="s">
         <v>3</v>
       </c>
@@ -5845,11 +5848,11 @@
     </row>
     <row r="41" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="52"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
       <c r="H41" s="2" t="s">
         <v>4</v>
       </c>
@@ -5858,22 +5861,22 @@
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="34">
+      <c r="B42" s="37">
         <v>14</v>
       </c>
-      <c r="C42" s="64" t="s">
+      <c r="C42" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="47" t="s">
+      <c r="D42" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E42" s="48" t="s">
+      <c r="E42" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F42" s="40" t="s">
+      <c r="F42" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G42" s="43" t="s">
+      <c r="G42" s="34" t="s">
         <v>54</v>
       </c>
       <c r="H42" s="4" t="s">
@@ -5884,12 +5887,12 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="35"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
       <c r="H43" s="1" t="s">
         <v>3</v>
       </c>
@@ -5898,12 +5901,12 @@
       </c>
     </row>
     <row r="44" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="36"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
       <c r="H44" s="7" t="s">
         <v>4</v>
       </c>
@@ -5915,19 +5918,19 @@
       <c r="B45" s="50">
         <v>15</v>
       </c>
-      <c r="C45" s="53" t="s">
+      <c r="C45" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="47" t="s">
+      <c r="D45" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E45" s="48" t="s">
+      <c r="E45" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F45" s="58" t="s">
+      <c r="F45" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="G45" s="58" t="s">
+      <c r="G45" s="59" t="s">
         <v>45</v>
       </c>
       <c r="H45" s="3" t="s">
@@ -5939,11 +5942,11 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="51"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
       <c r="H46" s="1" t="s">
         <v>3</v>
       </c>
@@ -5953,11 +5956,11 @@
     </row>
     <row r="47" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="52"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
       <c r="H47" s="2" t="s">
         <v>4</v>
       </c>
@@ -5966,22 +5969,22 @@
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="34">
+      <c r="B48" s="37">
         <v>16</v>
       </c>
-      <c r="C48" s="37" t="s">
+      <c r="C48" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="47" t="s">
+      <c r="D48" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E48" s="48" t="s">
+      <c r="E48" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F48" s="40" t="s">
+      <c r="F48" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G48" s="40" t="s">
+      <c r="G48" s="46" t="s">
         <v>56</v>
       </c>
       <c r="H48" s="4" t="s">
@@ -5992,12 +5995,12 @@
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="35"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
       <c r="H49" s="1" t="s">
         <v>3</v>
       </c>
@@ -6006,12 +6009,12 @@
       </c>
     </row>
     <row r="50" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="36"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
       <c r="H50" s="7" t="s">
         <v>4</v>
       </c>
@@ -6023,19 +6026,19 @@
       <c r="B51" s="50">
         <v>17</v>
       </c>
-      <c r="C51" s="37" t="s">
+      <c r="C51" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="47" t="s">
+      <c r="D51" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E51" s="48" t="s">
+      <c r="E51" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F51" s="40" t="s">
+      <c r="F51" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G51" s="40" t="s">
+      <c r="G51" s="46" t="s">
         <v>74</v>
       </c>
       <c r="H51" s="4" t="s">
@@ -6047,11 +6050,11 @@
     </row>
     <row r="52" spans="2:9" ht="33" x14ac:dyDescent="0.3">
       <c r="B52" s="51"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
       <c r="H52" s="1" t="s">
         <v>3</v>
       </c>
@@ -6061,11 +6064,11 @@
     </row>
     <row r="53" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="52"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
       <c r="H53" s="7" t="s">
         <v>4</v>
       </c>
@@ -6074,22 +6077,22 @@
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="34">
+      <c r="B54" s="37">
         <v>18</v>
       </c>
-      <c r="C54" s="37" t="s">
+      <c r="C54" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="47" t="s">
+      <c r="D54" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E54" s="48" t="s">
+      <c r="E54" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F54" s="40" t="s">
+      <c r="F54" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G54" s="43" t="s">
+      <c r="G54" s="34" t="s">
         <v>79</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -6100,12 +6103,12 @@
       </c>
     </row>
     <row r="55" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="35"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
       </c>
@@ -6114,12 +6117,12 @@
       </c>
     </row>
     <row r="56" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="36"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="42"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
       <c r="H56" s="7" t="s">
         <v>4</v>
       </c>
@@ -6131,19 +6134,19 @@
       <c r="B57" s="50">
         <v>19</v>
       </c>
-      <c r="C57" s="37" t="s">
+      <c r="C57" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="D57" s="47" t="s">
+      <c r="D57" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E57" s="48" t="s">
+      <c r="E57" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F57" s="40" t="s">
+      <c r="F57" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G57" s="40" t="s">
+      <c r="G57" s="46" t="s">
         <v>89</v>
       </c>
       <c r="H57" s="4" t="s">
@@ -6155,11 +6158,11 @@
     </row>
     <row r="58" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="51"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="48"/>
-      <c r="E58" s="48"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
       <c r="H58" s="1" t="s">
         <v>3</v>
       </c>
@@ -6169,11 +6172,11 @@
     </row>
     <row r="59" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="52"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
       <c r="H59" s="7" t="s">
         <v>4</v>
       </c>
@@ -6182,22 +6185,22 @@
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="34">
+      <c r="B60" s="37">
         <v>20</v>
       </c>
-      <c r="C60" s="68" t="s">
+      <c r="C60" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="D60" s="47" t="s">
+      <c r="D60" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E60" s="48" t="s">
+      <c r="E60" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F60" s="40" t="s">
+      <c r="F60" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G60" s="43" t="s">
+      <c r="G60" s="34" t="s">
         <v>97</v>
       </c>
       <c r="H60" s="4" t="s">
@@ -6208,12 +6211,12 @@
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="35"/>
-      <c r="C61" s="69"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="48"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="41"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
       <c r="H61" s="1" t="s">
         <v>3</v>
       </c>
@@ -6222,12 +6225,12 @@
       </c>
     </row>
     <row r="62" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="36"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="42"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
       <c r="H62" s="7" t="s">
         <v>4</v>
       </c>
@@ -6236,22 +6239,22 @@
       </c>
     </row>
     <row r="63" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="34">
+      <c r="B63" s="37">
         <v>21</v>
       </c>
-      <c r="C63" s="44" t="s">
+      <c r="C63" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="D63" s="47" t="s">
+      <c r="D63" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E63" s="47" t="s">
+      <c r="E63" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="F63" s="47" t="s">
+      <c r="F63" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="G63" s="71" t="s">
+      <c r="G63" s="47" t="s">
         <v>106</v>
       </c>
       <c r="H63" s="4" t="s">
@@ -6262,12 +6265,12 @@
       </c>
     </row>
     <row r="64" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="35"/>
-      <c r="C64" s="45"/>
-      <c r="D64" s="48"/>
-      <c r="E64" s="48"/>
-      <c r="F64" s="48"/>
-      <c r="G64" s="72"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="44"/>
+      <c r="G64" s="48"/>
       <c r="H64" s="1" t="s">
         <v>3</v>
       </c>
@@ -6276,12 +6279,12 @@
       </c>
     </row>
     <row r="65" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="36"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="73"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="73"/>
+      <c r="D65" s="45"/>
+      <c r="E65" s="45"/>
+      <c r="F65" s="45"/>
+      <c r="G65" s="49"/>
       <c r="H65" s="7" t="s">
         <v>4</v>
       </c>
@@ -6290,22 +6293,22 @@
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="34">
+      <c r="B66" s="37">
         <v>22</v>
       </c>
-      <c r="C66" s="68" t="s">
+      <c r="C66" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="D66" s="47" t="s">
+      <c r="D66" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E66" s="48" t="s">
+      <c r="E66" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F66" s="40" t="s">
+      <c r="F66" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G66" s="43" t="s">
+      <c r="G66" s="34" t="s">
         <v>97</v>
       </c>
       <c r="H66" s="4" t="s">
@@ -6316,12 +6319,12 @@
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B67" s="35"/>
-      <c r="C67" s="69"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="48"/>
-      <c r="F67" s="41"/>
-      <c r="G67" s="41"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
       <c r="H67" s="1" t="s">
         <v>3</v>
       </c>
@@ -6330,12 +6333,12 @@
       </c>
     </row>
     <row r="68" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="36"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="49"/>
-      <c r="E68" s="49"/>
-      <c r="F68" s="42"/>
-      <c r="G68" s="42"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="45"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
       <c r="H68" s="7" t="s">
         <v>4</v>
       </c>
@@ -6345,44 +6348,79 @@
     </row>
   </sheetData>
   <mergeCells count="135">
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D6:D8"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="D15:D17"/>
@@ -6407,79 +6445,44 @@
     <mergeCell ref="F15:F17"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="F18:F20"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="G57:G59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
+++ b/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C906460B-75BE-4AAD-86C1-F947CDA9C5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8504CA6D-2E2D-4B06-A49B-A5B898EFF703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9C64985F-4ADF-44CE-9572-0998CB538CFF}"/>
   </bookViews>
@@ -1041,11 +1041,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">만복도 -20
-루시의 방어력 5을 증가, 루시의 공격력 3을 증가 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>만복도를 100으로 만든 뒤 
 세번의 구토를 한다. 
 구토 후 만복도 -60</t>
@@ -1056,23 +1051,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>만복도 -50
-적 크리쳐 하나를 선택하여 12의 데미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, 2, 3열의 적을 3의 공격력으로 공격 
-- 찌르기 상태의 적에게 약화 
-- 자르기 상태의 적에게 방어력 하락</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>쓰러스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1, 2, 3열의 적을 1로 공격
-- 모든 적에게 찌르기 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1082,12 +1061,6 @@
   </si>
   <si>
     <t>타락한 연회장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, 2, 3열의 적을 마구잡이로 공격 
-- 모든 적에게 찌르기, 자르기 상태 
-소화 불량 1장 획득</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1750,6 +1723,33 @@
   </si>
   <si>
     <t>루시의 방어력 2을 증가, 루시의 공격력 2를 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만복도 -80
+적 크리쳐 하나를 선택하여 12의 데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">만복도 -30
+루시의 방어력 3을 증가, 루시의 공격력 3을 증가 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 적을 3의 공격력으로 공격 
+- 찌르기 상태의 적에게 추가 데미지 1
+- 자르기 상태의 적에게 추가 데미지 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 적을 마구잡이로 공격 
+- 모든 적에게 3의 공격
+- 모든 적에게 찌르기, 자르기 상태 99턴간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 2, 3열의 적을 2로 공격
+- 모든 적에게 찌르기 3턴간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2478,22 +2478,106 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2506,96 +2590,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2935,7 +2935,7 @@
   <dimension ref="B1:K89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3011,7 +3011,7 @@
         <v>141</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>119</v>
@@ -3155,7 +3155,7 @@
         <v>131</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="J10" s="23" t="s">
         <v>139</v>
@@ -3175,7 +3175,7 @@
         <v>133</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G11" s="21" t="s">
         <v>124</v>
@@ -3204,7 +3204,7 @@
         <v>120</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G12" s="21" t="s">
         <v>124</v>
@@ -3213,7 +3213,7 @@
         <v>218</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3230,7 +3230,7 @@
         <v>120</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G13" s="21" t="s">
         <v>124</v>
@@ -3239,7 +3239,7 @@
         <v>219</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3263,7 +3263,7 @@
         <v>160</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3284,10 +3284,10 @@
         <v>144</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3308,10 +3308,10 @@
         <v>130</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3329,13 +3329,13 @@
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="27" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="2:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3352,7 +3352,7 @@
         <v>123</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G18" s="25" t="s">
         <v>144</v>
@@ -3361,7 +3361,7 @@
         <v>157</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3378,7 +3378,7 @@
         <v>123</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G19" s="25" t="s">
         <v>124</v>
@@ -3387,7 +3387,7 @@
         <v>159</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3404,7 +3404,7 @@
         <v>123</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G20" s="25" t="s">
         <v>130</v>
@@ -3413,7 +3413,7 @@
         <v>162</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="2:11" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -3430,16 +3430,16 @@
         <v>123</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G21" s="25" t="s">
         <v>124</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="2:11" s="29" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -3456,7 +3456,7 @@
         <v>123</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G22" s="27" t="s">
         <v>124</v>
@@ -3465,7 +3465,7 @@
         <v>165</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="2:11" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -3482,16 +3482,16 @@
         <v>123</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G23" s="25" t="s">
         <v>130</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="2:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3508,16 +3508,16 @@
         <v>123</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G24" s="25" t="s">
         <v>130</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="J24" s="24" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3541,7 +3541,7 @@
         <v>169</v>
       </c>
       <c r="J25" s="24" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3565,7 +3565,7 @@
         <v>170</v>
       </c>
       <c r="J26" s="24" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3582,16 +3582,16 @@
         <v>175</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G27" s="25" t="s">
         <v>144</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" spans="2:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3599,7 +3599,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D28" s="25" t="s">
         <v>102</v>
@@ -3612,13 +3612,13 @@
         <v>130</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="I28" s="24" t="s">
         <v>172</v>
       </c>
       <c r="J28" s="24" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3635,7 +3635,7 @@
         <v>175</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G29" s="25" t="s">
         <v>144</v>
@@ -3644,7 +3644,7 @@
         <v>223</v>
       </c>
       <c r="J29" s="24" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="2:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3661,7 +3661,7 @@
         <v>175</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G30" s="25" t="s">
         <v>130</v>
@@ -3670,10 +3670,10 @@
         <v>222</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3690,7 +3690,7 @@
         <v>175</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G31" s="25" t="s">
         <v>124</v>
@@ -3702,7 +3702,7 @@
         <v>180</v>
       </c>
       <c r="J31" s="24" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="32" spans="2:11" s="29" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3726,10 +3726,10 @@
         <v>182</v>
       </c>
       <c r="J32" s="29" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="33" spans="2:11" s="29" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3746,19 +3746,19 @@
         <v>123</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G33" s="27" t="s">
         <v>130</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="K33" s="29" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="34" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3775,7 +3775,7 @@
         <v>123</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G34" s="25" t="s">
         <v>124</v>
@@ -3784,7 +3784,7 @@
         <v>185</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="35" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3792,7 +3792,7 @@
         <v>30</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D35" s="25" t="s">
         <v>102</v>
@@ -3801,7 +3801,7 @@
         <v>175</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G35" s="25" t="s">
         <v>130</v>
@@ -3810,7 +3810,7 @@
         <v>186</v>
       </c>
       <c r="J35" s="24" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3831,10 +3831,10 @@
         <v>124</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="J36" s="24" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37" spans="2:11" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -3851,19 +3851,19 @@
         <v>120</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G37" s="25" t="s">
         <v>130</v>
       </c>
       <c r="H37" s="26" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="J37" s="24" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="K37" s="24" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="38" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3880,7 +3880,7 @@
         <v>120</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G38" s="25" t="s">
         <v>130</v>
@@ -3889,10 +3889,10 @@
         <v>220</v>
       </c>
       <c r="J38" s="24" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="K38" s="24" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="39" spans="2:11" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3909,19 +3909,19 @@
         <v>123</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G39" s="21" t="s">
         <v>124</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="J39" s="23" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="K39" s="23" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="40" spans="2:11" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3942,10 +3942,10 @@
         <v>124</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="J40" s="23" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41" spans="2:11" s="29" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
@@ -3962,7 +3962,7 @@
         <v>123</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G41" s="27" t="s">
         <v>130</v>
@@ -3971,7 +3971,7 @@
         <v>227</v>
       </c>
       <c r="J41" s="29" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42" spans="2:11" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3979,7 +3979,7 @@
         <v>37</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D42" s="21" t="s">
         <v>103</v>
@@ -3995,7 +3995,7 @@
         <v>193</v>
       </c>
       <c r="J42" s="23" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4019,7 +4019,7 @@
         <v>195</v>
       </c>
       <c r="J43" s="23" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4043,7 +4043,7 @@
         <v>197</v>
       </c>
       <c r="J44" s="23" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4060,7 +4060,7 @@
         <v>120</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G45" s="21" t="s">
         <v>124</v>
@@ -4069,7 +4069,7 @@
         <v>202</v>
       </c>
       <c r="J45" s="23" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="46" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4086,16 +4086,16 @@
         <v>120</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G46" s="21" t="s">
         <v>124</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="J46" s="23" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="47" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4112,16 +4112,16 @@
         <v>120</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G47" s="21" t="s">
         <v>124</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="J47" s="23" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="48" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4138,16 +4138,16 @@
         <v>120</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G48" s="21" t="s">
         <v>130</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="J48" s="23" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="49" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4171,7 +4171,7 @@
         <v>204</v>
       </c>
       <c r="J49" s="23" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="50" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -4198,7 +4198,7 @@
         <v>206</v>
       </c>
       <c r="J50" s="24" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="51" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -4219,13 +4219,13 @@
         <v>130</v>
       </c>
       <c r="H51" s="26" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="I51" s="24" t="s">
         <v>208</v>
       </c>
       <c r="J51" s="24" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="52" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -4246,13 +4246,13 @@
         <v>124</v>
       </c>
       <c r="H52" s="26" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="I52" s="24" t="s">
         <v>210</v>
       </c>
       <c r="J52" s="24" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="53" spans="2:10" s="29" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -4260,7 +4260,7 @@
         <v>48</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D53" s="27" t="s">
         <v>102</v>
@@ -4273,13 +4273,13 @@
         <v>124</v>
       </c>
       <c r="H53" s="28" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="I53" s="29" t="s">
         <v>212</v>
       </c>
       <c r="J53" s="29" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="54" spans="2:10" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -4287,7 +4287,7 @@
         <v>49</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D54" s="21" t="s">
         <v>103</v>
@@ -4300,10 +4300,10 @@
         <v>156</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="J54" s="23" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="55" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4311,7 +4311,7 @@
         <v>50</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D55" s="21" t="s">
         <v>102</v>
@@ -4324,10 +4324,10 @@
         <v>144</v>
       </c>
       <c r="H55" s="22" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="J55" s="23" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="56" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4345,13 +4345,13 @@
       </c>
       <c r="F56" s="21"/>
       <c r="G56" s="21" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="H56" s="22" t="s">
         <v>214</v>
       </c>
       <c r="J56" s="23" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="57" spans="2:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4368,7 +4368,7 @@
         <v>175</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G57" s="21" t="s">
         <v>130</v>
@@ -4380,7 +4380,7 @@
         <v>217</v>
       </c>
       <c r="J57" s="23" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="58" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4397,16 +4397,16 @@
         <v>175</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G58" s="21" t="s">
         <v>144</v>
       </c>
       <c r="H58" s="22" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="J58" s="23" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="59" spans="2:10" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -4427,10 +4427,10 @@
         <v>130</v>
       </c>
       <c r="H59" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J59" s="23" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="60" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4438,7 +4438,7 @@
         <v>55</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D60" s="21" t="s">
         <v>102</v>
@@ -4451,10 +4451,10 @@
         <v>130</v>
       </c>
       <c r="H60" s="22" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J60" s="23" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="61" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4475,10 +4475,10 @@
         <v>130</v>
       </c>
       <c r="H61" s="22" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="J61" s="23" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="62" spans="2:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4499,10 +4499,10 @@
         <v>124</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="J62" s="23" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="63" spans="2:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4523,56 +4523,58 @@
         <v>124</v>
       </c>
       <c r="H63" s="22" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="J63" s="23" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B64" s="16">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B64" s="21">
         <v>59</v>
       </c>
-      <c r="C64" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="D64" s="16" t="s">
+      <c r="C64" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="D64" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="G64" s="16" t="s">
+      <c r="F64" s="21"/>
+      <c r="G64" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="H64" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="J64" s="14" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B65" s="16">
+      <c r="H64" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="J64" s="23" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B65" s="21">
         <v>60</v>
       </c>
-      <c r="C65" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="D65" s="16" t="s">
+      <c r="C65" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="D65" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="G65" s="16" t="s">
+      <c r="F65" s="21"/>
+      <c r="G65" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="H65" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="J65" s="14" t="s">
-        <v>337</v>
+      <c r="H65" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="J65" s="23" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="66" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -4580,7 +4582,7 @@
         <v>61</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D66" s="16" t="s">
         <v>102</v>
@@ -4592,10 +4594,10 @@
         <v>130</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>242</v>
+        <v>402</v>
       </c>
       <c r="J66" s="14" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="67" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -4603,7 +4605,7 @@
         <v>62</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D67" s="16" t="s">
         <v>103</v>
@@ -4612,13 +4614,13 @@
         <v>123</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>247</v>
+        <v>403</v>
       </c>
       <c r="J67" s="14" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="68" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4626,7 +4628,7 @@
         <v>63</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D68" s="16" t="s">
         <v>102</v>
@@ -4638,10 +4640,10 @@
         <v>124</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>244</v>
+        <v>404</v>
       </c>
       <c r="J68" s="14" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="69" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4649,7 +4651,7 @@
         <v>64</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D69" s="16" t="s">
         <v>102</v>
@@ -4661,10 +4663,10 @@
         <v>124</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J69" s="14" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="70" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4672,7 +4674,7 @@
         <v>65</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D70" s="16" t="s">
         <v>102</v>
@@ -4681,16 +4683,16 @@
         <v>123</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G70" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H70" s="15" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="J70" s="14" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.3">
@@ -4698,7 +4700,7 @@
         <v>66</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D71" s="16" t="s">
         <v>102</v>
@@ -4707,16 +4709,16 @@
         <v>123</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G71" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="J71" s="14" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.3">
@@ -4724,7 +4726,7 @@
         <v>67</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D72" s="16" t="s">
         <v>101</v>
@@ -4733,16 +4735,16 @@
         <v>123</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G72" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H72" s="15" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="J72" s="14" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.3">
@@ -4750,7 +4752,7 @@
         <v>68</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D73" s="16" t="s">
         <v>101</v>
@@ -4759,16 +4761,16 @@
         <v>175</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G73" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H73" s="15" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="J73" s="14" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.3">
@@ -4776,7 +4778,7 @@
         <v>69</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D74" s="16" t="s">
         <v>102</v>
@@ -4785,16 +4787,16 @@
         <v>175</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G74" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J74" s="14" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="75" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -4802,7 +4804,7 @@
         <v>70</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D75" s="16" t="s">
         <v>103</v>
@@ -4811,16 +4813,16 @@
         <v>123</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G75" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="J75" s="14" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="76" spans="2:10" ht="66" x14ac:dyDescent="0.3">
@@ -4828,7 +4830,7 @@
         <v>71</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D76" s="16" t="s">
         <v>103</v>
@@ -4840,10 +4842,10 @@
         <v>156</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="J76" s="14" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.3">
@@ -4851,7 +4853,7 @@
         <v>72</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D77" s="16" t="s">
         <v>101</v>
@@ -4860,16 +4862,16 @@
         <v>123</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G77" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="J77" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.3">
@@ -4877,7 +4879,7 @@
         <v>73</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D78" s="16" t="s">
         <v>102</v>
@@ -4886,16 +4888,16 @@
         <v>123</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G78" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="J78" s="14" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.3">
@@ -4903,7 +4905,7 @@
         <v>74</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D79" s="16" t="s">
         <v>101</v>
@@ -4912,16 +4914,16 @@
         <v>175</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G79" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="J79" s="14" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="80" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4929,7 +4931,7 @@
         <v>75</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D80" s="16" t="s">
         <v>102</v>
@@ -4938,16 +4940,16 @@
         <v>175</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G80" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="J80" s="14" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="81" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4955,7 +4957,7 @@
         <v>76</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D81" s="16" t="s">
         <v>102</v>
@@ -4964,16 +4966,16 @@
         <v>120</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G81" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="J81" s="14" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="82" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4996,7 +4998,7 @@
         <v>232</v>
       </c>
       <c r="J82" s="14" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="83" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5004,7 +5006,7 @@
         <v>78</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D83" s="16" t="s">
         <v>102</v>
@@ -5013,7 +5015,7 @@
         <v>229</v>
       </c>
       <c r="F83" s="16" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G83" s="16" t="s">
         <v>230</v>
@@ -5022,7 +5024,7 @@
         <v>233</v>
       </c>
       <c r="J83" s="14" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="84" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5030,7 +5032,7 @@
         <v>79</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D84" s="16" t="s">
         <v>102</v>
@@ -5042,10 +5044,10 @@
         <v>230</v>
       </c>
       <c r="H84" s="15" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="J84" s="14" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="85" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5053,7 +5055,7 @@
         <v>80</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D85" s="16" t="s">
         <v>103</v>
@@ -5062,16 +5064,16 @@
         <v>229</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G85" s="16" t="s">
         <v>234</v>
       </c>
       <c r="H85" s="15" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="J85" s="14" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="86" spans="2:10" s="29" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -5079,7 +5081,7 @@
         <v>81</v>
       </c>
       <c r="C86" s="27" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D86" s="27" t="s">
         <v>102</v>
@@ -5092,18 +5094,18 @@
         <v>124</v>
       </c>
       <c r="H86" s="28" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="I86" s="29" t="s">
         <v>212</v>
       </c>
       <c r="J86" s="29" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J88" s="14" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.3">
@@ -5155,34 +5157,34 @@
   <sheetData>
     <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="70"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="50">
         <v>1</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="58" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -5194,11 +5196,11 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="51"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
       <c r="H4" s="1" t="s">
         <v>3</v>
       </c>
@@ -5208,11 +5210,11 @@
     </row>
     <row r="5" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="52"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
       <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
@@ -5221,22 +5223,22 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="37">
+      <c r="B6" s="34">
         <v>2</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="40" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -5247,12 +5249,12 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="38"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
       <c r="H7" s="1" t="s">
         <v>3</v>
       </c>
@@ -5261,12 +5263,12 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="39"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
       <c r="H8" s="7" t="s">
         <v>4</v>
       </c>
@@ -5278,19 +5280,19 @@
       <c r="B9" s="50">
         <v>3</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="59" t="s">
+      <c r="G9" s="58" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -5302,11 +5304,11 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="51"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
       <c r="H10" s="1" t="s">
         <v>3</v>
       </c>
@@ -5316,11 +5318,11 @@
     </row>
     <row r="11" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="52"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
       <c r="H11" s="2" t="s">
         <v>4</v>
       </c>
@@ -5329,22 +5331,22 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="37">
+      <c r="B12" s="34">
         <v>4</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="46" t="s">
+      <c r="F12" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="40" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -5355,12 +5357,12 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="38"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
       <c r="H13" s="1" t="s">
         <v>3</v>
       </c>
@@ -5369,12 +5371,12 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="39"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
       <c r="H14" s="7" t="s">
         <v>4</v>
       </c>
@@ -5386,19 +5388,19 @@
       <c r="B15" s="50">
         <v>5</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="59" t="s">
+      <c r="F15" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="59" t="s">
+      <c r="G15" s="58" t="s">
         <v>31</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -5410,11 +5412,11 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="51"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="1" t="s">
         <v>3</v>
       </c>
@@ -5424,11 +5426,11 @@
     </row>
     <row r="17" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="52"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
       <c r="H17" s="2" t="s">
         <v>4</v>
       </c>
@@ -5437,22 +5439,22 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="37">
+      <c r="B18" s="34">
         <v>6</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="46" t="s">
+      <c r="F18" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="46" t="s">
+      <c r="G18" s="40" t="s">
         <v>61</v>
       </c>
       <c r="H18" s="4" t="s">
@@ -5463,12 +5465,12 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="38"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
       <c r="H19" s="1" t="s">
         <v>3</v>
       </c>
@@ -5477,12 +5479,12 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="39"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
       <c r="H20" s="7" t="s">
         <v>4</v>
       </c>
@@ -5494,19 +5496,19 @@
       <c r="B21" s="50">
         <v>7</v>
       </c>
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="44" t="s">
+      <c r="E21" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="40" t="s">
         <v>66</v>
       </c>
       <c r="H21" s="4" t="s">
@@ -5518,11 +5520,11 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="51"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
       <c r="H22" s="1" t="s">
         <v>3</v>
       </c>
@@ -5532,11 +5534,11 @@
     </row>
     <row r="23" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="52"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
       <c r="H23" s="7" t="s">
         <v>4</v>
       </c>
@@ -5545,22 +5547,22 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="37">
+      <c r="B24" s="34">
         <v>8</v>
       </c>
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="E24" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F24" s="59" t="s">
+      <c r="F24" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="59" t="s">
+      <c r="G24" s="58" t="s">
         <v>95</v>
       </c>
       <c r="H24" s="3" t="s">
@@ -5571,12 +5573,12 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="38"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
       <c r="H25" s="1" t="s">
         <v>3</v>
       </c>
@@ -5585,12 +5587,12 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="39"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
       <c r="H26" s="2" t="s">
         <v>4</v>
       </c>
@@ -5602,65 +5604,65 @@
       <c r="B27" s="50">
         <v>9</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="43" t="s">
+      <c r="D27" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="44" t="s">
+      <c r="E27" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="43" t="s">
+      <c r="F27" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G27" s="43" t="s">
+      <c r="G27" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="43" t="s">
+      <c r="H27" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="I27" s="56" t="s">
+      <c r="I27" s="65" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="51"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="57"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="66"/>
     </row>
     <row r="29" spans="2:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="52"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="58"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="67"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="37">
+      <c r="B30" s="34">
         <v>10</v>
       </c>
-      <c r="C30" s="61" t="s">
+      <c r="C30" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="43" t="s">
+      <c r="D30" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="44" t="s">
+      <c r="E30" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F30" s="43" t="s">
+      <c r="F30" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="43" t="s">
+      <c r="G30" s="47" t="s">
         <v>46</v>
       </c>
       <c r="H30" s="4" t="s">
@@ -5671,12 +5673,12 @@
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="38"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
       <c r="H31" s="1" t="s">
         <v>3</v>
       </c>
@@ -5685,12 +5687,12 @@
       </c>
     </row>
     <row r="32" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="39"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
       <c r="H32" s="7" t="s">
         <v>4</v>
       </c>
@@ -5702,19 +5704,19 @@
       <c r="B33" s="50">
         <v>11</v>
       </c>
-      <c r="C33" s="66" t="s">
+      <c r="C33" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="43" t="s">
+      <c r="D33" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="44" t="s">
+      <c r="E33" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F33" s="46" t="s">
+      <c r="F33" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G33" s="34" t="s">
+      <c r="G33" s="43" t="s">
         <v>50</v>
       </c>
       <c r="H33" s="4" t="s">
@@ -5726,11 +5728,11 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="51"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
       <c r="H34" s="1" t="s">
         <v>3</v>
       </c>
@@ -5740,11 +5742,11 @@
     </row>
     <row r="35" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="52"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
       <c r="H35" s="7" t="s">
         <v>4</v>
       </c>
@@ -5753,22 +5755,22 @@
       </c>
     </row>
     <row r="36" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="37">
+      <c r="B36" s="34">
         <v>12</v>
       </c>
-      <c r="C36" s="53" t="s">
+      <c r="C36" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="43" t="s">
+      <c r="D36" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E36" s="44" t="s">
+      <c r="E36" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F36" s="46" t="s">
+      <c r="F36" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G36" s="46" t="s">
+      <c r="G36" s="40" t="s">
         <v>84</v>
       </c>
       <c r="H36" s="4" t="s">
@@ -5779,12 +5781,12 @@
       </c>
     </row>
     <row r="37" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="38"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
       <c r="H37" s="1" t="s">
         <v>3</v>
       </c>
@@ -5793,12 +5795,12 @@
       </c>
     </row>
     <row r="38" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="39"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
       <c r="H38" s="7" t="s">
         <v>4</v>
       </c>
@@ -5810,19 +5812,19 @@
       <c r="B39" s="50">
         <v>13</v>
       </c>
-      <c r="C39" s="64" t="s">
+      <c r="C39" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="43" t="s">
+      <c r="D39" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E39" s="44" t="s">
+      <c r="E39" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F39" s="59" t="s">
+      <c r="F39" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="G39" s="67" t="s">
+      <c r="G39" s="63" t="s">
         <v>44</v>
       </c>
       <c r="H39" s="3" t="s">
@@ -5834,11 +5836,11 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="51"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
       <c r="H40" s="1" t="s">
         <v>3</v>
       </c>
@@ -5848,11 +5850,11 @@
     </row>
     <row r="41" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="52"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
       <c r="H41" s="2" t="s">
         <v>4</v>
       </c>
@@ -5861,22 +5863,22 @@
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="37">
+      <c r="B42" s="34">
         <v>14</v>
       </c>
-      <c r="C42" s="66" t="s">
+      <c r="C42" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="43" t="s">
+      <c r="D42" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E42" s="44" t="s">
+      <c r="E42" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F42" s="46" t="s">
+      <c r="F42" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="G42" s="34" t="s">
+      <c r="G42" s="43" t="s">
         <v>54</v>
       </c>
       <c r="H42" s="4" t="s">
@@ -5887,12 +5889,12 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="38"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
       <c r="H43" s="1" t="s">
         <v>3</v>
       </c>
@@ -5901,12 +5903,12 @@
       </c>
     </row>
     <row r="44" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="39"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
       <c r="H44" s="7" t="s">
         <v>4</v>
       </c>
@@ -5918,19 +5920,19 @@
       <c r="B45" s="50">
         <v>15</v>
       </c>
-      <c r="C45" s="64" t="s">
+      <c r="C45" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="43" t="s">
+      <c r="D45" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E45" s="44" t="s">
+      <c r="E45" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F45" s="59" t="s">
+      <c r="F45" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="G45" s="59" t="s">
+      <c r="G45" s="58" t="s">
         <v>45</v>
       </c>
       <c r="H45" s="3" t="s">
@@ -5942,11 +5944,11 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="51"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
       <c r="H46" s="1" t="s">
         <v>3</v>
       </c>
@@ -5956,11 +5958,11 @@
     </row>
     <row r="47" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="52"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
       <c r="H47" s="2" t="s">
         <v>4</v>
       </c>
@@ -5969,22 +5971,22 @@
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="37">
+      <c r="B48" s="34">
         <v>16</v>
       </c>
-      <c r="C48" s="53" t="s">
+      <c r="C48" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="43" t="s">
+      <c r="D48" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E48" s="44" t="s">
+      <c r="E48" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F48" s="46" t="s">
+      <c r="F48" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="G48" s="46" t="s">
+      <c r="G48" s="40" t="s">
         <v>56</v>
       </c>
       <c r="H48" s="4" t="s">
@@ -5995,12 +5997,12 @@
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="38"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
       <c r="H49" s="1" t="s">
         <v>3</v>
       </c>
@@ -6009,12 +6011,12 @@
       </c>
     </row>
     <row r="50" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="39"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
       <c r="H50" s="7" t="s">
         <v>4</v>
       </c>
@@ -6026,19 +6028,19 @@
       <c r="B51" s="50">
         <v>17</v>
       </c>
-      <c r="C51" s="53" t="s">
+      <c r="C51" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="43" t="s">
+      <c r="D51" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E51" s="44" t="s">
+      <c r="E51" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F51" s="46" t="s">
+      <c r="F51" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G51" s="46" t="s">
+      <c r="G51" s="40" t="s">
         <v>74</v>
       </c>
       <c r="H51" s="4" t="s">
@@ -6050,11 +6052,11 @@
     </row>
     <row r="52" spans="2:9" ht="33" x14ac:dyDescent="0.3">
       <c r="B52" s="51"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
       <c r="H52" s="1" t="s">
         <v>3</v>
       </c>
@@ -6064,11 +6066,11 @@
     </row>
     <row r="53" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="52"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
       <c r="H53" s="7" t="s">
         <v>4</v>
       </c>
@@ -6077,22 +6079,22 @@
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="37">
+      <c r="B54" s="34">
         <v>18</v>
       </c>
-      <c r="C54" s="53" t="s">
+      <c r="C54" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="43" t="s">
+      <c r="D54" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E54" s="44" t="s">
+      <c r="E54" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F54" s="46" t="s">
+      <c r="F54" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G54" s="34" t="s">
+      <c r="G54" s="43" t="s">
         <v>79</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -6103,12 +6105,12 @@
       </c>
     </row>
     <row r="55" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="38"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
       </c>
@@ -6117,12 +6119,12 @@
       </c>
     </row>
     <row r="56" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="39"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="45"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
       <c r="H56" s="7" t="s">
         <v>4</v>
       </c>
@@ -6134,19 +6136,19 @@
       <c r="B57" s="50">
         <v>19</v>
       </c>
-      <c r="C57" s="53" t="s">
+      <c r="C57" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="D57" s="43" t="s">
+      <c r="D57" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E57" s="44" t="s">
+      <c r="E57" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F57" s="46" t="s">
+      <c r="F57" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G57" s="46" t="s">
+      <c r="G57" s="40" t="s">
         <v>89</v>
       </c>
       <c r="H57" s="4" t="s">
@@ -6158,11 +6160,11 @@
     </row>
     <row r="58" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="51"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
       <c r="H58" s="1" t="s">
         <v>3</v>
       </c>
@@ -6172,11 +6174,11 @@
     </row>
     <row r="59" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="52"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
       <c r="H59" s="7" t="s">
         <v>4</v>
       </c>
@@ -6185,22 +6187,22 @@
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="37">
+      <c r="B60" s="34">
         <v>20</v>
       </c>
-      <c r="C60" s="40" t="s">
+      <c r="C60" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="D60" s="43" t="s">
+      <c r="D60" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E60" s="44" t="s">
+      <c r="E60" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F60" s="46" t="s">
+      <c r="F60" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="G60" s="34" t="s">
+      <c r="G60" s="43" t="s">
         <v>97</v>
       </c>
       <c r="H60" s="4" t="s">
@@ -6211,12 +6213,12 @@
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="38"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
       <c r="H61" s="1" t="s">
         <v>3</v>
       </c>
@@ -6225,12 +6227,12 @@
       </c>
     </row>
     <row r="62" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="39"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="45"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
       <c r="H62" s="7" t="s">
         <v>4</v>
       </c>
@@ -6239,22 +6241,22 @@
       </c>
     </row>
     <row r="63" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="37">
+      <c r="B63" s="34">
         <v>21</v>
       </c>
-      <c r="C63" s="71" t="s">
+      <c r="C63" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="D63" s="43" t="s">
+      <c r="D63" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E63" s="43" t="s">
+      <c r="E63" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="F63" s="43" t="s">
+      <c r="F63" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G63" s="47" t="s">
+      <c r="G63" s="71" t="s">
         <v>106</v>
       </c>
       <c r="H63" s="4" t="s">
@@ -6265,12 +6267,12 @@
       </c>
     </row>
     <row r="64" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="38"/>
-      <c r="C64" s="72"/>
-      <c r="D64" s="44"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="44"/>
-      <c r="G64" s="48"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="48"/>
+      <c r="E64" s="48"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="72"/>
       <c r="H64" s="1" t="s">
         <v>3</v>
       </c>
@@ -6279,12 +6281,12 @@
       </c>
     </row>
     <row r="65" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="39"/>
-      <c r="C65" s="73"/>
-      <c r="D65" s="45"/>
-      <c r="E65" s="45"/>
-      <c r="F65" s="45"/>
-      <c r="G65" s="49"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="73"/>
       <c r="H65" s="7" t="s">
         <v>4</v>
       </c>
@@ -6293,22 +6295,22 @@
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="37">
+      <c r="B66" s="34">
         <v>22</v>
       </c>
-      <c r="C66" s="40" t="s">
+      <c r="C66" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="D66" s="43" t="s">
+      <c r="D66" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E66" s="44" t="s">
+      <c r="E66" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F66" s="46" t="s">
+      <c r="F66" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="G66" s="34" t="s">
+      <c r="G66" s="43" t="s">
         <v>97</v>
       </c>
       <c r="H66" s="4" t="s">
@@ -6319,12 +6321,12 @@
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B67" s="38"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="44"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="48"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="41"/>
       <c r="H67" s="1" t="s">
         <v>3</v>
       </c>
@@ -6333,12 +6335,12 @@
       </c>
     </row>
     <row r="68" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="39"/>
-      <c r="C68" s="42"/>
-      <c r="D68" s="45"/>
-      <c r="E68" s="45"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
       <c r="H68" s="7" t="s">
         <v>4</v>
       </c>
@@ -6348,6 +6350,117 @@
     </row>
   </sheetData>
   <mergeCells count="135">
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="F51:F53"/>
     <mergeCell ref="B54:B56"/>
     <mergeCell ref="C54:C56"/>
     <mergeCell ref="F54:F56"/>
@@ -6372,117 +6485,6 @@
     <mergeCell ref="E42:E44"/>
     <mergeCell ref="E48:E50"/>
     <mergeCell ref="E51:E53"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="G57:G59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
+++ b/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8504CA6D-2E2D-4B06-A49B-A5B898EFF703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB820AF-816D-4FEC-A360-6B434714B20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9C64985F-4ADF-44CE-9572-0998CB538CFF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="409">
   <si>
     <t>건물</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1051,10 +1051,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>쓰러스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마나 2 회복 
 만복도 10 회복</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1438,15 +1434,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>재료 손질</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나이프와 포크를 마구잡이로 휘두르는 이미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시식회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1748,8 +1736,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>만찬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬치구이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료손질</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1, 2, 3열의 적을 2로 공격
-- 모든 적에게 찌르기 3턴간</t>
+- 모든 적에게 찌르기 5턴간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찌르기 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자르기 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조건 추뎀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찌르기 상태
+자르기 상태</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2478,6 +2495,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2487,6 +2513,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2496,17 +2561,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2515,87 +2613,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2932,15 +2949,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E337946-5511-4AD1-8A21-3FB7BE6153D1}">
-  <dimension ref="B1:K89"/>
+  <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="14" customWidth="1"/>
+    <col min="1" max="1" width="15" style="14" customWidth="1"/>
     <col min="2" max="2" width="5.125" style="16" customWidth="1"/>
     <col min="3" max="3" width="16.875" style="16" customWidth="1"/>
     <col min="4" max="4" width="11.75" style="16" customWidth="1"/>
@@ -2953,7 +2970,7 @@
     <col min="12" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C1" s="16" t="s">
         <v>142</v>
       </c>
@@ -2971,7 +2988,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="33" t="s">
         <v>122</v>
       </c>
@@ -2983,8 +3000,8 @@
       <c r="H2" s="33"/>
       <c r="I2" s="33"/>
     </row>
-    <row r="3" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="30" t="s">
         <v>110</v>
       </c>
@@ -2997,7 +3014,7 @@
       <c r="I4" s="31"/>
       <c r="J4" s="32"/>
     </row>
-    <row r="5" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="17" t="s">
         <v>113</v>
       </c>
@@ -3011,7 +3028,7 @@
         <v>141</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>119</v>
@@ -3026,61 +3043,67 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="2:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="21">
+    <row r="6" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>405</v>
+      </c>
+      <c r="B6" s="27">
         <v>1</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21" t="s">
+      <c r="F6" s="27"/>
+      <c r="G6" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="29" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="2:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="21">
+    <row r="7" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="B7" s="27">
         <v>2</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21" t="s">
+      <c r="F7" s="27"/>
+      <c r="G7" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="J7" s="23" t="s">
+      <c r="J7" s="29" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="2:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="21">
         <v>3</v>
       </c>
@@ -3107,7 +3130,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="2:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="21">
         <v>4</v>
       </c>
@@ -3134,7 +3157,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="B10" s="21">
         <v>5</v>
       </c>
@@ -3155,13 +3178,13 @@
         <v>131</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J10" s="23" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="2:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="21">
         <v>6</v>
       </c>
@@ -3175,7 +3198,7 @@
         <v>133</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G11" s="21" t="s">
         <v>124</v>
@@ -3190,7 +3213,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="B12" s="21">
         <v>7</v>
       </c>
@@ -3204,7 +3227,7 @@
         <v>120</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G12" s="21" t="s">
         <v>124</v>
@@ -3213,10 +3236,10 @@
         <v>218</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="B13" s="21">
         <v>8</v>
       </c>
@@ -3230,7 +3253,7 @@
         <v>120</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G13" s="21" t="s">
         <v>124</v>
@@ -3239,10 +3262,10 @@
         <v>219</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="25">
         <v>9</v>
       </c>
@@ -3263,10 +3286,10 @@
         <v>160</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25">
         <v>10</v>
       </c>
@@ -3284,13 +3307,13 @@
         <v>144</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="25">
         <v>11</v>
       </c>
@@ -3308,13 +3331,13 @@
         <v>130</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="B17" s="25">
         <v>12</v>
       </c>
@@ -3329,16 +3352,16 @@
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="27" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B18" s="25">
         <v>13</v>
       </c>
@@ -3352,7 +3375,7 @@
         <v>123</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G18" s="25" t="s">
         <v>144</v>
@@ -3361,10 +3384,10 @@
         <v>157</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="B19" s="25">
         <v>14</v>
       </c>
@@ -3378,7 +3401,7 @@
         <v>123</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G19" s="25" t="s">
         <v>124</v>
@@ -3387,10 +3410,10 @@
         <v>159</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="B20" s="25">
         <v>15</v>
       </c>
@@ -3404,7 +3427,7 @@
         <v>123</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G20" s="25" t="s">
         <v>130</v>
@@ -3413,10 +3436,10 @@
         <v>162</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="B21" s="25">
         <v>16</v>
       </c>
@@ -3430,19 +3453,22 @@
         <v>123</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G21" s="25" t="s">
         <v>124</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" s="29" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="29" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="s">
+        <v>407</v>
+      </c>
       <c r="B22" s="27">
         <v>17</v>
       </c>
@@ -3456,7 +3482,7 @@
         <v>123</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G22" s="27" t="s">
         <v>124</v>
@@ -3465,10 +3491,10 @@
         <v>165</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="B23" s="25">
         <v>18</v>
       </c>
@@ -3482,19 +3508,19 @@
         <v>123</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G23" s="25" t="s">
         <v>130</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B24" s="25">
         <v>19</v>
       </c>
@@ -3508,19 +3534,19 @@
         <v>123</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G24" s="25" t="s">
         <v>130</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="J24" s="24" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="B25" s="25">
         <v>20</v>
       </c>
@@ -3541,10 +3567,10 @@
         <v>169</v>
       </c>
       <c r="J25" s="24" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="25">
         <v>21</v>
       </c>
@@ -3565,10 +3591,10 @@
         <v>170</v>
       </c>
       <c r="J26" s="24" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="25">
         <v>22</v>
       </c>
@@ -3582,24 +3608,24 @@
         <v>175</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G27" s="25" t="s">
         <v>144</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B28" s="25">
         <v>23</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D28" s="25" t="s">
         <v>102</v>
@@ -3612,16 +3638,16 @@
         <v>130</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I28" s="24" t="s">
         <v>172</v>
       </c>
       <c r="J28" s="24" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="B29" s="25">
         <v>24</v>
       </c>
@@ -3635,7 +3661,7 @@
         <v>175</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G29" s="25" t="s">
         <v>144</v>
@@ -3644,10 +3670,10 @@
         <v>223</v>
       </c>
       <c r="J29" s="24" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B30" s="25">
         <v>25</v>
       </c>
@@ -3661,7 +3687,7 @@
         <v>175</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G30" s="25" t="s">
         <v>130</v>
@@ -3670,13 +3696,13 @@
         <v>222</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="B31" s="25">
         <v>26</v>
       </c>
@@ -3690,7 +3716,7 @@
         <v>175</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G31" s="25" t="s">
         <v>124</v>
@@ -3702,10 +3728,10 @@
         <v>180</v>
       </c>
       <c r="J31" s="24" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" s="29" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="29" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="B32" s="27">
         <v>27</v>
       </c>
@@ -3726,10 +3752,10 @@
         <v>182</v>
       </c>
       <c r="J32" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="33" spans="2:11" s="29" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3746,19 +3772,19 @@
         <v>123</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G33" s="27" t="s">
         <v>130</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K33" s="29" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="34" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3775,7 +3801,7 @@
         <v>123</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G34" s="25" t="s">
         <v>124</v>
@@ -3784,7 +3810,7 @@
         <v>185</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3792,7 +3818,7 @@
         <v>30</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D35" s="25" t="s">
         <v>102</v>
@@ -3801,7 +3827,7 @@
         <v>175</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G35" s="25" t="s">
         <v>130</v>
@@ -3810,7 +3836,7 @@
         <v>186</v>
       </c>
       <c r="J35" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="36" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3831,10 +3857,10 @@
         <v>124</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="J36" s="24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="37" spans="2:11" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -3851,19 +3877,19 @@
         <v>120</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G37" s="25" t="s">
         <v>130</v>
       </c>
       <c r="H37" s="26" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="J37" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K37" s="24" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="38" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3880,7 +3906,7 @@
         <v>120</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G38" s="25" t="s">
         <v>130</v>
@@ -3889,10 +3915,10 @@
         <v>220</v>
       </c>
       <c r="J38" s="24" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K38" s="24" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="39" spans="2:11" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3909,19 +3935,19 @@
         <v>123</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G39" s="21" t="s">
         <v>124</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="J39" s="23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K39" s="23" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="40" spans="2:11" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3942,10 +3968,10 @@
         <v>124</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="J40" s="23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="41" spans="2:11" s="29" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
@@ -3962,7 +3988,7 @@
         <v>123</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G41" s="27" t="s">
         <v>130</v>
@@ -3971,7 +3997,7 @@
         <v>227</v>
       </c>
       <c r="J41" s="29" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="42" spans="2:11" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3979,7 +4005,7 @@
         <v>37</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D42" s="21" t="s">
         <v>103</v>
@@ -3995,7 +4021,7 @@
         <v>193</v>
       </c>
       <c r="J42" s="23" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4019,7 +4045,7 @@
         <v>195</v>
       </c>
       <c r="J43" s="23" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4043,7 +4069,7 @@
         <v>197</v>
       </c>
       <c r="J44" s="23" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="45" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4060,7 +4086,7 @@
         <v>120</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G45" s="21" t="s">
         <v>124</v>
@@ -4069,7 +4095,7 @@
         <v>202</v>
       </c>
       <c r="J45" s="23" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="46" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4086,16 +4112,16 @@
         <v>120</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G46" s="21" t="s">
         <v>124</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="J46" s="23" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="47" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4112,16 +4138,16 @@
         <v>120</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G47" s="21" t="s">
         <v>124</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="J47" s="23" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="48" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4138,16 +4164,16 @@
         <v>120</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G48" s="21" t="s">
         <v>130</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="J48" s="23" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="49" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4171,7 +4197,7 @@
         <v>204</v>
       </c>
       <c r="J49" s="23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="50" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -4198,7 +4224,7 @@
         <v>206</v>
       </c>
       <c r="J50" s="24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="51" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -4219,13 +4245,13 @@
         <v>130</v>
       </c>
       <c r="H51" s="26" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="I51" s="24" t="s">
         <v>208</v>
       </c>
       <c r="J51" s="24" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="52" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -4246,13 +4272,13 @@
         <v>124</v>
       </c>
       <c r="H52" s="26" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="I52" s="24" t="s">
         <v>210</v>
       </c>
       <c r="J52" s="24" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="53" spans="2:10" s="29" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -4260,7 +4286,7 @@
         <v>48</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D53" s="27" t="s">
         <v>102</v>
@@ -4273,13 +4299,13 @@
         <v>124</v>
       </c>
       <c r="H53" s="28" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="I53" s="29" t="s">
         <v>212</v>
       </c>
       <c r="J53" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="54" spans="2:10" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -4287,7 +4313,7 @@
         <v>49</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D54" s="21" t="s">
         <v>103</v>
@@ -4300,10 +4326,10 @@
         <v>156</v>
       </c>
       <c r="H54" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="J54" s="23" t="s">
         <v>317</v>
-      </c>
-      <c r="J54" s="23" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="55" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4311,7 +4337,7 @@
         <v>50</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D55" s="21" t="s">
         <v>102</v>
@@ -4324,10 +4350,10 @@
         <v>144</v>
       </c>
       <c r="H55" s="22" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="J55" s="23" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="56" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4345,13 +4371,13 @@
       </c>
       <c r="F56" s="21"/>
       <c r="G56" s="21" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H56" s="22" t="s">
         <v>214</v>
       </c>
       <c r="J56" s="23" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="57" spans="2:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4368,7 +4394,7 @@
         <v>175</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G57" s="21" t="s">
         <v>130</v>
@@ -4380,7 +4406,7 @@
         <v>217</v>
       </c>
       <c r="J57" s="23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="58" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4397,16 +4423,16 @@
         <v>175</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G58" s="21" t="s">
         <v>144</v>
       </c>
       <c r="H58" s="22" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="J58" s="23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59" spans="2:10" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -4430,7 +4456,7 @@
         <v>238</v>
       </c>
       <c r="J59" s="23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="60" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4438,7 +4464,7 @@
         <v>55</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D60" s="21" t="s">
         <v>102</v>
@@ -4451,10 +4477,10 @@
         <v>130</v>
       </c>
       <c r="H60" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="J60" s="23" t="s">
         <v>326</v>
-      </c>
-      <c r="J60" s="23" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="61" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4475,10 +4501,10 @@
         <v>130</v>
       </c>
       <c r="H61" s="22" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="J61" s="23" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="62" spans="2:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4499,10 +4525,10 @@
         <v>124</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J62" s="23" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="63" spans="2:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4523,10 +4549,10 @@
         <v>124</v>
       </c>
       <c r="H63" s="22" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="J63" s="23" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="64" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4534,7 +4560,7 @@
         <v>59</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D64" s="21" t="s">
         <v>102</v>
@@ -4547,13 +4573,13 @@
         <v>237</v>
       </c>
       <c r="H64" s="22" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="J64" s="23" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="B65" s="21">
         <v>60</v>
       </c>
@@ -4571,87 +4597,99 @@
         <v>144</v>
       </c>
       <c r="H65" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="J65" s="23" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="29" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A66" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="B66" s="27">
+        <v>61</v>
+      </c>
+      <c r="C66" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="D66" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E66" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="H66" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="J66" s="29" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="29" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A67" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="B67" s="27">
+        <v>62</v>
+      </c>
+      <c r="C67" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="D67" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="E67" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="H67" s="28" t="s">
         <v>400</v>
       </c>
-      <c r="J65" s="23" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B66" s="16">
-        <v>61</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="D66" s="16" t="s">
+      <c r="J67" s="29" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="29" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A68" s="29" t="s">
+        <v>405</v>
+      </c>
+      <c r="B68" s="27">
+        <v>63</v>
+      </c>
+      <c r="C68" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="D68" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E68" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="G66" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="H66" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="J66" s="14" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B67" s="16">
-        <v>62</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="G67" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="H67" s="15" t="s">
-        <v>403</v>
-      </c>
-      <c r="J67" s="14" t="s">
+      <c r="F68" s="27"/>
+      <c r="G68" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="H68" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="J68" s="29" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="68" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B68" s="16">
-        <v>63</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="D68" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="G68" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H68" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="J68" s="14" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B69" s="16">
         <v>64</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D69" s="16" t="s">
         <v>102</v>
@@ -4663,18 +4701,18 @@
         <v>124</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J69" s="14" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B70" s="16">
         <v>65</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D70" s="16" t="s">
         <v>102</v>
@@ -4683,24 +4721,24 @@
         <v>123</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G70" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H70" s="15" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="J70" s="14" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B71" s="16">
         <v>66</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D71" s="16" t="s">
         <v>102</v>
@@ -4709,24 +4747,24 @@
         <v>123</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G71" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J71" s="14" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B72" s="16">
         <v>67</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D72" s="16" t="s">
         <v>101</v>
@@ -4735,24 +4773,24 @@
         <v>123</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G72" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H72" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J72" s="14" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B73" s="16">
         <v>68</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D73" s="16" t="s">
         <v>101</v>
@@ -4761,24 +4799,24 @@
         <v>175</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G73" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H73" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J73" s="14" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B74" s="16">
         <v>69</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D74" s="16" t="s">
         <v>102</v>
@@ -4787,24 +4825,24 @@
         <v>175</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G74" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J74" s="14" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="75" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B75" s="16">
         <v>70</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D75" s="16" t="s">
         <v>103</v>
@@ -4813,24 +4851,24 @@
         <v>123</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G75" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J75" s="14" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="76" spans="2:10" ht="66" x14ac:dyDescent="0.3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="B76" s="16">
         <v>71</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D76" s="16" t="s">
         <v>103</v>
@@ -4842,18 +4880,18 @@
         <v>156</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J76" s="14" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B77" s="16">
         <v>72</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D77" s="16" t="s">
         <v>101</v>
@@ -4862,24 +4900,24 @@
         <v>123</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G77" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J77" s="14" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B78" s="16">
         <v>73</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D78" s="16" t="s">
         <v>102</v>
@@ -4888,24 +4926,24 @@
         <v>123</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G78" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J78" s="14" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B79" s="16">
         <v>74</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D79" s="16" t="s">
         <v>101</v>
@@ -4914,24 +4952,24 @@
         <v>175</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G79" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J79" s="14" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="80" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B80" s="16">
         <v>75</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D80" s="16" t="s">
         <v>102</v>
@@ -4940,16 +4978,16 @@
         <v>175</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G80" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J80" s="14" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="81" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4957,7 +4995,7 @@
         <v>76</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D81" s="16" t="s">
         <v>102</v>
@@ -4966,16 +5004,16 @@
         <v>120</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G81" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J81" s="14" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="82" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4998,7 +5036,7 @@
         <v>232</v>
       </c>
       <c r="J82" s="14" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="83" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5006,7 +5044,7 @@
         <v>78</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D83" s="16" t="s">
         <v>102</v>
@@ -5015,7 +5053,7 @@
         <v>229</v>
       </c>
       <c r="F83" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G83" s="16" t="s">
         <v>230</v>
@@ -5024,7 +5062,7 @@
         <v>233</v>
       </c>
       <c r="J83" s="14" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="84" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5032,7 +5070,7 @@
         <v>79</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D84" s="16" t="s">
         <v>102</v>
@@ -5044,10 +5082,10 @@
         <v>230</v>
       </c>
       <c r="H84" s="15" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="J84" s="14" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="85" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5055,7 +5093,7 @@
         <v>80</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D85" s="16" t="s">
         <v>103</v>
@@ -5064,16 +5102,16 @@
         <v>229</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G85" s="16" t="s">
         <v>234</v>
       </c>
       <c r="H85" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J85" s="14" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="86" spans="2:10" s="29" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -5081,7 +5119,7 @@
         <v>81</v>
       </c>
       <c r="C86" s="27" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D86" s="27" t="s">
         <v>102</v>
@@ -5094,18 +5132,18 @@
         <v>124</v>
       </c>
       <c r="H86" s="28" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="I86" s="29" t="s">
         <v>212</v>
       </c>
       <c r="J86" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J88" s="14" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.3">
@@ -5157,34 +5195,34 @@
   <sheetData>
     <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="70"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="50">
         <v>1</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="F3" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="59" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -5196,11 +5234,11 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="51"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
       <c r="H4" s="1" t="s">
         <v>3</v>
       </c>
@@ -5210,11 +5248,11 @@
     </row>
     <row r="5" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="52"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
       <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
@@ -5223,22 +5261,22 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="34">
+      <c r="B6" s="37">
         <v>2</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="46" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -5249,12 +5287,12 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="35"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="1" t="s">
         <v>3</v>
       </c>
@@ -5263,12 +5301,12 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="36"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
       <c r="H8" s="7" t="s">
         <v>4</v>
       </c>
@@ -5280,19 +5318,19 @@
       <c r="B9" s="50">
         <v>3</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="58" t="s">
+      <c r="G9" s="59" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -5304,11 +5342,11 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="51"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
       <c r="H10" s="1" t="s">
         <v>3</v>
       </c>
@@ -5318,11 +5356,11 @@
     </row>
     <row r="11" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="52"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
       <c r="H11" s="2" t="s">
         <v>4</v>
       </c>
@@ -5331,22 +5369,22 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="34">
+      <c r="B12" s="37">
         <v>4</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="G12" s="46" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -5357,12 +5395,12 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="35"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
       <c r="H13" s="1" t="s">
         <v>3</v>
       </c>
@@ -5371,12 +5409,12 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="36"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
       <c r="H14" s="7" t="s">
         <v>4</v>
       </c>
@@ -5388,19 +5426,19 @@
       <c r="B15" s="50">
         <v>5</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="48" t="s">
+      <c r="E15" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="58" t="s">
+      <c r="F15" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="58" t="s">
+      <c r="G15" s="59" t="s">
         <v>31</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -5412,11 +5450,11 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="51"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
       <c r="H16" s="1" t="s">
         <v>3</v>
       </c>
@@ -5426,11 +5464,11 @@
     </row>
     <row r="17" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="52"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
       <c r="H17" s="2" t="s">
         <v>4</v>
       </c>
@@ -5439,22 +5477,22 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="34">
+      <c r="B18" s="37">
         <v>6</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="C18" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="40" t="s">
+      <c r="G18" s="46" t="s">
         <v>61</v>
       </c>
       <c r="H18" s="4" t="s">
@@ -5465,12 +5503,12 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="35"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
       <c r="H19" s="1" t="s">
         <v>3</v>
       </c>
@@ -5479,12 +5517,12 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="36"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
       <c r="H20" s="7" t="s">
         <v>4</v>
       </c>
@@ -5496,19 +5534,19 @@
       <c r="B21" s="50">
         <v>7</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="48" t="s">
+      <c r="E21" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="40" t="s">
+      <c r="G21" s="46" t="s">
         <v>66</v>
       </c>
       <c r="H21" s="4" t="s">
@@ -5520,11 +5558,11 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="51"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
       <c r="H22" s="1" t="s">
         <v>3</v>
       </c>
@@ -5534,11 +5572,11 @@
     </row>
     <row r="23" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="52"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
       <c r="H23" s="7" t="s">
         <v>4</v>
       </c>
@@ -5547,22 +5585,22 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="34">
+      <c r="B24" s="37">
         <v>8</v>
       </c>
-      <c r="C24" s="53" t="s">
+      <c r="C24" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="47" t="s">
+      <c r="D24" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F24" s="58" t="s">
+      <c r="F24" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="58" t="s">
+      <c r="G24" s="59" t="s">
         <v>95</v>
       </c>
       <c r="H24" s="3" t="s">
@@ -5573,12 +5611,12 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="35"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
       <c r="H25" s="1" t="s">
         <v>3</v>
       </c>
@@ -5587,12 +5625,12 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="36"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
       <c r="H26" s="2" t="s">
         <v>4</v>
       </c>
@@ -5604,65 +5642,65 @@
       <c r="B27" s="50">
         <v>9</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="D27" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="48" t="s">
+      <c r="E27" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="47" t="s">
+      <c r="F27" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="G27" s="47" t="s">
+      <c r="G27" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="47" t="s">
+      <c r="H27" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="I27" s="65" t="s">
+      <c r="I27" s="56" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="51"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="66"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="57"/>
     </row>
     <row r="29" spans="2:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="52"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="67"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="58"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="34">
+      <c r="B30" s="37">
         <v>10</v>
       </c>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="47" t="s">
+      <c r="D30" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="48" t="s">
+      <c r="E30" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F30" s="47" t="s">
+      <c r="F30" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="47" t="s">
+      <c r="G30" s="43" t="s">
         <v>46</v>
       </c>
       <c r="H30" s="4" t="s">
@@ -5673,12 +5711,12 @@
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="35"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
       <c r="H31" s="1" t="s">
         <v>3</v>
       </c>
@@ -5687,12 +5725,12 @@
       </c>
     </row>
     <row r="32" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="36"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
       <c r="H32" s="7" t="s">
         <v>4</v>
       </c>
@@ -5704,19 +5742,19 @@
       <c r="B33" s="50">
         <v>11</v>
       </c>
-      <c r="C33" s="64" t="s">
+      <c r="C33" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="47" t="s">
+      <c r="D33" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="48" t="s">
+      <c r="E33" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F33" s="40" t="s">
+      <c r="F33" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G33" s="43" t="s">
+      <c r="G33" s="34" t="s">
         <v>50</v>
       </c>
       <c r="H33" s="4" t="s">
@@ -5728,11 +5766,11 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="51"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
       <c r="H34" s="1" t="s">
         <v>3</v>
       </c>
@@ -5742,11 +5780,11 @@
     </row>
     <row r="35" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="52"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
       <c r="H35" s="7" t="s">
         <v>4</v>
       </c>
@@ -5755,22 +5793,22 @@
       </c>
     </row>
     <row r="36" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="34">
+      <c r="B36" s="37">
         <v>12</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="47" t="s">
+      <c r="D36" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E36" s="48" t="s">
+      <c r="E36" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F36" s="40" t="s">
+      <c r="F36" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G36" s="40" t="s">
+      <c r="G36" s="46" t="s">
         <v>84</v>
       </c>
       <c r="H36" s="4" t="s">
@@ -5781,12 +5819,12 @@
       </c>
     </row>
     <row r="37" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="35"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
       <c r="H37" s="1" t="s">
         <v>3</v>
       </c>
@@ -5795,12 +5833,12 @@
       </c>
     </row>
     <row r="38" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="36"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
       <c r="H38" s="7" t="s">
         <v>4</v>
       </c>
@@ -5812,19 +5850,19 @@
       <c r="B39" s="50">
         <v>13</v>
       </c>
-      <c r="C39" s="53" t="s">
+      <c r="C39" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="47" t="s">
+      <c r="D39" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E39" s="48" t="s">
+      <c r="E39" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F39" s="58" t="s">
+      <c r="F39" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="G39" s="63" t="s">
+      <c r="G39" s="67" t="s">
         <v>44</v>
       </c>
       <c r="H39" s="3" t="s">
@@ -5836,11 +5874,11 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="51"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
       <c r="H40" s="1" t="s">
         <v>3</v>
       </c>
@@ -5850,11 +5888,11 @@
     </row>
     <row r="41" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="52"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
       <c r="H41" s="2" t="s">
         <v>4</v>
       </c>
@@ -5863,22 +5901,22 @@
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="34">
+      <c r="B42" s="37">
         <v>14</v>
       </c>
-      <c r="C42" s="64" t="s">
+      <c r="C42" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="47" t="s">
+      <c r="D42" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E42" s="48" t="s">
+      <c r="E42" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F42" s="40" t="s">
+      <c r="F42" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G42" s="43" t="s">
+      <c r="G42" s="34" t="s">
         <v>54</v>
       </c>
       <c r="H42" s="4" t="s">
@@ -5889,12 +5927,12 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="35"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
       <c r="H43" s="1" t="s">
         <v>3</v>
       </c>
@@ -5903,12 +5941,12 @@
       </c>
     </row>
     <row r="44" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="36"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
       <c r="H44" s="7" t="s">
         <v>4</v>
       </c>
@@ -5920,19 +5958,19 @@
       <c r="B45" s="50">
         <v>15</v>
       </c>
-      <c r="C45" s="53" t="s">
+      <c r="C45" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="47" t="s">
+      <c r="D45" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E45" s="48" t="s">
+      <c r="E45" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F45" s="58" t="s">
+      <c r="F45" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="G45" s="58" t="s">
+      <c r="G45" s="59" t="s">
         <v>45</v>
       </c>
       <c r="H45" s="3" t="s">
@@ -5944,11 +5982,11 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="51"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
       <c r="H46" s="1" t="s">
         <v>3</v>
       </c>
@@ -5958,11 +5996,11 @@
     </row>
     <row r="47" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="52"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
       <c r="H47" s="2" t="s">
         <v>4</v>
       </c>
@@ -5971,22 +6009,22 @@
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="34">
+      <c r="B48" s="37">
         <v>16</v>
       </c>
-      <c r="C48" s="37" t="s">
+      <c r="C48" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="47" t="s">
+      <c r="D48" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E48" s="48" t="s">
+      <c r="E48" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F48" s="40" t="s">
+      <c r="F48" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G48" s="40" t="s">
+      <c r="G48" s="46" t="s">
         <v>56</v>
       </c>
       <c r="H48" s="4" t="s">
@@ -5997,12 +6035,12 @@
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="35"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
       <c r="H49" s="1" t="s">
         <v>3</v>
       </c>
@@ -6011,12 +6049,12 @@
       </c>
     </row>
     <row r="50" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="36"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
       <c r="H50" s="7" t="s">
         <v>4</v>
       </c>
@@ -6028,19 +6066,19 @@
       <c r="B51" s="50">
         <v>17</v>
       </c>
-      <c r="C51" s="37" t="s">
+      <c r="C51" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="47" t="s">
+      <c r="D51" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E51" s="48" t="s">
+      <c r="E51" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F51" s="40" t="s">
+      <c r="F51" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G51" s="40" t="s">
+      <c r="G51" s="46" t="s">
         <v>74</v>
       </c>
       <c r="H51" s="4" t="s">
@@ -6052,11 +6090,11 @@
     </row>
     <row r="52" spans="2:9" ht="33" x14ac:dyDescent="0.3">
       <c r="B52" s="51"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
       <c r="H52" s="1" t="s">
         <v>3</v>
       </c>
@@ -6066,11 +6104,11 @@
     </row>
     <row r="53" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="52"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
       <c r="H53" s="7" t="s">
         <v>4</v>
       </c>
@@ -6079,22 +6117,22 @@
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="34">
+      <c r="B54" s="37">
         <v>18</v>
       </c>
-      <c r="C54" s="37" t="s">
+      <c r="C54" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="47" t="s">
+      <c r="D54" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E54" s="48" t="s">
+      <c r="E54" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F54" s="40" t="s">
+      <c r="F54" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G54" s="43" t="s">
+      <c r="G54" s="34" t="s">
         <v>79</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -6105,12 +6143,12 @@
       </c>
     </row>
     <row r="55" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="35"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
       </c>
@@ -6119,12 +6157,12 @@
       </c>
     </row>
     <row r="56" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="36"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="42"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
       <c r="H56" s="7" t="s">
         <v>4</v>
       </c>
@@ -6136,19 +6174,19 @@
       <c r="B57" s="50">
         <v>19</v>
       </c>
-      <c r="C57" s="37" t="s">
+      <c r="C57" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="D57" s="47" t="s">
+      <c r="D57" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E57" s="48" t="s">
+      <c r="E57" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F57" s="40" t="s">
+      <c r="F57" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G57" s="40" t="s">
+      <c r="G57" s="46" t="s">
         <v>89</v>
       </c>
       <c r="H57" s="4" t="s">
@@ -6160,11 +6198,11 @@
     </row>
     <row r="58" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="51"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="48"/>
-      <c r="E58" s="48"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
       <c r="H58" s="1" t="s">
         <v>3</v>
       </c>
@@ -6174,11 +6212,11 @@
     </row>
     <row r="59" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="52"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
       <c r="H59" s="7" t="s">
         <v>4</v>
       </c>
@@ -6187,22 +6225,22 @@
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="34">
+      <c r="B60" s="37">
         <v>20</v>
       </c>
-      <c r="C60" s="68" t="s">
+      <c r="C60" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="D60" s="47" t="s">
+      <c r="D60" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E60" s="48" t="s">
+      <c r="E60" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F60" s="40" t="s">
+      <c r="F60" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G60" s="43" t="s">
+      <c r="G60" s="34" t="s">
         <v>97</v>
       </c>
       <c r="H60" s="4" t="s">
@@ -6213,12 +6251,12 @@
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="35"/>
-      <c r="C61" s="69"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="48"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="41"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
       <c r="H61" s="1" t="s">
         <v>3</v>
       </c>
@@ -6227,12 +6265,12 @@
       </c>
     </row>
     <row r="62" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="36"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="42"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
       <c r="H62" s="7" t="s">
         <v>4</v>
       </c>
@@ -6241,22 +6279,22 @@
       </c>
     </row>
     <row r="63" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="34">
+      <c r="B63" s="37">
         <v>21</v>
       </c>
-      <c r="C63" s="44" t="s">
+      <c r="C63" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="D63" s="47" t="s">
+      <c r="D63" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E63" s="47" t="s">
+      <c r="E63" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="F63" s="47" t="s">
+      <c r="F63" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="G63" s="71" t="s">
+      <c r="G63" s="47" t="s">
         <v>106</v>
       </c>
       <c r="H63" s="4" t="s">
@@ -6267,12 +6305,12 @@
       </c>
     </row>
     <row r="64" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="35"/>
-      <c r="C64" s="45"/>
-      <c r="D64" s="48"/>
-      <c r="E64" s="48"/>
-      <c r="F64" s="48"/>
-      <c r="G64" s="72"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="44"/>
+      <c r="G64" s="48"/>
       <c r="H64" s="1" t="s">
         <v>3</v>
       </c>
@@ -6281,12 +6319,12 @@
       </c>
     </row>
     <row r="65" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="36"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="73"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="73"/>
+      <c r="D65" s="45"/>
+      <c r="E65" s="45"/>
+      <c r="F65" s="45"/>
+      <c r="G65" s="49"/>
       <c r="H65" s="7" t="s">
         <v>4</v>
       </c>
@@ -6295,22 +6333,22 @@
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="34">
+      <c r="B66" s="37">
         <v>22</v>
       </c>
-      <c r="C66" s="68" t="s">
+      <c r="C66" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="D66" s="47" t="s">
+      <c r="D66" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E66" s="48" t="s">
+      <c r="E66" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F66" s="40" t="s">
+      <c r="F66" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G66" s="43" t="s">
+      <c r="G66" s="34" t="s">
         <v>97</v>
       </c>
       <c r="H66" s="4" t="s">
@@ -6321,12 +6359,12 @@
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B67" s="35"/>
-      <c r="C67" s="69"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="48"/>
-      <c r="F67" s="41"/>
-      <c r="G67" s="41"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
       <c r="H67" s="1" t="s">
         <v>3</v>
       </c>
@@ -6335,12 +6373,12 @@
       </c>
     </row>
     <row r="68" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="36"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="49"/>
-      <c r="E68" s="49"/>
-      <c r="F68" s="42"/>
-      <c r="G68" s="42"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="45"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
       <c r="H68" s="7" t="s">
         <v>4</v>
       </c>
@@ -6350,44 +6388,79 @@
     </row>
   </sheetData>
   <mergeCells count="135">
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D6:D8"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="D15:D17"/>
@@ -6412,79 +6485,44 @@
     <mergeCell ref="F15:F17"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="F18:F20"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="G57:G59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
+++ b/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB820AF-816D-4FEC-A360-6B434714B20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01CF6E6-15DF-42CE-96AB-E5DFFAB18899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9C64985F-4ADF-44CE-9572-0998CB538CFF}"/>
   </bookViews>
@@ -1051,11 +1051,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마나 2 회복 
-만복도 10 회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>타락한 연회장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1767,6 +1762,11 @@
   <si>
     <t>찌르기 상태
 자르기 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">마나 2 회복 
+만복도 10 회복 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2495,22 +2495,106 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2523,96 +2607,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2952,7 +2952,7 @@
   <dimension ref="A1:K89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3028,7 +3028,7 @@
         <v>141</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>119</v>
@@ -3045,7 +3045,7 @@
     </row>
     <row r="6" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B6" s="27">
         <v>1</v>
@@ -3075,7 +3075,7 @@
     </row>
     <row r="7" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B7" s="27">
         <v>2</v>
@@ -3178,7 +3178,7 @@
         <v>131</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J10" s="23" t="s">
         <v>139</v>
@@ -3198,7 +3198,7 @@
         <v>133</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G11" s="21" t="s">
         <v>124</v>
@@ -3227,7 +3227,7 @@
         <v>120</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G12" s="21" t="s">
         <v>124</v>
@@ -3236,7 +3236,7 @@
         <v>218</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3253,7 +3253,7 @@
         <v>120</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G13" s="21" t="s">
         <v>124</v>
@@ -3262,7 +3262,7 @@
         <v>219</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3286,7 +3286,7 @@
         <v>160</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3307,10 +3307,10 @@
         <v>144</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3331,10 +3331,10 @@
         <v>130</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3352,13 +3352,13 @@
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="27" t="s">
+        <v>373</v>
+      </c>
+      <c r="H17" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="H17" s="26" t="s">
-        <v>375</v>
-      </c>
       <c r="J17" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3375,7 +3375,7 @@
         <v>123</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G18" s="25" t="s">
         <v>144</v>
@@ -3384,7 +3384,7 @@
         <v>157</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3401,7 +3401,7 @@
         <v>123</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G19" s="25" t="s">
         <v>124</v>
@@ -3410,7 +3410,7 @@
         <v>159</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3427,7 +3427,7 @@
         <v>123</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G20" s="25" t="s">
         <v>130</v>
@@ -3436,7 +3436,7 @@
         <v>162</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -3453,21 +3453,21 @@
         <v>123</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G21" s="25" t="s">
         <v>124</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="29" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B22" s="27">
         <v>17</v>
@@ -3482,7 +3482,7 @@
         <v>123</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G22" s="27" t="s">
         <v>124</v>
@@ -3491,7 +3491,7 @@
         <v>165</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -3508,16 +3508,16 @@
         <v>123</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G23" s="25" t="s">
         <v>130</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3534,16 +3534,16 @@
         <v>123</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G24" s="25" t="s">
         <v>130</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J24" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3567,7 +3567,7 @@
         <v>169</v>
       </c>
       <c r="J25" s="24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3591,7 +3591,7 @@
         <v>170</v>
       </c>
       <c r="J26" s="24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3608,16 +3608,16 @@
         <v>175</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G27" s="25" t="s">
         <v>144</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3625,7 +3625,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D28" s="25" t="s">
         <v>102</v>
@@ -3638,13 +3638,13 @@
         <v>130</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I28" s="24" t="s">
         <v>172</v>
       </c>
       <c r="J28" s="24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3661,7 +3661,7 @@
         <v>175</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G29" s="25" t="s">
         <v>144</v>
@@ -3670,7 +3670,7 @@
         <v>223</v>
       </c>
       <c r="J29" s="24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3687,7 +3687,7 @@
         <v>175</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G30" s="25" t="s">
         <v>130</v>
@@ -3696,10 +3696,10 @@
         <v>222</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3716,7 +3716,7 @@
         <v>175</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G31" s="25" t="s">
         <v>124</v>
@@ -3728,7 +3728,7 @@
         <v>180</v>
       </c>
       <c r="J31" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="29" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3752,10 +3752,10 @@
         <v>182</v>
       </c>
       <c r="J32" s="29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="33" spans="2:11" s="29" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3772,19 +3772,19 @@
         <v>123</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G33" s="27" t="s">
         <v>130</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K33" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="34" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3801,7 +3801,7 @@
         <v>123</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G34" s="25" t="s">
         <v>124</v>
@@ -3810,7 +3810,7 @@
         <v>185</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3818,7 +3818,7 @@
         <v>30</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D35" s="25" t="s">
         <v>102</v>
@@ -3827,7 +3827,7 @@
         <v>175</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G35" s="25" t="s">
         <v>130</v>
@@ -3836,7 +3836,7 @@
         <v>186</v>
       </c>
       <c r="J35" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="36" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3857,10 +3857,10 @@
         <v>124</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J36" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="37" spans="2:11" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -3877,19 +3877,19 @@
         <v>120</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G37" s="25" t="s">
         <v>130</v>
       </c>
       <c r="H37" s="26" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J37" s="24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K37" s="24" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="38" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3906,7 +3906,7 @@
         <v>120</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G38" s="25" t="s">
         <v>130</v>
@@ -3915,10 +3915,10 @@
         <v>220</v>
       </c>
       <c r="J38" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K38" s="24" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="39" spans="2:11" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3935,19 +3935,19 @@
         <v>123</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G39" s="21" t="s">
         <v>124</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J39" s="23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K39" s="23" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="40" spans="2:11" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3968,10 +3968,10 @@
         <v>124</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J40" s="23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41" spans="2:11" s="29" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
@@ -3988,7 +3988,7 @@
         <v>123</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G41" s="27" t="s">
         <v>130</v>
@@ -3997,7 +3997,7 @@
         <v>227</v>
       </c>
       <c r="J41" s="29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="42" spans="2:11" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4005,7 +4005,7 @@
         <v>37</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D42" s="21" t="s">
         <v>103</v>
@@ -4021,7 +4021,7 @@
         <v>193</v>
       </c>
       <c r="J42" s="23" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4045,7 +4045,7 @@
         <v>195</v>
       </c>
       <c r="J43" s="23" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4069,7 +4069,7 @@
         <v>197</v>
       </c>
       <c r="J44" s="23" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="45" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4086,7 +4086,7 @@
         <v>120</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G45" s="21" t="s">
         <v>124</v>
@@ -4095,7 +4095,7 @@
         <v>202</v>
       </c>
       <c r="J45" s="23" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="46" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4112,16 +4112,16 @@
         <v>120</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G46" s="21" t="s">
         <v>124</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J46" s="23" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="47" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4138,16 +4138,16 @@
         <v>120</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G47" s="21" t="s">
         <v>124</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J47" s="23" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4164,16 +4164,16 @@
         <v>120</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G48" s="21" t="s">
         <v>130</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J48" s="23" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="49" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4197,7 +4197,7 @@
         <v>204</v>
       </c>
       <c r="J49" s="23" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="50" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -4224,7 +4224,7 @@
         <v>206</v>
       </c>
       <c r="J50" s="24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="51" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -4245,13 +4245,13 @@
         <v>130</v>
       </c>
       <c r="H51" s="26" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I51" s="24" t="s">
         <v>208</v>
       </c>
       <c r="J51" s="24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="52" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -4272,13 +4272,13 @@
         <v>124</v>
       </c>
       <c r="H52" s="26" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I52" s="24" t="s">
         <v>210</v>
       </c>
       <c r="J52" s="24" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="53" spans="2:10" s="29" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -4286,7 +4286,7 @@
         <v>48</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D53" s="27" t="s">
         <v>102</v>
@@ -4299,13 +4299,13 @@
         <v>124</v>
       </c>
       <c r="H53" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I53" s="29" t="s">
         <v>212</v>
       </c>
       <c r="J53" s="29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="54" spans="2:10" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -4313,7 +4313,7 @@
         <v>49</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D54" s="21" t="s">
         <v>103</v>
@@ -4326,10 +4326,10 @@
         <v>156</v>
       </c>
       <c r="H54" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="J54" s="23" t="s">
         <v>316</v>
-      </c>
-      <c r="J54" s="23" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="55" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4337,7 +4337,7 @@
         <v>50</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D55" s="21" t="s">
         <v>102</v>
@@ -4350,10 +4350,10 @@
         <v>144</v>
       </c>
       <c r="H55" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J55" s="23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="56" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4371,13 +4371,13 @@
       </c>
       <c r="F56" s="21"/>
       <c r="G56" s="21" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H56" s="22" t="s">
         <v>214</v>
       </c>
       <c r="J56" s="23" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="57" spans="2:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4394,7 +4394,7 @@
         <v>175</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G57" s="21" t="s">
         <v>130</v>
@@ -4406,7 +4406,7 @@
         <v>217</v>
       </c>
       <c r="J57" s="23" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="58" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4423,16 +4423,16 @@
         <v>175</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G58" s="21" t="s">
         <v>144</v>
       </c>
       <c r="H58" s="22" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J58" s="23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="59" spans="2:10" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -4456,7 +4456,7 @@
         <v>238</v>
       </c>
       <c r="J59" s="23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="60" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4464,7 +4464,7 @@
         <v>55</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D60" s="21" t="s">
         <v>102</v>
@@ -4477,10 +4477,10 @@
         <v>130</v>
       </c>
       <c r="H60" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="J60" s="23" t="s">
         <v>325</v>
-      </c>
-      <c r="J60" s="23" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="61" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4501,10 +4501,10 @@
         <v>130</v>
       </c>
       <c r="H61" s="22" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J61" s="23" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62" spans="2:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4525,10 +4525,10 @@
         <v>124</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J62" s="23" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="63" spans="2:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4549,10 +4549,10 @@
         <v>124</v>
       </c>
       <c r="H63" s="22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J63" s="23" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="64" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4560,7 +4560,7 @@
         <v>59</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D64" s="21" t="s">
         <v>102</v>
@@ -4573,10 +4573,10 @@
         <v>237</v>
       </c>
       <c r="H64" s="22" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J64" s="23" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="65" spans="1:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4597,21 +4597,21 @@
         <v>144</v>
       </c>
       <c r="H65" s="22" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J65" s="23" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="66" spans="1:10" s="29" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A66" s="29" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B66" s="27">
         <v>61</v>
       </c>
       <c r="C66" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D66" s="27" t="s">
         <v>102</v>
@@ -4624,21 +4624,21 @@
         <v>130</v>
       </c>
       <c r="H66" s="28" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J66" s="29" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="67" spans="1:10" s="29" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A67" s="29" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B67" s="27">
         <v>62</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D67" s="27" t="s">
         <v>103</v>
@@ -4651,21 +4651,21 @@
         <v>156</v>
       </c>
       <c r="H67" s="28" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J67" s="29" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="68" spans="1:10" s="29" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A68" s="29" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B68" s="27">
         <v>63</v>
       </c>
       <c r="C68" s="27" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D68" s="27" t="s">
         <v>102</v>
@@ -4678,10 +4678,10 @@
         <v>124</v>
       </c>
       <c r="H68" s="28" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J68" s="29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -4689,7 +4689,7 @@
         <v>64</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D69" s="16" t="s">
         <v>102</v>
@@ -4701,10 +4701,10 @@
         <v>124</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>240</v>
+        <v>408</v>
       </c>
       <c r="J69" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -4712,7 +4712,7 @@
         <v>65</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D70" s="16" t="s">
         <v>102</v>
@@ -4721,16 +4721,16 @@
         <v>123</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G70" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H70" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="J70" s="14" t="s">
         <v>338</v>
-      </c>
-      <c r="J70" s="14" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -4738,7 +4738,7 @@
         <v>66</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D71" s="16" t="s">
         <v>102</v>
@@ -4747,16 +4747,16 @@
         <v>123</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G71" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H71" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="J71" s="14" t="s">
         <v>341</v>
-      </c>
-      <c r="J71" s="14" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -4764,7 +4764,7 @@
         <v>67</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D72" s="16" t="s">
         <v>101</v>
@@ -4773,16 +4773,16 @@
         <v>123</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G72" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H72" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J72" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -4790,7 +4790,7 @@
         <v>68</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D73" s="16" t="s">
         <v>101</v>
@@ -4799,16 +4799,16 @@
         <v>175</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G73" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H73" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J73" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -4816,7 +4816,7 @@
         <v>69</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D74" s="16" t="s">
         <v>102</v>
@@ -4825,16 +4825,16 @@
         <v>175</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G74" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J74" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -4842,7 +4842,7 @@
         <v>70</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D75" s="16" t="s">
         <v>103</v>
@@ -4851,16 +4851,16 @@
         <v>123</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G75" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J75" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="66" x14ac:dyDescent="0.3">
@@ -4868,7 +4868,7 @@
         <v>71</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D76" s="16" t="s">
         <v>103</v>
@@ -4880,10 +4880,10 @@
         <v>156</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J76" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -4891,7 +4891,7 @@
         <v>72</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D77" s="16" t="s">
         <v>101</v>
@@ -4900,16 +4900,16 @@
         <v>123</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G77" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J77" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -4917,7 +4917,7 @@
         <v>73</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D78" s="16" t="s">
         <v>102</v>
@@ -4926,16 +4926,16 @@
         <v>123</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G78" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J78" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -4943,7 +4943,7 @@
         <v>74</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D79" s="16" t="s">
         <v>101</v>
@@ -4952,16 +4952,16 @@
         <v>175</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G79" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J79" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -4969,7 +4969,7 @@
         <v>75</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D80" s="16" t="s">
         <v>102</v>
@@ -4978,16 +4978,16 @@
         <v>175</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G80" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J80" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="81" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4995,7 +4995,7 @@
         <v>76</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D81" s="16" t="s">
         <v>102</v>
@@ -5004,16 +5004,16 @@
         <v>120</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G81" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J81" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="82" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5036,7 +5036,7 @@
         <v>232</v>
       </c>
       <c r="J82" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="83" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5044,7 +5044,7 @@
         <v>78</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D83" s="16" t="s">
         <v>102</v>
@@ -5053,7 +5053,7 @@
         <v>229</v>
       </c>
       <c r="F83" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G83" s="16" t="s">
         <v>230</v>
@@ -5062,7 +5062,7 @@
         <v>233</v>
       </c>
       <c r="J83" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="84" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5070,7 +5070,7 @@
         <v>79</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D84" s="16" t="s">
         <v>102</v>
@@ -5082,10 +5082,10 @@
         <v>230</v>
       </c>
       <c r="H84" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J84" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="85" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5093,7 +5093,7 @@
         <v>80</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D85" s="16" t="s">
         <v>103</v>
@@ -5102,16 +5102,16 @@
         <v>229</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G85" s="16" t="s">
         <v>234</v>
       </c>
       <c r="H85" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J85" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="86" spans="2:10" s="29" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -5119,7 +5119,7 @@
         <v>81</v>
       </c>
       <c r="C86" s="27" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D86" s="27" t="s">
         <v>102</v>
@@ -5132,18 +5132,18 @@
         <v>124</v>
       </c>
       <c r="H86" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I86" s="29" t="s">
         <v>212</v>
       </c>
       <c r="J86" s="29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J88" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.3">
@@ -5195,34 +5195,34 @@
   <sheetData>
     <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="70"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="50">
         <v>1</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="58" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -5234,11 +5234,11 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="51"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
       <c r="H4" s="1" t="s">
         <v>3</v>
       </c>
@@ -5248,11 +5248,11 @@
     </row>
     <row r="5" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="52"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
       <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
@@ -5261,22 +5261,22 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="37">
+      <c r="B6" s="34">
         <v>2</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="40" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -5287,12 +5287,12 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="38"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
       <c r="H7" s="1" t="s">
         <v>3</v>
       </c>
@@ -5301,12 +5301,12 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="39"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
       <c r="H8" s="7" t="s">
         <v>4</v>
       </c>
@@ -5318,19 +5318,19 @@
       <c r="B9" s="50">
         <v>3</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="59" t="s">
+      <c r="G9" s="58" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -5342,11 +5342,11 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="51"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
       <c r="H10" s="1" t="s">
         <v>3</v>
       </c>
@@ -5356,11 +5356,11 @@
     </row>
     <row r="11" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="52"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
       <c r="H11" s="2" t="s">
         <v>4</v>
       </c>
@@ -5369,22 +5369,22 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="37">
+      <c r="B12" s="34">
         <v>4</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="46" t="s">
+      <c r="F12" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="40" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -5395,12 +5395,12 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="38"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
       <c r="H13" s="1" t="s">
         <v>3</v>
       </c>
@@ -5409,12 +5409,12 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="39"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
       <c r="H14" s="7" t="s">
         <v>4</v>
       </c>
@@ -5426,19 +5426,19 @@
       <c r="B15" s="50">
         <v>5</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="59" t="s">
+      <c r="F15" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="59" t="s">
+      <c r="G15" s="58" t="s">
         <v>31</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -5450,11 +5450,11 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="51"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="1" t="s">
         <v>3</v>
       </c>
@@ -5464,11 +5464,11 @@
     </row>
     <row r="17" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="52"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
       <c r="H17" s="2" t="s">
         <v>4</v>
       </c>
@@ -5477,22 +5477,22 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="37">
+      <c r="B18" s="34">
         <v>6</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="46" t="s">
+      <c r="F18" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="46" t="s">
+      <c r="G18" s="40" t="s">
         <v>61</v>
       </c>
       <c r="H18" s="4" t="s">
@@ -5503,12 +5503,12 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="38"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
       <c r="H19" s="1" t="s">
         <v>3</v>
       </c>
@@ -5517,12 +5517,12 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="39"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
       <c r="H20" s="7" t="s">
         <v>4</v>
       </c>
@@ -5534,19 +5534,19 @@
       <c r="B21" s="50">
         <v>7</v>
       </c>
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="44" t="s">
+      <c r="E21" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="40" t="s">
         <v>66</v>
       </c>
       <c r="H21" s="4" t="s">
@@ -5558,11 +5558,11 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="51"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
       <c r="H22" s="1" t="s">
         <v>3</v>
       </c>
@@ -5572,11 +5572,11 @@
     </row>
     <row r="23" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="52"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
       <c r="H23" s="7" t="s">
         <v>4</v>
       </c>
@@ -5585,22 +5585,22 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="37">
+      <c r="B24" s="34">
         <v>8</v>
       </c>
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="E24" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F24" s="59" t="s">
+      <c r="F24" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="59" t="s">
+      <c r="G24" s="58" t="s">
         <v>95</v>
       </c>
       <c r="H24" s="3" t="s">
@@ -5611,12 +5611,12 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="38"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
       <c r="H25" s="1" t="s">
         <v>3</v>
       </c>
@@ -5625,12 +5625,12 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="39"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
       <c r="H26" s="2" t="s">
         <v>4</v>
       </c>
@@ -5642,65 +5642,65 @@
       <c r="B27" s="50">
         <v>9</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="43" t="s">
+      <c r="D27" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="44" t="s">
+      <c r="E27" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="43" t="s">
+      <c r="F27" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G27" s="43" t="s">
+      <c r="G27" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="43" t="s">
+      <c r="H27" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="I27" s="56" t="s">
+      <c r="I27" s="65" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="51"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="57"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="66"/>
     </row>
     <row r="29" spans="2:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="52"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="58"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="67"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="37">
+      <c r="B30" s="34">
         <v>10</v>
       </c>
-      <c r="C30" s="61" t="s">
+      <c r="C30" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="43" t="s">
+      <c r="D30" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="44" t="s">
+      <c r="E30" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F30" s="43" t="s">
+      <c r="F30" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="43" t="s">
+      <c r="G30" s="47" t="s">
         <v>46</v>
       </c>
       <c r="H30" s="4" t="s">
@@ -5711,12 +5711,12 @@
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="38"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
       <c r="H31" s="1" t="s">
         <v>3</v>
       </c>
@@ -5725,12 +5725,12 @@
       </c>
     </row>
     <row r="32" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="39"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
       <c r="H32" s="7" t="s">
         <v>4</v>
       </c>
@@ -5742,19 +5742,19 @@
       <c r="B33" s="50">
         <v>11</v>
       </c>
-      <c r="C33" s="66" t="s">
+      <c r="C33" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="43" t="s">
+      <c r="D33" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="44" t="s">
+      <c r="E33" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F33" s="46" t="s">
+      <c r="F33" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G33" s="34" t="s">
+      <c r="G33" s="43" t="s">
         <v>50</v>
       </c>
       <c r="H33" s="4" t="s">
@@ -5766,11 +5766,11 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="51"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
       <c r="H34" s="1" t="s">
         <v>3</v>
       </c>
@@ -5780,11 +5780,11 @@
     </row>
     <row r="35" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="52"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
       <c r="H35" s="7" t="s">
         <v>4</v>
       </c>
@@ -5793,22 +5793,22 @@
       </c>
     </row>
     <row r="36" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="37">
+      <c r="B36" s="34">
         <v>12</v>
       </c>
-      <c r="C36" s="53" t="s">
+      <c r="C36" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="43" t="s">
+      <c r="D36" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E36" s="44" t="s">
+      <c r="E36" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F36" s="46" t="s">
+      <c r="F36" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G36" s="46" t="s">
+      <c r="G36" s="40" t="s">
         <v>84</v>
       </c>
       <c r="H36" s="4" t="s">
@@ -5819,12 +5819,12 @@
       </c>
     </row>
     <row r="37" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="38"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
       <c r="H37" s="1" t="s">
         <v>3</v>
       </c>
@@ -5833,12 +5833,12 @@
       </c>
     </row>
     <row r="38" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="39"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
       <c r="H38" s="7" t="s">
         <v>4</v>
       </c>
@@ -5850,19 +5850,19 @@
       <c r="B39" s="50">
         <v>13</v>
       </c>
-      <c r="C39" s="64" t="s">
+      <c r="C39" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="43" t="s">
+      <c r="D39" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E39" s="44" t="s">
+      <c r="E39" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F39" s="59" t="s">
+      <c r="F39" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="G39" s="67" t="s">
+      <c r="G39" s="63" t="s">
         <v>44</v>
       </c>
       <c r="H39" s="3" t="s">
@@ -5874,11 +5874,11 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="51"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
       <c r="H40" s="1" t="s">
         <v>3</v>
       </c>
@@ -5888,11 +5888,11 @@
     </row>
     <row r="41" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="52"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
       <c r="H41" s="2" t="s">
         <v>4</v>
       </c>
@@ -5901,22 +5901,22 @@
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="37">
+      <c r="B42" s="34">
         <v>14</v>
       </c>
-      <c r="C42" s="66" t="s">
+      <c r="C42" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="43" t="s">
+      <c r="D42" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E42" s="44" t="s">
+      <c r="E42" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F42" s="46" t="s">
+      <c r="F42" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="G42" s="34" t="s">
+      <c r="G42" s="43" t="s">
         <v>54</v>
       </c>
       <c r="H42" s="4" t="s">
@@ -5927,12 +5927,12 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="38"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
       <c r="H43" s="1" t="s">
         <v>3</v>
       </c>
@@ -5941,12 +5941,12 @@
       </c>
     </row>
     <row r="44" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="39"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
       <c r="H44" s="7" t="s">
         <v>4</v>
       </c>
@@ -5958,19 +5958,19 @@
       <c r="B45" s="50">
         <v>15</v>
       </c>
-      <c r="C45" s="64" t="s">
+      <c r="C45" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="43" t="s">
+      <c r="D45" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E45" s="44" t="s">
+      <c r="E45" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F45" s="59" t="s">
+      <c r="F45" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="G45" s="59" t="s">
+      <c r="G45" s="58" t="s">
         <v>45</v>
       </c>
       <c r="H45" s="3" t="s">
@@ -5982,11 +5982,11 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="51"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
       <c r="H46" s="1" t="s">
         <v>3</v>
       </c>
@@ -5996,11 +5996,11 @@
     </row>
     <row r="47" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="52"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
       <c r="H47" s="2" t="s">
         <v>4</v>
       </c>
@@ -6009,22 +6009,22 @@
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="37">
+      <c r="B48" s="34">
         <v>16</v>
       </c>
-      <c r="C48" s="53" t="s">
+      <c r="C48" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="43" t="s">
+      <c r="D48" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E48" s="44" t="s">
+      <c r="E48" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F48" s="46" t="s">
+      <c r="F48" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="G48" s="46" t="s">
+      <c r="G48" s="40" t="s">
         <v>56</v>
       </c>
       <c r="H48" s="4" t="s">
@@ -6035,12 +6035,12 @@
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="38"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
       <c r="H49" s="1" t="s">
         <v>3</v>
       </c>
@@ -6049,12 +6049,12 @@
       </c>
     </row>
     <row r="50" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="39"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
       <c r="H50" s="7" t="s">
         <v>4</v>
       </c>
@@ -6066,19 +6066,19 @@
       <c r="B51" s="50">
         <v>17</v>
       </c>
-      <c r="C51" s="53" t="s">
+      <c r="C51" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="43" t="s">
+      <c r="D51" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E51" s="44" t="s">
+      <c r="E51" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F51" s="46" t="s">
+      <c r="F51" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G51" s="46" t="s">
+      <c r="G51" s="40" t="s">
         <v>74</v>
       </c>
       <c r="H51" s="4" t="s">
@@ -6090,11 +6090,11 @@
     </row>
     <row r="52" spans="2:9" ht="33" x14ac:dyDescent="0.3">
       <c r="B52" s="51"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
       <c r="H52" s="1" t="s">
         <v>3</v>
       </c>
@@ -6104,11 +6104,11 @@
     </row>
     <row r="53" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="52"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
       <c r="H53" s="7" t="s">
         <v>4</v>
       </c>
@@ -6117,22 +6117,22 @@
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="37">
+      <c r="B54" s="34">
         <v>18</v>
       </c>
-      <c r="C54" s="53" t="s">
+      <c r="C54" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="43" t="s">
+      <c r="D54" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E54" s="44" t="s">
+      <c r="E54" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F54" s="46" t="s">
+      <c r="F54" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G54" s="34" t="s">
+      <c r="G54" s="43" t="s">
         <v>79</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -6143,12 +6143,12 @@
       </c>
     </row>
     <row r="55" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="38"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
       </c>
@@ -6157,12 +6157,12 @@
       </c>
     </row>
     <row r="56" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="39"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="45"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
       <c r="H56" s="7" t="s">
         <v>4</v>
       </c>
@@ -6174,19 +6174,19 @@
       <c r="B57" s="50">
         <v>19</v>
       </c>
-      <c r="C57" s="53" t="s">
+      <c r="C57" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="D57" s="43" t="s">
+      <c r="D57" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E57" s="44" t="s">
+      <c r="E57" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F57" s="46" t="s">
+      <c r="F57" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G57" s="46" t="s">
+      <c r="G57" s="40" t="s">
         <v>89</v>
       </c>
       <c r="H57" s="4" t="s">
@@ -6198,11 +6198,11 @@
     </row>
     <row r="58" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="51"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
       <c r="H58" s="1" t="s">
         <v>3</v>
       </c>
@@ -6212,11 +6212,11 @@
     </row>
     <row r="59" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="52"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
       <c r="H59" s="7" t="s">
         <v>4</v>
       </c>
@@ -6225,22 +6225,22 @@
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="37">
+      <c r="B60" s="34">
         <v>20</v>
       </c>
-      <c r="C60" s="40" t="s">
+      <c r="C60" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="D60" s="43" t="s">
+      <c r="D60" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E60" s="44" t="s">
+      <c r="E60" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F60" s="46" t="s">
+      <c r="F60" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="G60" s="34" t="s">
+      <c r="G60" s="43" t="s">
         <v>97</v>
       </c>
       <c r="H60" s="4" t="s">
@@ -6251,12 +6251,12 @@
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="38"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
       <c r="H61" s="1" t="s">
         <v>3</v>
       </c>
@@ -6265,12 +6265,12 @@
       </c>
     </row>
     <row r="62" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="39"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="45"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
       <c r="H62" s="7" t="s">
         <v>4</v>
       </c>
@@ -6279,22 +6279,22 @@
       </c>
     </row>
     <row r="63" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="37">
+      <c r="B63" s="34">
         <v>21</v>
       </c>
-      <c r="C63" s="71" t="s">
+      <c r="C63" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="D63" s="43" t="s">
+      <c r="D63" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E63" s="43" t="s">
+      <c r="E63" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="F63" s="43" t="s">
+      <c r="F63" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G63" s="47" t="s">
+      <c r="G63" s="71" t="s">
         <v>106</v>
       </c>
       <c r="H63" s="4" t="s">
@@ -6305,12 +6305,12 @@
       </c>
     </row>
     <row r="64" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="38"/>
-      <c r="C64" s="72"/>
-      <c r="D64" s="44"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="44"/>
-      <c r="G64" s="48"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="48"/>
+      <c r="E64" s="48"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="72"/>
       <c r="H64" s="1" t="s">
         <v>3</v>
       </c>
@@ -6319,12 +6319,12 @@
       </c>
     </row>
     <row r="65" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="39"/>
-      <c r="C65" s="73"/>
-      <c r="D65" s="45"/>
-      <c r="E65" s="45"/>
-      <c r="F65" s="45"/>
-      <c r="G65" s="49"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="73"/>
       <c r="H65" s="7" t="s">
         <v>4</v>
       </c>
@@ -6333,22 +6333,22 @@
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="37">
+      <c r="B66" s="34">
         <v>22</v>
       </c>
-      <c r="C66" s="40" t="s">
+      <c r="C66" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="D66" s="43" t="s">
+      <c r="D66" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="E66" s="44" t="s">
+      <c r="E66" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F66" s="46" t="s">
+      <c r="F66" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="G66" s="34" t="s">
+      <c r="G66" s="43" t="s">
         <v>97</v>
       </c>
       <c r="H66" s="4" t="s">
@@ -6359,12 +6359,12 @@
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B67" s="38"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="44"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="48"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="41"/>
       <c r="H67" s="1" t="s">
         <v>3</v>
       </c>
@@ -6373,12 +6373,12 @@
       </c>
     </row>
     <row r="68" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="39"/>
-      <c r="C68" s="42"/>
-      <c r="D68" s="45"/>
-      <c r="E68" s="45"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
       <c r="H68" s="7" t="s">
         <v>4</v>
       </c>
@@ -6388,6 +6388,117 @@
     </row>
   </sheetData>
   <mergeCells count="135">
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="F51:F53"/>
     <mergeCell ref="B54:B56"/>
     <mergeCell ref="C54:C56"/>
     <mergeCell ref="F54:F56"/>
@@ -6412,117 +6523,6 @@
     <mergeCell ref="E42:E44"/>
     <mergeCell ref="E48:E50"/>
     <mergeCell ref="E51:E53"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="G57:G59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
+++ b/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01CF6E6-15DF-42CE-96AB-E5DFFAB18899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BD4DDB-DE01-40C2-9936-F1E357989031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9C64985F-4ADF-44CE-9572-0998CB538CFF}"/>
   </bookViews>
@@ -1449,11 +1449,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전열을 공격, 적에게 가한 피해만큼 체력 회복 
-만복도 10 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>적 아래에서 입을 크게 벌리고 있는 루시 이미지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1765,8 +1760,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">마나 2 회복 
+    <t xml:space="preserve">마나 1 회복 
 만복도 10 회복 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전열에 2공격 3회, 적에게 공격을 가할 때마다 만복도 5증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2952,7 +2951,7 @@
   <dimension ref="A1:K89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3045,7 +3044,7 @@
     </row>
     <row r="6" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B6" s="27">
         <v>1</v>
@@ -3075,7 +3074,7 @@
     </row>
     <row r="7" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B7" s="27">
         <v>2</v>
@@ -3178,7 +3177,7 @@
         <v>131</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J10" s="23" t="s">
         <v>139</v>
@@ -3307,7 +3306,7 @@
         <v>144</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J15" s="24" t="s">
         <v>276</v>
@@ -3331,7 +3330,7 @@
         <v>130</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J16" s="24" t="s">
         <v>277</v>
@@ -3352,10 +3351,10 @@
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="27" t="s">
+        <v>372</v>
+      </c>
+      <c r="H17" s="26" t="s">
         <v>373</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>374</v>
       </c>
       <c r="J17" s="24" t="s">
         <v>278</v>
@@ -3459,7 +3458,7 @@
         <v>124</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J21" s="24" t="s">
         <v>282</v>
@@ -3467,7 +3466,7 @@
     </row>
     <row r="22" spans="1:11" s="29" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B22" s="27">
         <v>17</v>
@@ -3514,7 +3513,7 @@
         <v>130</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J23" s="24" t="s">
         <v>284</v>
@@ -3540,7 +3539,7 @@
         <v>130</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J24" s="24" t="s">
         <v>285</v>
@@ -3614,7 +3613,7 @@
         <v>144</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J27" s="24" t="s">
         <v>288</v>
@@ -3625,7 +3624,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D28" s="25" t="s">
         <v>102</v>
@@ -3638,7 +3637,7 @@
         <v>130</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I28" s="24" t="s">
         <v>172</v>
@@ -3696,7 +3695,7 @@
         <v>222</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J30" s="24" t="s">
         <v>291</v>
@@ -3755,7 +3754,7 @@
         <v>293</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="33" spans="2:11" s="29" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3784,7 +3783,7 @@
         <v>294</v>
       </c>
       <c r="K33" s="29" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="34" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3818,7 +3817,7 @@
         <v>30</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D35" s="25" t="s">
         <v>102</v>
@@ -3857,7 +3856,7 @@
         <v>124</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J36" s="24" t="s">
         <v>297</v>
@@ -3883,13 +3882,13 @@
         <v>130</v>
       </c>
       <c r="H37" s="26" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J37" s="24" t="s">
         <v>298</v>
       </c>
       <c r="K37" s="24" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="38" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3918,7 +3917,7 @@
         <v>299</v>
       </c>
       <c r="K38" s="24" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="39" spans="2:11" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3941,13 +3940,13 @@
         <v>124</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J39" s="23" t="s">
         <v>300</v>
       </c>
       <c r="K39" s="23" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="40" spans="2:11" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3968,7 +3967,7 @@
         <v>124</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J40" s="23" t="s">
         <v>301</v>
@@ -4118,7 +4117,7 @@
         <v>124</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J46" s="23" t="s">
         <v>306</v>
@@ -4144,7 +4143,7 @@
         <v>124</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J47" s="23" t="s">
         <v>308</v>
@@ -4170,7 +4169,7 @@
         <v>130</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J48" s="23" t="s">
         <v>309</v>
@@ -4245,7 +4244,7 @@
         <v>130</v>
       </c>
       <c r="H51" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I51" s="24" t="s">
         <v>208</v>
@@ -4272,7 +4271,7 @@
         <v>124</v>
       </c>
       <c r="H52" s="26" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I52" s="24" t="s">
         <v>210</v>
@@ -4286,7 +4285,7 @@
         <v>48</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D53" s="27" t="s">
         <v>102</v>
@@ -4299,7 +4298,7 @@
         <v>124</v>
       </c>
       <c r="H53" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I53" s="29" t="s">
         <v>212</v>
@@ -4337,7 +4336,7 @@
         <v>50</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D55" s="21" t="s">
         <v>102</v>
@@ -4350,7 +4349,7 @@
         <v>144</v>
       </c>
       <c r="H55" s="22" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J55" s="23" t="s">
         <v>317</v>
@@ -4371,7 +4370,7 @@
       </c>
       <c r="F56" s="21"/>
       <c r="G56" s="21" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H56" s="22" t="s">
         <v>214</v>
@@ -4429,7 +4428,7 @@
         <v>144</v>
       </c>
       <c r="H58" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J58" s="23" t="s">
         <v>320</v>
@@ -4501,7 +4500,7 @@
         <v>130</v>
       </c>
       <c r="H61" s="22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J61" s="23" t="s">
         <v>326</v>
@@ -4525,7 +4524,7 @@
         <v>124</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J62" s="23" t="s">
         <v>327</v>
@@ -4549,7 +4548,7 @@
         <v>124</v>
       </c>
       <c r="H63" s="22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J63" s="23" t="s">
         <v>329</v>
@@ -4573,7 +4572,7 @@
         <v>237</v>
       </c>
       <c r="H64" s="22" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J64" s="23" t="s">
         <v>328</v>
@@ -4597,7 +4596,7 @@
         <v>144</v>
       </c>
       <c r="H65" s="22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J65" s="23" t="s">
         <v>330</v>
@@ -4605,13 +4604,13 @@
     </row>
     <row r="66" spans="1:10" s="29" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A66" s="29" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B66" s="27">
         <v>61</v>
       </c>
       <c r="C66" s="27" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D66" s="27" t="s">
         <v>102</v>
@@ -4624,7 +4623,7 @@
         <v>130</v>
       </c>
       <c r="H66" s="28" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J66" s="29" t="s">
         <v>333</v>
@@ -4632,13 +4631,13 @@
     </row>
     <row r="67" spans="1:10" s="29" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A67" s="29" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B67" s="27">
         <v>62</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D67" s="27" t="s">
         <v>103</v>
@@ -4651,7 +4650,7 @@
         <v>156</v>
       </c>
       <c r="H67" s="28" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J67" s="29" t="s">
         <v>332</v>
@@ -4659,13 +4658,13 @@
     </row>
     <row r="68" spans="1:10" s="29" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A68" s="29" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B68" s="27">
         <v>63</v>
       </c>
       <c r="C68" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D68" s="27" t="s">
         <v>102</v>
@@ -4678,36 +4677,37 @@
         <v>124</v>
       </c>
       <c r="H68" s="28" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J68" s="29" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B69" s="16">
+    <row r="69" spans="1:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B69" s="21">
         <v>64</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C69" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="D69" s="16" t="s">
+      <c r="D69" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="G69" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H69" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="J69" s="14" t="s">
+      <c r="F69" s="21"/>
+      <c r="G69" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="H69" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="J69" s="23" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B70" s="16">
         <v>65</v>
       </c>
@@ -4727,10 +4727,10 @@
         <v>130</v>
       </c>
       <c r="H70" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="J70" s="14" t="s">
         <v>337</v>
-      </c>
-      <c r="J70" s="14" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -4738,7 +4738,7 @@
         <v>66</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D71" s="16" t="s">
         <v>102</v>
@@ -4753,10 +4753,10 @@
         <v>124</v>
       </c>
       <c r="H71" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="J71" s="14" t="s">
         <v>340</v>
-      </c>
-      <c r="J71" s="14" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -4782,7 +4782,7 @@
         <v>246</v>
       </c>
       <c r="J72" s="14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -4808,7 +4808,7 @@
         <v>256</v>
       </c>
       <c r="J73" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -4834,7 +4834,7 @@
         <v>258</v>
       </c>
       <c r="J74" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -4860,7 +4860,7 @@
         <v>260</v>
       </c>
       <c r="J75" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="66" x14ac:dyDescent="0.3">
@@ -4883,7 +4883,7 @@
         <v>262</v>
       </c>
       <c r="J76" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -4909,7 +4909,7 @@
         <v>270</v>
       </c>
       <c r="J77" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -4935,7 +4935,7 @@
         <v>268</v>
       </c>
       <c r="J78" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -4943,7 +4943,7 @@
         <v>74</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D79" s="16" t="s">
         <v>101</v>
@@ -4961,7 +4961,7 @@
         <v>266</v>
       </c>
       <c r="J79" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -4987,7 +4987,7 @@
         <v>264</v>
       </c>
       <c r="J80" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="81" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5013,7 +5013,7 @@
         <v>272</v>
       </c>
       <c r="J81" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="82" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5036,7 +5036,7 @@
         <v>232</v>
       </c>
       <c r="J82" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="83" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5062,7 +5062,7 @@
         <v>233</v>
       </c>
       <c r="J83" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="84" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5070,7 +5070,7 @@
         <v>79</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D84" s="16" t="s">
         <v>102</v>
@@ -5082,10 +5082,10 @@
         <v>230</v>
       </c>
       <c r="H84" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J84" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="85" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5111,7 +5111,7 @@
         <v>243</v>
       </c>
       <c r="J85" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="86" spans="2:10" s="29" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -5119,7 +5119,7 @@
         <v>81</v>
       </c>
       <c r="C86" s="27" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D86" s="27" t="s">
         <v>102</v>
@@ -5132,7 +5132,7 @@
         <v>124</v>
       </c>
       <c r="H86" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I86" s="29" t="s">
         <v>212</v>
@@ -5143,7 +5143,7 @@
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J88" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.3">

--- a/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
+++ b/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BD4DDB-DE01-40C2-9936-F1E357989031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F494E7-F232-4DE2-BF36-DBECCF2C0570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9C64985F-4ADF-44CE-9572-0998CB538CFF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="410">
   <si>
     <t>건물</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1071,14 +1071,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>음습한 일격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, 2열 공격 적 방어력 무시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>컨셉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1766,6 +1758,19 @@
   </si>
   <si>
     <t>전열에 2공격 3회, 적에게 공격을 가할 때마다 만복도 5증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트루 데미지 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿰뚫는일격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 2열 공격 적 방어력 무시
+2연타</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2951,7 +2956,7 @@
   <dimension ref="A1:K89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3027,7 +3032,7 @@
         <v>141</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>119</v>
@@ -3044,7 +3049,7 @@
     </row>
     <row r="6" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B6" s="27">
         <v>1</v>
@@ -3074,7 +3079,7 @@
     </row>
     <row r="7" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B7" s="27">
         <v>2</v>
@@ -3177,7 +3182,7 @@
         <v>131</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J10" s="23" t="s">
         <v>139</v>
@@ -3197,7 +3202,7 @@
         <v>133</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G11" s="21" t="s">
         <v>124</v>
@@ -3226,7 +3231,7 @@
         <v>120</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G12" s="21" t="s">
         <v>124</v>
@@ -3235,7 +3240,7 @@
         <v>218</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3252,7 +3257,7 @@
         <v>120</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G13" s="21" t="s">
         <v>124</v>
@@ -3261,7 +3266,7 @@
         <v>219</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3285,7 +3290,7 @@
         <v>160</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3306,10 +3311,10 @@
         <v>144</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3330,10 +3335,10 @@
         <v>130</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3351,13 +3356,13 @@
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="27" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3374,7 +3379,7 @@
         <v>123</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G18" s="25" t="s">
         <v>144</v>
@@ -3383,7 +3388,7 @@
         <v>157</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3400,7 +3405,7 @@
         <v>123</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G19" s="25" t="s">
         <v>124</v>
@@ -3409,7 +3414,7 @@
         <v>159</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3426,7 +3431,7 @@
         <v>123</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G20" s="25" t="s">
         <v>130</v>
@@ -3435,7 +3440,7 @@
         <v>162</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -3452,21 +3457,21 @@
         <v>123</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G21" s="25" t="s">
         <v>124</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="29" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B22" s="27">
         <v>17</v>
@@ -3481,7 +3486,7 @@
         <v>123</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G22" s="27" t="s">
         <v>124</v>
@@ -3490,7 +3495,7 @@
         <v>165</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -3507,16 +3512,16 @@
         <v>123</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G23" s="25" t="s">
         <v>130</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3533,16 +3538,16 @@
         <v>123</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G24" s="25" t="s">
         <v>130</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J24" s="24" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3566,7 +3571,7 @@
         <v>169</v>
       </c>
       <c r="J25" s="24" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3590,7 +3595,7 @@
         <v>170</v>
       </c>
       <c r="J26" s="24" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3607,16 +3612,16 @@
         <v>175</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G27" s="25" t="s">
         <v>144</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3624,7 +3629,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D28" s="25" t="s">
         <v>102</v>
@@ -3637,13 +3642,13 @@
         <v>130</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I28" s="24" t="s">
         <v>172</v>
       </c>
       <c r="J28" s="24" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3660,7 +3665,7 @@
         <v>175</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G29" s="25" t="s">
         <v>144</v>
@@ -3669,7 +3674,7 @@
         <v>223</v>
       </c>
       <c r="J29" s="24" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3686,7 +3691,7 @@
         <v>175</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G30" s="25" t="s">
         <v>130</v>
@@ -3695,10 +3700,10 @@
         <v>222</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3715,7 +3720,7 @@
         <v>175</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G31" s="25" t="s">
         <v>124</v>
@@ -3727,7 +3732,7 @@
         <v>180</v>
       </c>
       <c r="J31" s="24" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="29" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3751,10 +3756,10 @@
         <v>182</v>
       </c>
       <c r="J32" s="29" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="33" spans="2:11" s="29" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3771,19 +3776,19 @@
         <v>123</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G33" s="27" t="s">
         <v>130</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K33" s="29" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="34" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3800,7 +3805,7 @@
         <v>123</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G34" s="25" t="s">
         <v>124</v>
@@ -3809,7 +3814,7 @@
         <v>185</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="35" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3817,7 +3822,7 @@
         <v>30</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D35" s="25" t="s">
         <v>102</v>
@@ -3826,7 +3831,7 @@
         <v>175</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G35" s="25" t="s">
         <v>130</v>
@@ -3835,7 +3840,7 @@
         <v>186</v>
       </c>
       <c r="J35" s="24" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="36" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3856,10 +3861,10 @@
         <v>124</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J36" s="24" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37" spans="2:11" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -3876,19 +3881,19 @@
         <v>120</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G37" s="25" t="s">
         <v>130</v>
       </c>
       <c r="H37" s="26" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="J37" s="24" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K37" s="24" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="38" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3905,7 +3910,7 @@
         <v>120</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G38" s="25" t="s">
         <v>130</v>
@@ -3914,10 +3919,10 @@
         <v>220</v>
       </c>
       <c r="J38" s="24" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K38" s="24" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="39" spans="2:11" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3934,19 +3939,19 @@
         <v>123</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G39" s="21" t="s">
         <v>124</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J39" s="23" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K39" s="23" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="40" spans="2:11" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3967,10 +3972,10 @@
         <v>124</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="J40" s="23" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="41" spans="2:11" s="29" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
@@ -3987,7 +3992,7 @@
         <v>123</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G41" s="27" t="s">
         <v>130</v>
@@ -3996,7 +4001,7 @@
         <v>227</v>
       </c>
       <c r="J41" s="29" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="2:11" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4004,7 +4009,7 @@
         <v>37</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D42" s="21" t="s">
         <v>103</v>
@@ -4020,7 +4025,7 @@
         <v>193</v>
       </c>
       <c r="J42" s="23" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4044,7 +4049,7 @@
         <v>195</v>
       </c>
       <c r="J43" s="23" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="44" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4068,7 +4073,7 @@
         <v>197</v>
       </c>
       <c r="J44" s="23" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="45" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4085,7 +4090,7 @@
         <v>120</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G45" s="21" t="s">
         <v>124</v>
@@ -4094,7 +4099,7 @@
         <v>202</v>
       </c>
       <c r="J45" s="23" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="46" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4111,16 +4116,16 @@
         <v>120</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G46" s="21" t="s">
         <v>124</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J46" s="23" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="47" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4137,16 +4142,16 @@
         <v>120</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G47" s="21" t="s">
         <v>124</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J47" s="23" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="48" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4163,16 +4168,16 @@
         <v>120</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G48" s="21" t="s">
         <v>130</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="J48" s="23" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="49" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4196,7 +4201,7 @@
         <v>204</v>
       </c>
       <c r="J49" s="23" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="50" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -4223,7 +4228,7 @@
         <v>206</v>
       </c>
       <c r="J50" s="24" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="51" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -4244,13 +4249,13 @@
         <v>130</v>
       </c>
       <c r="H51" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I51" s="24" t="s">
         <v>208</v>
       </c>
       <c r="J51" s="24" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="52" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -4271,13 +4276,13 @@
         <v>124</v>
       </c>
       <c r="H52" s="26" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I52" s="24" t="s">
         <v>210</v>
       </c>
       <c r="J52" s="24" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="53" spans="2:10" s="29" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -4285,7 +4290,7 @@
         <v>48</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D53" s="27" t="s">
         <v>102</v>
@@ -4298,13 +4303,13 @@
         <v>124</v>
       </c>
       <c r="H53" s="28" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I53" s="29" t="s">
         <v>212</v>
       </c>
       <c r="J53" s="29" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="54" spans="2:10" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -4312,7 +4317,7 @@
         <v>49</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D54" s="21" t="s">
         <v>103</v>
@@ -4325,10 +4330,10 @@
         <v>156</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J54" s="23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="55" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4336,7 +4341,7 @@
         <v>50</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D55" s="21" t="s">
         <v>102</v>
@@ -4349,10 +4354,10 @@
         <v>144</v>
       </c>
       <c r="H55" s="22" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="J55" s="23" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="56" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4370,13 +4375,13 @@
       </c>
       <c r="F56" s="21"/>
       <c r="G56" s="21" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H56" s="22" t="s">
         <v>214</v>
       </c>
       <c r="J56" s="23" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="57" spans="2:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4393,7 +4398,7 @@
         <v>175</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G57" s="21" t="s">
         <v>130</v>
@@ -4405,7 +4410,7 @@
         <v>217</v>
       </c>
       <c r="J57" s="23" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="58" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4428,10 +4433,10 @@
         <v>144</v>
       </c>
       <c r="H58" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="J58" s="23" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="59" spans="2:10" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -4455,7 +4460,7 @@
         <v>238</v>
       </c>
       <c r="J59" s="23" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="60" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4463,7 +4468,7 @@
         <v>55</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D60" s="21" t="s">
         <v>102</v>
@@ -4476,10 +4481,10 @@
         <v>130</v>
       </c>
       <c r="H60" s="22" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J60" s="23" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="61" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4500,10 +4505,10 @@
         <v>130</v>
       </c>
       <c r="H61" s="22" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="J61" s="23" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="62" spans="2:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4524,10 +4529,10 @@
         <v>124</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="J62" s="23" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="63" spans="2:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4548,10 +4553,10 @@
         <v>124</v>
       </c>
       <c r="H63" s="22" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J63" s="23" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="64" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4559,7 +4564,7 @@
         <v>59</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D64" s="21" t="s">
         <v>102</v>
@@ -4572,10 +4577,10 @@
         <v>237</v>
       </c>
       <c r="H64" s="22" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J64" s="23" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="65" spans="1:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4596,21 +4601,21 @@
         <v>144</v>
       </c>
       <c r="H65" s="22" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="J65" s="23" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="66" spans="1:10" s="29" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A66" s="29" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B66" s="27">
         <v>61</v>
       </c>
       <c r="C66" s="27" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D66" s="27" t="s">
         <v>102</v>
@@ -4623,21 +4628,21 @@
         <v>130</v>
       </c>
       <c r="H66" s="28" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J66" s="29" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="67" spans="1:10" s="29" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A67" s="29" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B67" s="27">
         <v>62</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D67" s="27" t="s">
         <v>103</v>
@@ -4650,21 +4655,21 @@
         <v>156</v>
       </c>
       <c r="H67" s="28" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J67" s="29" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="68" spans="1:10" s="29" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A68" s="29" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B68" s="27">
         <v>63</v>
       </c>
       <c r="C68" s="27" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D68" s="27" t="s">
         <v>102</v>
@@ -4677,10 +4682,10 @@
         <v>124</v>
       </c>
       <c r="H68" s="28" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="J68" s="29" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="69" spans="1:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4688,7 +4693,7 @@
         <v>64</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D69" s="21" t="s">
         <v>102</v>
@@ -4701,140 +4706,143 @@
         <v>144</v>
       </c>
       <c r="H69" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="J69" s="23" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="21">
+        <v>65</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="D70" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E70" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F70" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G70" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="H70" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="J70" s="23" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="21">
+        <v>66</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="D71" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E71" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F71" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G71" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="H71" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="J71" s="23" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="29" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A72" s="29" t="s">
         <v>407</v>
       </c>
-      <c r="J69" s="23" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B70" s="16">
-        <v>65</v>
-      </c>
-      <c r="C70" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="D70" s="16" t="s">
+      <c r="B72" s="27">
+        <v>67</v>
+      </c>
+      <c r="C72" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="D72" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="E72" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="F72" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="G72" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="H72" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="J72" s="29" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="21">
+        <v>68</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E73" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="F73" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G73" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="H73" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="J73" s="23" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="21">
+        <v>69</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="D74" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="E70" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="F70" s="16" t="s">
+      <c r="E74" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="F74" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="G70" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="H70" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="J70" s="14" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B71" s="16">
-        <v>66</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="D71" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="E71" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="F71" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="G71" s="16" t="s">
+      <c r="G74" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="H71" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="J71" s="14" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B72" s="16">
-        <v>67</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="D72" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="E72" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="F72" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="G72" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="H72" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J72" s="14" t="s">
+      <c r="H74" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="J74" s="23" t="s">
         <v>341</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B73" s="16">
-        <v>68</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="D73" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="E73" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="F73" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="G73" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H73" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="J73" s="14" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B74" s="16">
-        <v>69</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="D74" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="F74" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="G74" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H74" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="J74" s="14" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -4842,7 +4850,7 @@
         <v>70</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D75" s="16" t="s">
         <v>103</v>
@@ -4857,10 +4865,10 @@
         <v>124</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J75" s="14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="66" x14ac:dyDescent="0.3">
@@ -4868,7 +4876,7 @@
         <v>71</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D76" s="16" t="s">
         <v>103</v>
@@ -4880,10 +4888,10 @@
         <v>156</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J76" s="14" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -4891,7 +4899,7 @@
         <v>72</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D77" s="16" t="s">
         <v>101</v>
@@ -4900,16 +4908,16 @@
         <v>123</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G77" s="16" t="s">
         <v>124</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J77" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -4917,7 +4925,7 @@
         <v>73</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D78" s="16" t="s">
         <v>102</v>
@@ -4926,16 +4934,16 @@
         <v>123</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G78" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J78" s="14" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -4943,7 +4951,7 @@
         <v>74</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D79" s="16" t="s">
         <v>101</v>
@@ -4952,16 +4960,16 @@
         <v>175</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G79" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J79" s="14" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -4969,7 +4977,7 @@
         <v>75</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D80" s="16" t="s">
         <v>102</v>
@@ -4978,16 +4986,16 @@
         <v>175</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G80" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J80" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="81" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -4995,7 +5003,7 @@
         <v>76</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D81" s="16" t="s">
         <v>102</v>
@@ -5004,16 +5012,16 @@
         <v>120</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G81" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J81" s="14" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="82" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5036,7 +5044,7 @@
         <v>232</v>
       </c>
       <c r="J82" s="14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="83" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5053,7 +5061,7 @@
         <v>229</v>
       </c>
       <c r="F83" s="16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G83" s="16" t="s">
         <v>230</v>
@@ -5062,7 +5070,7 @@
         <v>233</v>
       </c>
       <c r="J83" s="14" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="84" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5070,7 +5078,7 @@
         <v>79</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D84" s="16" t="s">
         <v>102</v>
@@ -5082,10 +5090,10 @@
         <v>230</v>
       </c>
       <c r="H84" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="J84" s="14" t="s">
         <v>354</v>
-      </c>
-      <c r="J84" s="14" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="85" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5102,7 +5110,7 @@
         <v>229</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G85" s="16" t="s">
         <v>234</v>
@@ -5111,7 +5119,7 @@
         <v>243</v>
       </c>
       <c r="J85" s="14" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="86" spans="2:10" s="29" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -5119,7 +5127,7 @@
         <v>81</v>
       </c>
       <c r="C86" s="27" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D86" s="27" t="s">
         <v>102</v>
@@ -5132,18 +5140,18 @@
         <v>124</v>
       </c>
       <c r="H86" s="28" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I86" s="29" t="s">
         <v>212</v>
       </c>
       <c r="J86" s="29" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J88" s="14" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.3">

--- a/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
+++ b/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F494E7-F232-4DE2-BF36-DBECCF2C0570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F10C2CF-DBDE-45F8-B4D3-3B2F3B43D557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9C64985F-4ADF-44CE-9572-0998CB538CFF}"/>
   </bookViews>
@@ -1103,22 +1103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>어둠의 장막</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 아군의 방어력 3 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어둠의 비수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 아군의 공격력 2 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>역류 급여</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1130,13 +1114,6 @@
   </si>
   <si>
     <t>완전 소화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>만복도 - 60
-5턴간 루시의 방어력 10 증가 
-5턴간 루시의 힘 5 증가
-소화 불량 카드 1장 삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1771,6 +1748,31 @@
   <si>
     <t>1, 2열 공격 적 방어력 무시
 2연타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만복도 - 60
+5턴간 루시의 방어력 10 증가 
+5턴간 루시의 힘 5 증가
+소화 불량 카드 3장 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마왕의장막</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마왕의비수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 아군의 방어력 3 증가
+2턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 아군의 공격력 2 증가
+2턴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2955,8 +2957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E337946-5511-4AD1-8A21-3FB7BE6153D1}">
   <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3049,7 +3051,7 @@
     </row>
     <row r="6" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B6" s="27">
         <v>1</v>
@@ -3079,7 +3081,7 @@
     </row>
     <row r="7" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B7" s="27">
         <v>2</v>
@@ -3182,7 +3184,7 @@
         <v>131</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="J10" s="23" t="s">
         <v>139</v>
@@ -3240,7 +3242,7 @@
         <v>218</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3266,7 +3268,7 @@
         <v>219</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3290,7 +3292,7 @@
         <v>160</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3311,10 +3313,10 @@
         <v>144</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3335,10 +3337,10 @@
         <v>130</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3356,13 +3358,13 @@
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="27" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3388,7 +3390,7 @@
         <v>157</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3414,7 +3416,7 @@
         <v>159</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3440,7 +3442,7 @@
         <v>162</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -3463,15 +3465,15 @@
         <v>124</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="29" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B22" s="27">
         <v>17</v>
@@ -3495,7 +3497,7 @@
         <v>165</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -3518,10 +3520,10 @@
         <v>130</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3544,10 +3546,10 @@
         <v>130</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="J24" s="24" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3571,7 +3573,7 @@
         <v>169</v>
       </c>
       <c r="J25" s="24" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3595,7 +3597,7 @@
         <v>170</v>
       </c>
       <c r="J26" s="24" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3618,10 +3620,10 @@
         <v>144</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3629,7 +3631,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D28" s="25" t="s">
         <v>102</v>
@@ -3642,13 +3644,13 @@
         <v>130</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="I28" s="24" t="s">
         <v>172</v>
       </c>
       <c r="J28" s="24" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3674,7 +3676,7 @@
         <v>223</v>
       </c>
       <c r="J29" s="24" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3700,10 +3702,10 @@
         <v>222</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3732,7 +3734,7 @@
         <v>180</v>
       </c>
       <c r="J31" s="24" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="29" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3756,10 +3758,10 @@
         <v>182</v>
       </c>
       <c r="J32" s="29" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="33" spans="2:11" s="29" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3785,10 +3787,10 @@
         <v>251</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="K33" s="29" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="34" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3814,7 +3816,7 @@
         <v>185</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3822,7 +3824,7 @@
         <v>30</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D35" s="25" t="s">
         <v>102</v>
@@ -3840,7 +3842,7 @@
         <v>186</v>
       </c>
       <c r="J35" s="24" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3861,10 +3863,10 @@
         <v>124</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="J36" s="24" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37" spans="2:11" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -3887,13 +3889,13 @@
         <v>130</v>
       </c>
       <c r="H37" s="26" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="J37" s="24" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="K37" s="24" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="38" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3919,10 +3921,10 @@
         <v>220</v>
       </c>
       <c r="J38" s="24" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="K38" s="24" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="39" spans="2:11" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3945,13 +3947,13 @@
         <v>124</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="J39" s="23" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="K39" s="23" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="40" spans="2:11" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3972,10 +3974,10 @@
         <v>124</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="J40" s="23" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="41" spans="2:11" s="29" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
@@ -4001,7 +4003,7 @@
         <v>227</v>
       </c>
       <c r="J41" s="29" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" spans="2:11" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4025,7 +4027,7 @@
         <v>193</v>
       </c>
       <c r="J42" s="23" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4049,7 +4051,7 @@
         <v>195</v>
       </c>
       <c r="J43" s="23" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="44" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4073,7 +4075,7 @@
         <v>197</v>
       </c>
       <c r="J44" s="23" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="45" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4099,7 +4101,7 @@
         <v>202</v>
       </c>
       <c r="J45" s="23" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="46" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4122,10 +4124,10 @@
         <v>124</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="J46" s="23" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="47" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4148,10 +4150,10 @@
         <v>124</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="J47" s="23" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="48" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4174,10 +4176,10 @@
         <v>130</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="J48" s="23" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="49" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4201,7 +4203,7 @@
         <v>204</v>
       </c>
       <c r="J49" s="23" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="50" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -4228,7 +4230,7 @@
         <v>206</v>
       </c>
       <c r="J50" s="24" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="51" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -4249,13 +4251,13 @@
         <v>130</v>
       </c>
       <c r="H51" s="26" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="I51" s="24" t="s">
         <v>208</v>
       </c>
       <c r="J51" s="24" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -4276,13 +4278,13 @@
         <v>124</v>
       </c>
       <c r="H52" s="26" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="I52" s="24" t="s">
         <v>210</v>
       </c>
       <c r="J52" s="24" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="53" spans="2:10" s="29" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -4290,7 +4292,7 @@
         <v>48</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D53" s="27" t="s">
         <v>102</v>
@@ -4303,13 +4305,13 @@
         <v>124</v>
       </c>
       <c r="H53" s="28" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="I53" s="29" t="s">
         <v>212</v>
       </c>
       <c r="J53" s="29" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="54" spans="2:10" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -4317,7 +4319,7 @@
         <v>49</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D54" s="21" t="s">
         <v>103</v>
@@ -4330,10 +4332,10 @@
         <v>156</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="J54" s="23" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="55" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4341,7 +4343,7 @@
         <v>50</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D55" s="21" t="s">
         <v>102</v>
@@ -4354,10 +4356,10 @@
         <v>144</v>
       </c>
       <c r="H55" s="22" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="J55" s="23" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="56" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4375,13 +4377,13 @@
       </c>
       <c r="F56" s="21"/>
       <c r="G56" s="21" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="H56" s="22" t="s">
         <v>214</v>
       </c>
       <c r="J56" s="23" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="57" spans="2:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4410,7 +4412,7 @@
         <v>217</v>
       </c>
       <c r="J57" s="23" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="58" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4433,10 +4435,10 @@
         <v>144</v>
       </c>
       <c r="H58" s="22" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="J58" s="23" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="59" spans="2:10" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -4460,7 +4462,7 @@
         <v>238</v>
       </c>
       <c r="J59" s="23" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="60" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4468,7 +4470,7 @@
         <v>55</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D60" s="21" t="s">
         <v>102</v>
@@ -4481,10 +4483,10 @@
         <v>130</v>
       </c>
       <c r="H60" s="22" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="J60" s="23" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="61" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4505,10 +4507,10 @@
         <v>130</v>
       </c>
       <c r="H61" s="22" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="J61" s="23" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="62" spans="2:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4529,10 +4531,10 @@
         <v>124</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="J62" s="23" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="63" spans="2:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4553,10 +4555,10 @@
         <v>124</v>
       </c>
       <c r="H63" s="22" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="J63" s="23" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="64" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4564,7 +4566,7 @@
         <v>59</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D64" s="21" t="s">
         <v>102</v>
@@ -4577,10 +4579,10 @@
         <v>237</v>
       </c>
       <c r="H64" s="22" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="J64" s="23" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="65" spans="1:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4601,21 +4603,21 @@
         <v>144</v>
       </c>
       <c r="H65" s="22" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="J65" s="23" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="66" spans="1:10" s="29" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A66" s="29" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B66" s="27">
         <v>61</v>
       </c>
       <c r="C66" s="27" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D66" s="27" t="s">
         <v>102</v>
@@ -4628,21 +4630,21 @@
         <v>130</v>
       </c>
       <c r="H66" s="28" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="J66" s="29" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="67" spans="1:10" s="29" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A67" s="29" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B67" s="27">
         <v>62</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D67" s="27" t="s">
         <v>103</v>
@@ -4655,21 +4657,21 @@
         <v>156</v>
       </c>
       <c r="H67" s="28" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="J67" s="29" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="68" spans="1:10" s="29" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A68" s="29" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B68" s="27">
         <v>63</v>
       </c>
       <c r="C68" s="27" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D68" s="27" t="s">
         <v>102</v>
@@ -4682,10 +4684,10 @@
         <v>124</v>
       </c>
       <c r="H68" s="28" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="J68" s="29" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="69" spans="1:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4693,7 +4695,7 @@
         <v>64</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D69" s="21" t="s">
         <v>102</v>
@@ -4706,10 +4708,10 @@
         <v>144</v>
       </c>
       <c r="H69" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="J69" s="23" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="70" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4732,10 +4734,10 @@
         <v>130</v>
       </c>
       <c r="H70" s="22" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="J70" s="23" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="71" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4743,7 +4745,7 @@
         <v>66</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D71" s="21" t="s">
         <v>102</v>
@@ -4758,21 +4760,21 @@
         <v>124</v>
       </c>
       <c r="H71" s="22" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="J71" s="23" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="72" spans="1:10" s="29" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A72" s="29" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B72" s="27">
         <v>67</v>
       </c>
       <c r="C72" s="27" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D72" s="27" t="s">
         <v>101</v>
@@ -4787,18 +4789,18 @@
         <v>130</v>
       </c>
       <c r="H72" s="28" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="J72" s="29" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="B73" s="21">
         <v>68</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>253</v>
+        <v>406</v>
       </c>
       <c r="D73" s="21" t="s">
         <v>101</v>
@@ -4813,18 +4815,18 @@
         <v>124</v>
       </c>
       <c r="H73" s="22" t="s">
-        <v>254</v>
+        <v>408</v>
       </c>
       <c r="J73" s="23" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="B74" s="21">
         <v>69</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>255</v>
+        <v>407</v>
       </c>
       <c r="D74" s="21" t="s">
         <v>102</v>
@@ -4839,10 +4841,10 @@
         <v>124</v>
       </c>
       <c r="H74" s="22" t="s">
-        <v>256</v>
+        <v>409</v>
       </c>
       <c r="J74" s="23" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -4850,7 +4852,7 @@
         <v>70</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D75" s="16" t="s">
         <v>103</v>
@@ -4865,10 +4867,10 @@
         <v>124</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="J75" s="14" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="66" x14ac:dyDescent="0.3">
@@ -4876,7 +4878,7 @@
         <v>71</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D76" s="16" t="s">
         <v>103</v>
@@ -4888,10 +4890,10 @@
         <v>156</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>260</v>
+        <v>405</v>
       </c>
       <c r="J76" s="14" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -4899,7 +4901,7 @@
         <v>72</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D77" s="16" t="s">
         <v>101</v>
@@ -4914,10 +4916,10 @@
         <v>124</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="J77" s="14" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -4925,7 +4927,7 @@
         <v>73</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D78" s="16" t="s">
         <v>102</v>
@@ -4940,10 +4942,10 @@
         <v>130</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="J78" s="14" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -4951,7 +4953,7 @@
         <v>74</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D79" s="16" t="s">
         <v>101</v>
@@ -4966,10 +4968,10 @@
         <v>130</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="J79" s="14" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -4977,7 +4979,7 @@
         <v>75</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D80" s="16" t="s">
         <v>102</v>
@@ -4986,16 +4988,16 @@
         <v>175</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G80" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="J80" s="14" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="81" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5003,7 +5005,7 @@
         <v>76</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D81" s="16" t="s">
         <v>102</v>
@@ -5018,10 +5020,10 @@
         <v>130</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="J81" s="14" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="82" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5044,7 +5046,7 @@
         <v>232</v>
       </c>
       <c r="J82" s="14" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="83" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5070,7 +5072,7 @@
         <v>233</v>
       </c>
       <c r="J83" s="14" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="84" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5078,7 +5080,7 @@
         <v>79</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D84" s="16" t="s">
         <v>102</v>
@@ -5090,10 +5092,10 @@
         <v>230</v>
       </c>
       <c r="H84" s="15" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="J84" s="14" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="85" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5119,7 +5121,7 @@
         <v>243</v>
       </c>
       <c r="J85" s="14" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="86" spans="2:10" s="29" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -5127,7 +5129,7 @@
         <v>81</v>
       </c>
       <c r="C86" s="27" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D86" s="27" t="s">
         <v>102</v>
@@ -5140,18 +5142,18 @@
         <v>124</v>
       </c>
       <c r="H86" s="28" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="I86" s="29" t="s">
         <v>212</v>
       </c>
       <c r="J86" s="29" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J88" s="14" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.3">

--- a/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
+++ b/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F10C2CF-DBDE-45F8-B4D3-3B2F3B43D557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8A0FB9-8366-43E7-A7E0-99C26E284E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9C64985F-4ADF-44CE-9572-0998CB538CFF}"/>
   </bookViews>
@@ -1103,16 +1103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>역류 급여</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>만복도 - 30
-모든 아군 체력 회복 5
-구토 한번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>완전 소화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1138,15 +1128,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">적 전체 공격, 적 전체 방어력 0으로 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>부패의 숨결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">적 후열 공격, 후열 3턴간 약화 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1751,13 +1733,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>만복도 - 60
-5턴간 루시의 방어력 10 증가 
-5턴간 루시의 힘 5 증가
-소화 불량 카드 3장 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마왕의장막</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1773,6 +1748,29 @@
   <si>
     <t>모든 아군의 공격력 2 증가
 2턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">만복도 - 50
+모든 아군 체력 회복 5
+모든 아군 방어력 20증가 1턴 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마왕의가호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만복도 100
+소화 불량 카드 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">모든 적 방어력 파괴, 2턴간 지속 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">모든 적 방어력 파괴, 2턴간 지속, 모든 적 2 공격 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2957,8 +2955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E337946-5511-4AD1-8A21-3FB7BE6153D1}">
   <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3051,7 +3049,7 @@
     </row>
     <row r="6" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B6" s="27">
         <v>1</v>
@@ -3081,7 +3079,7 @@
     </row>
     <row r="7" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B7" s="27">
         <v>2</v>
@@ -3184,7 +3182,7 @@
         <v>131</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="J10" s="23" t="s">
         <v>139</v>
@@ -3242,7 +3240,7 @@
         <v>218</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3268,7 +3266,7 @@
         <v>219</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3292,7 +3290,7 @@
         <v>160</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3313,10 +3311,10 @@
         <v>144</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3337,10 +3335,10 @@
         <v>130</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3358,13 +3356,13 @@
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="27" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3390,7 +3388,7 @@
         <v>157</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3416,7 +3414,7 @@
         <v>159</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3442,7 +3440,7 @@
         <v>162</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -3465,15 +3463,15 @@
         <v>124</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="29" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B22" s="27">
         <v>17</v>
@@ -3497,7 +3495,7 @@
         <v>165</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -3520,10 +3518,10 @@
         <v>130</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3546,10 +3544,10 @@
         <v>130</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="J24" s="24" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3573,7 +3571,7 @@
         <v>169</v>
       </c>
       <c r="J25" s="24" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3597,7 +3595,7 @@
         <v>170</v>
       </c>
       <c r="J26" s="24" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3620,10 +3618,10 @@
         <v>144</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3631,7 +3629,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D28" s="25" t="s">
         <v>102</v>
@@ -3644,13 +3642,13 @@
         <v>130</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="I28" s="24" t="s">
         <v>172</v>
       </c>
       <c r="J28" s="24" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3676,7 +3674,7 @@
         <v>223</v>
       </c>
       <c r="J29" s="24" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3702,10 +3700,10 @@
         <v>222</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3734,7 +3732,7 @@
         <v>180</v>
       </c>
       <c r="J31" s="24" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="29" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3758,10 +3756,10 @@
         <v>182</v>
       </c>
       <c r="J32" s="29" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="33" spans="2:11" s="29" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3787,10 +3785,10 @@
         <v>251</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K33" s="29" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="34" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3816,7 +3814,7 @@
         <v>185</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3824,7 +3822,7 @@
         <v>30</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D35" s="25" t="s">
         <v>102</v>
@@ -3842,7 +3840,7 @@
         <v>186</v>
       </c>
       <c r="J35" s="24" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3863,10 +3861,10 @@
         <v>124</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="J36" s="24" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="37" spans="2:11" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -3889,13 +3887,13 @@
         <v>130</v>
       </c>
       <c r="H37" s="26" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="J37" s="24" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="K37" s="24" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="38" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3921,10 +3919,10 @@
         <v>220</v>
       </c>
       <c r="J38" s="24" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K38" s="24" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="39" spans="2:11" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3947,13 +3945,13 @@
         <v>124</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J39" s="23" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K39" s="23" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="40" spans="2:11" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3974,10 +3972,10 @@
         <v>124</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="J40" s="23" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41" spans="2:11" s="29" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
@@ -4003,7 +4001,7 @@
         <v>227</v>
       </c>
       <c r="J41" s="29" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42" spans="2:11" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4027,7 +4025,7 @@
         <v>193</v>
       </c>
       <c r="J42" s="23" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="43" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4051,7 +4049,7 @@
         <v>195</v>
       </c>
       <c r="J43" s="23" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="44" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4075,7 +4073,7 @@
         <v>197</v>
       </c>
       <c r="J44" s="23" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="45" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4101,7 +4099,7 @@
         <v>202</v>
       </c>
       <c r="J45" s="23" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="46" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4124,10 +4122,10 @@
         <v>124</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="J46" s="23" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="47" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4150,10 +4148,10 @@
         <v>124</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="J47" s="23" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="48" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4176,10 +4174,10 @@
         <v>130</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="J48" s="23" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="49" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4203,7 +4201,7 @@
         <v>204</v>
       </c>
       <c r="J49" s="23" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="50" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -4230,7 +4228,7 @@
         <v>206</v>
       </c>
       <c r="J50" s="24" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="51" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -4251,13 +4249,13 @@
         <v>130</v>
       </c>
       <c r="H51" s="26" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="I51" s="24" t="s">
         <v>208</v>
       </c>
       <c r="J51" s="24" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="52" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -4278,13 +4276,13 @@
         <v>124</v>
       </c>
       <c r="H52" s="26" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="I52" s="24" t="s">
         <v>210</v>
       </c>
       <c r="J52" s="24" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="53" spans="2:10" s="29" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -4292,7 +4290,7 @@
         <v>48</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D53" s="27" t="s">
         <v>102</v>
@@ -4305,13 +4303,13 @@
         <v>124</v>
       </c>
       <c r="H53" s="28" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I53" s="29" t="s">
         <v>212</v>
       </c>
       <c r="J53" s="29" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="54" spans="2:10" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -4319,7 +4317,7 @@
         <v>49</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D54" s="21" t="s">
         <v>103</v>
@@ -4332,10 +4330,10 @@
         <v>156</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J54" s="23" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="55" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4343,7 +4341,7 @@
         <v>50</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D55" s="21" t="s">
         <v>102</v>
@@ -4356,10 +4354,10 @@
         <v>144</v>
       </c>
       <c r="H55" s="22" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="J55" s="23" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="56" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4377,13 +4375,13 @@
       </c>
       <c r="F56" s="21"/>
       <c r="G56" s="21" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H56" s="22" t="s">
         <v>214</v>
       </c>
       <c r="J56" s="23" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="57" spans="2:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4412,7 +4410,7 @@
         <v>217</v>
       </c>
       <c r="J57" s="23" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="58" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4435,10 +4433,10 @@
         <v>144</v>
       </c>
       <c r="H58" s="22" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="J58" s="23" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="59" spans="2:10" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -4462,7 +4460,7 @@
         <v>238</v>
       </c>
       <c r="J59" s="23" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="60" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4470,7 +4468,7 @@
         <v>55</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D60" s="21" t="s">
         <v>102</v>
@@ -4483,10 +4481,10 @@
         <v>130</v>
       </c>
       <c r="H60" s="22" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="J60" s="23" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="61" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4507,10 +4505,10 @@
         <v>130</v>
       </c>
       <c r="H61" s="22" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="J61" s="23" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="62" spans="2:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4531,10 +4529,10 @@
         <v>124</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="J62" s="23" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="63" spans="2:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4555,10 +4553,10 @@
         <v>124</v>
       </c>
       <c r="H63" s="22" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J63" s="23" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="64" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4566,7 +4564,7 @@
         <v>59</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D64" s="21" t="s">
         <v>102</v>
@@ -4579,10 +4577,10 @@
         <v>237</v>
       </c>
       <c r="H64" s="22" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="J64" s="23" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="65" spans="1:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4603,21 +4601,21 @@
         <v>144</v>
       </c>
       <c r="H65" s="22" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="J65" s="23" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="66" spans="1:10" s="29" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A66" s="29" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B66" s="27">
         <v>61</v>
       </c>
       <c r="C66" s="27" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D66" s="27" t="s">
         <v>102</v>
@@ -4630,21 +4628,21 @@
         <v>130</v>
       </c>
       <c r="H66" s="28" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="J66" s="29" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="67" spans="1:10" s="29" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A67" s="29" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B67" s="27">
         <v>62</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D67" s="27" t="s">
         <v>103</v>
@@ -4657,21 +4655,21 @@
         <v>156</v>
       </c>
       <c r="H67" s="28" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="J67" s="29" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="68" spans="1:10" s="29" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A68" s="29" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B68" s="27">
         <v>63</v>
       </c>
       <c r="C68" s="27" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D68" s="27" t="s">
         <v>102</v>
@@ -4684,10 +4682,10 @@
         <v>124</v>
       </c>
       <c r="H68" s="28" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J68" s="29" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="69" spans="1:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4695,7 +4693,7 @@
         <v>64</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D69" s="21" t="s">
         <v>102</v>
@@ -4708,10 +4706,10 @@
         <v>144</v>
       </c>
       <c r="H69" s="22" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="J69" s="23" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="70" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4734,10 +4732,10 @@
         <v>130</v>
       </c>
       <c r="H70" s="22" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="J70" s="23" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="71" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4745,7 +4743,7 @@
         <v>66</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D71" s="21" t="s">
         <v>102</v>
@@ -4760,21 +4758,21 @@
         <v>124</v>
       </c>
       <c r="H71" s="22" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J71" s="23" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="72" spans="1:10" s="29" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A72" s="29" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B72" s="27">
         <v>67</v>
       </c>
       <c r="C72" s="27" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D72" s="27" t="s">
         <v>101</v>
@@ -4789,10 +4787,10 @@
         <v>130</v>
       </c>
       <c r="H72" s="28" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="J72" s="29" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="73" spans="1:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4800,7 +4798,7 @@
         <v>68</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D73" s="21" t="s">
         <v>101</v>
@@ -4815,10 +4813,10 @@
         <v>124</v>
       </c>
       <c r="H73" s="22" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="J73" s="23" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="74" spans="1:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4826,7 +4824,7 @@
         <v>69</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D74" s="21" t="s">
         <v>102</v>
@@ -4841,111 +4839,112 @@
         <v>124</v>
       </c>
       <c r="H74" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="J74" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B75" s="21">
+        <v>70</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="D75" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E75" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F75" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G75" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="H75" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="J75" s="23" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B76" s="21">
+        <v>71</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="D76" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E76" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="H76" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="J76" s="23" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="21">
+        <v>72</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D77" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E77" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F77" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="G77" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="H77" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="J77" s="23" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="21">
+        <v>73</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="D78" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E78" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F78" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="G78" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="H78" s="22" t="s">
         <v>409</v>
       </c>
-      <c r="J74" s="23" t="s">
+      <c r="J78" s="23" t="s">
         <v>336</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B75" s="16">
-        <v>70</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="D75" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E75" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="F75" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="G75" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H75" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="J75" s="14" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="B76" s="16">
-        <v>71</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="D76" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E76" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="G76" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="H76" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="J76" s="14" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B77" s="16">
-        <v>72</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="D77" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="E77" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="F77" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="G77" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H77" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="J77" s="14" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B78" s="16">
-        <v>73</v>
-      </c>
-      <c r="C78" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="D78" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="E78" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="F78" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="G78" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="H78" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="J78" s="14" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -4953,7 +4952,7 @@
         <v>74</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D79" s="16" t="s">
         <v>101</v>
@@ -4968,10 +4967,10 @@
         <v>130</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J79" s="14" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -4979,7 +4978,7 @@
         <v>75</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D80" s="16" t="s">
         <v>102</v>
@@ -4988,16 +4987,16 @@
         <v>175</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G80" s="16" t="s">
         <v>130</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J80" s="14" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="81" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5005,7 +5004,7 @@
         <v>76</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D81" s="16" t="s">
         <v>102</v>
@@ -5020,10 +5019,10 @@
         <v>130</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="J81" s="14" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="82" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5046,7 +5045,7 @@
         <v>232</v>
       </c>
       <c r="J82" s="14" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="83" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5072,7 +5071,7 @@
         <v>233</v>
       </c>
       <c r="J83" s="14" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="84" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5080,7 +5079,7 @@
         <v>79</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D84" s="16" t="s">
         <v>102</v>
@@ -5092,10 +5091,10 @@
         <v>230</v>
       </c>
       <c r="H84" s="15" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="J84" s="14" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="85" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5121,7 +5120,7 @@
         <v>243</v>
       </c>
       <c r="J85" s="14" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="86" spans="2:10" s="29" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -5129,7 +5128,7 @@
         <v>81</v>
       </c>
       <c r="C86" s="27" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D86" s="27" t="s">
         <v>102</v>
@@ -5142,18 +5141,18 @@
         <v>124</v>
       </c>
       <c r="H86" s="28" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I86" s="29" t="s">
         <v>212</v>
       </c>
       <c r="J86" s="29" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J88" s="14" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.3">

--- a/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
+++ b/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8A0FB9-8366-43E7-A7E0-99C26E284E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E3DC35-3D67-4A16-B1E6-4EEE5F574B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9C64985F-4ADF-44CE-9572-0998CB538CFF}"/>
   </bookViews>
@@ -1116,14 +1116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>발광 조명탄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>루시 체력 10 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>위액 분비</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1771,6 +1763,14 @@
   </si>
   <si>
     <t xml:space="preserve">모든 적 방어력 파괴, 2턴간 지속, 모든 적 2 공격 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루시 체력 5 증가, 만복도 10 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조명탄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2955,8 +2955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E337946-5511-4AD1-8A21-3FB7BE6153D1}">
   <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3049,7 +3049,7 @@
     </row>
     <row r="6" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B6" s="27">
         <v>1</v>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="7" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B7" s="27">
         <v>2</v>
@@ -3182,7 +3182,7 @@
         <v>131</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="J10" s="23" t="s">
         <v>139</v>
@@ -3240,7 +3240,7 @@
         <v>218</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3266,7 +3266,7 @@
         <v>219</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3290,7 +3290,7 @@
         <v>160</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3311,10 +3311,10 @@
         <v>144</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3335,10 +3335,10 @@
         <v>130</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3356,13 +3356,13 @@
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="27" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3388,7 +3388,7 @@
         <v>157</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3414,7 +3414,7 @@
         <v>159</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3440,7 +3440,7 @@
         <v>162</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -3463,15 +3463,15 @@
         <v>124</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="29" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B22" s="27">
         <v>17</v>
@@ -3495,7 +3495,7 @@
         <v>165</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -3518,10 +3518,10 @@
         <v>130</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3544,10 +3544,10 @@
         <v>130</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J24" s="24" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3571,7 +3571,7 @@
         <v>169</v>
       </c>
       <c r="J25" s="24" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3595,7 +3595,7 @@
         <v>170</v>
       </c>
       <c r="J26" s="24" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3618,10 +3618,10 @@
         <v>144</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3629,7 +3629,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D28" s="25" t="s">
         <v>102</v>
@@ -3642,13 +3642,13 @@
         <v>130</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I28" s="24" t="s">
         <v>172</v>
       </c>
       <c r="J28" s="24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3674,7 +3674,7 @@
         <v>223</v>
       </c>
       <c r="J29" s="24" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="24" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -3700,10 +3700,10 @@
         <v>222</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3732,7 +3732,7 @@
         <v>180</v>
       </c>
       <c r="J31" s="24" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="29" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3756,10 +3756,10 @@
         <v>182</v>
       </c>
       <c r="J32" s="29" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="33" spans="2:11" s="29" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3785,10 +3785,10 @@
         <v>251</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K33" s="29" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="34" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3814,7 +3814,7 @@
         <v>185</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3822,7 +3822,7 @@
         <v>30</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D35" s="25" t="s">
         <v>102</v>
@@ -3840,7 +3840,7 @@
         <v>186</v>
       </c>
       <c r="J35" s="24" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="36" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -3861,10 +3861,10 @@
         <v>124</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J36" s="24" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" spans="2:11" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -3887,13 +3887,13 @@
         <v>130</v>
       </c>
       <c r="H37" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="J37" s="24" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K37" s="24" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="38" spans="2:11" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3919,10 +3919,10 @@
         <v>220</v>
       </c>
       <c r="J38" s="24" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K38" s="24" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="39" spans="2:11" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3945,13 +3945,13 @@
         <v>124</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J39" s="23" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K39" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40" spans="2:11" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -3972,10 +3972,10 @@
         <v>124</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="J40" s="23" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41" spans="2:11" s="29" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
@@ -4001,7 +4001,7 @@
         <v>227</v>
       </c>
       <c r="J41" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42" spans="2:11" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4025,7 +4025,7 @@
         <v>193</v>
       </c>
       <c r="J42" s="23" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="43" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4049,7 +4049,7 @@
         <v>195</v>
       </c>
       <c r="J43" s="23" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4073,7 +4073,7 @@
         <v>197</v>
       </c>
       <c r="J44" s="23" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="45" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4099,7 +4099,7 @@
         <v>202</v>
       </c>
       <c r="J45" s="23" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="46" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4122,10 +4122,10 @@
         <v>124</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J46" s="23" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4148,10 +4148,10 @@
         <v>124</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="J47" s="23" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48" spans="2:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4174,10 +4174,10 @@
         <v>130</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J48" s="23" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="49" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4201,7 +4201,7 @@
         <v>204</v>
       </c>
       <c r="J49" s="23" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="50" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -4228,7 +4228,7 @@
         <v>206</v>
       </c>
       <c r="J50" s="24" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="51" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -4249,13 +4249,13 @@
         <v>130</v>
       </c>
       <c r="H51" s="26" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I51" s="24" t="s">
         <v>208</v>
       </c>
       <c r="J51" s="24" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="52" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -4276,13 +4276,13 @@
         <v>124</v>
       </c>
       <c r="H52" s="26" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I52" s="24" t="s">
         <v>210</v>
       </c>
       <c r="J52" s="24" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="53" spans="2:10" s="29" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -4290,7 +4290,7 @@
         <v>48</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D53" s="27" t="s">
         <v>102</v>
@@ -4303,13 +4303,13 @@
         <v>124</v>
       </c>
       <c r="H53" s="28" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I53" s="29" t="s">
         <v>212</v>
       </c>
       <c r="J53" s="29" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="54" spans="2:10" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -4317,7 +4317,7 @@
         <v>49</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D54" s="21" t="s">
         <v>103</v>
@@ -4330,10 +4330,10 @@
         <v>156</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J54" s="23" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="55" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4341,7 +4341,7 @@
         <v>50</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D55" s="21" t="s">
         <v>102</v>
@@ -4354,10 +4354,10 @@
         <v>144</v>
       </c>
       <c r="H55" s="22" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="J55" s="23" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="56" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4375,13 +4375,13 @@
       </c>
       <c r="F56" s="21"/>
       <c r="G56" s="21" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H56" s="22" t="s">
         <v>214</v>
       </c>
       <c r="J56" s="23" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="57" spans="2:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4410,7 +4410,7 @@
         <v>217</v>
       </c>
       <c r="J57" s="23" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="58" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4433,10 +4433,10 @@
         <v>144</v>
       </c>
       <c r="H58" s="22" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J58" s="23" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="59" spans="2:10" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -4460,7 +4460,7 @@
         <v>238</v>
       </c>
       <c r="J59" s="23" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="60" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4468,7 +4468,7 @@
         <v>55</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D60" s="21" t="s">
         <v>102</v>
@@ -4481,10 +4481,10 @@
         <v>130</v>
       </c>
       <c r="H60" s="22" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J60" s="23" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="61" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4505,10 +4505,10 @@
         <v>130</v>
       </c>
       <c r="H61" s="22" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J61" s="23" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="62" spans="2:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4529,10 +4529,10 @@
         <v>124</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J62" s="23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="63" spans="2:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4553,10 +4553,10 @@
         <v>124</v>
       </c>
       <c r="H63" s="22" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="J63" s="23" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="64" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4564,7 +4564,7 @@
         <v>59</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D64" s="21" t="s">
         <v>102</v>
@@ -4577,10 +4577,10 @@
         <v>237</v>
       </c>
       <c r="H64" s="22" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="J64" s="23" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="65" spans="1:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4601,21 +4601,21 @@
         <v>144</v>
       </c>
       <c r="H65" s="22" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J65" s="23" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="66" spans="1:10" s="29" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A66" s="29" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B66" s="27">
         <v>61</v>
       </c>
       <c r="C66" s="27" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D66" s="27" t="s">
         <v>102</v>
@@ -4628,21 +4628,21 @@
         <v>130</v>
       </c>
       <c r="H66" s="28" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J66" s="29" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="67" spans="1:10" s="29" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A67" s="29" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B67" s="27">
         <v>62</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D67" s="27" t="s">
         <v>103</v>
@@ -4655,21 +4655,21 @@
         <v>156</v>
       </c>
       <c r="H67" s="28" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J67" s="29" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="68" spans="1:10" s="29" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A68" s="29" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B68" s="27">
         <v>63</v>
       </c>
       <c r="C68" s="27" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D68" s="27" t="s">
         <v>102</v>
@@ -4682,10 +4682,10 @@
         <v>124</v>
       </c>
       <c r="H68" s="28" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="J68" s="29" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="69" spans="1:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4693,7 +4693,7 @@
         <v>64</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D69" s="21" t="s">
         <v>102</v>
@@ -4706,10 +4706,10 @@
         <v>144</v>
       </c>
       <c r="H69" s="22" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J69" s="23" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="70" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4732,10 +4732,10 @@
         <v>130</v>
       </c>
       <c r="H70" s="22" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J70" s="23" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="71" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4743,7 +4743,7 @@
         <v>66</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D71" s="21" t="s">
         <v>102</v>
@@ -4758,21 +4758,21 @@
         <v>124</v>
       </c>
       <c r="H71" s="22" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J71" s="23" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="72" spans="1:10" s="29" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A72" s="29" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B72" s="27">
         <v>67</v>
       </c>
       <c r="C72" s="27" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D72" s="27" t="s">
         <v>101</v>
@@ -4787,10 +4787,10 @@
         <v>130</v>
       </c>
       <c r="H72" s="28" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J72" s="29" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="73" spans="1:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4798,7 +4798,7 @@
         <v>68</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D73" s="21" t="s">
         <v>101</v>
@@ -4813,10 +4813,10 @@
         <v>124</v>
       </c>
       <c r="H73" s="22" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="J73" s="23" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="74" spans="1:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4824,7 +4824,7 @@
         <v>69</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D74" s="21" t="s">
         <v>102</v>
@@ -4839,10 +4839,10 @@
         <v>124</v>
       </c>
       <c r="H74" s="22" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J74" s="23" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="75" spans="1:10" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -4850,7 +4850,7 @@
         <v>70</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D75" s="21" t="s">
         <v>103</v>
@@ -4865,10 +4865,10 @@
         <v>130</v>
       </c>
       <c r="H75" s="22" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J75" s="23" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="76" spans="1:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4889,10 +4889,10 @@
         <v>156</v>
       </c>
       <c r="H76" s="22" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="J76" s="23" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="77" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4900,7 +4900,7 @@
         <v>72</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D77" s="21" t="s">
         <v>101</v>
@@ -4915,10 +4915,10 @@
         <v>124</v>
       </c>
       <c r="H77" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="J77" s="23" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="78" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -4926,7 +4926,7 @@
         <v>73</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D78" s="21" t="s">
         <v>102</v>
@@ -4941,62 +4941,62 @@
         <v>130</v>
       </c>
       <c r="H78" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="J78" s="23" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="21">
+        <v>74</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="D79" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E79" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="F79" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="G79" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="H79" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="J79" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B80" s="21">
+        <v>75</v>
+      </c>
+      <c r="C80" s="21" t="s">
         <v>409</v>
       </c>
-      <c r="J78" s="23" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B79" s="16">
-        <v>74</v>
-      </c>
-      <c r="C79" s="16" t="s">
+      <c r="D80" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E80" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="F80" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="G80" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="H80" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="J80" s="23" t="s">
         <v>337</v>
-      </c>
-      <c r="D79" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="E79" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="F79" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="G79" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="H79" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="J79" s="14" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B80" s="16">
-        <v>75</v>
-      </c>
-      <c r="C80" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="D80" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="E80" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="F80" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="G80" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="H80" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="J80" s="14" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="81" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5004,7 +5004,7 @@
         <v>76</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D81" s="16" t="s">
         <v>102</v>
@@ -5019,10 +5019,10 @@
         <v>130</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J81" s="14" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="82" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5045,7 +5045,7 @@
         <v>232</v>
       </c>
       <c r="J82" s="14" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="83" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5071,7 +5071,7 @@
         <v>233</v>
       </c>
       <c r="J83" s="14" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="84" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5079,7 +5079,7 @@
         <v>79</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D84" s="16" t="s">
         <v>102</v>
@@ -5091,10 +5091,10 @@
         <v>230</v>
       </c>
       <c r="H84" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="J84" s="14" t="s">
         <v>343</v>
-      </c>
-      <c r="J84" s="14" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="85" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5120,7 +5120,7 @@
         <v>243</v>
       </c>
       <c r="J85" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="86" spans="2:10" s="29" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -5128,7 +5128,7 @@
         <v>81</v>
       </c>
       <c r="C86" s="27" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D86" s="27" t="s">
         <v>102</v>
@@ -5141,18 +5141,18 @@
         <v>124</v>
       </c>
       <c r="H86" s="28" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I86" s="29" t="s">
         <v>212</v>
       </c>
       <c r="J86" s="29" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J88" s="14" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.3">

--- a/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
+++ b/Assets/ERang/Excels/0_카드 컨셉 초안.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E3DC35-3D67-4A16-B1E6-4EEE5F574B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86471991-281C-48D8-8E00-1D02FC28E96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9C64985F-4ADF-44CE-9572-0998CB538CFF}"/>
   </bookViews>
@@ -2499,6 +2499,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2508,6 +2517,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2517,17 +2565,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2536,87 +2617,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2955,8 +2955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E337946-5511-4AD1-8A21-3FB7BE6153D1}">
   <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4999,127 +4999,129 @@
         <v>337</v>
       </c>
     </row>
-    <row r="81" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B81" s="16">
+    <row r="81" spans="2:10" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B81" s="21">
         <v>76</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="C81" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="D81" s="16" t="s">
+      <c r="D81" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="E81" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="F81" s="16" t="s">
+      <c r="F81" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="G81" s="16" t="s">
+      <c r="G81" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="H81" s="15" t="s">
+      <c r="H81" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="J81" s="14" t="s">
+      <c r="J81" s="23" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="82" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B82" s="16">
+    <row r="82" spans="2:10" s="29" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B82" s="27">
         <v>77</v>
       </c>
-      <c r="C82" s="16" t="s">
+      <c r="C82" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="D82" s="16" t="s">
+      <c r="D82" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E82" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="G82" s="16" t="s">
+      <c r="F82" s="27"/>
+      <c r="G82" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="H82" s="15" t="s">
+      <c r="H82" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="J82" s="14" t="s">
+      <c r="J82" s="29" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="83" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B83" s="16">
+    <row r="83" spans="2:10" s="29" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B83" s="27">
         <v>78</v>
       </c>
-      <c r="C83" s="16" t="s">
+      <c r="C83" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="D83" s="16" t="s">
+      <c r="D83" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="E83" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="F83" s="16" t="s">
+      <c r="F83" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="G83" s="16" t="s">
+      <c r="G83" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="H83" s="15" t="s">
+      <c r="H83" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="J83" s="14" t="s">
+      <c r="J83" s="29" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="84" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B84" s="16">
+    <row r="84" spans="2:10" s="29" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B84" s="27">
         <v>79</v>
       </c>
-      <c r="C84" s="16" t="s">
+      <c r="C84" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="D84" s="16" t="s">
+      <c r="D84" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="E84" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="G84" s="16" t="s">
+      <c r="F84" s="27"/>
+      <c r="G84" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="H84" s="15" t="s">
+      <c r="H84" s="28" t="s">
         <v>341</v>
       </c>
-      <c r="J84" s="14" t="s">
+      <c r="J84" s="29" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="85" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B85" s="16">
+    <row r="85" spans="2:10" s="29" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B85" s="27">
         <v>80</v>
       </c>
-      <c r="C85" s="16" t="s">
+      <c r="C85" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="D85" s="16" t="s">
+      <c r="D85" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="E85" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="F85" s="16" t="s">
+      <c r="F85" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="G85" s="16" t="s">
+      <c r="G85" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="H85" s="15" t="s">
+      <c r="H85" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="J85" s="14" t="s">
+      <c r="J85" s="29" t="s">
         <v>344</v>
       </c>
     </row>
@@ -5204,34 +5206,34 @@
   <sheetData>
     <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="70"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="50">
         <v>1</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="F3" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="59" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -5243,11 +5245,11 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="51"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
       <c r="H4" s="1" t="s">
         <v>3</v>
       </c>
@@ -5257,11 +5259,11 @@
     </row>
     <row r="5" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="52"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
       <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
@@ -5270,22 +5272,22 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="34">
+      <c r="B6" s="37">
         <v>2</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="46" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -5296,12 +5298,12 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="35"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="1" t="s">
         <v>3</v>
       </c>
@@ -5310,12 +5312,12 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="36"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
       <c r="H8" s="7" t="s">
         <v>4</v>
       </c>
@@ -5327,19 +5329,19 @@
       <c r="B9" s="50">
         <v>3</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="58" t="s">
+      <c r="G9" s="59" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -5351,11 +5353,11 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="51"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
       <c r="H10" s="1" t="s">
         <v>3</v>
       </c>
@@ -5365,11 +5367,11 @@
     </row>
     <row r="11" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="52"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
       <c r="H11" s="2" t="s">
         <v>4</v>
       </c>
@@ -5378,22 +5380,22 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="34">
+      <c r="B12" s="37">
         <v>4</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="G12" s="46" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -5404,12 +5406,12 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="35"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
       <c r="H13" s="1" t="s">
         <v>3</v>
       </c>
@@ -5418,12 +5420,12 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="36"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
       <c r="H14" s="7" t="s">
         <v>4</v>
       </c>
@@ -5435,19 +5437,19 @@
       <c r="B15" s="50">
         <v>5</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="48" t="s">
+      <c r="E15" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="58" t="s">
+      <c r="F15" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="58" t="s">
+      <c r="G15" s="59" t="s">
         <v>31</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -5459,11 +5461,11 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="51"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
       <c r="H16" s="1" t="s">
         <v>3</v>
       </c>
@@ -5473,11 +5475,11 @@
     </row>
     <row r="17" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="52"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
       <c r="H17" s="2" t="s">
         <v>4</v>
       </c>
@@ -5486,22 +5488,22 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="34">
+      <c r="B18" s="37">
         <v>6</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="C18" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="40" t="s">
+      <c r="G18" s="46" t="s">
         <v>61</v>
       </c>
       <c r="H18" s="4" t="s">
@@ -5512,12 +5514,12 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="35"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
       <c r="H19" s="1" t="s">
         <v>3</v>
       </c>
@@ -5526,12 +5528,12 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="36"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
       <c r="H20" s="7" t="s">
         <v>4</v>
       </c>
@@ -5543,19 +5545,19 @@
       <c r="B21" s="50">
         <v>7</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="48" t="s">
+      <c r="E21" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="40" t="s">
+      <c r="G21" s="46" t="s">
         <v>66</v>
       </c>
       <c r="H21" s="4" t="s">
@@ -5567,11 +5569,11 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="51"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
       <c r="H22" s="1" t="s">
         <v>3</v>
       </c>
@@ -5581,11 +5583,11 @@
     </row>
     <row r="23" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="52"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
       <c r="H23" s="7" t="s">
         <v>4</v>
       </c>
@@ -5594,22 +5596,22 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="34">
+      <c r="B24" s="37">
         <v>8</v>
       </c>
-      <c r="C24" s="53" t="s">
+      <c r="C24" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="47" t="s">
+      <c r="D24" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F24" s="58" t="s">
+      <c r="F24" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="58" t="s">
+      <c r="G24" s="59" t="s">
         <v>95</v>
       </c>
       <c r="H24" s="3" t="s">
@@ -5620,12 +5622,12 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="35"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
       <c r="H25" s="1" t="s">
         <v>3</v>
       </c>
@@ -5634,12 +5636,12 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="36"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
       <c r="H26" s="2" t="s">
         <v>4</v>
       </c>
@@ -5651,65 +5653,65 @@
       <c r="B27" s="50">
         <v>9</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="D27" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="48" t="s">
+      <c r="E27" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="47" t="s">
+      <c r="F27" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="G27" s="47" t="s">
+      <c r="G27" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="47" t="s">
+      <c r="H27" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="I27" s="65" t="s">
+      <c r="I27" s="56" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="51"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="66"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="57"/>
     </row>
     <row r="29" spans="2:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="52"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="67"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="58"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="34">
+      <c r="B30" s="37">
         <v>10</v>
       </c>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="47" t="s">
+      <c r="D30" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="48" t="s">
+      <c r="E30" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F30" s="47" t="s">
+      <c r="F30" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="47" t="s">
+      <c r="G30" s="43" t="s">
         <v>46</v>
       </c>
       <c r="H30" s="4" t="s">
@@ -5720,12 +5722,12 @@
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="35"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
       <c r="H31" s="1" t="s">
         <v>3</v>
       </c>
@@ -5734,12 +5736,12 @@
       </c>
     </row>
     <row r="32" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="36"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
       <c r="H32" s="7" t="s">
         <v>4</v>
       </c>
@@ -5751,19 +5753,19 @@
       <c r="B33" s="50">
         <v>11</v>
       </c>
-      <c r="C33" s="64" t="s">
+      <c r="C33" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="47" t="s">
+      <c r="D33" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="48" t="s">
+      <c r="E33" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F33" s="40" t="s">
+      <c r="F33" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G33" s="43" t="s">
+      <c r="G33" s="34" t="s">
         <v>50</v>
       </c>
       <c r="H33" s="4" t="s">
@@ -5775,11 +5777,11 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="51"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
       <c r="H34" s="1" t="s">
         <v>3</v>
       </c>
@@ -5789,11 +5791,11 @@
     </row>
     <row r="35" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="52"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
       <c r="H35" s="7" t="s">
         <v>4</v>
       </c>
@@ -5802,22 +5804,22 @@
       </c>
     </row>
     <row r="36" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="34">
+      <c r="B36" s="37">
         <v>12</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="47" t="s">
+      <c r="D36" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E36" s="48" t="s">
+      <c r="E36" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F36" s="40" t="s">
+      <c r="F36" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G36" s="40" t="s">
+      <c r="G36" s="46" t="s">
         <v>84</v>
       </c>
       <c r="H36" s="4" t="s">
@@ -5828,12 +5830,12 @@
       </c>
     </row>
     <row r="37" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="35"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
       <c r="H37" s="1" t="s">
         <v>3</v>
       </c>
@@ -5842,12 +5844,12 @@
       </c>
     </row>
     <row r="38" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="36"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
       <c r="H38" s="7" t="s">
         <v>4</v>
       </c>
@@ -5859,19 +5861,19 @@
       <c r="B39" s="50">
         <v>13</v>
       </c>
-      <c r="C39" s="53" t="s">
+      <c r="C39" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="47" t="s">
+      <c r="D39" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E39" s="48" t="s">
+      <c r="E39" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F39" s="58" t="s">
+      <c r="F39" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="G39" s="63" t="s">
+      <c r="G39" s="67" t="s">
         <v>44</v>
       </c>
       <c r="H39" s="3" t="s">
@@ -5883,11 +5885,11 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="51"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
       <c r="H40" s="1" t="s">
         <v>3</v>
       </c>
@@ -5897,11 +5899,11 @@
     </row>
     <row r="41" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="52"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
       <c r="H41" s="2" t="s">
         <v>4</v>
       </c>
@@ -5910,22 +5912,22 @@
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="34">
+      <c r="B42" s="37">
         <v>14</v>
       </c>
-      <c r="C42" s="64" t="s">
+      <c r="C42" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="47" t="s">
+      <c r="D42" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E42" s="48" t="s">
+      <c r="E42" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F42" s="40" t="s">
+      <c r="F42" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G42" s="43" t="s">
+      <c r="G42" s="34" t="s">
         <v>54</v>
       </c>
       <c r="H42" s="4" t="s">
@@ -5936,12 +5938,12 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="35"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
       <c r="H43" s="1" t="s">
         <v>3</v>
       </c>
@@ -5950,12 +5952,12 @@
       </c>
     </row>
     <row r="44" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="36"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
       <c r="H44" s="7" t="s">
         <v>4</v>
       </c>
@@ -5967,19 +5969,19 @@
       <c r="B45" s="50">
         <v>15</v>
       </c>
-      <c r="C45" s="53" t="s">
+      <c r="C45" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="47" t="s">
+      <c r="D45" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E45" s="48" t="s">
+      <c r="E45" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F45" s="58" t="s">
+      <c r="F45" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="G45" s="58" t="s">
+      <c r="G45" s="59" t="s">
         <v>45</v>
       </c>
       <c r="H45" s="3" t="s">
@@ -5991,11 +5993,11 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="51"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
       <c r="H46" s="1" t="s">
         <v>3</v>
       </c>
@@ -6005,11 +6007,11 @@
     </row>
     <row r="47" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="52"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
       <c r="H47" s="2" t="s">
         <v>4</v>
       </c>
@@ -6018,22 +6020,22 @@
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="34">
+      <c r="B48" s="37">
         <v>16</v>
       </c>
-      <c r="C48" s="37" t="s">
+      <c r="C48" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="47" t="s">
+      <c r="D48" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E48" s="48" t="s">
+      <c r="E48" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F48" s="40" t="s">
+      <c r="F48" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G48" s="40" t="s">
+      <c r="G48" s="46" t="s">
         <v>56</v>
       </c>
       <c r="H48" s="4" t="s">
@@ -6044,12 +6046,12 @@
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="35"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
       <c r="H49" s="1" t="s">
         <v>3</v>
       </c>
@@ -6058,12 +6060,12 @@
       </c>
     </row>
     <row r="50" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="36"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
       <c r="H50" s="7" t="s">
         <v>4</v>
       </c>
@@ -6075,19 +6077,19 @@
       <c r="B51" s="50">
         <v>17</v>
       </c>
-      <c r="C51" s="37" t="s">
+      <c r="C51" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="47" t="s">
+      <c r="D51" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E51" s="48" t="s">
+      <c r="E51" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F51" s="40" t="s">
+      <c r="F51" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G51" s="40" t="s">
+      <c r="G51" s="46" t="s">
         <v>74</v>
       </c>
       <c r="H51" s="4" t="s">
@@ -6099,11 +6101,11 @@
     </row>
     <row r="52" spans="2:9" ht="33" x14ac:dyDescent="0.3">
       <c r="B52" s="51"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
       <c r="H52" s="1" t="s">
         <v>3</v>
       </c>
@@ -6113,11 +6115,11 @@
     </row>
     <row r="53" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="52"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
       <c r="H53" s="7" t="s">
         <v>4</v>
       </c>
@@ -6126,22 +6128,22 @@
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="34">
+      <c r="B54" s="37">
         <v>18</v>
       </c>
-      <c r="C54" s="37" t="s">
+      <c r="C54" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="47" t="s">
+      <c r="D54" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E54" s="48" t="s">
+      <c r="E54" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F54" s="40" t="s">
+      <c r="F54" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G54" s="43" t="s">
+      <c r="G54" s="34" t="s">
         <v>79</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -6152,12 +6154,12 @@
       </c>
     </row>
     <row r="55" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="35"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
       <c r="H55" s="1" t="s">
         <v>3</v>
       </c>
@@ -6166,12 +6168,12 @@
       </c>
     </row>
     <row r="56" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="36"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="42"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
       <c r="H56" s="7" t="s">
         <v>4</v>
       </c>
@@ -6183,19 +6185,19 @@
       <c r="B57" s="50">
         <v>19</v>
       </c>
-      <c r="C57" s="37" t="s">
+      <c r="C57" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="D57" s="47" t="s">
+      <c r="D57" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E57" s="48" t="s">
+      <c r="E57" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F57" s="40" t="s">
+      <c r="F57" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G57" s="40" t="s">
+      <c r="G57" s="46" t="s">
         <v>89</v>
       </c>
       <c r="H57" s="4" t="s">
@@ -6207,11 +6209,11 @@
     </row>
     <row r="58" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="51"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="48"/>
-      <c r="E58" s="48"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
       <c r="H58" s="1" t="s">
         <v>3</v>
       </c>
@@ -6221,11 +6223,11 @@
     </row>
     <row r="59" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="52"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
       <c r="H59" s="7" t="s">
         <v>4</v>
       </c>
@@ -6234,22 +6236,22 @@
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="34">
+      <c r="B60" s="37">
         <v>20</v>
       </c>
-      <c r="C60" s="68" t="s">
+      <c r="C60" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="D60" s="47" t="s">
+      <c r="D60" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E60" s="48" t="s">
+      <c r="E60" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F60" s="40" t="s">
+      <c r="F60" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G60" s="43" t="s">
+      <c r="G60" s="34" t="s">
         <v>97</v>
       </c>
       <c r="H60" s="4" t="s">
@@ -6260,12 +6262,12 @@
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="35"/>
-      <c r="C61" s="69"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="48"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="41"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
       <c r="H61" s="1" t="s">
         <v>3</v>
       </c>
@@ -6274,12 +6276,12 @@
       </c>
     </row>
     <row r="62" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="36"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="42"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
       <c r="H62" s="7" t="s">
         <v>4</v>
       </c>
@@ -6288,22 +6290,22 @@
       </c>
     </row>
     <row r="63" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="34">
+      <c r="B63" s="37">
         <v>21</v>
       </c>
-      <c r="C63" s="44" t="s">
+      <c r="C63" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="D63" s="47" t="s">
+      <c r="D63" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E63" s="47" t="s">
+      <c r="E63" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="F63" s="47" t="s">
+      <c r="F63" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="G63" s="71" t="s">
+      <c r="G63" s="47" t="s">
         <v>106</v>
       </c>
       <c r="H63" s="4" t="s">
@@ -6314,12 +6316,12 @@
       </c>
     </row>
     <row r="64" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="35"/>
-      <c r="C64" s="45"/>
-      <c r="D64" s="48"/>
-      <c r="E64" s="48"/>
-      <c r="F64" s="48"/>
-      <c r="G64" s="72"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="44"/>
+      <c r="G64" s="48"/>
       <c r="H64" s="1" t="s">
         <v>3</v>
       </c>
@@ -6328,12 +6330,12 @@
       </c>
     </row>
     <row r="65" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="36"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="73"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="73"/>
+      <c r="D65" s="45"/>
+      <c r="E65" s="45"/>
+      <c r="F65" s="45"/>
+      <c r="G65" s="49"/>
       <c r="H65" s="7" t="s">
         <v>4</v>
       </c>
@@ -6342,22 +6344,22 @@
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="34">
+      <c r="B66" s="37">
         <v>22</v>
       </c>
-      <c r="C66" s="68" t="s">
+      <c r="C66" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="D66" s="47" t="s">
+      <c r="D66" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E66" s="48" t="s">
+      <c r="E66" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F66" s="40" t="s">
+      <c r="F66" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G66" s="43" t="s">
+      <c r="G66" s="34" t="s">
         <v>97</v>
       </c>
       <c r="H66" s="4" t="s">
@@ -6368,12 +6370,12 @@
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B67" s="35"/>
-      <c r="C67" s="69"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="48"/>
-      <c r="F67" s="41"/>
-      <c r="G67" s="41"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
       <c r="H67" s="1" t="s">
         <v>3</v>
       </c>
@@ -6382,12 +6384,12 @@
       </c>
     </row>
     <row r="68" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="36"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="49"/>
-      <c r="E68" s="49"/>
-      <c r="F68" s="42"/>
-      <c r="G68" s="42"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="45"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
       <c r="H68" s="7" t="s">
         <v>4</v>
       </c>
@@ -6397,44 +6399,79 @@
     </row>
   </sheetData>
   <mergeCells count="135">
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D6:D8"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="D15:D17"/>
@@ -6459,79 +6496,44 @@
     <mergeCell ref="F15:F17"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="F18:F20"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="G57:G59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
